--- a/ha-asset/01_design/05_rootapi/設計書_5.3.アカウント情報API.xlsx
+++ b/ha-asset/01_design/05_rootapi/設計書_5.3.アカウント情報API.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-asset\01_design\05_rootapi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F133935-49AF-465F-B93E-C7341B91E052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{584060A0-1217-456C-896F-11EB76E217A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="1755" windowWidth="29040" windowHeight="16440" tabRatio="812" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1541,85 +1541,108 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1638,29 +1661,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2690,6 +2690,66 @@
     </row>
   </sheetData>
   <mergeCells count="69">
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:Z24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:Z25"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="J11:Z11"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:Z9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="J10:Z10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="J8:Z8"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:Z6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="J7:Z7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="J5:Z5"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:Z3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J4:Z4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:Z23"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:Z21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J22:Z22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:Z20"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="J18:Z18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:Z19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="J17:Z17"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="J15:Z15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="J16:Z16"/>
+    <mergeCell ref="B17:E17"/>
     <mergeCell ref="F14:I14"/>
     <mergeCell ref="J14:Z14"/>
     <mergeCell ref="B12:E12"/>
@@ -2699,66 +2759,6 @@
     <mergeCell ref="F13:I13"/>
     <mergeCell ref="J13:Z13"/>
     <mergeCell ref="B14:E14"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="J17:Z17"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="J15:Z15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="J16:Z16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:Z20"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="J18:Z18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="J19:Z19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:Z23"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:Z21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="J22:Z22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="J5:Z5"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="J3:Z3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J4:Z4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="J8:Z8"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="J6:Z6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="J7:Z7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="J11:Z11"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:Z9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="J10:Z10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:Z24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:Z25"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4488,8 +4488,8 @@
   </sheetPr>
   <dimension ref="A1:BP101"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Q20" sqref="Q20:W20"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A49" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AK31" sqref="AK31:BO31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1"/>
@@ -4928,7 +4928,7 @@
     <row r="7" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A7" s="2"/>
       <c r="B7" s="17"/>
-      <c r="C7" s="87" t="s">
+      <c r="C7" s="88" t="s">
         <v>24</v>
       </c>
       <c r="D7" s="60"/>
@@ -4936,7 +4936,7 @@
       <c r="F7" s="60"/>
       <c r="G7" s="60"/>
       <c r="H7" s="61"/>
-      <c r="I7" s="70" t="s">
+      <c r="I7" s="66" t="s">
         <v>76</v>
       </c>
       <c r="J7" s="60"/>
@@ -5002,7 +5002,7 @@
     <row r="8" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A8" s="2"/>
       <c r="B8" s="17"/>
-      <c r="C8" s="87" t="s">
+      <c r="C8" s="88" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="60"/>
@@ -5010,7 +5010,7 @@
       <c r="F8" s="60"/>
       <c r="G8" s="60"/>
       <c r="H8" s="61"/>
-      <c r="I8" s="70" t="s">
+      <c r="I8" s="66" t="s">
         <v>26</v>
       </c>
       <c r="J8" s="60"/>
@@ -5076,7 +5076,7 @@
     <row r="9" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A9" s="2"/>
       <c r="B9" s="17"/>
-      <c r="C9" s="87" t="s">
+      <c r="C9" s="88" t="s">
         <v>27</v>
       </c>
       <c r="D9" s="60"/>
@@ -5084,7 +5084,7 @@
       <c r="F9" s="60"/>
       <c r="G9" s="60"/>
       <c r="H9" s="61"/>
-      <c r="I9" s="70" t="s">
+      <c r="I9" s="66" t="s">
         <v>28</v>
       </c>
       <c r="J9" s="60"/>
@@ -5150,75 +5150,75 @@
     <row r="10" spans="1:68" s="49" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A10" s="18"/>
       <c r="B10" s="37"/>
-      <c r="C10" s="87" t="s">
+      <c r="C10" s="88" t="s">
         <v>73</v>
       </c>
-      <c r="D10" s="90"/>
-      <c r="E10" s="90"/>
-      <c r="F10" s="90"/>
-      <c r="G10" s="90"/>
-      <c r="H10" s="90"/>
-      <c r="I10" s="91" t="s">
+      <c r="D10" s="89"/>
+      <c r="E10" s="89"/>
+      <c r="F10" s="89"/>
+      <c r="G10" s="89"/>
+      <c r="H10" s="89"/>
+      <c r="I10" s="90" t="s">
         <v>77</v>
       </c>
-      <c r="J10" s="91"/>
-      <c r="K10" s="91"/>
-      <c r="L10" s="91"/>
-      <c r="M10" s="91"/>
-      <c r="N10" s="91"/>
-      <c r="O10" s="91"/>
-      <c r="P10" s="91"/>
-      <c r="Q10" s="91"/>
-      <c r="R10" s="91"/>
-      <c r="S10" s="91"/>
-      <c r="T10" s="91"/>
-      <c r="U10" s="91"/>
-      <c r="V10" s="91"/>
-      <c r="W10" s="91"/>
-      <c r="X10" s="91"/>
-      <c r="Y10" s="91"/>
-      <c r="Z10" s="91"/>
-      <c r="AA10" s="91"/>
-      <c r="AB10" s="91"/>
-      <c r="AC10" s="91"/>
-      <c r="AD10" s="91"/>
-      <c r="AE10" s="91"/>
-      <c r="AF10" s="91"/>
-      <c r="AG10" s="91"/>
-      <c r="AH10" s="91"/>
-      <c r="AI10" s="91"/>
-      <c r="AJ10" s="91"/>
-      <c r="AK10" s="91"/>
-      <c r="AL10" s="91"/>
-      <c r="AM10" s="91"/>
-      <c r="AN10" s="91"/>
-      <c r="AO10" s="91"/>
-      <c r="AP10" s="91"/>
-      <c r="AQ10" s="91"/>
-      <c r="AR10" s="91"/>
-      <c r="AS10" s="91"/>
-      <c r="AT10" s="91"/>
-      <c r="AU10" s="91"/>
-      <c r="AV10" s="91"/>
-      <c r="AW10" s="91"/>
-      <c r="AX10" s="91"/>
-      <c r="AY10" s="91"/>
-      <c r="AZ10" s="91"/>
-      <c r="BA10" s="91"/>
-      <c r="BB10" s="91"/>
-      <c r="BC10" s="91"/>
-      <c r="BD10" s="91"/>
-      <c r="BE10" s="91"/>
-      <c r="BF10" s="91"/>
-      <c r="BG10" s="91"/>
-      <c r="BH10" s="91"/>
-      <c r="BI10" s="91"/>
-      <c r="BJ10" s="91"/>
-      <c r="BK10" s="91"/>
-      <c r="BL10" s="91"/>
-      <c r="BM10" s="91"/>
-      <c r="BN10" s="91"/>
-      <c r="BO10" s="91"/>
+      <c r="J10" s="90"/>
+      <c r="K10" s="90"/>
+      <c r="L10" s="90"/>
+      <c r="M10" s="90"/>
+      <c r="N10" s="90"/>
+      <c r="O10" s="90"/>
+      <c r="P10" s="90"/>
+      <c r="Q10" s="90"/>
+      <c r="R10" s="90"/>
+      <c r="S10" s="90"/>
+      <c r="T10" s="90"/>
+      <c r="U10" s="90"/>
+      <c r="V10" s="90"/>
+      <c r="W10" s="90"/>
+      <c r="X10" s="90"/>
+      <c r="Y10" s="90"/>
+      <c r="Z10" s="90"/>
+      <c r="AA10" s="90"/>
+      <c r="AB10" s="90"/>
+      <c r="AC10" s="90"/>
+      <c r="AD10" s="90"/>
+      <c r="AE10" s="90"/>
+      <c r="AF10" s="90"/>
+      <c r="AG10" s="90"/>
+      <c r="AH10" s="90"/>
+      <c r="AI10" s="90"/>
+      <c r="AJ10" s="90"/>
+      <c r="AK10" s="90"/>
+      <c r="AL10" s="90"/>
+      <c r="AM10" s="90"/>
+      <c r="AN10" s="90"/>
+      <c r="AO10" s="90"/>
+      <c r="AP10" s="90"/>
+      <c r="AQ10" s="90"/>
+      <c r="AR10" s="90"/>
+      <c r="AS10" s="90"/>
+      <c r="AT10" s="90"/>
+      <c r="AU10" s="90"/>
+      <c r="AV10" s="90"/>
+      <c r="AW10" s="90"/>
+      <c r="AX10" s="90"/>
+      <c r="AY10" s="90"/>
+      <c r="AZ10" s="90"/>
+      <c r="BA10" s="90"/>
+      <c r="BB10" s="90"/>
+      <c r="BC10" s="90"/>
+      <c r="BD10" s="90"/>
+      <c r="BE10" s="90"/>
+      <c r="BF10" s="90"/>
+      <c r="BG10" s="90"/>
+      <c r="BH10" s="90"/>
+      <c r="BI10" s="90"/>
+      <c r="BJ10" s="90"/>
+      <c r="BK10" s="90"/>
+      <c r="BL10" s="90"/>
+      <c r="BM10" s="90"/>
+      <c r="BN10" s="90"/>
+      <c r="BO10" s="90"/>
       <c r="BP10" s="18"/>
     </row>
     <row r="11" spans="1:68" ht="16.5" outlineLevel="1">
@@ -5297,14 +5297,14 @@
       <c r="A12" s="2"/>
       <c r="B12" s="17"/>
       <c r="C12" s="22"/>
-      <c r="D12" s="70" t="s">
+      <c r="D12" s="66" t="s">
         <v>30</v>
       </c>
       <c r="E12" s="60"/>
       <c r="F12" s="60"/>
       <c r="G12" s="60"/>
       <c r="H12" s="61"/>
-      <c r="I12" s="88" t="s">
+      <c r="I12" s="87" t="s">
         <v>31</v>
       </c>
       <c r="J12" s="60"/>
@@ -5371,14 +5371,14 @@
       <c r="A13" s="2"/>
       <c r="B13" s="17"/>
       <c r="C13" s="22"/>
-      <c r="D13" s="70" t="s">
+      <c r="D13" s="66" t="s">
         <v>32</v>
       </c>
       <c r="E13" s="60"/>
       <c r="F13" s="60"/>
       <c r="G13" s="60"/>
       <c r="H13" s="61"/>
-      <c r="I13" s="88" t="s">
+      <c r="I13" s="87" t="s">
         <v>33</v>
       </c>
       <c r="J13" s="60"/>
@@ -5445,14 +5445,14 @@
       <c r="A14" s="18"/>
       <c r="B14" s="37"/>
       <c r="C14" s="22"/>
-      <c r="D14" s="70" t="s">
+      <c r="D14" s="66" t="s">
         <v>78</v>
       </c>
       <c r="E14" s="60"/>
       <c r="F14" s="60"/>
       <c r="G14" s="60"/>
       <c r="H14" s="61"/>
-      <c r="I14" s="88" t="s">
+      <c r="I14" s="87" t="s">
         <v>79</v>
       </c>
       <c r="J14" s="60"/>
@@ -5517,11 +5517,11 @@
     </row>
     <row r="15" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A15" s="2"/>
-      <c r="B15" s="89" t="s">
+      <c r="B15" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="81"/>
-      <c r="D15" s="81"/>
+      <c r="C15" s="77"/>
+      <c r="D15" s="77"/>
       <c r="E15" s="23"/>
       <c r="F15" s="23"/>
       <c r="G15" s="23"/>
@@ -5624,7 +5624,7 @@
       <c r="AB16" s="60"/>
       <c r="AC16" s="60"/>
       <c r="AD16" s="61"/>
-      <c r="AE16" s="87" t="s">
+      <c r="AE16" s="88" t="s">
         <v>22</v>
       </c>
       <c r="AF16" s="60"/>
@@ -5672,7 +5672,7 @@
     <row r="17" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A17" s="2"/>
       <c r="B17" s="29"/>
-      <c r="C17" s="70" t="s">
+      <c r="C17" s="66" t="s">
         <v>80</v>
       </c>
       <c r="D17" s="60"/>
@@ -5688,7 +5688,7 @@
       <c r="N17" s="60"/>
       <c r="O17" s="60"/>
       <c r="P17" s="61"/>
-      <c r="Q17" s="69" t="s">
+      <c r="Q17" s="70" t="s">
         <v>38</v>
       </c>
       <c r="R17" s="60"/>
@@ -5697,7 +5697,7 @@
       <c r="U17" s="60"/>
       <c r="V17" s="60"/>
       <c r="W17" s="61"/>
-      <c r="X17" s="69" t="s">
+      <c r="X17" s="70" t="s">
         <v>43</v>
       </c>
       <c r="Y17" s="60"/>
@@ -5706,13 +5706,13 @@
       <c r="AB17" s="60"/>
       <c r="AC17" s="60"/>
       <c r="AD17" s="61"/>
-      <c r="AE17" s="70"/>
+      <c r="AE17" s="66"/>
       <c r="AF17" s="60"/>
       <c r="AG17" s="61"/>
-      <c r="AH17" s="69"/>
+      <c r="AH17" s="70"/>
       <c r="AI17" s="60"/>
       <c r="AJ17" s="61"/>
-      <c r="AK17" s="69"/>
+      <c r="AK17" s="70"/>
       <c r="AL17" s="60"/>
       <c r="AM17" s="60"/>
       <c r="AN17" s="60"/>
@@ -5747,11 +5747,11 @@
     </row>
     <row r="18" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A18" s="2"/>
-      <c r="B18" s="89" t="s">
+      <c r="B18" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="81"/>
-      <c r="D18" s="81"/>
+      <c r="C18" s="77"/>
+      <c r="D18" s="77"/>
       <c r="E18" s="23"/>
       <c r="F18" s="23"/>
       <c r="G18" s="23"/>
@@ -5854,7 +5854,7 @@
       <c r="AB19" s="60"/>
       <c r="AC19" s="60"/>
       <c r="AD19" s="61"/>
-      <c r="AE19" s="87" t="s">
+      <c r="AE19" s="88" t="s">
         <v>22</v>
       </c>
       <c r="AF19" s="60"/>
@@ -5902,30 +5902,30 @@
     <row r="20" spans="1:68" s="52" customFormat="1" ht="33" customHeight="1" outlineLevel="1">
       <c r="A20" s="18"/>
       <c r="B20" s="37"/>
-      <c r="C20" s="70" t="s">
+      <c r="C20" s="66" t="s">
         <v>81</v>
       </c>
-      <c r="D20" s="68"/>
-      <c r="E20" s="68"/>
-      <c r="F20" s="68"/>
-      <c r="G20" s="68"/>
-      <c r="H20" s="68"/>
-      <c r="I20" s="68"/>
-      <c r="J20" s="68"/>
-      <c r="K20" s="68"/>
-      <c r="L20" s="68"/>
-      <c r="M20" s="68"/>
-      <c r="N20" s="68"/>
-      <c r="O20" s="68"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="74"/>
+      <c r="G20" s="74"/>
+      <c r="H20" s="74"/>
+      <c r="I20" s="74"/>
+      <c r="J20" s="74"/>
+      <c r="K20" s="74"/>
+      <c r="L20" s="74"/>
+      <c r="M20" s="74"/>
+      <c r="N20" s="74"/>
+      <c r="O20" s="74"/>
       <c r="P20" s="61"/>
-      <c r="Q20" s="95"/>
+      <c r="Q20" s="69"/>
       <c r="R20" s="60"/>
       <c r="S20" s="60"/>
       <c r="T20" s="60"/>
       <c r="U20" s="60"/>
       <c r="V20" s="60"/>
       <c r="W20" s="61"/>
-      <c r="X20" s="69" t="s">
+      <c r="X20" s="70" t="s">
         <v>39</v>
       </c>
       <c r="Y20" s="60"/>
@@ -5934,46 +5934,46 @@
       <c r="AB20" s="60"/>
       <c r="AC20" s="60"/>
       <c r="AD20" s="61"/>
-      <c r="AE20" s="70">
+      <c r="AE20" s="66">
         <v>1</v>
       </c>
-      <c r="AF20" s="68"/>
+      <c r="AF20" s="74"/>
       <c r="AG20" s="61"/>
       <c r="AH20" s="71"/>
-      <c r="AI20" s="72"/>
+      <c r="AI20" s="75"/>
       <c r="AJ20" s="73"/>
-      <c r="AK20" s="74" t="s">
+      <c r="AK20" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="AL20" s="68"/>
-      <c r="AM20" s="68"/>
-      <c r="AN20" s="68"/>
-      <c r="AO20" s="68"/>
-      <c r="AP20" s="68"/>
-      <c r="AQ20" s="68"/>
-      <c r="AR20" s="68"/>
-      <c r="AS20" s="68"/>
-      <c r="AT20" s="68"/>
-      <c r="AU20" s="68"/>
-      <c r="AV20" s="68"/>
-      <c r="AW20" s="68"/>
-      <c r="AX20" s="68"/>
-      <c r="AY20" s="68"/>
-      <c r="AZ20" s="68"/>
-      <c r="BA20" s="68"/>
-      <c r="BB20" s="68"/>
-      <c r="BC20" s="68"/>
-      <c r="BD20" s="68"/>
-      <c r="BE20" s="68"/>
-      <c r="BF20" s="68"/>
-      <c r="BG20" s="68"/>
-      <c r="BH20" s="68"/>
-      <c r="BI20" s="68"/>
-      <c r="BJ20" s="68"/>
-      <c r="BK20" s="68"/>
-      <c r="BL20" s="68"/>
-      <c r="BM20" s="68"/>
-      <c r="BN20" s="68"/>
+      <c r="AL20" s="74"/>
+      <c r="AM20" s="74"/>
+      <c r="AN20" s="74"/>
+      <c r="AO20" s="74"/>
+      <c r="AP20" s="74"/>
+      <c r="AQ20" s="74"/>
+      <c r="AR20" s="74"/>
+      <c r="AS20" s="74"/>
+      <c r="AT20" s="74"/>
+      <c r="AU20" s="74"/>
+      <c r="AV20" s="74"/>
+      <c r="AW20" s="74"/>
+      <c r="AX20" s="74"/>
+      <c r="AY20" s="74"/>
+      <c r="AZ20" s="74"/>
+      <c r="BA20" s="74"/>
+      <c r="BB20" s="74"/>
+      <c r="BC20" s="74"/>
+      <c r="BD20" s="74"/>
+      <c r="BE20" s="74"/>
+      <c r="BF20" s="74"/>
+      <c r="BG20" s="74"/>
+      <c r="BH20" s="74"/>
+      <c r="BI20" s="74"/>
+      <c r="BJ20" s="74"/>
+      <c r="BK20" s="74"/>
+      <c r="BL20" s="74"/>
+      <c r="BM20" s="74"/>
+      <c r="BN20" s="74"/>
       <c r="BO20" s="61"/>
       <c r="BP20" s="18"/>
     </row>
@@ -5996,14 +5996,14 @@
       <c r="N21" s="53"/>
       <c r="O21" s="53"/>
       <c r="P21" s="33"/>
-      <c r="Q21" s="95"/>
+      <c r="Q21" s="69"/>
       <c r="R21" s="60"/>
       <c r="S21" s="60"/>
       <c r="T21" s="60"/>
       <c r="U21" s="60"/>
       <c r="V21" s="60"/>
       <c r="W21" s="61"/>
-      <c r="X21" s="69" t="s">
+      <c r="X21" s="70" t="s">
         <v>46</v>
       </c>
       <c r="Y21" s="60"/>
@@ -6012,44 +6012,44 @@
       <c r="AB21" s="60"/>
       <c r="AC21" s="60"/>
       <c r="AD21" s="61"/>
-      <c r="AE21" s="70"/>
-      <c r="AF21" s="68"/>
+      <c r="AE21" s="66"/>
+      <c r="AF21" s="74"/>
       <c r="AG21" s="61"/>
       <c r="AH21" s="71"/>
-      <c r="AI21" s="72"/>
+      <c r="AI21" s="75"/>
       <c r="AJ21" s="73"/>
-      <c r="AK21" s="69" t="s">
+      <c r="AK21" s="70" t="s">
         <v>85</v>
       </c>
-      <c r="AL21" s="68"/>
-      <c r="AM21" s="68"/>
-      <c r="AN21" s="68"/>
-      <c r="AO21" s="68"/>
-      <c r="AP21" s="68"/>
-      <c r="AQ21" s="68"/>
-      <c r="AR21" s="68"/>
-      <c r="AS21" s="68"/>
-      <c r="AT21" s="68"/>
-      <c r="AU21" s="68"/>
-      <c r="AV21" s="68"/>
-      <c r="AW21" s="68"/>
-      <c r="AX21" s="68"/>
-      <c r="AY21" s="68"/>
-      <c r="AZ21" s="68"/>
-      <c r="BA21" s="68"/>
-      <c r="BB21" s="68"/>
-      <c r="BC21" s="68"/>
-      <c r="BD21" s="68"/>
-      <c r="BE21" s="68"/>
-      <c r="BF21" s="68"/>
-      <c r="BG21" s="68"/>
-      <c r="BH21" s="68"/>
-      <c r="BI21" s="68"/>
-      <c r="BJ21" s="68"/>
-      <c r="BK21" s="68"/>
-      <c r="BL21" s="68"/>
-      <c r="BM21" s="68"/>
-      <c r="BN21" s="68"/>
+      <c r="AL21" s="74"/>
+      <c r="AM21" s="74"/>
+      <c r="AN21" s="74"/>
+      <c r="AO21" s="74"/>
+      <c r="AP21" s="74"/>
+      <c r="AQ21" s="74"/>
+      <c r="AR21" s="74"/>
+      <c r="AS21" s="74"/>
+      <c r="AT21" s="74"/>
+      <c r="AU21" s="74"/>
+      <c r="AV21" s="74"/>
+      <c r="AW21" s="74"/>
+      <c r="AX21" s="74"/>
+      <c r="AY21" s="74"/>
+      <c r="AZ21" s="74"/>
+      <c r="BA21" s="74"/>
+      <c r="BB21" s="74"/>
+      <c r="BC21" s="74"/>
+      <c r="BD21" s="74"/>
+      <c r="BE21" s="74"/>
+      <c r="BF21" s="74"/>
+      <c r="BG21" s="74"/>
+      <c r="BH21" s="74"/>
+      <c r="BI21" s="74"/>
+      <c r="BJ21" s="74"/>
+      <c r="BK21" s="74"/>
+      <c r="BL21" s="74"/>
+      <c r="BM21" s="74"/>
+      <c r="BN21" s="74"/>
       <c r="BO21" s="61"/>
       <c r="BP21" s="18"/>
     </row>
@@ -6057,71 +6057,71 @@
       <c r="A22" s="18"/>
       <c r="B22" s="37"/>
       <c r="C22" s="55"/>
-      <c r="D22" s="70" t="s">
+      <c r="D22" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="E22" s="65"/>
-      <c r="F22" s="65"/>
-      <c r="G22" s="65"/>
-      <c r="H22" s="65"/>
-      <c r="I22" s="65"/>
-      <c r="J22" s="65"/>
-      <c r="K22" s="65"/>
-      <c r="L22" s="65"/>
-      <c r="M22" s="65"/>
-      <c r="N22" s="65"/>
-      <c r="O22" s="65"/>
-      <c r="P22" s="66"/>
-      <c r="Q22" s="95"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="67"/>
+      <c r="H22" s="67"/>
+      <c r="I22" s="67"/>
+      <c r="J22" s="67"/>
+      <c r="K22" s="67"/>
+      <c r="L22" s="67"/>
+      <c r="M22" s="67"/>
+      <c r="N22" s="67"/>
+      <c r="O22" s="67"/>
+      <c r="P22" s="68"/>
+      <c r="Q22" s="69"/>
       <c r="R22" s="60"/>
       <c r="S22" s="60"/>
       <c r="T22" s="60"/>
       <c r="U22" s="60"/>
       <c r="V22" s="60"/>
       <c r="W22" s="61"/>
-      <c r="X22" s="69"/>
+      <c r="X22" s="70"/>
       <c r="Y22" s="60"/>
       <c r="Z22" s="60"/>
       <c r="AA22" s="60"/>
       <c r="AB22" s="60"/>
       <c r="AC22" s="60"/>
       <c r="AD22" s="61"/>
-      <c r="AE22" s="70"/>
-      <c r="AF22" s="68"/>
+      <c r="AE22" s="66"/>
+      <c r="AF22" s="74"/>
       <c r="AG22" s="61"/>
       <c r="AH22" s="71"/>
-      <c r="AI22" s="72"/>
+      <c r="AI22" s="75"/>
       <c r="AJ22" s="73"/>
-      <c r="AK22" s="69"/>
-      <c r="AL22" s="68"/>
-      <c r="AM22" s="68"/>
-      <c r="AN22" s="68"/>
-      <c r="AO22" s="68"/>
-      <c r="AP22" s="68"/>
-      <c r="AQ22" s="68"/>
-      <c r="AR22" s="68"/>
-      <c r="AS22" s="68"/>
-      <c r="AT22" s="68"/>
-      <c r="AU22" s="68"/>
-      <c r="AV22" s="68"/>
-      <c r="AW22" s="68"/>
-      <c r="AX22" s="68"/>
-      <c r="AY22" s="68"/>
-      <c r="AZ22" s="68"/>
-      <c r="BA22" s="68"/>
-      <c r="BB22" s="68"/>
-      <c r="BC22" s="68"/>
-      <c r="BD22" s="68"/>
-      <c r="BE22" s="68"/>
-      <c r="BF22" s="68"/>
-      <c r="BG22" s="68"/>
-      <c r="BH22" s="68"/>
-      <c r="BI22" s="68"/>
-      <c r="BJ22" s="68"/>
-      <c r="BK22" s="68"/>
-      <c r="BL22" s="68"/>
-      <c r="BM22" s="68"/>
-      <c r="BN22" s="68"/>
+      <c r="AK22" s="70"/>
+      <c r="AL22" s="74"/>
+      <c r="AM22" s="74"/>
+      <c r="AN22" s="74"/>
+      <c r="AO22" s="74"/>
+      <c r="AP22" s="74"/>
+      <c r="AQ22" s="74"/>
+      <c r="AR22" s="74"/>
+      <c r="AS22" s="74"/>
+      <c r="AT22" s="74"/>
+      <c r="AU22" s="74"/>
+      <c r="AV22" s="74"/>
+      <c r="AW22" s="74"/>
+      <c r="AX22" s="74"/>
+      <c r="AY22" s="74"/>
+      <c r="AZ22" s="74"/>
+      <c r="BA22" s="74"/>
+      <c r="BB22" s="74"/>
+      <c r="BC22" s="74"/>
+      <c r="BD22" s="74"/>
+      <c r="BE22" s="74"/>
+      <c r="BF22" s="74"/>
+      <c r="BG22" s="74"/>
+      <c r="BH22" s="74"/>
+      <c r="BI22" s="74"/>
+      <c r="BJ22" s="74"/>
+      <c r="BK22" s="74"/>
+      <c r="BL22" s="74"/>
+      <c r="BM22" s="74"/>
+      <c r="BN22" s="74"/>
       <c r="BO22" s="61"/>
       <c r="BP22" s="18"/>
     </row>
@@ -6144,29 +6144,29 @@
       <c r="N23" s="32"/>
       <c r="O23" s="32"/>
       <c r="P23" s="33"/>
-      <c r="Q23" s="95"/>
+      <c r="Q23" s="69"/>
       <c r="R23" s="60"/>
       <c r="S23" s="60"/>
       <c r="T23" s="60"/>
       <c r="U23" s="60"/>
       <c r="V23" s="60"/>
       <c r="W23" s="61"/>
-      <c r="X23" s="69"/>
+      <c r="X23" s="70"/>
       <c r="Y23" s="60"/>
       <c r="Z23" s="60"/>
       <c r="AA23" s="60"/>
       <c r="AB23" s="60"/>
       <c r="AC23" s="60"/>
       <c r="AD23" s="61"/>
-      <c r="AE23" s="70"/>
+      <c r="AE23" s="66"/>
       <c r="AF23" s="60"/>
       <c r="AG23" s="61"/>
       <c r="AH23" s="71" t="s">
         <v>89</v>
       </c>
-      <c r="AI23" s="93"/>
+      <c r="AI23" s="72"/>
       <c r="AJ23" s="73"/>
-      <c r="AK23" s="69"/>
+      <c r="AK23" s="70"/>
       <c r="AL23" s="60"/>
       <c r="AM23" s="60"/>
       <c r="AN23" s="60"/>
@@ -6203,22 +6203,22 @@
       <c r="A24" s="2"/>
       <c r="B24" s="29"/>
       <c r="C24" s="34"/>
-      <c r="D24" s="70" t="s">
+      <c r="D24" s="66" t="s">
         <v>87</v>
       </c>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="65"/>
-      <c r="H24" s="65"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
-      <c r="M24" s="65"/>
-      <c r="N24" s="65"/>
-      <c r="O24" s="65"/>
-      <c r="P24" s="66"/>
-      <c r="Q24" s="95" t="s">
+      <c r="E24" s="67"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="67"/>
+      <c r="J24" s="67"/>
+      <c r="K24" s="67"/>
+      <c r="L24" s="67"/>
+      <c r="M24" s="67"/>
+      <c r="N24" s="67"/>
+      <c r="O24" s="67"/>
+      <c r="P24" s="68"/>
+      <c r="Q24" s="69" t="s">
         <v>38</v>
       </c>
       <c r="R24" s="60"/>
@@ -6227,20 +6227,20 @@
       <c r="U24" s="60"/>
       <c r="V24" s="60"/>
       <c r="W24" s="61"/>
-      <c r="X24" s="69"/>
+      <c r="X24" s="70"/>
       <c r="Y24" s="60"/>
       <c r="Z24" s="60"/>
       <c r="AA24" s="60"/>
       <c r="AB24" s="60"/>
       <c r="AC24" s="60"/>
       <c r="AD24" s="61"/>
-      <c r="AE24" s="70"/>
+      <c r="AE24" s="66"/>
       <c r="AF24" s="60"/>
       <c r="AG24" s="61"/>
       <c r="AH24" s="71"/>
-      <c r="AI24" s="93"/>
+      <c r="AI24" s="72"/>
       <c r="AJ24" s="73"/>
-      <c r="AK24" s="69"/>
+      <c r="AK24" s="70"/>
       <c r="AL24" s="60"/>
       <c r="AM24" s="60"/>
       <c r="AN24" s="60"/>
@@ -6277,22 +6277,22 @@
       <c r="A25" s="18"/>
       <c r="B25" s="37"/>
       <c r="C25" s="34"/>
-      <c r="D25" s="70" t="s">
+      <c r="D25" s="66" t="s">
         <v>90</v>
       </c>
-      <c r="E25" s="65"/>
-      <c r="F25" s="65"/>
-      <c r="G25" s="65"/>
-      <c r="H25" s="65"/>
-      <c r="I25" s="65"/>
-      <c r="J25" s="65"/>
-      <c r="K25" s="65"/>
-      <c r="L25" s="65"/>
-      <c r="M25" s="65"/>
-      <c r="N25" s="65"/>
-      <c r="O25" s="65"/>
-      <c r="P25" s="66"/>
-      <c r="Q25" s="69" t="s">
+      <c r="E25" s="67"/>
+      <c r="F25" s="67"/>
+      <c r="G25" s="67"/>
+      <c r="H25" s="67"/>
+      <c r="I25" s="67"/>
+      <c r="J25" s="67"/>
+      <c r="K25" s="67"/>
+      <c r="L25" s="67"/>
+      <c r="M25" s="67"/>
+      <c r="N25" s="67"/>
+      <c r="O25" s="67"/>
+      <c r="P25" s="68"/>
+      <c r="Q25" s="70" t="s">
         <v>71</v>
       </c>
       <c r="R25" s="60"/>
@@ -6301,20 +6301,20 @@
       <c r="U25" s="60"/>
       <c r="V25" s="60"/>
       <c r="W25" s="61"/>
-      <c r="X25" s="69"/>
+      <c r="X25" s="70"/>
       <c r="Y25" s="60"/>
       <c r="Z25" s="60"/>
       <c r="AA25" s="60"/>
       <c r="AB25" s="60"/>
       <c r="AC25" s="60"/>
       <c r="AD25" s="61"/>
-      <c r="AE25" s="70"/>
+      <c r="AE25" s="66"/>
       <c r="AF25" s="60"/>
       <c r="AG25" s="61"/>
       <c r="AH25" s="71"/>
-      <c r="AI25" s="93"/>
+      <c r="AI25" s="72"/>
       <c r="AJ25" s="73"/>
-      <c r="AK25" s="69"/>
+      <c r="AK25" s="70"/>
       <c r="AL25" s="60"/>
       <c r="AM25" s="60"/>
       <c r="AN25" s="60"/>
@@ -6351,42 +6351,42 @@
       <c r="A26" s="18"/>
       <c r="B26" s="37"/>
       <c r="C26" s="34"/>
-      <c r="D26" s="70" t="s">
+      <c r="D26" s="66" t="s">
         <v>91</v>
       </c>
-      <c r="E26" s="65"/>
-      <c r="F26" s="65"/>
-      <c r="G26" s="65"/>
-      <c r="H26" s="65"/>
-      <c r="I26" s="65"/>
-      <c r="J26" s="65"/>
-      <c r="K26" s="65"/>
-      <c r="L26" s="65"/>
-      <c r="M26" s="65"/>
-      <c r="N26" s="65"/>
-      <c r="O26" s="65"/>
-      <c r="P26" s="66"/>
-      <c r="Q26" s="95"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="67"/>
+      <c r="H26" s="67"/>
+      <c r="I26" s="67"/>
+      <c r="J26" s="67"/>
+      <c r="K26" s="67"/>
+      <c r="L26" s="67"/>
+      <c r="M26" s="67"/>
+      <c r="N26" s="67"/>
+      <c r="O26" s="67"/>
+      <c r="P26" s="68"/>
+      <c r="Q26" s="69"/>
       <c r="R26" s="60"/>
       <c r="S26" s="60"/>
       <c r="T26" s="60"/>
       <c r="U26" s="60"/>
       <c r="V26" s="60"/>
       <c r="W26" s="61"/>
-      <c r="X26" s="69"/>
+      <c r="X26" s="70"/>
       <c r="Y26" s="60"/>
       <c r="Z26" s="60"/>
       <c r="AA26" s="60"/>
       <c r="AB26" s="60"/>
       <c r="AC26" s="60"/>
       <c r="AD26" s="61"/>
-      <c r="AE26" s="70"/>
+      <c r="AE26" s="66"/>
       <c r="AF26" s="60"/>
       <c r="AG26" s="61"/>
       <c r="AH26" s="71"/>
-      <c r="AI26" s="93"/>
+      <c r="AI26" s="72"/>
       <c r="AJ26" s="73"/>
-      <c r="AK26" s="74" t="s">
+      <c r="AK26" s="65" t="s">
         <v>105</v>
       </c>
       <c r="AL26" s="60"/>
@@ -6425,22 +6425,22 @@
       <c r="A27" s="18"/>
       <c r="B27" s="37"/>
       <c r="C27" s="34"/>
-      <c r="D27" s="70" t="s">
+      <c r="D27" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="E27" s="65"/>
-      <c r="F27" s="65"/>
-      <c r="G27" s="65"/>
-      <c r="H27" s="65"/>
-      <c r="I27" s="65"/>
-      <c r="J27" s="65"/>
-      <c r="K27" s="65"/>
-      <c r="L27" s="65"/>
-      <c r="M27" s="65"/>
-      <c r="N27" s="65"/>
-      <c r="O27" s="65"/>
-      <c r="P27" s="66"/>
-      <c r="Q27" s="95" t="s">
+      <c r="E27" s="67"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="67"/>
+      <c r="H27" s="67"/>
+      <c r="I27" s="67"/>
+      <c r="J27" s="67"/>
+      <c r="K27" s="67"/>
+      <c r="L27" s="67"/>
+      <c r="M27" s="67"/>
+      <c r="N27" s="67"/>
+      <c r="O27" s="67"/>
+      <c r="P27" s="68"/>
+      <c r="Q27" s="69" t="s">
         <v>67</v>
       </c>
       <c r="R27" s="60"/>
@@ -6449,22 +6449,22 @@
       <c r="U27" s="60"/>
       <c r="V27" s="60"/>
       <c r="W27" s="61"/>
-      <c r="X27" s="69"/>
+      <c r="X27" s="70"/>
       <c r="Y27" s="60"/>
       <c r="Z27" s="60"/>
       <c r="AA27" s="60"/>
       <c r="AB27" s="60"/>
       <c r="AC27" s="60"/>
       <c r="AD27" s="61"/>
-      <c r="AE27" s="70">
+      <c r="AE27" s="66">
         <v>10</v>
       </c>
       <c r="AF27" s="60"/>
       <c r="AG27" s="61"/>
       <c r="AH27" s="71"/>
-      <c r="AI27" s="93"/>
+      <c r="AI27" s="72"/>
       <c r="AJ27" s="73"/>
-      <c r="AK27" s="69"/>
+      <c r="AK27" s="70"/>
       <c r="AL27" s="60"/>
       <c r="AM27" s="60"/>
       <c r="AN27" s="60"/>
@@ -6501,42 +6501,42 @@
       <c r="A28" s="18"/>
       <c r="B28" s="37"/>
       <c r="C28" s="34"/>
-      <c r="D28" s="70" t="s">
+      <c r="D28" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="E28" s="65"/>
-      <c r="F28" s="65"/>
-      <c r="G28" s="65"/>
-      <c r="H28" s="65"/>
-      <c r="I28" s="65"/>
-      <c r="J28" s="65"/>
-      <c r="K28" s="65"/>
-      <c r="L28" s="65"/>
-      <c r="M28" s="65"/>
-      <c r="N28" s="65"/>
-      <c r="O28" s="65"/>
-      <c r="P28" s="66"/>
-      <c r="Q28" s="95"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="67"/>
+      <c r="H28" s="67"/>
+      <c r="I28" s="67"/>
+      <c r="J28" s="67"/>
+      <c r="K28" s="67"/>
+      <c r="L28" s="67"/>
+      <c r="M28" s="67"/>
+      <c r="N28" s="67"/>
+      <c r="O28" s="67"/>
+      <c r="P28" s="68"/>
+      <c r="Q28" s="69"/>
       <c r="R28" s="60"/>
       <c r="S28" s="60"/>
       <c r="T28" s="60"/>
       <c r="U28" s="60"/>
       <c r="V28" s="60"/>
       <c r="W28" s="61"/>
-      <c r="X28" s="69"/>
+      <c r="X28" s="70"/>
       <c r="Y28" s="60"/>
       <c r="Z28" s="60"/>
       <c r="AA28" s="60"/>
       <c r="AB28" s="60"/>
       <c r="AC28" s="60"/>
       <c r="AD28" s="61"/>
-      <c r="AE28" s="70"/>
+      <c r="AE28" s="66"/>
       <c r="AF28" s="60"/>
       <c r="AG28" s="61"/>
       <c r="AH28" s="71"/>
-      <c r="AI28" s="93"/>
+      <c r="AI28" s="72"/>
       <c r="AJ28" s="73"/>
-      <c r="AK28" s="69"/>
+      <c r="AK28" s="70"/>
       <c r="AL28" s="60"/>
       <c r="AM28" s="60"/>
       <c r="AN28" s="60"/>
@@ -6573,42 +6573,42 @@
       <c r="A29" s="2"/>
       <c r="B29" s="29"/>
       <c r="C29" s="34"/>
-      <c r="D29" s="70" t="s">
+      <c r="D29" s="66" t="s">
         <v>94</v>
       </c>
-      <c r="E29" s="65"/>
-      <c r="F29" s="65"/>
-      <c r="G29" s="65"/>
-      <c r="H29" s="65"/>
-      <c r="I29" s="65"/>
-      <c r="J29" s="65"/>
-      <c r="K29" s="65"/>
-      <c r="L29" s="65"/>
-      <c r="M29" s="65"/>
-      <c r="N29" s="65"/>
-      <c r="O29" s="65"/>
-      <c r="P29" s="66"/>
-      <c r="Q29" s="95"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="67"/>
+      <c r="G29" s="67"/>
+      <c r="H29" s="67"/>
+      <c r="I29" s="67"/>
+      <c r="J29" s="67"/>
+      <c r="K29" s="67"/>
+      <c r="L29" s="67"/>
+      <c r="M29" s="67"/>
+      <c r="N29" s="67"/>
+      <c r="O29" s="67"/>
+      <c r="P29" s="68"/>
+      <c r="Q29" s="69"/>
       <c r="R29" s="60"/>
       <c r="S29" s="60"/>
       <c r="T29" s="60"/>
       <c r="U29" s="60"/>
       <c r="V29" s="60"/>
       <c r="W29" s="61"/>
-      <c r="X29" s="69"/>
+      <c r="X29" s="70"/>
       <c r="Y29" s="60"/>
       <c r="Z29" s="60"/>
       <c r="AA29" s="60"/>
       <c r="AB29" s="60"/>
       <c r="AC29" s="60"/>
       <c r="AD29" s="61"/>
-      <c r="AE29" s="70"/>
+      <c r="AE29" s="66"/>
       <c r="AF29" s="60"/>
       <c r="AG29" s="61"/>
       <c r="AH29" s="71"/>
-      <c r="AI29" s="93"/>
+      <c r="AI29" s="72"/>
       <c r="AJ29" s="73"/>
-      <c r="AK29" s="69"/>
+      <c r="AK29" s="70"/>
       <c r="AL29" s="60"/>
       <c r="AM29" s="60"/>
       <c r="AN29" s="60"/>
@@ -6645,22 +6645,22 @@
       <c r="A30" s="18"/>
       <c r="B30" s="37"/>
       <c r="C30" s="34"/>
-      <c r="D30" s="70" t="s">
+      <c r="D30" s="66" t="s">
         <v>95</v>
       </c>
-      <c r="E30" s="65"/>
-      <c r="F30" s="65"/>
-      <c r="G30" s="65"/>
-      <c r="H30" s="65"/>
-      <c r="I30" s="65"/>
-      <c r="J30" s="65"/>
-      <c r="K30" s="65"/>
-      <c r="L30" s="65"/>
-      <c r="M30" s="65"/>
-      <c r="N30" s="65"/>
-      <c r="O30" s="65"/>
-      <c r="P30" s="66"/>
-      <c r="Q30" s="95" t="s">
+      <c r="E30" s="67"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="67"/>
+      <c r="H30" s="67"/>
+      <c r="I30" s="67"/>
+      <c r="J30" s="67"/>
+      <c r="K30" s="67"/>
+      <c r="L30" s="67"/>
+      <c r="M30" s="67"/>
+      <c r="N30" s="67"/>
+      <c r="O30" s="67"/>
+      <c r="P30" s="68"/>
+      <c r="Q30" s="69" t="s">
         <v>139</v>
       </c>
       <c r="R30" s="60"/>
@@ -6669,22 +6669,22 @@
       <c r="U30" s="60"/>
       <c r="V30" s="60"/>
       <c r="W30" s="61"/>
-      <c r="X30" s="69"/>
+      <c r="X30" s="70"/>
       <c r="Y30" s="60"/>
       <c r="Z30" s="60"/>
       <c r="AA30" s="60"/>
       <c r="AB30" s="60"/>
       <c r="AC30" s="60"/>
       <c r="AD30" s="61"/>
-      <c r="AE30" s="70">
+      <c r="AE30" s="66">
         <v>19</v>
       </c>
       <c r="AF30" s="60"/>
       <c r="AG30" s="61"/>
       <c r="AH30" s="71"/>
-      <c r="AI30" s="93"/>
+      <c r="AI30" s="72"/>
       <c r="AJ30" s="73"/>
-      <c r="AK30" s="69"/>
+      <c r="AK30" s="70"/>
       <c r="AL30" s="60"/>
       <c r="AM30" s="60"/>
       <c r="AN30" s="60"/>
@@ -6721,22 +6721,22 @@
       <c r="A31" s="2"/>
       <c r="B31" s="29"/>
       <c r="C31" s="34"/>
-      <c r="D31" s="70" t="s">
+      <c r="D31" s="66" t="s">
         <v>96</v>
       </c>
-      <c r="E31" s="65"/>
-      <c r="F31" s="65"/>
-      <c r="G31" s="65"/>
-      <c r="H31" s="65"/>
-      <c r="I31" s="65"/>
-      <c r="J31" s="65"/>
-      <c r="K31" s="65"/>
-      <c r="L31" s="65"/>
-      <c r="M31" s="65"/>
-      <c r="N31" s="65"/>
-      <c r="O31" s="65"/>
-      <c r="P31" s="66"/>
-      <c r="Q31" s="95" t="s">
+      <c r="E31" s="67"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="67"/>
+      <c r="H31" s="67"/>
+      <c r="I31" s="67"/>
+      <c r="J31" s="67"/>
+      <c r="K31" s="67"/>
+      <c r="L31" s="67"/>
+      <c r="M31" s="67"/>
+      <c r="N31" s="67"/>
+      <c r="O31" s="67"/>
+      <c r="P31" s="68"/>
+      <c r="Q31" s="69" t="s">
         <v>70</v>
       </c>
       <c r="R31" s="60"/>
@@ -6745,22 +6745,22 @@
       <c r="U31" s="60"/>
       <c r="V31" s="60"/>
       <c r="W31" s="61"/>
-      <c r="X31" s="69"/>
+      <c r="X31" s="70"/>
       <c r="Y31" s="60"/>
       <c r="Z31" s="60"/>
       <c r="AA31" s="60"/>
       <c r="AB31" s="60"/>
       <c r="AC31" s="60"/>
       <c r="AD31" s="61"/>
-      <c r="AE31" s="70">
+      <c r="AE31" s="66">
         <v>19</v>
       </c>
       <c r="AF31" s="60"/>
       <c r="AG31" s="61"/>
       <c r="AH31" s="71"/>
-      <c r="AI31" s="93"/>
+      <c r="AI31" s="72"/>
       <c r="AJ31" s="73"/>
-      <c r="AK31" s="69"/>
+      <c r="AK31" s="70"/>
       <c r="AL31" s="60"/>
       <c r="AM31" s="60"/>
       <c r="AN31" s="60"/>
@@ -6797,42 +6797,42 @@
       <c r="A32" s="18"/>
       <c r="B32" s="37"/>
       <c r="C32" s="34"/>
-      <c r="D32" s="70" t="s">
+      <c r="D32" s="66" t="s">
         <v>97</v>
       </c>
-      <c r="E32" s="65"/>
-      <c r="F32" s="65"/>
-      <c r="G32" s="65"/>
-      <c r="H32" s="65"/>
-      <c r="I32" s="65"/>
-      <c r="J32" s="65"/>
-      <c r="K32" s="65"/>
-      <c r="L32" s="65"/>
-      <c r="M32" s="65"/>
-      <c r="N32" s="65"/>
-      <c r="O32" s="65"/>
-      <c r="P32" s="66"/>
-      <c r="Q32" s="95"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="67"/>
+      <c r="G32" s="67"/>
+      <c r="H32" s="67"/>
+      <c r="I32" s="67"/>
+      <c r="J32" s="67"/>
+      <c r="K32" s="67"/>
+      <c r="L32" s="67"/>
+      <c r="M32" s="67"/>
+      <c r="N32" s="67"/>
+      <c r="O32" s="67"/>
+      <c r="P32" s="68"/>
+      <c r="Q32" s="69"/>
       <c r="R32" s="60"/>
       <c r="S32" s="60"/>
       <c r="T32" s="60"/>
       <c r="U32" s="60"/>
       <c r="V32" s="60"/>
       <c r="W32" s="61"/>
-      <c r="X32" s="69"/>
+      <c r="X32" s="70"/>
       <c r="Y32" s="60"/>
       <c r="Z32" s="60"/>
       <c r="AA32" s="60"/>
       <c r="AB32" s="60"/>
       <c r="AC32" s="60"/>
       <c r="AD32" s="61"/>
-      <c r="AE32" s="70"/>
+      <c r="AE32" s="66"/>
       <c r="AF32" s="60"/>
       <c r="AG32" s="61"/>
       <c r="AH32" s="71"/>
-      <c r="AI32" s="93"/>
+      <c r="AI32" s="72"/>
       <c r="AJ32" s="73"/>
-      <c r="AK32" s="74" t="s">
+      <c r="AK32" s="65" t="s">
         <v>102</v>
       </c>
       <c r="AL32" s="60"/>
@@ -6871,42 +6871,42 @@
       <c r="A33" s="18"/>
       <c r="B33" s="37"/>
       <c r="C33" s="34"/>
-      <c r="D33" s="70" t="s">
+      <c r="D33" s="66" t="s">
         <v>98</v>
       </c>
-      <c r="E33" s="65"/>
-      <c r="F33" s="65"/>
-      <c r="G33" s="65"/>
-      <c r="H33" s="65"/>
-      <c r="I33" s="65"/>
-      <c r="J33" s="65"/>
-      <c r="K33" s="65"/>
-      <c r="L33" s="65"/>
-      <c r="M33" s="65"/>
-      <c r="N33" s="65"/>
-      <c r="O33" s="65"/>
-      <c r="P33" s="66"/>
-      <c r="Q33" s="95"/>
+      <c r="E33" s="67"/>
+      <c r="F33" s="67"/>
+      <c r="G33" s="67"/>
+      <c r="H33" s="67"/>
+      <c r="I33" s="67"/>
+      <c r="J33" s="67"/>
+      <c r="K33" s="67"/>
+      <c r="L33" s="67"/>
+      <c r="M33" s="67"/>
+      <c r="N33" s="67"/>
+      <c r="O33" s="67"/>
+      <c r="P33" s="68"/>
+      <c r="Q33" s="69"/>
       <c r="R33" s="60"/>
       <c r="S33" s="60"/>
       <c r="T33" s="60"/>
       <c r="U33" s="60"/>
       <c r="V33" s="60"/>
       <c r="W33" s="61"/>
-      <c r="X33" s="69"/>
+      <c r="X33" s="70"/>
       <c r="Y33" s="60"/>
       <c r="Z33" s="60"/>
       <c r="AA33" s="60"/>
       <c r="AB33" s="60"/>
       <c r="AC33" s="60"/>
       <c r="AD33" s="61"/>
-      <c r="AE33" s="70"/>
+      <c r="AE33" s="66"/>
       <c r="AF33" s="60"/>
       <c r="AG33" s="61"/>
       <c r="AH33" s="71"/>
-      <c r="AI33" s="93"/>
+      <c r="AI33" s="72"/>
       <c r="AJ33" s="73"/>
-      <c r="AK33" s="74" t="s">
+      <c r="AK33" s="65" t="s">
         <v>104</v>
       </c>
       <c r="AL33" s="60"/>
@@ -6945,42 +6945,42 @@
       <c r="A34" s="18"/>
       <c r="B34" s="37"/>
       <c r="C34" s="34"/>
-      <c r="D34" s="70" t="s">
+      <c r="D34" s="66" t="s">
         <v>99</v>
       </c>
-      <c r="E34" s="65"/>
-      <c r="F34" s="65"/>
-      <c r="G34" s="65"/>
-      <c r="H34" s="65"/>
-      <c r="I34" s="65"/>
-      <c r="J34" s="65"/>
-      <c r="K34" s="65"/>
-      <c r="L34" s="65"/>
-      <c r="M34" s="65"/>
-      <c r="N34" s="65"/>
-      <c r="O34" s="65"/>
-      <c r="P34" s="66"/>
-      <c r="Q34" s="95"/>
+      <c r="E34" s="67"/>
+      <c r="F34" s="67"/>
+      <c r="G34" s="67"/>
+      <c r="H34" s="67"/>
+      <c r="I34" s="67"/>
+      <c r="J34" s="67"/>
+      <c r="K34" s="67"/>
+      <c r="L34" s="67"/>
+      <c r="M34" s="67"/>
+      <c r="N34" s="67"/>
+      <c r="O34" s="67"/>
+      <c r="P34" s="68"/>
+      <c r="Q34" s="69"/>
       <c r="R34" s="60"/>
       <c r="S34" s="60"/>
       <c r="T34" s="60"/>
       <c r="U34" s="60"/>
       <c r="V34" s="60"/>
       <c r="W34" s="61"/>
-      <c r="X34" s="69"/>
+      <c r="X34" s="70"/>
       <c r="Y34" s="60"/>
       <c r="Z34" s="60"/>
       <c r="AA34" s="60"/>
       <c r="AB34" s="60"/>
       <c r="AC34" s="60"/>
       <c r="AD34" s="61"/>
-      <c r="AE34" s="70"/>
+      <c r="AE34" s="66"/>
       <c r="AF34" s="60"/>
       <c r="AG34" s="61"/>
       <c r="AH34" s="71"/>
-      <c r="AI34" s="93"/>
+      <c r="AI34" s="72"/>
       <c r="AJ34" s="73"/>
-      <c r="AK34" s="74" t="s">
+      <c r="AK34" s="65" t="s">
         <v>103</v>
       </c>
       <c r="AL34" s="60"/>
@@ -7019,42 +7019,42 @@
       <c r="A35" s="2"/>
       <c r="B35" s="37"/>
       <c r="C35" s="35"/>
-      <c r="D35" s="70" t="s">
+      <c r="D35" s="66" t="s">
         <v>100</v>
       </c>
-      <c r="E35" s="65"/>
-      <c r="F35" s="65"/>
-      <c r="G35" s="65"/>
-      <c r="H35" s="65"/>
-      <c r="I35" s="65"/>
-      <c r="J35" s="65"/>
-      <c r="K35" s="65"/>
-      <c r="L35" s="65"/>
-      <c r="M35" s="65"/>
-      <c r="N35" s="65"/>
-      <c r="O35" s="65"/>
-      <c r="P35" s="66"/>
-      <c r="Q35" s="95"/>
+      <c r="E35" s="67"/>
+      <c r="F35" s="67"/>
+      <c r="G35" s="67"/>
+      <c r="H35" s="67"/>
+      <c r="I35" s="67"/>
+      <c r="J35" s="67"/>
+      <c r="K35" s="67"/>
+      <c r="L35" s="67"/>
+      <c r="M35" s="67"/>
+      <c r="N35" s="67"/>
+      <c r="O35" s="67"/>
+      <c r="P35" s="68"/>
+      <c r="Q35" s="69"/>
       <c r="R35" s="60"/>
       <c r="S35" s="60"/>
       <c r="T35" s="60"/>
       <c r="U35" s="60"/>
       <c r="V35" s="60"/>
       <c r="W35" s="61"/>
-      <c r="X35" s="69"/>
+      <c r="X35" s="70"/>
       <c r="Y35" s="60"/>
       <c r="Z35" s="60"/>
       <c r="AA35" s="60"/>
       <c r="AB35" s="60"/>
       <c r="AC35" s="60"/>
       <c r="AD35" s="61"/>
-      <c r="AE35" s="70"/>
+      <c r="AE35" s="66"/>
       <c r="AF35" s="60"/>
       <c r="AG35" s="61"/>
       <c r="AH35" s="71"/>
-      <c r="AI35" s="93"/>
+      <c r="AI35" s="72"/>
       <c r="AJ35" s="73"/>
-      <c r="AK35" s="74" t="s">
+      <c r="AK35" s="65" t="s">
         <v>101</v>
       </c>
       <c r="AL35" s="60"/>
@@ -7108,14 +7108,14 @@
       <c r="N36" s="53"/>
       <c r="O36" s="53"/>
       <c r="P36" s="33"/>
-      <c r="Q36" s="67"/>
-      <c r="R36" s="68"/>
-      <c r="S36" s="68"/>
-      <c r="T36" s="68"/>
-      <c r="U36" s="68"/>
-      <c r="V36" s="68"/>
+      <c r="Q36" s="95"/>
+      <c r="R36" s="74"/>
+      <c r="S36" s="74"/>
+      <c r="T36" s="74"/>
+      <c r="U36" s="74"/>
+      <c r="V36" s="74"/>
       <c r="W36" s="61"/>
-      <c r="X36" s="69" t="s">
+      <c r="X36" s="70" t="s">
         <v>39</v>
       </c>
       <c r="Y36" s="60"/>
@@ -7124,42 +7124,42 @@
       <c r="AB36" s="60"/>
       <c r="AC36" s="60"/>
       <c r="AD36" s="61"/>
-      <c r="AE36" s="70"/>
-      <c r="AF36" s="68"/>
+      <c r="AE36" s="66"/>
+      <c r="AF36" s="74"/>
       <c r="AG36" s="61"/>
       <c r="AH36" s="71"/>
-      <c r="AI36" s="72"/>
+      <c r="AI36" s="75"/>
       <c r="AJ36" s="73"/>
-      <c r="AK36" s="69"/>
-      <c r="AL36" s="68"/>
-      <c r="AM36" s="68"/>
-      <c r="AN36" s="68"/>
-      <c r="AO36" s="68"/>
-      <c r="AP36" s="68"/>
-      <c r="AQ36" s="68"/>
-      <c r="AR36" s="68"/>
-      <c r="AS36" s="68"/>
-      <c r="AT36" s="68"/>
-      <c r="AU36" s="68"/>
-      <c r="AV36" s="68"/>
-      <c r="AW36" s="68"/>
-      <c r="AX36" s="68"/>
-      <c r="AY36" s="68"/>
-      <c r="AZ36" s="68"/>
-      <c r="BA36" s="68"/>
-      <c r="BB36" s="68"/>
-      <c r="BC36" s="68"/>
-      <c r="BD36" s="68"/>
-      <c r="BE36" s="68"/>
-      <c r="BF36" s="68"/>
-      <c r="BG36" s="68"/>
-      <c r="BH36" s="68"/>
-      <c r="BI36" s="68"/>
-      <c r="BJ36" s="68"/>
-      <c r="BK36" s="68"/>
-      <c r="BL36" s="68"/>
-      <c r="BM36" s="68"/>
-      <c r="BN36" s="68"/>
+      <c r="AK36" s="70"/>
+      <c r="AL36" s="74"/>
+      <c r="AM36" s="74"/>
+      <c r="AN36" s="74"/>
+      <c r="AO36" s="74"/>
+      <c r="AP36" s="74"/>
+      <c r="AQ36" s="74"/>
+      <c r="AR36" s="74"/>
+      <c r="AS36" s="74"/>
+      <c r="AT36" s="74"/>
+      <c r="AU36" s="74"/>
+      <c r="AV36" s="74"/>
+      <c r="AW36" s="74"/>
+      <c r="AX36" s="74"/>
+      <c r="AY36" s="74"/>
+      <c r="AZ36" s="74"/>
+      <c r="BA36" s="74"/>
+      <c r="BB36" s="74"/>
+      <c r="BC36" s="74"/>
+      <c r="BD36" s="74"/>
+      <c r="BE36" s="74"/>
+      <c r="BF36" s="74"/>
+      <c r="BG36" s="74"/>
+      <c r="BH36" s="74"/>
+      <c r="BI36" s="74"/>
+      <c r="BJ36" s="74"/>
+      <c r="BK36" s="74"/>
+      <c r="BL36" s="74"/>
+      <c r="BM36" s="74"/>
+      <c r="BN36" s="74"/>
       <c r="BO36" s="61"/>
       <c r="BP36" s="18"/>
     </row>
@@ -7167,31 +7167,31 @@
       <c r="A37" s="18"/>
       <c r="B37" s="37"/>
       <c r="C37" s="56"/>
-      <c r="D37" s="65" t="s">
+      <c r="D37" s="67" t="s">
         <v>160</v>
       </c>
-      <c r="E37" s="65"/>
-      <c r="F37" s="65"/>
-      <c r="G37" s="65"/>
-      <c r="H37" s="65"/>
-      <c r="I37" s="65"/>
-      <c r="J37" s="65"/>
-      <c r="K37" s="65"/>
-      <c r="L37" s="65"/>
-      <c r="M37" s="65"/>
-      <c r="N37" s="65"/>
-      <c r="O37" s="65"/>
-      <c r="P37" s="66"/>
-      <c r="Q37" s="67" t="s">
+      <c r="E37" s="67"/>
+      <c r="F37" s="67"/>
+      <c r="G37" s="67"/>
+      <c r="H37" s="67"/>
+      <c r="I37" s="67"/>
+      <c r="J37" s="67"/>
+      <c r="K37" s="67"/>
+      <c r="L37" s="67"/>
+      <c r="M37" s="67"/>
+      <c r="N37" s="67"/>
+      <c r="O37" s="67"/>
+      <c r="P37" s="68"/>
+      <c r="Q37" s="95" t="s">
         <v>38</v>
       </c>
-      <c r="R37" s="68"/>
-      <c r="S37" s="68"/>
-      <c r="T37" s="68"/>
-      <c r="U37" s="68"/>
-      <c r="V37" s="68"/>
+      <c r="R37" s="74"/>
+      <c r="S37" s="74"/>
+      <c r="T37" s="74"/>
+      <c r="U37" s="74"/>
+      <c r="V37" s="74"/>
       <c r="W37" s="61"/>
-      <c r="X37" s="69" t="s">
+      <c r="X37" s="70" t="s">
         <v>39</v>
       </c>
       <c r="Y37" s="60"/>
@@ -7200,42 +7200,42 @@
       <c r="AB37" s="60"/>
       <c r="AC37" s="60"/>
       <c r="AD37" s="61"/>
-      <c r="AE37" s="70"/>
-      <c r="AF37" s="68"/>
+      <c r="AE37" s="66"/>
+      <c r="AF37" s="74"/>
       <c r="AG37" s="61"/>
       <c r="AH37" s="71"/>
-      <c r="AI37" s="72"/>
+      <c r="AI37" s="75"/>
       <c r="AJ37" s="73"/>
-      <c r="AK37" s="69"/>
-      <c r="AL37" s="68"/>
-      <c r="AM37" s="68"/>
-      <c r="AN37" s="68"/>
-      <c r="AO37" s="68"/>
-      <c r="AP37" s="68"/>
-      <c r="AQ37" s="68"/>
-      <c r="AR37" s="68"/>
-      <c r="AS37" s="68"/>
-      <c r="AT37" s="68"/>
-      <c r="AU37" s="68"/>
-      <c r="AV37" s="68"/>
-      <c r="AW37" s="68"/>
-      <c r="AX37" s="68"/>
-      <c r="AY37" s="68"/>
-      <c r="AZ37" s="68"/>
-      <c r="BA37" s="68"/>
-      <c r="BB37" s="68"/>
-      <c r="BC37" s="68"/>
-      <c r="BD37" s="68"/>
-      <c r="BE37" s="68"/>
-      <c r="BF37" s="68"/>
-      <c r="BG37" s="68"/>
-      <c r="BH37" s="68"/>
-      <c r="BI37" s="68"/>
-      <c r="BJ37" s="68"/>
-      <c r="BK37" s="68"/>
-      <c r="BL37" s="68"/>
-      <c r="BM37" s="68"/>
-      <c r="BN37" s="68"/>
+      <c r="AK37" s="70"/>
+      <c r="AL37" s="74"/>
+      <c r="AM37" s="74"/>
+      <c r="AN37" s="74"/>
+      <c r="AO37" s="74"/>
+      <c r="AP37" s="74"/>
+      <c r="AQ37" s="74"/>
+      <c r="AR37" s="74"/>
+      <c r="AS37" s="74"/>
+      <c r="AT37" s="74"/>
+      <c r="AU37" s="74"/>
+      <c r="AV37" s="74"/>
+      <c r="AW37" s="74"/>
+      <c r="AX37" s="74"/>
+      <c r="AY37" s="74"/>
+      <c r="AZ37" s="74"/>
+      <c r="BA37" s="74"/>
+      <c r="BB37" s="74"/>
+      <c r="BC37" s="74"/>
+      <c r="BD37" s="74"/>
+      <c r="BE37" s="74"/>
+      <c r="BF37" s="74"/>
+      <c r="BG37" s="74"/>
+      <c r="BH37" s="74"/>
+      <c r="BI37" s="74"/>
+      <c r="BJ37" s="74"/>
+      <c r="BK37" s="74"/>
+      <c r="BL37" s="74"/>
+      <c r="BM37" s="74"/>
+      <c r="BN37" s="74"/>
       <c r="BO37" s="61"/>
       <c r="BP37" s="18"/>
     </row>
@@ -7243,31 +7243,31 @@
       <c r="A38" s="18"/>
       <c r="B38" s="37"/>
       <c r="C38" s="56"/>
-      <c r="D38" s="65" t="s">
+      <c r="D38" s="67" t="s">
         <v>161</v>
       </c>
-      <c r="E38" s="65"/>
-      <c r="F38" s="65"/>
-      <c r="G38" s="65"/>
-      <c r="H38" s="65"/>
-      <c r="I38" s="65"/>
-      <c r="J38" s="65"/>
-      <c r="K38" s="65"/>
-      <c r="L38" s="65"/>
-      <c r="M38" s="65"/>
-      <c r="N38" s="65"/>
-      <c r="O38" s="65"/>
-      <c r="P38" s="66"/>
-      <c r="Q38" s="67" t="s">
+      <c r="E38" s="67"/>
+      <c r="F38" s="67"/>
+      <c r="G38" s="67"/>
+      <c r="H38" s="67"/>
+      <c r="I38" s="67"/>
+      <c r="J38" s="67"/>
+      <c r="K38" s="67"/>
+      <c r="L38" s="67"/>
+      <c r="M38" s="67"/>
+      <c r="N38" s="67"/>
+      <c r="O38" s="67"/>
+      <c r="P38" s="68"/>
+      <c r="Q38" s="95" t="s">
         <v>38</v>
       </c>
-      <c r="R38" s="68"/>
-      <c r="S38" s="68"/>
-      <c r="T38" s="68"/>
-      <c r="U38" s="68"/>
-      <c r="V38" s="68"/>
+      <c r="R38" s="74"/>
+      <c r="S38" s="74"/>
+      <c r="T38" s="74"/>
+      <c r="U38" s="74"/>
+      <c r="V38" s="74"/>
       <c r="W38" s="61"/>
-      <c r="X38" s="69" t="s">
+      <c r="X38" s="70" t="s">
         <v>39</v>
       </c>
       <c r="Y38" s="60"/>
@@ -7276,42 +7276,42 @@
       <c r="AB38" s="60"/>
       <c r="AC38" s="60"/>
       <c r="AD38" s="61"/>
-      <c r="AE38" s="70"/>
-      <c r="AF38" s="68"/>
+      <c r="AE38" s="66"/>
+      <c r="AF38" s="74"/>
       <c r="AG38" s="61"/>
       <c r="AH38" s="71"/>
-      <c r="AI38" s="72"/>
+      <c r="AI38" s="75"/>
       <c r="AJ38" s="73"/>
-      <c r="AK38" s="69"/>
-      <c r="AL38" s="68"/>
-      <c r="AM38" s="68"/>
-      <c r="AN38" s="68"/>
-      <c r="AO38" s="68"/>
-      <c r="AP38" s="68"/>
-      <c r="AQ38" s="68"/>
-      <c r="AR38" s="68"/>
-      <c r="AS38" s="68"/>
-      <c r="AT38" s="68"/>
-      <c r="AU38" s="68"/>
-      <c r="AV38" s="68"/>
-      <c r="AW38" s="68"/>
-      <c r="AX38" s="68"/>
-      <c r="AY38" s="68"/>
-      <c r="AZ38" s="68"/>
-      <c r="BA38" s="68"/>
-      <c r="BB38" s="68"/>
-      <c r="BC38" s="68"/>
-      <c r="BD38" s="68"/>
-      <c r="BE38" s="68"/>
-      <c r="BF38" s="68"/>
-      <c r="BG38" s="68"/>
-      <c r="BH38" s="68"/>
-      <c r="BI38" s="68"/>
-      <c r="BJ38" s="68"/>
-      <c r="BK38" s="68"/>
-      <c r="BL38" s="68"/>
-      <c r="BM38" s="68"/>
-      <c r="BN38" s="68"/>
+      <c r="AK38" s="70"/>
+      <c r="AL38" s="74"/>
+      <c r="AM38" s="74"/>
+      <c r="AN38" s="74"/>
+      <c r="AO38" s="74"/>
+      <c r="AP38" s="74"/>
+      <c r="AQ38" s="74"/>
+      <c r="AR38" s="74"/>
+      <c r="AS38" s="74"/>
+      <c r="AT38" s="74"/>
+      <c r="AU38" s="74"/>
+      <c r="AV38" s="74"/>
+      <c r="AW38" s="74"/>
+      <c r="AX38" s="74"/>
+      <c r="AY38" s="74"/>
+      <c r="AZ38" s="74"/>
+      <c r="BA38" s="74"/>
+      <c r="BB38" s="74"/>
+      <c r="BC38" s="74"/>
+      <c r="BD38" s="74"/>
+      <c r="BE38" s="74"/>
+      <c r="BF38" s="74"/>
+      <c r="BG38" s="74"/>
+      <c r="BH38" s="74"/>
+      <c r="BI38" s="74"/>
+      <c r="BJ38" s="74"/>
+      <c r="BK38" s="74"/>
+      <c r="BL38" s="74"/>
+      <c r="BM38" s="74"/>
+      <c r="BN38" s="74"/>
       <c r="BO38" s="61"/>
       <c r="BP38" s="18"/>
     </row>
@@ -7319,31 +7319,31 @@
       <c r="A39" s="18"/>
       <c r="B39" s="37"/>
       <c r="C39" s="56"/>
-      <c r="D39" s="65" t="s">
+      <c r="D39" s="67" t="s">
         <v>162</v>
       </c>
-      <c r="E39" s="65"/>
-      <c r="F39" s="65"/>
-      <c r="G39" s="65"/>
-      <c r="H39" s="65"/>
-      <c r="I39" s="65"/>
-      <c r="J39" s="65"/>
-      <c r="K39" s="65"/>
-      <c r="L39" s="65"/>
-      <c r="M39" s="65"/>
-      <c r="N39" s="65"/>
-      <c r="O39" s="65"/>
-      <c r="P39" s="66"/>
-      <c r="Q39" s="67" t="s">
+      <c r="E39" s="67"/>
+      <c r="F39" s="67"/>
+      <c r="G39" s="67"/>
+      <c r="H39" s="67"/>
+      <c r="I39" s="67"/>
+      <c r="J39" s="67"/>
+      <c r="K39" s="67"/>
+      <c r="L39" s="67"/>
+      <c r="M39" s="67"/>
+      <c r="N39" s="67"/>
+      <c r="O39" s="67"/>
+      <c r="P39" s="68"/>
+      <c r="Q39" s="95" t="s">
         <v>38</v>
       </c>
-      <c r="R39" s="68"/>
-      <c r="S39" s="68"/>
-      <c r="T39" s="68"/>
-      <c r="U39" s="68"/>
-      <c r="V39" s="68"/>
+      <c r="R39" s="74"/>
+      <c r="S39" s="74"/>
+      <c r="T39" s="74"/>
+      <c r="U39" s="74"/>
+      <c r="V39" s="74"/>
       <c r="W39" s="61"/>
-      <c r="X39" s="69" t="s">
+      <c r="X39" s="70" t="s">
         <v>39</v>
       </c>
       <c r="Y39" s="60"/>
@@ -7352,42 +7352,42 @@
       <c r="AB39" s="60"/>
       <c r="AC39" s="60"/>
       <c r="AD39" s="61"/>
-      <c r="AE39" s="70"/>
-      <c r="AF39" s="68"/>
+      <c r="AE39" s="66"/>
+      <c r="AF39" s="74"/>
       <c r="AG39" s="61"/>
       <c r="AH39" s="71"/>
-      <c r="AI39" s="72"/>
+      <c r="AI39" s="75"/>
       <c r="AJ39" s="73"/>
-      <c r="AK39" s="69"/>
-      <c r="AL39" s="68"/>
-      <c r="AM39" s="68"/>
-      <c r="AN39" s="68"/>
-      <c r="AO39" s="68"/>
-      <c r="AP39" s="68"/>
-      <c r="AQ39" s="68"/>
-      <c r="AR39" s="68"/>
-      <c r="AS39" s="68"/>
-      <c r="AT39" s="68"/>
-      <c r="AU39" s="68"/>
-      <c r="AV39" s="68"/>
-      <c r="AW39" s="68"/>
-      <c r="AX39" s="68"/>
-      <c r="AY39" s="68"/>
-      <c r="AZ39" s="68"/>
-      <c r="BA39" s="68"/>
-      <c r="BB39" s="68"/>
-      <c r="BC39" s="68"/>
-      <c r="BD39" s="68"/>
-      <c r="BE39" s="68"/>
-      <c r="BF39" s="68"/>
-      <c r="BG39" s="68"/>
-      <c r="BH39" s="68"/>
-      <c r="BI39" s="68"/>
-      <c r="BJ39" s="68"/>
-      <c r="BK39" s="68"/>
-      <c r="BL39" s="68"/>
-      <c r="BM39" s="68"/>
-      <c r="BN39" s="68"/>
+      <c r="AK39" s="70"/>
+      <c r="AL39" s="74"/>
+      <c r="AM39" s="74"/>
+      <c r="AN39" s="74"/>
+      <c r="AO39" s="74"/>
+      <c r="AP39" s="74"/>
+      <c r="AQ39" s="74"/>
+      <c r="AR39" s="74"/>
+      <c r="AS39" s="74"/>
+      <c r="AT39" s="74"/>
+      <c r="AU39" s="74"/>
+      <c r="AV39" s="74"/>
+      <c r="AW39" s="74"/>
+      <c r="AX39" s="74"/>
+      <c r="AY39" s="74"/>
+      <c r="AZ39" s="74"/>
+      <c r="BA39" s="74"/>
+      <c r="BB39" s="74"/>
+      <c r="BC39" s="74"/>
+      <c r="BD39" s="74"/>
+      <c r="BE39" s="74"/>
+      <c r="BF39" s="74"/>
+      <c r="BG39" s="74"/>
+      <c r="BH39" s="74"/>
+      <c r="BI39" s="74"/>
+      <c r="BJ39" s="74"/>
+      <c r="BK39" s="74"/>
+      <c r="BL39" s="74"/>
+      <c r="BM39" s="74"/>
+      <c r="BN39" s="74"/>
       <c r="BO39" s="61"/>
       <c r="BP39" s="18"/>
     </row>
@@ -7395,31 +7395,31 @@
       <c r="A40" s="18"/>
       <c r="B40" s="37"/>
       <c r="C40" s="56"/>
-      <c r="D40" s="65" t="s">
+      <c r="D40" s="67" t="s">
         <v>163</v>
       </c>
-      <c r="E40" s="65"/>
-      <c r="F40" s="65"/>
-      <c r="G40" s="65"/>
-      <c r="H40" s="65"/>
-      <c r="I40" s="65"/>
-      <c r="J40" s="65"/>
-      <c r="K40" s="65"/>
-      <c r="L40" s="65"/>
-      <c r="M40" s="65"/>
-      <c r="N40" s="65"/>
-      <c r="O40" s="65"/>
-      <c r="P40" s="66"/>
-      <c r="Q40" s="67" t="s">
+      <c r="E40" s="67"/>
+      <c r="F40" s="67"/>
+      <c r="G40" s="67"/>
+      <c r="H40" s="67"/>
+      <c r="I40" s="67"/>
+      <c r="J40" s="67"/>
+      <c r="K40" s="67"/>
+      <c r="L40" s="67"/>
+      <c r="M40" s="67"/>
+      <c r="N40" s="67"/>
+      <c r="O40" s="67"/>
+      <c r="P40" s="68"/>
+      <c r="Q40" s="95" t="s">
         <v>38</v>
       </c>
-      <c r="R40" s="68"/>
-      <c r="S40" s="68"/>
-      <c r="T40" s="68"/>
-      <c r="U40" s="68"/>
-      <c r="V40" s="68"/>
+      <c r="R40" s="74"/>
+      <c r="S40" s="74"/>
+      <c r="T40" s="74"/>
+      <c r="U40" s="74"/>
+      <c r="V40" s="74"/>
       <c r="W40" s="61"/>
-      <c r="X40" s="69" t="s">
+      <c r="X40" s="70" t="s">
         <v>39</v>
       </c>
       <c r="Y40" s="60"/>
@@ -7428,42 +7428,42 @@
       <c r="AB40" s="60"/>
       <c r="AC40" s="60"/>
       <c r="AD40" s="61"/>
-      <c r="AE40" s="70"/>
-      <c r="AF40" s="68"/>
+      <c r="AE40" s="66"/>
+      <c r="AF40" s="74"/>
       <c r="AG40" s="61"/>
       <c r="AH40" s="71"/>
-      <c r="AI40" s="72"/>
+      <c r="AI40" s="75"/>
       <c r="AJ40" s="73"/>
-      <c r="AK40" s="69"/>
-      <c r="AL40" s="68"/>
-      <c r="AM40" s="68"/>
-      <c r="AN40" s="68"/>
-      <c r="AO40" s="68"/>
-      <c r="AP40" s="68"/>
-      <c r="AQ40" s="68"/>
-      <c r="AR40" s="68"/>
-      <c r="AS40" s="68"/>
-      <c r="AT40" s="68"/>
-      <c r="AU40" s="68"/>
-      <c r="AV40" s="68"/>
-      <c r="AW40" s="68"/>
-      <c r="AX40" s="68"/>
-      <c r="AY40" s="68"/>
-      <c r="AZ40" s="68"/>
-      <c r="BA40" s="68"/>
-      <c r="BB40" s="68"/>
-      <c r="BC40" s="68"/>
-      <c r="BD40" s="68"/>
-      <c r="BE40" s="68"/>
-      <c r="BF40" s="68"/>
-      <c r="BG40" s="68"/>
-      <c r="BH40" s="68"/>
-      <c r="BI40" s="68"/>
-      <c r="BJ40" s="68"/>
-      <c r="BK40" s="68"/>
-      <c r="BL40" s="68"/>
-      <c r="BM40" s="68"/>
-      <c r="BN40" s="68"/>
+      <c r="AK40" s="70"/>
+      <c r="AL40" s="74"/>
+      <c r="AM40" s="74"/>
+      <c r="AN40" s="74"/>
+      <c r="AO40" s="74"/>
+      <c r="AP40" s="74"/>
+      <c r="AQ40" s="74"/>
+      <c r="AR40" s="74"/>
+      <c r="AS40" s="74"/>
+      <c r="AT40" s="74"/>
+      <c r="AU40" s="74"/>
+      <c r="AV40" s="74"/>
+      <c r="AW40" s="74"/>
+      <c r="AX40" s="74"/>
+      <c r="AY40" s="74"/>
+      <c r="AZ40" s="74"/>
+      <c r="BA40" s="74"/>
+      <c r="BB40" s="74"/>
+      <c r="BC40" s="74"/>
+      <c r="BD40" s="74"/>
+      <c r="BE40" s="74"/>
+      <c r="BF40" s="74"/>
+      <c r="BG40" s="74"/>
+      <c r="BH40" s="74"/>
+      <c r="BI40" s="74"/>
+      <c r="BJ40" s="74"/>
+      <c r="BK40" s="74"/>
+      <c r="BL40" s="74"/>
+      <c r="BM40" s="74"/>
+      <c r="BN40" s="74"/>
       <c r="BO40" s="61"/>
       <c r="BP40" s="18"/>
     </row>
@@ -7471,31 +7471,31 @@
       <c r="A41" s="18"/>
       <c r="B41" s="37"/>
       <c r="C41" s="56"/>
-      <c r="D41" s="65" t="s">
+      <c r="D41" s="67" t="s">
         <v>164</v>
       </c>
-      <c r="E41" s="65"/>
-      <c r="F41" s="65"/>
-      <c r="G41" s="65"/>
-      <c r="H41" s="65"/>
-      <c r="I41" s="65"/>
-      <c r="J41" s="65"/>
-      <c r="K41" s="65"/>
-      <c r="L41" s="65"/>
-      <c r="M41" s="65"/>
-      <c r="N41" s="65"/>
-      <c r="O41" s="65"/>
-      <c r="P41" s="66"/>
-      <c r="Q41" s="67" t="s">
+      <c r="E41" s="67"/>
+      <c r="F41" s="67"/>
+      <c r="G41" s="67"/>
+      <c r="H41" s="67"/>
+      <c r="I41" s="67"/>
+      <c r="J41" s="67"/>
+      <c r="K41" s="67"/>
+      <c r="L41" s="67"/>
+      <c r="M41" s="67"/>
+      <c r="N41" s="67"/>
+      <c r="O41" s="67"/>
+      <c r="P41" s="68"/>
+      <c r="Q41" s="95" t="s">
         <v>38</v>
       </c>
-      <c r="R41" s="68"/>
-      <c r="S41" s="68"/>
-      <c r="T41" s="68"/>
-      <c r="U41" s="68"/>
-      <c r="V41" s="68"/>
+      <c r="R41" s="74"/>
+      <c r="S41" s="74"/>
+      <c r="T41" s="74"/>
+      <c r="U41" s="74"/>
+      <c r="V41" s="74"/>
       <c r="W41" s="61"/>
-      <c r="X41" s="69" t="s">
+      <c r="X41" s="70" t="s">
         <v>39</v>
       </c>
       <c r="Y41" s="60"/>
@@ -7504,42 +7504,42 @@
       <c r="AB41" s="60"/>
       <c r="AC41" s="60"/>
       <c r="AD41" s="61"/>
-      <c r="AE41" s="70"/>
-      <c r="AF41" s="68"/>
+      <c r="AE41" s="66"/>
+      <c r="AF41" s="74"/>
       <c r="AG41" s="61"/>
       <c r="AH41" s="71"/>
-      <c r="AI41" s="72"/>
+      <c r="AI41" s="75"/>
       <c r="AJ41" s="73"/>
-      <c r="AK41" s="69"/>
-      <c r="AL41" s="68"/>
-      <c r="AM41" s="68"/>
-      <c r="AN41" s="68"/>
-      <c r="AO41" s="68"/>
-      <c r="AP41" s="68"/>
-      <c r="AQ41" s="68"/>
-      <c r="AR41" s="68"/>
-      <c r="AS41" s="68"/>
-      <c r="AT41" s="68"/>
-      <c r="AU41" s="68"/>
-      <c r="AV41" s="68"/>
-      <c r="AW41" s="68"/>
-      <c r="AX41" s="68"/>
-      <c r="AY41" s="68"/>
-      <c r="AZ41" s="68"/>
-      <c r="BA41" s="68"/>
-      <c r="BB41" s="68"/>
-      <c r="BC41" s="68"/>
-      <c r="BD41" s="68"/>
-      <c r="BE41" s="68"/>
-      <c r="BF41" s="68"/>
-      <c r="BG41" s="68"/>
-      <c r="BH41" s="68"/>
-      <c r="BI41" s="68"/>
-      <c r="BJ41" s="68"/>
-      <c r="BK41" s="68"/>
-      <c r="BL41" s="68"/>
-      <c r="BM41" s="68"/>
-      <c r="BN41" s="68"/>
+      <c r="AK41" s="70"/>
+      <c r="AL41" s="74"/>
+      <c r="AM41" s="74"/>
+      <c r="AN41" s="74"/>
+      <c r="AO41" s="74"/>
+      <c r="AP41" s="74"/>
+      <c r="AQ41" s="74"/>
+      <c r="AR41" s="74"/>
+      <c r="AS41" s="74"/>
+      <c r="AT41" s="74"/>
+      <c r="AU41" s="74"/>
+      <c r="AV41" s="74"/>
+      <c r="AW41" s="74"/>
+      <c r="AX41" s="74"/>
+      <c r="AY41" s="74"/>
+      <c r="AZ41" s="74"/>
+      <c r="BA41" s="74"/>
+      <c r="BB41" s="74"/>
+      <c r="BC41" s="74"/>
+      <c r="BD41" s="74"/>
+      <c r="BE41" s="74"/>
+      <c r="BF41" s="74"/>
+      <c r="BG41" s="74"/>
+      <c r="BH41" s="74"/>
+      <c r="BI41" s="74"/>
+      <c r="BJ41" s="74"/>
+      <c r="BK41" s="74"/>
+      <c r="BL41" s="74"/>
+      <c r="BM41" s="74"/>
+      <c r="BN41" s="74"/>
       <c r="BO41" s="61"/>
       <c r="BP41" s="18"/>
     </row>
@@ -7547,31 +7547,31 @@
       <c r="A42" s="18"/>
       <c r="B42" s="37"/>
       <c r="C42" s="56"/>
-      <c r="D42" s="65" t="s">
+      <c r="D42" s="67" t="s">
         <v>165</v>
       </c>
-      <c r="E42" s="65"/>
-      <c r="F42" s="65"/>
-      <c r="G42" s="65"/>
-      <c r="H42" s="65"/>
-      <c r="I42" s="65"/>
-      <c r="J42" s="65"/>
-      <c r="K42" s="65"/>
-      <c r="L42" s="65"/>
-      <c r="M42" s="65"/>
-      <c r="N42" s="65"/>
-      <c r="O42" s="65"/>
-      <c r="P42" s="66"/>
-      <c r="Q42" s="67" t="s">
+      <c r="E42" s="67"/>
+      <c r="F42" s="67"/>
+      <c r="G42" s="67"/>
+      <c r="H42" s="67"/>
+      <c r="I42" s="67"/>
+      <c r="J42" s="67"/>
+      <c r="K42" s="67"/>
+      <c r="L42" s="67"/>
+      <c r="M42" s="67"/>
+      <c r="N42" s="67"/>
+      <c r="O42" s="67"/>
+      <c r="P42" s="68"/>
+      <c r="Q42" s="95" t="s">
         <v>38</v>
       </c>
-      <c r="R42" s="68"/>
-      <c r="S42" s="68"/>
-      <c r="T42" s="68"/>
-      <c r="U42" s="68"/>
-      <c r="V42" s="68"/>
+      <c r="R42" s="74"/>
+      <c r="S42" s="74"/>
+      <c r="T42" s="74"/>
+      <c r="U42" s="74"/>
+      <c r="V42" s="74"/>
       <c r="W42" s="61"/>
-      <c r="X42" s="69" t="s">
+      <c r="X42" s="70" t="s">
         <v>39</v>
       </c>
       <c r="Y42" s="60"/>
@@ -7580,42 +7580,42 @@
       <c r="AB42" s="60"/>
       <c r="AC42" s="60"/>
       <c r="AD42" s="61"/>
-      <c r="AE42" s="70"/>
-      <c r="AF42" s="68"/>
+      <c r="AE42" s="66"/>
+      <c r="AF42" s="74"/>
       <c r="AG42" s="61"/>
       <c r="AH42" s="71"/>
-      <c r="AI42" s="72"/>
+      <c r="AI42" s="75"/>
       <c r="AJ42" s="73"/>
-      <c r="AK42" s="69"/>
-      <c r="AL42" s="68"/>
-      <c r="AM42" s="68"/>
-      <c r="AN42" s="68"/>
-      <c r="AO42" s="68"/>
-      <c r="AP42" s="68"/>
-      <c r="AQ42" s="68"/>
-      <c r="AR42" s="68"/>
-      <c r="AS42" s="68"/>
-      <c r="AT42" s="68"/>
-      <c r="AU42" s="68"/>
-      <c r="AV42" s="68"/>
-      <c r="AW42" s="68"/>
-      <c r="AX42" s="68"/>
-      <c r="AY42" s="68"/>
-      <c r="AZ42" s="68"/>
-      <c r="BA42" s="68"/>
-      <c r="BB42" s="68"/>
-      <c r="BC42" s="68"/>
-      <c r="BD42" s="68"/>
-      <c r="BE42" s="68"/>
-      <c r="BF42" s="68"/>
-      <c r="BG42" s="68"/>
-      <c r="BH42" s="68"/>
-      <c r="BI42" s="68"/>
-      <c r="BJ42" s="68"/>
-      <c r="BK42" s="68"/>
-      <c r="BL42" s="68"/>
-      <c r="BM42" s="68"/>
-      <c r="BN42" s="68"/>
+      <c r="AK42" s="70"/>
+      <c r="AL42" s="74"/>
+      <c r="AM42" s="74"/>
+      <c r="AN42" s="74"/>
+      <c r="AO42" s="74"/>
+      <c r="AP42" s="74"/>
+      <c r="AQ42" s="74"/>
+      <c r="AR42" s="74"/>
+      <c r="AS42" s="74"/>
+      <c r="AT42" s="74"/>
+      <c r="AU42" s="74"/>
+      <c r="AV42" s="74"/>
+      <c r="AW42" s="74"/>
+      <c r="AX42" s="74"/>
+      <c r="AY42" s="74"/>
+      <c r="AZ42" s="74"/>
+      <c r="BA42" s="74"/>
+      <c r="BB42" s="74"/>
+      <c r="BC42" s="74"/>
+      <c r="BD42" s="74"/>
+      <c r="BE42" s="74"/>
+      <c r="BF42" s="74"/>
+      <c r="BG42" s="74"/>
+      <c r="BH42" s="74"/>
+      <c r="BI42" s="74"/>
+      <c r="BJ42" s="74"/>
+      <c r="BK42" s="74"/>
+      <c r="BL42" s="74"/>
+      <c r="BM42" s="74"/>
+      <c r="BN42" s="74"/>
       <c r="BO42" s="61"/>
       <c r="BP42" s="18"/>
     </row>
@@ -7623,29 +7623,29 @@
       <c r="A43" s="18"/>
       <c r="B43" s="37"/>
       <c r="C43" s="56"/>
-      <c r="D43" s="65" t="s">
+      <c r="D43" s="67" t="s">
         <v>166</v>
       </c>
-      <c r="E43" s="65"/>
-      <c r="F43" s="65"/>
-      <c r="G43" s="65"/>
-      <c r="H43" s="65"/>
-      <c r="I43" s="65"/>
-      <c r="J43" s="65"/>
-      <c r="K43" s="65"/>
-      <c r="L43" s="65"/>
-      <c r="M43" s="65"/>
-      <c r="N43" s="65"/>
-      <c r="O43" s="65"/>
-      <c r="P43" s="66"/>
-      <c r="Q43" s="67"/>
-      <c r="R43" s="68"/>
-      <c r="S43" s="68"/>
-      <c r="T43" s="68"/>
-      <c r="U43" s="68"/>
-      <c r="V43" s="68"/>
+      <c r="E43" s="67"/>
+      <c r="F43" s="67"/>
+      <c r="G43" s="67"/>
+      <c r="H43" s="67"/>
+      <c r="I43" s="67"/>
+      <c r="J43" s="67"/>
+      <c r="K43" s="67"/>
+      <c r="L43" s="67"/>
+      <c r="M43" s="67"/>
+      <c r="N43" s="67"/>
+      <c r="O43" s="67"/>
+      <c r="P43" s="68"/>
+      <c r="Q43" s="95"/>
+      <c r="R43" s="74"/>
+      <c r="S43" s="74"/>
+      <c r="T43" s="74"/>
+      <c r="U43" s="74"/>
+      <c r="V43" s="74"/>
       <c r="W43" s="61"/>
-      <c r="X43" s="69" t="s">
+      <c r="X43" s="70" t="s">
         <v>39</v>
       </c>
       <c r="Y43" s="60"/>
@@ -7654,44 +7654,44 @@
       <c r="AB43" s="60"/>
       <c r="AC43" s="60"/>
       <c r="AD43" s="61"/>
-      <c r="AE43" s="70"/>
-      <c r="AF43" s="68"/>
+      <c r="AE43" s="66"/>
+      <c r="AF43" s="74"/>
       <c r="AG43" s="61"/>
       <c r="AH43" s="71"/>
-      <c r="AI43" s="72"/>
+      <c r="AI43" s="75"/>
       <c r="AJ43" s="73"/>
-      <c r="AK43" s="74" t="s">
+      <c r="AK43" s="65" t="s">
         <v>167</v>
       </c>
-      <c r="AL43" s="68"/>
-      <c r="AM43" s="68"/>
-      <c r="AN43" s="68"/>
-      <c r="AO43" s="68"/>
-      <c r="AP43" s="68"/>
-      <c r="AQ43" s="68"/>
-      <c r="AR43" s="68"/>
-      <c r="AS43" s="68"/>
-      <c r="AT43" s="68"/>
-      <c r="AU43" s="68"/>
-      <c r="AV43" s="68"/>
-      <c r="AW43" s="68"/>
-      <c r="AX43" s="68"/>
-      <c r="AY43" s="68"/>
-      <c r="AZ43" s="68"/>
-      <c r="BA43" s="68"/>
-      <c r="BB43" s="68"/>
-      <c r="BC43" s="68"/>
-      <c r="BD43" s="68"/>
-      <c r="BE43" s="68"/>
-      <c r="BF43" s="68"/>
-      <c r="BG43" s="68"/>
-      <c r="BH43" s="68"/>
-      <c r="BI43" s="68"/>
-      <c r="BJ43" s="68"/>
-      <c r="BK43" s="68"/>
-      <c r="BL43" s="68"/>
-      <c r="BM43" s="68"/>
-      <c r="BN43" s="68"/>
+      <c r="AL43" s="74"/>
+      <c r="AM43" s="74"/>
+      <c r="AN43" s="74"/>
+      <c r="AO43" s="74"/>
+      <c r="AP43" s="74"/>
+      <c r="AQ43" s="74"/>
+      <c r="AR43" s="74"/>
+      <c r="AS43" s="74"/>
+      <c r="AT43" s="74"/>
+      <c r="AU43" s="74"/>
+      <c r="AV43" s="74"/>
+      <c r="AW43" s="74"/>
+      <c r="AX43" s="74"/>
+      <c r="AY43" s="74"/>
+      <c r="AZ43" s="74"/>
+      <c r="BA43" s="74"/>
+      <c r="BB43" s="74"/>
+      <c r="BC43" s="74"/>
+      <c r="BD43" s="74"/>
+      <c r="BE43" s="74"/>
+      <c r="BF43" s="74"/>
+      <c r="BG43" s="74"/>
+      <c r="BH43" s="74"/>
+      <c r="BI43" s="74"/>
+      <c r="BJ43" s="74"/>
+      <c r="BK43" s="74"/>
+      <c r="BL43" s="74"/>
+      <c r="BM43" s="74"/>
+      <c r="BN43" s="74"/>
       <c r="BO43" s="61"/>
       <c r="BP43" s="18"/>
     </row>
@@ -7699,29 +7699,29 @@
       <c r="A44" s="18"/>
       <c r="B44" s="37"/>
       <c r="C44" s="56"/>
-      <c r="D44" s="65" t="s">
+      <c r="D44" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="E44" s="65"/>
-      <c r="F44" s="65"/>
-      <c r="G44" s="65"/>
-      <c r="H44" s="65"/>
-      <c r="I44" s="65"/>
-      <c r="J44" s="65"/>
-      <c r="K44" s="65"/>
-      <c r="L44" s="65"/>
-      <c r="M44" s="65"/>
-      <c r="N44" s="65"/>
-      <c r="O44" s="65"/>
-      <c r="P44" s="66"/>
-      <c r="Q44" s="67"/>
-      <c r="R44" s="68"/>
-      <c r="S44" s="68"/>
-      <c r="T44" s="68"/>
-      <c r="U44" s="68"/>
-      <c r="V44" s="68"/>
+      <c r="E44" s="67"/>
+      <c r="F44" s="67"/>
+      <c r="G44" s="67"/>
+      <c r="H44" s="67"/>
+      <c r="I44" s="67"/>
+      <c r="J44" s="67"/>
+      <c r="K44" s="67"/>
+      <c r="L44" s="67"/>
+      <c r="M44" s="67"/>
+      <c r="N44" s="67"/>
+      <c r="O44" s="67"/>
+      <c r="P44" s="68"/>
+      <c r="Q44" s="95"/>
+      <c r="R44" s="74"/>
+      <c r="S44" s="74"/>
+      <c r="T44" s="74"/>
+      <c r="U44" s="74"/>
+      <c r="V44" s="74"/>
       <c r="W44" s="61"/>
-      <c r="X44" s="69" t="s">
+      <c r="X44" s="70" t="s">
         <v>39</v>
       </c>
       <c r="Y44" s="60"/>
@@ -7730,42 +7730,42 @@
       <c r="AB44" s="60"/>
       <c r="AC44" s="60"/>
       <c r="AD44" s="61"/>
-      <c r="AE44" s="70"/>
-      <c r="AF44" s="68"/>
+      <c r="AE44" s="66"/>
+      <c r="AF44" s="74"/>
       <c r="AG44" s="61"/>
       <c r="AH44" s="71"/>
-      <c r="AI44" s="72"/>
+      <c r="AI44" s="75"/>
       <c r="AJ44" s="73"/>
-      <c r="AK44" s="69"/>
-      <c r="AL44" s="68"/>
-      <c r="AM44" s="68"/>
-      <c r="AN44" s="68"/>
-      <c r="AO44" s="68"/>
-      <c r="AP44" s="68"/>
-      <c r="AQ44" s="68"/>
-      <c r="AR44" s="68"/>
-      <c r="AS44" s="68"/>
-      <c r="AT44" s="68"/>
-      <c r="AU44" s="68"/>
-      <c r="AV44" s="68"/>
-      <c r="AW44" s="68"/>
-      <c r="AX44" s="68"/>
-      <c r="AY44" s="68"/>
-      <c r="AZ44" s="68"/>
-      <c r="BA44" s="68"/>
-      <c r="BB44" s="68"/>
-      <c r="BC44" s="68"/>
-      <c r="BD44" s="68"/>
-      <c r="BE44" s="68"/>
-      <c r="BF44" s="68"/>
-      <c r="BG44" s="68"/>
-      <c r="BH44" s="68"/>
-      <c r="BI44" s="68"/>
-      <c r="BJ44" s="68"/>
-      <c r="BK44" s="68"/>
-      <c r="BL44" s="68"/>
-      <c r="BM44" s="68"/>
-      <c r="BN44" s="68"/>
+      <c r="AK44" s="70"/>
+      <c r="AL44" s="74"/>
+      <c r="AM44" s="74"/>
+      <c r="AN44" s="74"/>
+      <c r="AO44" s="74"/>
+      <c r="AP44" s="74"/>
+      <c r="AQ44" s="74"/>
+      <c r="AR44" s="74"/>
+      <c r="AS44" s="74"/>
+      <c r="AT44" s="74"/>
+      <c r="AU44" s="74"/>
+      <c r="AV44" s="74"/>
+      <c r="AW44" s="74"/>
+      <c r="AX44" s="74"/>
+      <c r="AY44" s="74"/>
+      <c r="AZ44" s="74"/>
+      <c r="BA44" s="74"/>
+      <c r="BB44" s="74"/>
+      <c r="BC44" s="74"/>
+      <c r="BD44" s="74"/>
+      <c r="BE44" s="74"/>
+      <c r="BF44" s="74"/>
+      <c r="BG44" s="74"/>
+      <c r="BH44" s="74"/>
+      <c r="BI44" s="74"/>
+      <c r="BJ44" s="74"/>
+      <c r="BK44" s="74"/>
+      <c r="BL44" s="74"/>
+      <c r="BM44" s="74"/>
+      <c r="BN44" s="74"/>
       <c r="BO44" s="61"/>
       <c r="BP44" s="18"/>
     </row>
@@ -7773,29 +7773,29 @@
       <c r="A45" s="18"/>
       <c r="B45" s="37"/>
       <c r="C45" s="56"/>
-      <c r="D45" s="65" t="s">
+      <c r="D45" s="67" t="s">
         <v>169</v>
       </c>
-      <c r="E45" s="65"/>
-      <c r="F45" s="65"/>
-      <c r="G45" s="65"/>
-      <c r="H45" s="65"/>
-      <c r="I45" s="65"/>
-      <c r="J45" s="65"/>
-      <c r="K45" s="65"/>
-      <c r="L45" s="65"/>
-      <c r="M45" s="65"/>
-      <c r="N45" s="65"/>
-      <c r="O45" s="65"/>
-      <c r="P45" s="66"/>
-      <c r="Q45" s="67"/>
-      <c r="R45" s="68"/>
-      <c r="S45" s="68"/>
-      <c r="T45" s="68"/>
-      <c r="U45" s="68"/>
-      <c r="V45" s="68"/>
+      <c r="E45" s="67"/>
+      <c r="F45" s="67"/>
+      <c r="G45" s="67"/>
+      <c r="H45" s="67"/>
+      <c r="I45" s="67"/>
+      <c r="J45" s="67"/>
+      <c r="K45" s="67"/>
+      <c r="L45" s="67"/>
+      <c r="M45" s="67"/>
+      <c r="N45" s="67"/>
+      <c r="O45" s="67"/>
+      <c r="P45" s="68"/>
+      <c r="Q45" s="95"/>
+      <c r="R45" s="74"/>
+      <c r="S45" s="74"/>
+      <c r="T45" s="74"/>
+      <c r="U45" s="74"/>
+      <c r="V45" s="74"/>
       <c r="W45" s="61"/>
-      <c r="X45" s="69" t="s">
+      <c r="X45" s="70" t="s">
         <v>39</v>
       </c>
       <c r="Y45" s="60"/>
@@ -7804,44 +7804,44 @@
       <c r="AB45" s="60"/>
       <c r="AC45" s="60"/>
       <c r="AD45" s="61"/>
-      <c r="AE45" s="70"/>
-      <c r="AF45" s="68"/>
+      <c r="AE45" s="66"/>
+      <c r="AF45" s="74"/>
       <c r="AG45" s="61"/>
       <c r="AH45" s="71"/>
-      <c r="AI45" s="72"/>
+      <c r="AI45" s="75"/>
       <c r="AJ45" s="73"/>
-      <c r="AK45" s="74" t="s">
+      <c r="AK45" s="65" t="s">
         <v>170</v>
       </c>
-      <c r="AL45" s="68"/>
-      <c r="AM45" s="68"/>
-      <c r="AN45" s="68"/>
-      <c r="AO45" s="68"/>
-      <c r="AP45" s="68"/>
-      <c r="AQ45" s="68"/>
-      <c r="AR45" s="68"/>
-      <c r="AS45" s="68"/>
-      <c r="AT45" s="68"/>
-      <c r="AU45" s="68"/>
-      <c r="AV45" s="68"/>
-      <c r="AW45" s="68"/>
-      <c r="AX45" s="68"/>
-      <c r="AY45" s="68"/>
-      <c r="AZ45" s="68"/>
-      <c r="BA45" s="68"/>
-      <c r="BB45" s="68"/>
-      <c r="BC45" s="68"/>
-      <c r="BD45" s="68"/>
-      <c r="BE45" s="68"/>
-      <c r="BF45" s="68"/>
-      <c r="BG45" s="68"/>
-      <c r="BH45" s="68"/>
-      <c r="BI45" s="68"/>
-      <c r="BJ45" s="68"/>
-      <c r="BK45" s="68"/>
-      <c r="BL45" s="68"/>
-      <c r="BM45" s="68"/>
-      <c r="BN45" s="68"/>
+      <c r="AL45" s="74"/>
+      <c r="AM45" s="74"/>
+      <c r="AN45" s="74"/>
+      <c r="AO45" s="74"/>
+      <c r="AP45" s="74"/>
+      <c r="AQ45" s="74"/>
+      <c r="AR45" s="74"/>
+      <c r="AS45" s="74"/>
+      <c r="AT45" s="74"/>
+      <c r="AU45" s="74"/>
+      <c r="AV45" s="74"/>
+      <c r="AW45" s="74"/>
+      <c r="AX45" s="74"/>
+      <c r="AY45" s="74"/>
+      <c r="AZ45" s="74"/>
+      <c r="BA45" s="74"/>
+      <c r="BB45" s="74"/>
+      <c r="BC45" s="74"/>
+      <c r="BD45" s="74"/>
+      <c r="BE45" s="74"/>
+      <c r="BF45" s="74"/>
+      <c r="BG45" s="74"/>
+      <c r="BH45" s="74"/>
+      <c r="BI45" s="74"/>
+      <c r="BJ45" s="74"/>
+      <c r="BK45" s="74"/>
+      <c r="BL45" s="74"/>
+      <c r="BM45" s="74"/>
+      <c r="BN45" s="74"/>
       <c r="BO45" s="61"/>
       <c r="BP45" s="18"/>
     </row>
@@ -7849,29 +7849,29 @@
       <c r="A46" s="18"/>
       <c r="B46" s="37"/>
       <c r="C46" s="56"/>
-      <c r="D46" s="65" t="s">
+      <c r="D46" s="67" t="s">
         <v>171</v>
       </c>
-      <c r="E46" s="65"/>
-      <c r="F46" s="65"/>
-      <c r="G46" s="65"/>
-      <c r="H46" s="65"/>
-      <c r="I46" s="65"/>
-      <c r="J46" s="65"/>
-      <c r="K46" s="65"/>
-      <c r="L46" s="65"/>
-      <c r="M46" s="65"/>
-      <c r="N46" s="65"/>
-      <c r="O46" s="65"/>
-      <c r="P46" s="66"/>
-      <c r="Q46" s="67"/>
-      <c r="R46" s="68"/>
-      <c r="S46" s="68"/>
-      <c r="T46" s="68"/>
-      <c r="U46" s="68"/>
-      <c r="V46" s="68"/>
+      <c r="E46" s="67"/>
+      <c r="F46" s="67"/>
+      <c r="G46" s="67"/>
+      <c r="H46" s="67"/>
+      <c r="I46" s="67"/>
+      <c r="J46" s="67"/>
+      <c r="K46" s="67"/>
+      <c r="L46" s="67"/>
+      <c r="M46" s="67"/>
+      <c r="N46" s="67"/>
+      <c r="O46" s="67"/>
+      <c r="P46" s="68"/>
+      <c r="Q46" s="95"/>
+      <c r="R46" s="74"/>
+      <c r="S46" s="74"/>
+      <c r="T46" s="74"/>
+      <c r="U46" s="74"/>
+      <c r="V46" s="74"/>
       <c r="W46" s="61"/>
-      <c r="X46" s="69" t="s">
+      <c r="X46" s="70" t="s">
         <v>39</v>
       </c>
       <c r="Y46" s="60"/>
@@ -7880,42 +7880,42 @@
       <c r="AB46" s="60"/>
       <c r="AC46" s="60"/>
       <c r="AD46" s="61"/>
-      <c r="AE46" s="70"/>
-      <c r="AF46" s="68"/>
+      <c r="AE46" s="66"/>
+      <c r="AF46" s="74"/>
       <c r="AG46" s="61"/>
       <c r="AH46" s="71"/>
-      <c r="AI46" s="72"/>
+      <c r="AI46" s="75"/>
       <c r="AJ46" s="73"/>
-      <c r="AK46" s="69"/>
-      <c r="AL46" s="68"/>
-      <c r="AM46" s="68"/>
-      <c r="AN46" s="68"/>
-      <c r="AO46" s="68"/>
-      <c r="AP46" s="68"/>
-      <c r="AQ46" s="68"/>
-      <c r="AR46" s="68"/>
-      <c r="AS46" s="68"/>
-      <c r="AT46" s="68"/>
-      <c r="AU46" s="68"/>
-      <c r="AV46" s="68"/>
-      <c r="AW46" s="68"/>
-      <c r="AX46" s="68"/>
-      <c r="AY46" s="68"/>
-      <c r="AZ46" s="68"/>
-      <c r="BA46" s="68"/>
-      <c r="BB46" s="68"/>
-      <c r="BC46" s="68"/>
-      <c r="BD46" s="68"/>
-      <c r="BE46" s="68"/>
-      <c r="BF46" s="68"/>
-      <c r="BG46" s="68"/>
-      <c r="BH46" s="68"/>
-      <c r="BI46" s="68"/>
-      <c r="BJ46" s="68"/>
-      <c r="BK46" s="68"/>
-      <c r="BL46" s="68"/>
-      <c r="BM46" s="68"/>
-      <c r="BN46" s="68"/>
+      <c r="AK46" s="70"/>
+      <c r="AL46" s="74"/>
+      <c r="AM46" s="74"/>
+      <c r="AN46" s="74"/>
+      <c r="AO46" s="74"/>
+      <c r="AP46" s="74"/>
+      <c r="AQ46" s="74"/>
+      <c r="AR46" s="74"/>
+      <c r="AS46" s="74"/>
+      <c r="AT46" s="74"/>
+      <c r="AU46" s="74"/>
+      <c r="AV46" s="74"/>
+      <c r="AW46" s="74"/>
+      <c r="AX46" s="74"/>
+      <c r="AY46" s="74"/>
+      <c r="AZ46" s="74"/>
+      <c r="BA46" s="74"/>
+      <c r="BB46" s="74"/>
+      <c r="BC46" s="74"/>
+      <c r="BD46" s="74"/>
+      <c r="BE46" s="74"/>
+      <c r="BF46" s="74"/>
+      <c r="BG46" s="74"/>
+      <c r="BH46" s="74"/>
+      <c r="BI46" s="74"/>
+      <c r="BJ46" s="74"/>
+      <c r="BK46" s="74"/>
+      <c r="BL46" s="74"/>
+      <c r="BM46" s="74"/>
+      <c r="BN46" s="74"/>
       <c r="BO46" s="61"/>
       <c r="BP46" s="18"/>
     </row>
@@ -7923,29 +7923,29 @@
       <c r="A47" s="18"/>
       <c r="B47" s="37"/>
       <c r="C47" s="56"/>
-      <c r="D47" s="65" t="s">
+      <c r="D47" s="67" t="s">
         <v>172</v>
       </c>
-      <c r="E47" s="65"/>
-      <c r="F47" s="65"/>
-      <c r="G47" s="65"/>
-      <c r="H47" s="65"/>
-      <c r="I47" s="65"/>
-      <c r="J47" s="65"/>
-      <c r="K47" s="65"/>
-      <c r="L47" s="65"/>
-      <c r="M47" s="65"/>
-      <c r="N47" s="65"/>
-      <c r="O47" s="65"/>
-      <c r="P47" s="66"/>
-      <c r="Q47" s="67"/>
-      <c r="R47" s="68"/>
-      <c r="S47" s="68"/>
-      <c r="T47" s="68"/>
-      <c r="U47" s="68"/>
-      <c r="V47" s="68"/>
+      <c r="E47" s="67"/>
+      <c r="F47" s="67"/>
+      <c r="G47" s="67"/>
+      <c r="H47" s="67"/>
+      <c r="I47" s="67"/>
+      <c r="J47" s="67"/>
+      <c r="K47" s="67"/>
+      <c r="L47" s="67"/>
+      <c r="M47" s="67"/>
+      <c r="N47" s="67"/>
+      <c r="O47" s="67"/>
+      <c r="P47" s="68"/>
+      <c r="Q47" s="95"/>
+      <c r="R47" s="74"/>
+      <c r="S47" s="74"/>
+      <c r="T47" s="74"/>
+      <c r="U47" s="74"/>
+      <c r="V47" s="74"/>
       <c r="W47" s="61"/>
-      <c r="X47" s="69" t="s">
+      <c r="X47" s="70" t="s">
         <v>39</v>
       </c>
       <c r="Y47" s="60"/>
@@ -7954,44 +7954,44 @@
       <c r="AB47" s="60"/>
       <c r="AC47" s="60"/>
       <c r="AD47" s="61"/>
-      <c r="AE47" s="70"/>
-      <c r="AF47" s="68"/>
+      <c r="AE47" s="66"/>
+      <c r="AF47" s="74"/>
       <c r="AG47" s="61"/>
       <c r="AH47" s="71"/>
-      <c r="AI47" s="72"/>
+      <c r="AI47" s="75"/>
       <c r="AJ47" s="73"/>
-      <c r="AK47" s="74" t="s">
+      <c r="AK47" s="65" t="s">
         <v>173</v>
       </c>
-      <c r="AL47" s="68"/>
-      <c r="AM47" s="68"/>
-      <c r="AN47" s="68"/>
-      <c r="AO47" s="68"/>
-      <c r="AP47" s="68"/>
-      <c r="AQ47" s="68"/>
-      <c r="AR47" s="68"/>
-      <c r="AS47" s="68"/>
-      <c r="AT47" s="68"/>
-      <c r="AU47" s="68"/>
-      <c r="AV47" s="68"/>
-      <c r="AW47" s="68"/>
-      <c r="AX47" s="68"/>
-      <c r="AY47" s="68"/>
-      <c r="AZ47" s="68"/>
-      <c r="BA47" s="68"/>
-      <c r="BB47" s="68"/>
-      <c r="BC47" s="68"/>
-      <c r="BD47" s="68"/>
-      <c r="BE47" s="68"/>
-      <c r="BF47" s="68"/>
-      <c r="BG47" s="68"/>
-      <c r="BH47" s="68"/>
-      <c r="BI47" s="68"/>
-      <c r="BJ47" s="68"/>
-      <c r="BK47" s="68"/>
-      <c r="BL47" s="68"/>
-      <c r="BM47" s="68"/>
-      <c r="BN47" s="68"/>
+      <c r="AL47" s="74"/>
+      <c r="AM47" s="74"/>
+      <c r="AN47" s="74"/>
+      <c r="AO47" s="74"/>
+      <c r="AP47" s="74"/>
+      <c r="AQ47" s="74"/>
+      <c r="AR47" s="74"/>
+      <c r="AS47" s="74"/>
+      <c r="AT47" s="74"/>
+      <c r="AU47" s="74"/>
+      <c r="AV47" s="74"/>
+      <c r="AW47" s="74"/>
+      <c r="AX47" s="74"/>
+      <c r="AY47" s="74"/>
+      <c r="AZ47" s="74"/>
+      <c r="BA47" s="74"/>
+      <c r="BB47" s="74"/>
+      <c r="BC47" s="74"/>
+      <c r="BD47" s="74"/>
+      <c r="BE47" s="74"/>
+      <c r="BF47" s="74"/>
+      <c r="BG47" s="74"/>
+      <c r="BH47" s="74"/>
+      <c r="BI47" s="74"/>
+      <c r="BJ47" s="74"/>
+      <c r="BK47" s="74"/>
+      <c r="BL47" s="74"/>
+      <c r="BM47" s="74"/>
+      <c r="BN47" s="74"/>
       <c r="BO47" s="61"/>
       <c r="BP47" s="18"/>
     </row>
@@ -7999,29 +7999,29 @@
       <c r="A48" s="18"/>
       <c r="B48" s="37"/>
       <c r="C48" s="56"/>
-      <c r="D48" s="65" t="s">
+      <c r="D48" s="67" t="s">
         <v>174</v>
       </c>
-      <c r="E48" s="65"/>
-      <c r="F48" s="65"/>
-      <c r="G48" s="65"/>
-      <c r="H48" s="65"/>
-      <c r="I48" s="65"/>
-      <c r="J48" s="65"/>
-      <c r="K48" s="65"/>
-      <c r="L48" s="65"/>
-      <c r="M48" s="65"/>
-      <c r="N48" s="65"/>
-      <c r="O48" s="65"/>
-      <c r="P48" s="66"/>
-      <c r="Q48" s="67"/>
-      <c r="R48" s="68"/>
-      <c r="S48" s="68"/>
-      <c r="T48" s="68"/>
-      <c r="U48" s="68"/>
-      <c r="V48" s="68"/>
+      <c r="E48" s="67"/>
+      <c r="F48" s="67"/>
+      <c r="G48" s="67"/>
+      <c r="H48" s="67"/>
+      <c r="I48" s="67"/>
+      <c r="J48" s="67"/>
+      <c r="K48" s="67"/>
+      <c r="L48" s="67"/>
+      <c r="M48" s="67"/>
+      <c r="N48" s="67"/>
+      <c r="O48" s="67"/>
+      <c r="P48" s="68"/>
+      <c r="Q48" s="95"/>
+      <c r="R48" s="74"/>
+      <c r="S48" s="74"/>
+      <c r="T48" s="74"/>
+      <c r="U48" s="74"/>
+      <c r="V48" s="74"/>
       <c r="W48" s="61"/>
-      <c r="X48" s="69" t="s">
+      <c r="X48" s="70" t="s">
         <v>39</v>
       </c>
       <c r="Y48" s="60"/>
@@ -8030,42 +8030,42 @@
       <c r="AB48" s="60"/>
       <c r="AC48" s="60"/>
       <c r="AD48" s="61"/>
-      <c r="AE48" s="70"/>
-      <c r="AF48" s="68"/>
+      <c r="AE48" s="66"/>
+      <c r="AF48" s="74"/>
       <c r="AG48" s="61"/>
       <c r="AH48" s="71"/>
-      <c r="AI48" s="72"/>
+      <c r="AI48" s="75"/>
       <c r="AJ48" s="73"/>
-      <c r="AK48" s="69"/>
-      <c r="AL48" s="68"/>
-      <c r="AM48" s="68"/>
-      <c r="AN48" s="68"/>
-      <c r="AO48" s="68"/>
-      <c r="AP48" s="68"/>
-      <c r="AQ48" s="68"/>
-      <c r="AR48" s="68"/>
-      <c r="AS48" s="68"/>
-      <c r="AT48" s="68"/>
-      <c r="AU48" s="68"/>
-      <c r="AV48" s="68"/>
-      <c r="AW48" s="68"/>
-      <c r="AX48" s="68"/>
-      <c r="AY48" s="68"/>
-      <c r="AZ48" s="68"/>
-      <c r="BA48" s="68"/>
-      <c r="BB48" s="68"/>
-      <c r="BC48" s="68"/>
-      <c r="BD48" s="68"/>
-      <c r="BE48" s="68"/>
-      <c r="BF48" s="68"/>
-      <c r="BG48" s="68"/>
-      <c r="BH48" s="68"/>
-      <c r="BI48" s="68"/>
-      <c r="BJ48" s="68"/>
-      <c r="BK48" s="68"/>
-      <c r="BL48" s="68"/>
-      <c r="BM48" s="68"/>
-      <c r="BN48" s="68"/>
+      <c r="AK48" s="70"/>
+      <c r="AL48" s="74"/>
+      <c r="AM48" s="74"/>
+      <c r="AN48" s="74"/>
+      <c r="AO48" s="74"/>
+      <c r="AP48" s="74"/>
+      <c r="AQ48" s="74"/>
+      <c r="AR48" s="74"/>
+      <c r="AS48" s="74"/>
+      <c r="AT48" s="74"/>
+      <c r="AU48" s="74"/>
+      <c r="AV48" s="74"/>
+      <c r="AW48" s="74"/>
+      <c r="AX48" s="74"/>
+      <c r="AY48" s="74"/>
+      <c r="AZ48" s="74"/>
+      <c r="BA48" s="74"/>
+      <c r="BB48" s="74"/>
+      <c r="BC48" s="74"/>
+      <c r="BD48" s="74"/>
+      <c r="BE48" s="74"/>
+      <c r="BF48" s="74"/>
+      <c r="BG48" s="74"/>
+      <c r="BH48" s="74"/>
+      <c r="BI48" s="74"/>
+      <c r="BJ48" s="74"/>
+      <c r="BK48" s="74"/>
+      <c r="BL48" s="74"/>
+      <c r="BM48" s="74"/>
+      <c r="BN48" s="74"/>
       <c r="BO48" s="61"/>
       <c r="BP48" s="18"/>
     </row>
@@ -8073,29 +8073,29 @@
       <c r="A49" s="18"/>
       <c r="B49" s="37"/>
       <c r="C49" s="56"/>
-      <c r="D49" s="65" t="s">
+      <c r="D49" s="67" t="s">
         <v>175</v>
       </c>
-      <c r="E49" s="65"/>
-      <c r="F49" s="65"/>
-      <c r="G49" s="65"/>
-      <c r="H49" s="65"/>
-      <c r="I49" s="65"/>
-      <c r="J49" s="65"/>
-      <c r="K49" s="65"/>
-      <c r="L49" s="65"/>
-      <c r="M49" s="65"/>
-      <c r="N49" s="65"/>
-      <c r="O49" s="65"/>
-      <c r="P49" s="66"/>
-      <c r="Q49" s="67"/>
-      <c r="R49" s="68"/>
-      <c r="S49" s="68"/>
-      <c r="T49" s="68"/>
-      <c r="U49" s="68"/>
-      <c r="V49" s="68"/>
+      <c r="E49" s="67"/>
+      <c r="F49" s="67"/>
+      <c r="G49" s="67"/>
+      <c r="H49" s="67"/>
+      <c r="I49" s="67"/>
+      <c r="J49" s="67"/>
+      <c r="K49" s="67"/>
+      <c r="L49" s="67"/>
+      <c r="M49" s="67"/>
+      <c r="N49" s="67"/>
+      <c r="O49" s="67"/>
+      <c r="P49" s="68"/>
+      <c r="Q49" s="95"/>
+      <c r="R49" s="74"/>
+      <c r="S49" s="74"/>
+      <c r="T49" s="74"/>
+      <c r="U49" s="74"/>
+      <c r="V49" s="74"/>
       <c r="W49" s="61"/>
-      <c r="X49" s="69" t="s">
+      <c r="X49" s="70" t="s">
         <v>39</v>
       </c>
       <c r="Y49" s="60"/>
@@ -8104,44 +8104,44 @@
       <c r="AB49" s="60"/>
       <c r="AC49" s="60"/>
       <c r="AD49" s="61"/>
-      <c r="AE49" s="70"/>
-      <c r="AF49" s="68"/>
+      <c r="AE49" s="66"/>
+      <c r="AF49" s="74"/>
       <c r="AG49" s="61"/>
       <c r="AH49" s="71"/>
-      <c r="AI49" s="72"/>
+      <c r="AI49" s="75"/>
       <c r="AJ49" s="73"/>
-      <c r="AK49" s="74" t="s">
+      <c r="AK49" s="65" t="s">
         <v>176</v>
       </c>
-      <c r="AL49" s="68"/>
-      <c r="AM49" s="68"/>
-      <c r="AN49" s="68"/>
-      <c r="AO49" s="68"/>
-      <c r="AP49" s="68"/>
-      <c r="AQ49" s="68"/>
-      <c r="AR49" s="68"/>
-      <c r="AS49" s="68"/>
-      <c r="AT49" s="68"/>
-      <c r="AU49" s="68"/>
-      <c r="AV49" s="68"/>
-      <c r="AW49" s="68"/>
-      <c r="AX49" s="68"/>
-      <c r="AY49" s="68"/>
-      <c r="AZ49" s="68"/>
-      <c r="BA49" s="68"/>
-      <c r="BB49" s="68"/>
-      <c r="BC49" s="68"/>
-      <c r="BD49" s="68"/>
-      <c r="BE49" s="68"/>
-      <c r="BF49" s="68"/>
-      <c r="BG49" s="68"/>
-      <c r="BH49" s="68"/>
-      <c r="BI49" s="68"/>
-      <c r="BJ49" s="68"/>
-      <c r="BK49" s="68"/>
-      <c r="BL49" s="68"/>
-      <c r="BM49" s="68"/>
-      <c r="BN49" s="68"/>
+      <c r="AL49" s="74"/>
+      <c r="AM49" s="74"/>
+      <c r="AN49" s="74"/>
+      <c r="AO49" s="74"/>
+      <c r="AP49" s="74"/>
+      <c r="AQ49" s="74"/>
+      <c r="AR49" s="74"/>
+      <c r="AS49" s="74"/>
+      <c r="AT49" s="74"/>
+      <c r="AU49" s="74"/>
+      <c r="AV49" s="74"/>
+      <c r="AW49" s="74"/>
+      <c r="AX49" s="74"/>
+      <c r="AY49" s="74"/>
+      <c r="AZ49" s="74"/>
+      <c r="BA49" s="74"/>
+      <c r="BB49" s="74"/>
+      <c r="BC49" s="74"/>
+      <c r="BD49" s="74"/>
+      <c r="BE49" s="74"/>
+      <c r="BF49" s="74"/>
+      <c r="BG49" s="74"/>
+      <c r="BH49" s="74"/>
+      <c r="BI49" s="74"/>
+      <c r="BJ49" s="74"/>
+      <c r="BK49" s="74"/>
+      <c r="BL49" s="74"/>
+      <c r="BM49" s="74"/>
+      <c r="BN49" s="74"/>
       <c r="BO49" s="61"/>
       <c r="BP49" s="18"/>
     </row>
@@ -8149,29 +8149,29 @@
       <c r="A50" s="18"/>
       <c r="B50" s="57"/>
       <c r="C50" s="58"/>
-      <c r="D50" s="65" t="s">
+      <c r="D50" s="67" t="s">
         <v>177</v>
       </c>
-      <c r="E50" s="65"/>
-      <c r="F50" s="65"/>
-      <c r="G50" s="65"/>
-      <c r="H50" s="65"/>
-      <c r="I50" s="65"/>
-      <c r="J50" s="65"/>
-      <c r="K50" s="65"/>
-      <c r="L50" s="65"/>
-      <c r="M50" s="65"/>
-      <c r="N50" s="65"/>
-      <c r="O50" s="65"/>
-      <c r="P50" s="66"/>
-      <c r="Q50" s="67"/>
-      <c r="R50" s="68"/>
-      <c r="S50" s="68"/>
-      <c r="T50" s="68"/>
-      <c r="U50" s="68"/>
-      <c r="V50" s="68"/>
+      <c r="E50" s="67"/>
+      <c r="F50" s="67"/>
+      <c r="G50" s="67"/>
+      <c r="H50" s="67"/>
+      <c r="I50" s="67"/>
+      <c r="J50" s="67"/>
+      <c r="K50" s="67"/>
+      <c r="L50" s="67"/>
+      <c r="M50" s="67"/>
+      <c r="N50" s="67"/>
+      <c r="O50" s="67"/>
+      <c r="P50" s="68"/>
+      <c r="Q50" s="95"/>
+      <c r="R50" s="74"/>
+      <c r="S50" s="74"/>
+      <c r="T50" s="74"/>
+      <c r="U50" s="74"/>
+      <c r="V50" s="74"/>
       <c r="W50" s="61"/>
-      <c r="X50" s="69" t="s">
+      <c r="X50" s="70" t="s">
         <v>39</v>
       </c>
       <c r="Y50" s="60"/>
@@ -8180,42 +8180,42 @@
       <c r="AB50" s="60"/>
       <c r="AC50" s="60"/>
       <c r="AD50" s="61"/>
-      <c r="AE50" s="70"/>
-      <c r="AF50" s="68"/>
+      <c r="AE50" s="66"/>
+      <c r="AF50" s="74"/>
       <c r="AG50" s="61"/>
       <c r="AH50" s="71"/>
-      <c r="AI50" s="72"/>
+      <c r="AI50" s="75"/>
       <c r="AJ50" s="73"/>
-      <c r="AK50" s="69"/>
-      <c r="AL50" s="68"/>
-      <c r="AM50" s="68"/>
-      <c r="AN50" s="68"/>
-      <c r="AO50" s="68"/>
-      <c r="AP50" s="68"/>
-      <c r="AQ50" s="68"/>
-      <c r="AR50" s="68"/>
-      <c r="AS50" s="68"/>
-      <c r="AT50" s="68"/>
-      <c r="AU50" s="68"/>
-      <c r="AV50" s="68"/>
-      <c r="AW50" s="68"/>
-      <c r="AX50" s="68"/>
-      <c r="AY50" s="68"/>
-      <c r="AZ50" s="68"/>
-      <c r="BA50" s="68"/>
-      <c r="BB50" s="68"/>
-      <c r="BC50" s="68"/>
-      <c r="BD50" s="68"/>
-      <c r="BE50" s="68"/>
-      <c r="BF50" s="68"/>
-      <c r="BG50" s="68"/>
-      <c r="BH50" s="68"/>
-      <c r="BI50" s="68"/>
-      <c r="BJ50" s="68"/>
-      <c r="BK50" s="68"/>
-      <c r="BL50" s="68"/>
-      <c r="BM50" s="68"/>
-      <c r="BN50" s="68"/>
+      <c r="AK50" s="70"/>
+      <c r="AL50" s="74"/>
+      <c r="AM50" s="74"/>
+      <c r="AN50" s="74"/>
+      <c r="AO50" s="74"/>
+      <c r="AP50" s="74"/>
+      <c r="AQ50" s="74"/>
+      <c r="AR50" s="74"/>
+      <c r="AS50" s="74"/>
+      <c r="AT50" s="74"/>
+      <c r="AU50" s="74"/>
+      <c r="AV50" s="74"/>
+      <c r="AW50" s="74"/>
+      <c r="AX50" s="74"/>
+      <c r="AY50" s="74"/>
+      <c r="AZ50" s="74"/>
+      <c r="BA50" s="74"/>
+      <c r="BB50" s="74"/>
+      <c r="BC50" s="74"/>
+      <c r="BD50" s="74"/>
+      <c r="BE50" s="74"/>
+      <c r="BF50" s="74"/>
+      <c r="BG50" s="74"/>
+      <c r="BH50" s="74"/>
+      <c r="BI50" s="74"/>
+      <c r="BJ50" s="74"/>
+      <c r="BK50" s="74"/>
+      <c r="BL50" s="74"/>
+      <c r="BM50" s="74"/>
+      <c r="BN50" s="74"/>
       <c r="BO50" s="61"/>
       <c r="BP50" s="18"/>
     </row>
@@ -8434,51 +8434,51 @@
     </row>
     <row r="54" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A54" s="7"/>
-      <c r="B54" s="78" t="s">
+      <c r="B54" s="91" t="s">
         <v>5</v>
       </c>
       <c r="C54" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="D54" s="81"/>
-      <c r="E54" s="81"/>
-      <c r="F54" s="81"/>
-      <c r="G54" s="81"/>
-      <c r="H54" s="81"/>
-      <c r="I54" s="81"/>
-      <c r="J54" s="81"/>
-      <c r="K54" s="82"/>
+      <c r="D54" s="77"/>
+      <c r="E54" s="77"/>
+      <c r="F54" s="77"/>
+      <c r="G54" s="77"/>
+      <c r="H54" s="77"/>
+      <c r="I54" s="77"/>
+      <c r="J54" s="77"/>
+      <c r="K54" s="81"/>
       <c r="L54" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="M54" s="81"/>
-      <c r="N54" s="81"/>
-      <c r="O54" s="81"/>
-      <c r="P54" s="81"/>
-      <c r="Q54" s="81"/>
-      <c r="R54" s="81"/>
-      <c r="S54" s="81"/>
-      <c r="T54" s="81"/>
-      <c r="U54" s="81"/>
-      <c r="V54" s="81"/>
-      <c r="W54" s="81"/>
-      <c r="X54" s="81"/>
-      <c r="Y54" s="81"/>
-      <c r="Z54" s="81"/>
-      <c r="AA54" s="81"/>
-      <c r="AB54" s="82"/>
+      <c r="M54" s="77"/>
+      <c r="N54" s="77"/>
+      <c r="O54" s="77"/>
+      <c r="P54" s="77"/>
+      <c r="Q54" s="77"/>
+      <c r="R54" s="77"/>
+      <c r="S54" s="77"/>
+      <c r="T54" s="77"/>
+      <c r="U54" s="77"/>
+      <c r="V54" s="77"/>
+      <c r="W54" s="77"/>
+      <c r="X54" s="77"/>
+      <c r="Y54" s="77"/>
+      <c r="Z54" s="77"/>
+      <c r="AA54" s="77"/>
+      <c r="AB54" s="81"/>
       <c r="AC54" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="AD54" s="81"/>
-      <c r="AE54" s="81"/>
-      <c r="AF54" s="81"/>
-      <c r="AG54" s="81"/>
-      <c r="AH54" s="81"/>
-      <c r="AI54" s="81"/>
-      <c r="AJ54" s="81"/>
-      <c r="AK54" s="82"/>
-      <c r="AL54" s="94" t="s">
+      <c r="AD54" s="77"/>
+      <c r="AE54" s="77"/>
+      <c r="AF54" s="77"/>
+      <c r="AG54" s="77"/>
+      <c r="AH54" s="77"/>
+      <c r="AI54" s="77"/>
+      <c r="AJ54" s="77"/>
+      <c r="AK54" s="81"/>
+      <c r="AL54" s="78" t="s">
         <v>12</v>
       </c>
       <c r="AM54" s="60"/>
@@ -8514,43 +8514,43 @@
     </row>
     <row r="55" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A55" s="7"/>
-      <c r="B55" s="79"/>
-      <c r="C55" s="83"/>
-      <c r="D55" s="84"/>
-      <c r="E55" s="84"/>
-      <c r="F55" s="84"/>
-      <c r="G55" s="84"/>
-      <c r="H55" s="84"/>
-      <c r="I55" s="84"/>
-      <c r="J55" s="84"/>
-      <c r="K55" s="79"/>
-      <c r="L55" s="83"/>
-      <c r="M55" s="84"/>
-      <c r="N55" s="84"/>
-      <c r="O55" s="84"/>
-      <c r="P55" s="84"/>
-      <c r="Q55" s="84"/>
-      <c r="R55" s="84"/>
-      <c r="S55" s="84"/>
-      <c r="T55" s="84"/>
-      <c r="U55" s="84"/>
-      <c r="V55" s="84"/>
-      <c r="W55" s="84"/>
-      <c r="X55" s="84"/>
-      <c r="Y55" s="84"/>
-      <c r="Z55" s="84"/>
-      <c r="AA55" s="84"/>
-      <c r="AB55" s="79"/>
-      <c r="AC55" s="83"/>
-      <c r="AD55" s="84"/>
-      <c r="AE55" s="84"/>
-      <c r="AF55" s="84"/>
-      <c r="AG55" s="84"/>
-      <c r="AH55" s="84"/>
-      <c r="AI55" s="84"/>
-      <c r="AJ55" s="84"/>
-      <c r="AK55" s="79"/>
-      <c r="AL55" s="92" t="s">
+      <c r="B55" s="84"/>
+      <c r="C55" s="82"/>
+      <c r="D55" s="83"/>
+      <c r="E55" s="83"/>
+      <c r="F55" s="83"/>
+      <c r="G55" s="83"/>
+      <c r="H55" s="83"/>
+      <c r="I55" s="83"/>
+      <c r="J55" s="83"/>
+      <c r="K55" s="84"/>
+      <c r="L55" s="82"/>
+      <c r="M55" s="83"/>
+      <c r="N55" s="83"/>
+      <c r="O55" s="83"/>
+      <c r="P55" s="83"/>
+      <c r="Q55" s="83"/>
+      <c r="R55" s="83"/>
+      <c r="S55" s="83"/>
+      <c r="T55" s="83"/>
+      <c r="U55" s="83"/>
+      <c r="V55" s="83"/>
+      <c r="W55" s="83"/>
+      <c r="X55" s="83"/>
+      <c r="Y55" s="83"/>
+      <c r="Z55" s="83"/>
+      <c r="AA55" s="83"/>
+      <c r="AB55" s="84"/>
+      <c r="AC55" s="82"/>
+      <c r="AD55" s="83"/>
+      <c r="AE55" s="83"/>
+      <c r="AF55" s="83"/>
+      <c r="AG55" s="83"/>
+      <c r="AH55" s="83"/>
+      <c r="AI55" s="83"/>
+      <c r="AJ55" s="83"/>
+      <c r="AK55" s="84"/>
+      <c r="AL55" s="79" t="s">
         <v>13</v>
       </c>
       <c r="AM55" s="60"/>
@@ -8561,14 +8561,14 @@
       <c r="AR55" s="60"/>
       <c r="AS55" s="60"/>
       <c r="AT55" s="61"/>
-      <c r="AU55" s="92" t="s">
+      <c r="AU55" s="79" t="s">
         <v>14</v>
       </c>
       <c r="AV55" s="60"/>
       <c r="AW55" s="60"/>
       <c r="AX55" s="60"/>
       <c r="AY55" s="61"/>
-      <c r="AZ55" s="92" t="s">
+      <c r="AZ55" s="79" t="s">
         <v>15</v>
       </c>
       <c r="BA55" s="60"/>
@@ -8594,7 +8594,7 @@
         <f ca="1">MAX(B$54:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>1</v>
       </c>
-      <c r="C56" s="70" t="s">
+      <c r="C56" s="66" t="s">
         <v>106</v>
       </c>
       <c r="D56" s="60"/>
@@ -8605,26 +8605,26 @@
       <c r="I56" s="60"/>
       <c r="J56" s="60"/>
       <c r="K56" s="61"/>
-      <c r="L56" s="86" t="s">
+      <c r="L56" s="93" t="s">
         <v>107</v>
       </c>
-      <c r="M56" s="84"/>
-      <c r="N56" s="84"/>
-      <c r="O56" s="84"/>
-      <c r="P56" s="84"/>
-      <c r="Q56" s="84"/>
-      <c r="R56" s="84"/>
-      <c r="S56" s="84"/>
-      <c r="T56" s="84"/>
-      <c r="U56" s="84"/>
-      <c r="V56" s="84"/>
-      <c r="W56" s="84"/>
-      <c r="X56" s="84"/>
-      <c r="Y56" s="84"/>
-      <c r="Z56" s="84"/>
-      <c r="AA56" s="84"/>
-      <c r="AB56" s="84"/>
-      <c r="AC56" s="70"/>
+      <c r="M56" s="83"/>
+      <c r="N56" s="83"/>
+      <c r="O56" s="83"/>
+      <c r="P56" s="83"/>
+      <c r="Q56" s="83"/>
+      <c r="R56" s="83"/>
+      <c r="S56" s="83"/>
+      <c r="T56" s="83"/>
+      <c r="U56" s="83"/>
+      <c r="V56" s="83"/>
+      <c r="W56" s="83"/>
+      <c r="X56" s="83"/>
+      <c r="Y56" s="83"/>
+      <c r="Z56" s="83"/>
+      <c r="AA56" s="83"/>
+      <c r="AB56" s="83"/>
+      <c r="AC56" s="66"/>
       <c r="AD56" s="60"/>
       <c r="AE56" s="60"/>
       <c r="AF56" s="60"/>
@@ -8633,7 +8633,7 @@
       <c r="AI56" s="60"/>
       <c r="AJ56" s="60"/>
       <c r="AK56" s="61"/>
-      <c r="AL56" s="76"/>
+      <c r="AL56" s="85"/>
       <c r="AM56" s="60"/>
       <c r="AN56" s="60"/>
       <c r="AO56" s="60"/>
@@ -8642,12 +8642,12 @@
       <c r="AR56" s="60"/>
       <c r="AS56" s="60"/>
       <c r="AT56" s="61"/>
-      <c r="AU56" s="76"/>
+      <c r="AU56" s="85"/>
       <c r="AV56" s="60"/>
       <c r="AW56" s="60"/>
       <c r="AX56" s="60"/>
       <c r="AY56" s="61"/>
-      <c r="AZ56" s="77"/>
+      <c r="AZ56" s="86"/>
       <c r="BA56" s="60"/>
       <c r="BB56" s="60"/>
       <c r="BC56" s="60"/>
@@ -8671,7 +8671,7 @@
         <f ca="1">MAX(B$54:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>2</v>
       </c>
-      <c r="C57" s="70" t="s">
+      <c r="C57" s="66" t="s">
         <v>126</v>
       </c>
       <c r="D57" s="60"/>
@@ -8682,26 +8682,26 @@
       <c r="I57" s="60"/>
       <c r="J57" s="60"/>
       <c r="K57" s="61"/>
-      <c r="L57" s="85" t="s">
+      <c r="L57" s="92" t="s">
         <v>128</v>
       </c>
-      <c r="M57" s="84"/>
-      <c r="N57" s="84"/>
-      <c r="O57" s="84"/>
-      <c r="P57" s="84"/>
-      <c r="Q57" s="84"/>
-      <c r="R57" s="84"/>
-      <c r="S57" s="84"/>
-      <c r="T57" s="84"/>
-      <c r="U57" s="84"/>
-      <c r="V57" s="84"/>
-      <c r="W57" s="84"/>
-      <c r="X57" s="84"/>
-      <c r="Y57" s="84"/>
-      <c r="Z57" s="84"/>
-      <c r="AA57" s="84"/>
-      <c r="AB57" s="84"/>
-      <c r="AC57" s="70"/>
+      <c r="M57" s="83"/>
+      <c r="N57" s="83"/>
+      <c r="O57" s="83"/>
+      <c r="P57" s="83"/>
+      <c r="Q57" s="83"/>
+      <c r="R57" s="83"/>
+      <c r="S57" s="83"/>
+      <c r="T57" s="83"/>
+      <c r="U57" s="83"/>
+      <c r="V57" s="83"/>
+      <c r="W57" s="83"/>
+      <c r="X57" s="83"/>
+      <c r="Y57" s="83"/>
+      <c r="Z57" s="83"/>
+      <c r="AA57" s="83"/>
+      <c r="AB57" s="83"/>
+      <c r="AC57" s="66"/>
       <c r="AD57" s="60"/>
       <c r="AE57" s="60"/>
       <c r="AF57" s="60"/>
@@ -8710,7 +8710,7 @@
       <c r="AI57" s="60"/>
       <c r="AJ57" s="60"/>
       <c r="AK57" s="61"/>
-      <c r="AL57" s="76"/>
+      <c r="AL57" s="85"/>
       <c r="AM57" s="60"/>
       <c r="AN57" s="60"/>
       <c r="AO57" s="60"/>
@@ -8719,12 +8719,12 @@
       <c r="AR57" s="60"/>
       <c r="AS57" s="60"/>
       <c r="AT57" s="61"/>
-      <c r="AU57" s="76"/>
+      <c r="AU57" s="85"/>
       <c r="AV57" s="60"/>
       <c r="AW57" s="60"/>
       <c r="AX57" s="60"/>
       <c r="AY57" s="61"/>
-      <c r="AZ57" s="77"/>
+      <c r="AZ57" s="86"/>
       <c r="BA57" s="60"/>
       <c r="BB57" s="60"/>
       <c r="BC57" s="60"/>
@@ -8748,7 +8748,7 @@
         <f ca="1">MAX(B$54:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>3</v>
       </c>
-      <c r="C58" s="70" t="s">
+      <c r="C58" s="66" t="s">
         <v>129</v>
       </c>
       <c r="D58" s="60"/>
@@ -8759,26 +8759,26 @@
       <c r="I58" s="60"/>
       <c r="J58" s="60"/>
       <c r="K58" s="61"/>
-      <c r="L58" s="85" t="s">
+      <c r="L58" s="92" t="s">
         <v>130</v>
       </c>
-      <c r="M58" s="84"/>
-      <c r="N58" s="84"/>
-      <c r="O58" s="84"/>
-      <c r="P58" s="84"/>
-      <c r="Q58" s="84"/>
-      <c r="R58" s="84"/>
-      <c r="S58" s="84"/>
-      <c r="T58" s="84"/>
-      <c r="U58" s="84"/>
-      <c r="V58" s="84"/>
-      <c r="W58" s="84"/>
-      <c r="X58" s="84"/>
-      <c r="Y58" s="84"/>
-      <c r="Z58" s="84"/>
-      <c r="AA58" s="84"/>
-      <c r="AB58" s="84"/>
-      <c r="AC58" s="70"/>
+      <c r="M58" s="83"/>
+      <c r="N58" s="83"/>
+      <c r="O58" s="83"/>
+      <c r="P58" s="83"/>
+      <c r="Q58" s="83"/>
+      <c r="R58" s="83"/>
+      <c r="S58" s="83"/>
+      <c r="T58" s="83"/>
+      <c r="U58" s="83"/>
+      <c r="V58" s="83"/>
+      <c r="W58" s="83"/>
+      <c r="X58" s="83"/>
+      <c r="Y58" s="83"/>
+      <c r="Z58" s="83"/>
+      <c r="AA58" s="83"/>
+      <c r="AB58" s="83"/>
+      <c r="AC58" s="66"/>
       <c r="AD58" s="60"/>
       <c r="AE58" s="60"/>
       <c r="AF58" s="60"/>
@@ -8787,7 +8787,7 @@
       <c r="AI58" s="60"/>
       <c r="AJ58" s="60"/>
       <c r="AK58" s="61"/>
-      <c r="AL58" s="76"/>
+      <c r="AL58" s="85"/>
       <c r="AM58" s="60"/>
       <c r="AN58" s="60"/>
       <c r="AO58" s="60"/>
@@ -8796,12 +8796,12 @@
       <c r="AR58" s="60"/>
       <c r="AS58" s="60"/>
       <c r="AT58" s="61"/>
-      <c r="AU58" s="76"/>
+      <c r="AU58" s="85"/>
       <c r="AV58" s="60"/>
       <c r="AW58" s="60"/>
       <c r="AX58" s="60"/>
       <c r="AY58" s="61"/>
-      <c r="AZ58" s="77"/>
+      <c r="AZ58" s="86"/>
       <c r="BA58" s="60"/>
       <c r="BB58" s="60"/>
       <c r="BC58" s="60"/>
@@ -8825,37 +8825,37 @@
         <f ca="1">MAX(B$54:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>4</v>
       </c>
-      <c r="C59" s="75" t="s">
+      <c r="C59" s="94" t="s">
         <v>134</v>
       </c>
-      <c r="D59" s="65"/>
-      <c r="E59" s="65"/>
-      <c r="F59" s="65"/>
-      <c r="G59" s="65"/>
-      <c r="H59" s="65"/>
-      <c r="I59" s="65"/>
-      <c r="J59" s="65"/>
-      <c r="K59" s="66"/>
-      <c r="L59" s="70" t="s">
+      <c r="D59" s="67"/>
+      <c r="E59" s="67"/>
+      <c r="F59" s="67"/>
+      <c r="G59" s="67"/>
+      <c r="H59" s="67"/>
+      <c r="I59" s="67"/>
+      <c r="J59" s="67"/>
+      <c r="K59" s="68"/>
+      <c r="L59" s="66" t="s">
         <v>136</v>
       </c>
-      <c r="M59" s="65"/>
-      <c r="N59" s="65"/>
-      <c r="O59" s="65"/>
-      <c r="P59" s="65"/>
-      <c r="Q59" s="65"/>
-      <c r="R59" s="65"/>
-      <c r="S59" s="65"/>
-      <c r="T59" s="65"/>
-      <c r="U59" s="65"/>
-      <c r="V59" s="65"/>
-      <c r="W59" s="65"/>
-      <c r="X59" s="65"/>
-      <c r="Y59" s="65"/>
-      <c r="Z59" s="65"/>
-      <c r="AA59" s="65"/>
-      <c r="AB59" s="66"/>
-      <c r="AC59" s="70"/>
+      <c r="M59" s="67"/>
+      <c r="N59" s="67"/>
+      <c r="O59" s="67"/>
+      <c r="P59" s="67"/>
+      <c r="Q59" s="67"/>
+      <c r="R59" s="67"/>
+      <c r="S59" s="67"/>
+      <c r="T59" s="67"/>
+      <c r="U59" s="67"/>
+      <c r="V59" s="67"/>
+      <c r="W59" s="67"/>
+      <c r="X59" s="67"/>
+      <c r="Y59" s="67"/>
+      <c r="Z59" s="67"/>
+      <c r="AA59" s="67"/>
+      <c r="AB59" s="68"/>
+      <c r="AC59" s="66"/>
       <c r="AD59" s="60"/>
       <c r="AE59" s="60"/>
       <c r="AF59" s="60"/>
@@ -8864,7 +8864,7 @@
       <c r="AI59" s="60"/>
       <c r="AJ59" s="60"/>
       <c r="AK59" s="61"/>
-      <c r="AL59" s="76"/>
+      <c r="AL59" s="85"/>
       <c r="AM59" s="60"/>
       <c r="AN59" s="60"/>
       <c r="AO59" s="60"/>
@@ -8873,12 +8873,12 @@
       <c r="AR59" s="60"/>
       <c r="AS59" s="60"/>
       <c r="AT59" s="61"/>
-      <c r="AU59" s="76"/>
+      <c r="AU59" s="85"/>
       <c r="AV59" s="60"/>
       <c r="AW59" s="60"/>
       <c r="AX59" s="60"/>
       <c r="AY59" s="61"/>
-      <c r="AZ59" s="77"/>
+      <c r="AZ59" s="86"/>
       <c r="BA59" s="60"/>
       <c r="BB59" s="60"/>
       <c r="BC59" s="60"/>
@@ -11896,54 +11896,181 @@
     </row>
   </sheetData>
   <mergeCells count="247">
-    <mergeCell ref="AK33:BO33"/>
-    <mergeCell ref="D34:P34"/>
-    <mergeCell ref="Q34:W34"/>
-    <mergeCell ref="X34:AD34"/>
-    <mergeCell ref="AE34:AG34"/>
-    <mergeCell ref="AH34:AJ34"/>
-    <mergeCell ref="AK34:BO34"/>
-    <mergeCell ref="D27:P27"/>
-    <mergeCell ref="D28:P28"/>
-    <mergeCell ref="D29:P29"/>
-    <mergeCell ref="D30:P30"/>
-    <mergeCell ref="D31:P31"/>
-    <mergeCell ref="AH33:AJ33"/>
-    <mergeCell ref="D35:P35"/>
-    <mergeCell ref="D32:P32"/>
-    <mergeCell ref="Q32:W32"/>
-    <mergeCell ref="X32:AD32"/>
-    <mergeCell ref="D33:P33"/>
-    <mergeCell ref="Q33:W33"/>
-    <mergeCell ref="X33:AD33"/>
-    <mergeCell ref="D22:P22"/>
-    <mergeCell ref="Q22:W22"/>
-    <mergeCell ref="X22:AD22"/>
-    <mergeCell ref="Q25:W25"/>
-    <mergeCell ref="X25:AD25"/>
-    <mergeCell ref="Q35:W35"/>
-    <mergeCell ref="Q27:W27"/>
-    <mergeCell ref="Q28:W28"/>
-    <mergeCell ref="AE25:AG25"/>
-    <mergeCell ref="AH25:AJ25"/>
-    <mergeCell ref="AK25:BO25"/>
-    <mergeCell ref="Q26:W26"/>
-    <mergeCell ref="X26:AD26"/>
-    <mergeCell ref="AE26:AG26"/>
-    <mergeCell ref="AH26:AJ26"/>
-    <mergeCell ref="AK26:BO26"/>
-    <mergeCell ref="D24:P24"/>
-    <mergeCell ref="D25:P25"/>
-    <mergeCell ref="D26:P26"/>
-    <mergeCell ref="C20:P20"/>
-    <mergeCell ref="Q20:W20"/>
-    <mergeCell ref="X20:AD20"/>
-    <mergeCell ref="AE20:AG20"/>
-    <mergeCell ref="AH20:AJ20"/>
-    <mergeCell ref="Q21:W21"/>
-    <mergeCell ref="X21:AD21"/>
-    <mergeCell ref="AE21:AG21"/>
-    <mergeCell ref="AH21:AJ21"/>
+    <mergeCell ref="D49:P49"/>
+    <mergeCell ref="Q49:W49"/>
+    <mergeCell ref="X49:AD49"/>
+    <mergeCell ref="AE49:AG49"/>
+    <mergeCell ref="AH49:AJ49"/>
+    <mergeCell ref="AK49:BO49"/>
+    <mergeCell ref="D50:P50"/>
+    <mergeCell ref="Q50:W50"/>
+    <mergeCell ref="X50:AD50"/>
+    <mergeCell ref="AE50:AG50"/>
+    <mergeCell ref="AH50:AJ50"/>
+    <mergeCell ref="AK50:BO50"/>
+    <mergeCell ref="D47:P47"/>
+    <mergeCell ref="Q47:W47"/>
+    <mergeCell ref="X47:AD47"/>
+    <mergeCell ref="AE47:AG47"/>
+    <mergeCell ref="AH47:AJ47"/>
+    <mergeCell ref="AK47:BO47"/>
+    <mergeCell ref="D48:P48"/>
+    <mergeCell ref="Q48:W48"/>
+    <mergeCell ref="X48:AD48"/>
+    <mergeCell ref="AE48:AG48"/>
+    <mergeCell ref="AH48:AJ48"/>
+    <mergeCell ref="AK48:BO48"/>
+    <mergeCell ref="D45:P45"/>
+    <mergeCell ref="Q45:W45"/>
+    <mergeCell ref="X45:AD45"/>
+    <mergeCell ref="AE45:AG45"/>
+    <mergeCell ref="AH45:AJ45"/>
+    <mergeCell ref="AK45:BO45"/>
+    <mergeCell ref="D46:P46"/>
+    <mergeCell ref="Q46:W46"/>
+    <mergeCell ref="X46:AD46"/>
+    <mergeCell ref="AE46:AG46"/>
+    <mergeCell ref="AH46:AJ46"/>
+    <mergeCell ref="AK46:BO46"/>
+    <mergeCell ref="D43:P43"/>
+    <mergeCell ref="Q43:W43"/>
+    <mergeCell ref="X43:AD43"/>
+    <mergeCell ref="AE43:AG43"/>
+    <mergeCell ref="AH43:AJ43"/>
+    <mergeCell ref="AK43:BO43"/>
+    <mergeCell ref="D44:P44"/>
+    <mergeCell ref="Q44:W44"/>
+    <mergeCell ref="X44:AD44"/>
+    <mergeCell ref="AE44:AG44"/>
+    <mergeCell ref="AH44:AJ44"/>
+    <mergeCell ref="AK44:BO44"/>
+    <mergeCell ref="D41:P41"/>
+    <mergeCell ref="Q41:W41"/>
+    <mergeCell ref="X41:AD41"/>
+    <mergeCell ref="AE41:AG41"/>
+    <mergeCell ref="AH41:AJ41"/>
+    <mergeCell ref="AK41:BO41"/>
+    <mergeCell ref="D42:P42"/>
+    <mergeCell ref="Q42:W42"/>
+    <mergeCell ref="X42:AD42"/>
+    <mergeCell ref="AE42:AG42"/>
+    <mergeCell ref="AH42:AJ42"/>
+    <mergeCell ref="AK42:BO42"/>
+    <mergeCell ref="Q39:W39"/>
+    <mergeCell ref="X39:AD39"/>
+    <mergeCell ref="AE39:AG39"/>
+    <mergeCell ref="AH39:AJ39"/>
+    <mergeCell ref="AK39:BO39"/>
+    <mergeCell ref="D40:P40"/>
+    <mergeCell ref="Q40:W40"/>
+    <mergeCell ref="X40:AD40"/>
+    <mergeCell ref="AE40:AG40"/>
+    <mergeCell ref="AH40:AJ40"/>
+    <mergeCell ref="AK40:BO40"/>
+    <mergeCell ref="C59:K59"/>
+    <mergeCell ref="L59:AB59"/>
+    <mergeCell ref="AC59:AK59"/>
+    <mergeCell ref="AL59:AT59"/>
+    <mergeCell ref="AZ59:BO59"/>
+    <mergeCell ref="AU59:AY59"/>
+    <mergeCell ref="Q36:W36"/>
+    <mergeCell ref="X36:AD36"/>
+    <mergeCell ref="AE36:AG36"/>
+    <mergeCell ref="AH36:AJ36"/>
+    <mergeCell ref="AK36:BO36"/>
+    <mergeCell ref="D37:P37"/>
+    <mergeCell ref="Q37:W37"/>
+    <mergeCell ref="X37:AD37"/>
+    <mergeCell ref="AE37:AG37"/>
+    <mergeCell ref="AH37:AJ37"/>
+    <mergeCell ref="AK37:BO37"/>
+    <mergeCell ref="D38:P38"/>
+    <mergeCell ref="Q38:W38"/>
+    <mergeCell ref="X38:AD38"/>
+    <mergeCell ref="AE38:AG38"/>
+    <mergeCell ref="AH38:AJ38"/>
+    <mergeCell ref="AK38:BO38"/>
+    <mergeCell ref="D39:P39"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C54:K55"/>
+    <mergeCell ref="L54:AB55"/>
+    <mergeCell ref="L58:AB58"/>
+    <mergeCell ref="AC58:AK58"/>
+    <mergeCell ref="C56:K56"/>
+    <mergeCell ref="L56:AB56"/>
+    <mergeCell ref="AC56:AK56"/>
+    <mergeCell ref="C57:K57"/>
+    <mergeCell ref="L57:AB57"/>
+    <mergeCell ref="AC57:AK57"/>
+    <mergeCell ref="C58:K58"/>
+    <mergeCell ref="AE17:AG17"/>
+    <mergeCell ref="AH17:AJ17"/>
+    <mergeCell ref="AK20:BO20"/>
+    <mergeCell ref="AK21:BO21"/>
+    <mergeCell ref="Q19:W19"/>
+    <mergeCell ref="X19:AD19"/>
+    <mergeCell ref="AE19:AG19"/>
+    <mergeCell ref="AK19:BO19"/>
+    <mergeCell ref="AE22:AG22"/>
+    <mergeCell ref="AH22:AJ22"/>
+    <mergeCell ref="AK22:BO22"/>
+    <mergeCell ref="I13:BO13"/>
+    <mergeCell ref="I14:BO14"/>
+    <mergeCell ref="AK16:BO16"/>
+    <mergeCell ref="AK17:BO17"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="I7:BO7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="I8:BO8"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="I9:BO9"/>
+    <mergeCell ref="I12:BO12"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="Q16:W16"/>
+    <mergeCell ref="X16:AD16"/>
+    <mergeCell ref="AE16:AG16"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="I10:BO10"/>
+    <mergeCell ref="C16:P16"/>
+    <mergeCell ref="C17:P17"/>
+    <mergeCell ref="Q17:W17"/>
+    <mergeCell ref="X17:AD17"/>
+    <mergeCell ref="AL56:AT56"/>
+    <mergeCell ref="AU56:AY56"/>
+    <mergeCell ref="AZ56:BO56"/>
+    <mergeCell ref="AL57:AT57"/>
+    <mergeCell ref="AU57:AY57"/>
+    <mergeCell ref="AZ57:BO57"/>
+    <mergeCell ref="AL58:AT58"/>
+    <mergeCell ref="AU58:AY58"/>
+    <mergeCell ref="AZ58:BO58"/>
+    <mergeCell ref="AL55:AT55"/>
+    <mergeCell ref="AU55:AY55"/>
+    <mergeCell ref="AZ55:BO55"/>
+    <mergeCell ref="AC54:AK55"/>
+    <mergeCell ref="X27:AD27"/>
+    <mergeCell ref="AE27:AG27"/>
+    <mergeCell ref="AH27:AJ27"/>
+    <mergeCell ref="AK27:BO27"/>
+    <mergeCell ref="X28:AD28"/>
+    <mergeCell ref="AE28:AG28"/>
+    <mergeCell ref="AH28:AJ28"/>
+    <mergeCell ref="AK28:BO28"/>
+    <mergeCell ref="AE32:AG32"/>
+    <mergeCell ref="AH32:AJ32"/>
+    <mergeCell ref="AK32:BO32"/>
+    <mergeCell ref="AE33:AG33"/>
+    <mergeCell ref="AH29:AJ29"/>
+    <mergeCell ref="X31:AD31"/>
+    <mergeCell ref="X35:AD35"/>
+    <mergeCell ref="AE35:AG35"/>
+    <mergeCell ref="AH35:AJ35"/>
+    <mergeCell ref="X29:AD29"/>
+    <mergeCell ref="AE29:AG29"/>
+    <mergeCell ref="X30:AD30"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="C19:P19"/>
     <mergeCell ref="AK23:BO23"/>
@@ -11968,181 +12095,54 @@
     <mergeCell ref="Q29:W29"/>
     <mergeCell ref="Q30:W30"/>
     <mergeCell ref="Q31:W31"/>
-    <mergeCell ref="AL55:AT55"/>
-    <mergeCell ref="AU55:AY55"/>
-    <mergeCell ref="AZ55:BO55"/>
-    <mergeCell ref="AC54:AK55"/>
-    <mergeCell ref="X27:AD27"/>
-    <mergeCell ref="AE27:AG27"/>
-    <mergeCell ref="AH27:AJ27"/>
-    <mergeCell ref="AK27:BO27"/>
-    <mergeCell ref="X28:AD28"/>
-    <mergeCell ref="AE28:AG28"/>
-    <mergeCell ref="AH28:AJ28"/>
-    <mergeCell ref="AK28:BO28"/>
-    <mergeCell ref="AE32:AG32"/>
-    <mergeCell ref="AH32:AJ32"/>
-    <mergeCell ref="AK32:BO32"/>
-    <mergeCell ref="AE33:AG33"/>
-    <mergeCell ref="AH29:AJ29"/>
-    <mergeCell ref="X31:AD31"/>
-    <mergeCell ref="X35:AD35"/>
-    <mergeCell ref="AE35:AG35"/>
-    <mergeCell ref="AH35:AJ35"/>
-    <mergeCell ref="X29:AD29"/>
-    <mergeCell ref="AE29:AG29"/>
-    <mergeCell ref="X30:AD30"/>
-    <mergeCell ref="AL56:AT56"/>
-    <mergeCell ref="AU56:AY56"/>
-    <mergeCell ref="AZ56:BO56"/>
-    <mergeCell ref="AL57:AT57"/>
-    <mergeCell ref="AU57:AY57"/>
-    <mergeCell ref="AZ57:BO57"/>
-    <mergeCell ref="AL58:AT58"/>
-    <mergeCell ref="AU58:AY58"/>
-    <mergeCell ref="AZ58:BO58"/>
-    <mergeCell ref="I13:BO13"/>
-    <mergeCell ref="I14:BO14"/>
-    <mergeCell ref="AK16:BO16"/>
-    <mergeCell ref="AK17:BO17"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="I7:BO7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="I8:BO8"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="I9:BO9"/>
-    <mergeCell ref="I12:BO12"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="D13:H13"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="Q16:W16"/>
-    <mergeCell ref="X16:AD16"/>
-    <mergeCell ref="AE16:AG16"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="I10:BO10"/>
-    <mergeCell ref="C16:P16"/>
-    <mergeCell ref="C17:P17"/>
-    <mergeCell ref="Q17:W17"/>
-    <mergeCell ref="X17:AD17"/>
-    <mergeCell ref="AE17:AG17"/>
-    <mergeCell ref="AH17:AJ17"/>
-    <mergeCell ref="AK20:BO20"/>
-    <mergeCell ref="AK21:BO21"/>
-    <mergeCell ref="Q19:W19"/>
-    <mergeCell ref="X19:AD19"/>
-    <mergeCell ref="AE19:AG19"/>
-    <mergeCell ref="AK19:BO19"/>
-    <mergeCell ref="AE22:AG22"/>
-    <mergeCell ref="AH22:AJ22"/>
-    <mergeCell ref="AK22:BO22"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="C54:K55"/>
-    <mergeCell ref="L54:AB55"/>
-    <mergeCell ref="L58:AB58"/>
-    <mergeCell ref="AC58:AK58"/>
-    <mergeCell ref="C56:K56"/>
-    <mergeCell ref="L56:AB56"/>
-    <mergeCell ref="AC56:AK56"/>
-    <mergeCell ref="C57:K57"/>
-    <mergeCell ref="L57:AB57"/>
-    <mergeCell ref="AC57:AK57"/>
-    <mergeCell ref="C58:K58"/>
-    <mergeCell ref="C59:K59"/>
-    <mergeCell ref="L59:AB59"/>
-    <mergeCell ref="AC59:AK59"/>
-    <mergeCell ref="AL59:AT59"/>
-    <mergeCell ref="AZ59:BO59"/>
-    <mergeCell ref="AU59:AY59"/>
-    <mergeCell ref="Q36:W36"/>
-    <mergeCell ref="X36:AD36"/>
-    <mergeCell ref="AE36:AG36"/>
-    <mergeCell ref="AH36:AJ36"/>
-    <mergeCell ref="AK36:BO36"/>
-    <mergeCell ref="D37:P37"/>
-    <mergeCell ref="Q37:W37"/>
-    <mergeCell ref="X37:AD37"/>
-    <mergeCell ref="AE37:AG37"/>
-    <mergeCell ref="AH37:AJ37"/>
-    <mergeCell ref="AK37:BO37"/>
-    <mergeCell ref="D38:P38"/>
-    <mergeCell ref="Q38:W38"/>
-    <mergeCell ref="X38:AD38"/>
-    <mergeCell ref="AE38:AG38"/>
-    <mergeCell ref="AH38:AJ38"/>
-    <mergeCell ref="AK38:BO38"/>
-    <mergeCell ref="D39:P39"/>
-    <mergeCell ref="Q39:W39"/>
-    <mergeCell ref="X39:AD39"/>
-    <mergeCell ref="AE39:AG39"/>
-    <mergeCell ref="AH39:AJ39"/>
-    <mergeCell ref="AK39:BO39"/>
-    <mergeCell ref="D40:P40"/>
-    <mergeCell ref="Q40:W40"/>
-    <mergeCell ref="X40:AD40"/>
-    <mergeCell ref="AE40:AG40"/>
-    <mergeCell ref="AH40:AJ40"/>
-    <mergeCell ref="AK40:BO40"/>
-    <mergeCell ref="D41:P41"/>
-    <mergeCell ref="Q41:W41"/>
-    <mergeCell ref="X41:AD41"/>
-    <mergeCell ref="AE41:AG41"/>
-    <mergeCell ref="AH41:AJ41"/>
-    <mergeCell ref="AK41:BO41"/>
-    <mergeCell ref="D42:P42"/>
-    <mergeCell ref="Q42:W42"/>
-    <mergeCell ref="X42:AD42"/>
-    <mergeCell ref="AE42:AG42"/>
-    <mergeCell ref="AH42:AJ42"/>
-    <mergeCell ref="AK42:BO42"/>
-    <mergeCell ref="D43:P43"/>
-    <mergeCell ref="Q43:W43"/>
-    <mergeCell ref="X43:AD43"/>
-    <mergeCell ref="AE43:AG43"/>
-    <mergeCell ref="AH43:AJ43"/>
-    <mergeCell ref="AK43:BO43"/>
-    <mergeCell ref="D44:P44"/>
-    <mergeCell ref="Q44:W44"/>
-    <mergeCell ref="X44:AD44"/>
-    <mergeCell ref="AE44:AG44"/>
-    <mergeCell ref="AH44:AJ44"/>
-    <mergeCell ref="AK44:BO44"/>
-    <mergeCell ref="D45:P45"/>
-    <mergeCell ref="Q45:W45"/>
-    <mergeCell ref="X45:AD45"/>
-    <mergeCell ref="AE45:AG45"/>
-    <mergeCell ref="AH45:AJ45"/>
-    <mergeCell ref="AK45:BO45"/>
-    <mergeCell ref="D46:P46"/>
-    <mergeCell ref="Q46:W46"/>
-    <mergeCell ref="X46:AD46"/>
-    <mergeCell ref="AE46:AG46"/>
-    <mergeCell ref="AH46:AJ46"/>
-    <mergeCell ref="AK46:BO46"/>
-    <mergeCell ref="D47:P47"/>
-    <mergeCell ref="Q47:W47"/>
-    <mergeCell ref="X47:AD47"/>
-    <mergeCell ref="AE47:AG47"/>
-    <mergeCell ref="AH47:AJ47"/>
-    <mergeCell ref="AK47:BO47"/>
-    <mergeCell ref="D48:P48"/>
-    <mergeCell ref="Q48:W48"/>
-    <mergeCell ref="X48:AD48"/>
-    <mergeCell ref="AE48:AG48"/>
-    <mergeCell ref="AH48:AJ48"/>
-    <mergeCell ref="AK48:BO48"/>
-    <mergeCell ref="D49:P49"/>
-    <mergeCell ref="Q49:W49"/>
-    <mergeCell ref="X49:AD49"/>
-    <mergeCell ref="AE49:AG49"/>
-    <mergeCell ref="AH49:AJ49"/>
-    <mergeCell ref="AK49:BO49"/>
-    <mergeCell ref="D50:P50"/>
-    <mergeCell ref="Q50:W50"/>
-    <mergeCell ref="X50:AD50"/>
-    <mergeCell ref="AE50:AG50"/>
-    <mergeCell ref="AH50:AJ50"/>
-    <mergeCell ref="AK50:BO50"/>
+    <mergeCell ref="C20:P20"/>
+    <mergeCell ref="Q20:W20"/>
+    <mergeCell ref="X20:AD20"/>
+    <mergeCell ref="AE20:AG20"/>
+    <mergeCell ref="AH20:AJ20"/>
+    <mergeCell ref="Q21:W21"/>
+    <mergeCell ref="X21:AD21"/>
+    <mergeCell ref="AE21:AG21"/>
+    <mergeCell ref="AH21:AJ21"/>
+    <mergeCell ref="AE25:AG25"/>
+    <mergeCell ref="AH25:AJ25"/>
+    <mergeCell ref="AK25:BO25"/>
+    <mergeCell ref="Q26:W26"/>
+    <mergeCell ref="X26:AD26"/>
+    <mergeCell ref="AE26:AG26"/>
+    <mergeCell ref="AH26:AJ26"/>
+    <mergeCell ref="AK26:BO26"/>
+    <mergeCell ref="D24:P24"/>
+    <mergeCell ref="D25:P25"/>
+    <mergeCell ref="D26:P26"/>
+    <mergeCell ref="D35:P35"/>
+    <mergeCell ref="D32:P32"/>
+    <mergeCell ref="Q32:W32"/>
+    <mergeCell ref="X32:AD32"/>
+    <mergeCell ref="D33:P33"/>
+    <mergeCell ref="Q33:W33"/>
+    <mergeCell ref="X33:AD33"/>
+    <mergeCell ref="D22:P22"/>
+    <mergeCell ref="Q22:W22"/>
+    <mergeCell ref="X22:AD22"/>
+    <mergeCell ref="Q25:W25"/>
+    <mergeCell ref="X25:AD25"/>
+    <mergeCell ref="Q35:W35"/>
+    <mergeCell ref="Q27:W27"/>
+    <mergeCell ref="Q28:W28"/>
+    <mergeCell ref="AK33:BO33"/>
+    <mergeCell ref="D34:P34"/>
+    <mergeCell ref="Q34:W34"/>
+    <mergeCell ref="X34:AD34"/>
+    <mergeCell ref="AE34:AG34"/>
+    <mergeCell ref="AH34:AJ34"/>
+    <mergeCell ref="AK34:BO34"/>
+    <mergeCell ref="D27:P27"/>
+    <mergeCell ref="D28:P28"/>
+    <mergeCell ref="D29:P29"/>
+    <mergeCell ref="D30:P30"/>
+    <mergeCell ref="D31:P31"/>
+    <mergeCell ref="AH33:AJ33"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <dataValidations count="1">
@@ -12631,7 +12631,7 @@
     <row r="7" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A7" s="18"/>
       <c r="B7" s="37"/>
-      <c r="C7" s="87" t="s">
+      <c r="C7" s="88" t="s">
         <v>24</v>
       </c>
       <c r="D7" s="60"/>
@@ -12639,7 +12639,7 @@
       <c r="F7" s="60"/>
       <c r="G7" s="60"/>
       <c r="H7" s="61"/>
-      <c r="I7" s="70" t="s">
+      <c r="I7" s="66" t="s">
         <v>75</v>
       </c>
       <c r="J7" s="60"/>
@@ -12705,7 +12705,7 @@
     <row r="8" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A8" s="18"/>
       <c r="B8" s="37"/>
-      <c r="C8" s="87" t="s">
+      <c r="C8" s="88" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="60"/>
@@ -12713,7 +12713,7 @@
       <c r="F8" s="60"/>
       <c r="G8" s="60"/>
       <c r="H8" s="61"/>
-      <c r="I8" s="70" t="s">
+      <c r="I8" s="66" t="s">
         <v>26</v>
       </c>
       <c r="J8" s="60"/>
@@ -12779,7 +12779,7 @@
     <row r="9" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A9" s="18"/>
       <c r="B9" s="37"/>
-      <c r="C9" s="87" t="s">
+      <c r="C9" s="88" t="s">
         <v>27</v>
       </c>
       <c r="D9" s="60"/>
@@ -12787,7 +12787,7 @@
       <c r="F9" s="60"/>
       <c r="G9" s="60"/>
       <c r="H9" s="61"/>
-      <c r="I9" s="70" t="s">
+      <c r="I9" s="66" t="s">
         <v>28</v>
       </c>
       <c r="J9" s="60"/>
@@ -12853,75 +12853,75 @@
     <row r="10" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A10" s="18"/>
       <c r="B10" s="37"/>
-      <c r="C10" s="87" t="s">
+      <c r="C10" s="88" t="s">
         <v>73</v>
       </c>
-      <c r="D10" s="90"/>
-      <c r="E10" s="90"/>
-      <c r="F10" s="90"/>
-      <c r="G10" s="90"/>
-      <c r="H10" s="90"/>
-      <c r="I10" s="91" t="s">
+      <c r="D10" s="89"/>
+      <c r="E10" s="89"/>
+      <c r="F10" s="89"/>
+      <c r="G10" s="89"/>
+      <c r="H10" s="89"/>
+      <c r="I10" s="90" t="s">
         <v>74</v>
       </c>
-      <c r="J10" s="91"/>
-      <c r="K10" s="91"/>
-      <c r="L10" s="91"/>
-      <c r="M10" s="91"/>
-      <c r="N10" s="91"/>
-      <c r="O10" s="91"/>
-      <c r="P10" s="91"/>
-      <c r="Q10" s="91"/>
-      <c r="R10" s="91"/>
-      <c r="S10" s="91"/>
-      <c r="T10" s="91"/>
-      <c r="U10" s="91"/>
-      <c r="V10" s="91"/>
-      <c r="W10" s="91"/>
-      <c r="X10" s="91"/>
-      <c r="Y10" s="91"/>
-      <c r="Z10" s="91"/>
-      <c r="AA10" s="91"/>
-      <c r="AB10" s="91"/>
-      <c r="AC10" s="91"/>
-      <c r="AD10" s="91"/>
-      <c r="AE10" s="91"/>
-      <c r="AF10" s="91"/>
-      <c r="AG10" s="91"/>
-      <c r="AH10" s="91"/>
-      <c r="AI10" s="91"/>
-      <c r="AJ10" s="91"/>
-      <c r="AK10" s="91"/>
-      <c r="AL10" s="91"/>
-      <c r="AM10" s="91"/>
-      <c r="AN10" s="91"/>
-      <c r="AO10" s="91"/>
-      <c r="AP10" s="91"/>
-      <c r="AQ10" s="91"/>
-      <c r="AR10" s="91"/>
-      <c r="AS10" s="91"/>
-      <c r="AT10" s="91"/>
-      <c r="AU10" s="91"/>
-      <c r="AV10" s="91"/>
-      <c r="AW10" s="91"/>
-      <c r="AX10" s="91"/>
-      <c r="AY10" s="91"/>
-      <c r="AZ10" s="91"/>
-      <c r="BA10" s="91"/>
-      <c r="BB10" s="91"/>
-      <c r="BC10" s="91"/>
-      <c r="BD10" s="91"/>
-      <c r="BE10" s="91"/>
-      <c r="BF10" s="91"/>
-      <c r="BG10" s="91"/>
-      <c r="BH10" s="91"/>
-      <c r="BI10" s="91"/>
-      <c r="BJ10" s="91"/>
-      <c r="BK10" s="91"/>
-      <c r="BL10" s="91"/>
-      <c r="BM10" s="91"/>
-      <c r="BN10" s="91"/>
-      <c r="BO10" s="91"/>
+      <c r="J10" s="90"/>
+      <c r="K10" s="90"/>
+      <c r="L10" s="90"/>
+      <c r="M10" s="90"/>
+      <c r="N10" s="90"/>
+      <c r="O10" s="90"/>
+      <c r="P10" s="90"/>
+      <c r="Q10" s="90"/>
+      <c r="R10" s="90"/>
+      <c r="S10" s="90"/>
+      <c r="T10" s="90"/>
+      <c r="U10" s="90"/>
+      <c r="V10" s="90"/>
+      <c r="W10" s="90"/>
+      <c r="X10" s="90"/>
+      <c r="Y10" s="90"/>
+      <c r="Z10" s="90"/>
+      <c r="AA10" s="90"/>
+      <c r="AB10" s="90"/>
+      <c r="AC10" s="90"/>
+      <c r="AD10" s="90"/>
+      <c r="AE10" s="90"/>
+      <c r="AF10" s="90"/>
+      <c r="AG10" s="90"/>
+      <c r="AH10" s="90"/>
+      <c r="AI10" s="90"/>
+      <c r="AJ10" s="90"/>
+      <c r="AK10" s="90"/>
+      <c r="AL10" s="90"/>
+      <c r="AM10" s="90"/>
+      <c r="AN10" s="90"/>
+      <c r="AO10" s="90"/>
+      <c r="AP10" s="90"/>
+      <c r="AQ10" s="90"/>
+      <c r="AR10" s="90"/>
+      <c r="AS10" s="90"/>
+      <c r="AT10" s="90"/>
+      <c r="AU10" s="90"/>
+      <c r="AV10" s="90"/>
+      <c r="AW10" s="90"/>
+      <c r="AX10" s="90"/>
+      <c r="AY10" s="90"/>
+      <c r="AZ10" s="90"/>
+      <c r="BA10" s="90"/>
+      <c r="BB10" s="90"/>
+      <c r="BC10" s="90"/>
+      <c r="BD10" s="90"/>
+      <c r="BE10" s="90"/>
+      <c r="BF10" s="90"/>
+      <c r="BG10" s="90"/>
+      <c r="BH10" s="90"/>
+      <c r="BI10" s="90"/>
+      <c r="BJ10" s="90"/>
+      <c r="BK10" s="90"/>
+      <c r="BL10" s="90"/>
+      <c r="BM10" s="90"/>
+      <c r="BN10" s="90"/>
+      <c r="BO10" s="90"/>
       <c r="BP10" s="18"/>
     </row>
     <row r="11" spans="1:68" ht="16.5" outlineLevel="1">
@@ -13000,14 +13000,14 @@
       <c r="A12" s="18"/>
       <c r="B12" s="37"/>
       <c r="C12" s="22"/>
-      <c r="D12" s="70" t="s">
+      <c r="D12" s="66" t="s">
         <v>30</v>
       </c>
       <c r="E12" s="60"/>
       <c r="F12" s="60"/>
       <c r="G12" s="60"/>
       <c r="H12" s="61"/>
-      <c r="I12" s="88" t="s">
+      <c r="I12" s="87" t="s">
         <v>31</v>
       </c>
       <c r="J12" s="60"/>
@@ -13074,14 +13074,14 @@
       <c r="A13" s="18"/>
       <c r="B13" s="37"/>
       <c r="C13" s="22"/>
-      <c r="D13" s="70" t="s">
+      <c r="D13" s="66" t="s">
         <v>32</v>
       </c>
       <c r="E13" s="60"/>
       <c r="F13" s="60"/>
       <c r="G13" s="60"/>
       <c r="H13" s="61"/>
-      <c r="I13" s="88" t="s">
+      <c r="I13" s="87" t="s">
         <v>33</v>
       </c>
       <c r="J13" s="60"/>
@@ -13148,14 +13148,14 @@
       <c r="A14" s="18"/>
       <c r="B14" s="37"/>
       <c r="C14" s="22"/>
-      <c r="D14" s="70" t="s">
+      <c r="D14" s="66" t="s">
         <v>78</v>
       </c>
       <c r="E14" s="60"/>
       <c r="F14" s="60"/>
       <c r="G14" s="60"/>
       <c r="H14" s="61"/>
-      <c r="I14" s="88" t="s">
+      <c r="I14" s="87" t="s">
         <v>79</v>
       </c>
       <c r="J14" s="60"/>
@@ -13220,11 +13220,11 @@
     </row>
     <row r="15" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A15" s="18"/>
-      <c r="B15" s="89" t="s">
+      <c r="B15" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="81"/>
-      <c r="D15" s="81"/>
+      <c r="C15" s="77"/>
+      <c r="D15" s="77"/>
       <c r="E15" s="36"/>
       <c r="F15" s="36"/>
       <c r="G15" s="36"/>
@@ -13327,7 +13327,7 @@
       <c r="AB16" s="60"/>
       <c r="AC16" s="60"/>
       <c r="AD16" s="61"/>
-      <c r="AE16" s="87" t="s">
+      <c r="AE16" s="88" t="s">
         <v>22</v>
       </c>
       <c r="AF16" s="60"/>
@@ -13375,7 +13375,7 @@
     <row r="17" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A17" s="18"/>
       <c r="B17" s="37"/>
-      <c r="C17" s="70" t="s">
+      <c r="C17" s="66" t="s">
         <v>137</v>
       </c>
       <c r="D17" s="60"/>
@@ -13391,7 +13391,7 @@
       <c r="N17" s="60"/>
       <c r="O17" s="60"/>
       <c r="P17" s="61"/>
-      <c r="Q17" s="69" t="s">
+      <c r="Q17" s="70" t="s">
         <v>71</v>
       </c>
       <c r="R17" s="60"/>
@@ -13400,20 +13400,20 @@
       <c r="U17" s="60"/>
       <c r="V17" s="60"/>
       <c r="W17" s="61"/>
-      <c r="X17" s="69"/>
+      <c r="X17" s="70"/>
       <c r="Y17" s="60"/>
       <c r="Z17" s="60"/>
       <c r="AA17" s="60"/>
       <c r="AB17" s="60"/>
       <c r="AC17" s="60"/>
       <c r="AD17" s="61"/>
-      <c r="AE17" s="70"/>
+      <c r="AE17" s="66"/>
       <c r="AF17" s="60"/>
       <c r="AG17" s="61"/>
-      <c r="AH17" s="69"/>
+      <c r="AH17" s="70"/>
       <c r="AI17" s="60"/>
       <c r="AJ17" s="61"/>
-      <c r="AK17" s="69"/>
+      <c r="AK17" s="70"/>
       <c r="AL17" s="60"/>
       <c r="AM17" s="60"/>
       <c r="AN17" s="60"/>
@@ -13449,7 +13449,7 @@
     <row r="18" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A18" s="18"/>
       <c r="B18" s="37"/>
-      <c r="C18" s="70" t="s">
+      <c r="C18" s="66" t="s">
         <v>138</v>
       </c>
       <c r="D18" s="60"/>
@@ -13465,7 +13465,7 @@
       <c r="N18" s="60"/>
       <c r="O18" s="60"/>
       <c r="P18" s="61"/>
-      <c r="Q18" s="69" t="s">
+      <c r="Q18" s="70" t="s">
         <v>67</v>
       </c>
       <c r="R18" s="60"/>
@@ -13474,20 +13474,20 @@
       <c r="U18" s="60"/>
       <c r="V18" s="60"/>
       <c r="W18" s="61"/>
-      <c r="X18" s="69"/>
+      <c r="X18" s="70"/>
       <c r="Y18" s="60"/>
       <c r="Z18" s="60"/>
       <c r="AA18" s="60"/>
       <c r="AB18" s="60"/>
       <c r="AC18" s="60"/>
       <c r="AD18" s="61"/>
-      <c r="AE18" s="70"/>
+      <c r="AE18" s="66"/>
       <c r="AF18" s="60"/>
       <c r="AG18" s="61"/>
-      <c r="AH18" s="69"/>
+      <c r="AH18" s="70"/>
       <c r="AI18" s="60"/>
       <c r="AJ18" s="61"/>
-      <c r="AK18" s="69"/>
+      <c r="AK18" s="70"/>
       <c r="AL18" s="60"/>
       <c r="AM18" s="60"/>
       <c r="AN18" s="60"/>
@@ -13522,11 +13522,11 @@
     </row>
     <row r="19" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A19" s="18"/>
-      <c r="B19" s="89" t="s">
+      <c r="B19" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="81"/>
-      <c r="D19" s="81"/>
+      <c r="C19" s="77"/>
+      <c r="D19" s="77"/>
       <c r="E19" s="36"/>
       <c r="F19" s="36"/>
       <c r="G19" s="36"/>
@@ -13629,7 +13629,7 @@
       <c r="AB20" s="60"/>
       <c r="AC20" s="60"/>
       <c r="AD20" s="61"/>
-      <c r="AE20" s="87" t="s">
+      <c r="AE20" s="88" t="s">
         <v>22</v>
       </c>
       <c r="AF20" s="60"/>
@@ -13677,78 +13677,78 @@
     <row r="21" spans="1:68" s="52" customFormat="1" ht="33" customHeight="1" outlineLevel="1">
       <c r="A21" s="18"/>
       <c r="B21" s="37"/>
-      <c r="C21" s="70" t="s">
+      <c r="C21" s="66" t="s">
         <v>81</v>
       </c>
-      <c r="D21" s="68"/>
-      <c r="E21" s="68"/>
-      <c r="F21" s="68"/>
-      <c r="G21" s="68"/>
-      <c r="H21" s="68"/>
-      <c r="I21" s="68"/>
-      <c r="J21" s="68"/>
-      <c r="K21" s="68"/>
-      <c r="L21" s="68"/>
-      <c r="M21" s="68"/>
-      <c r="N21" s="68"/>
-      <c r="O21" s="68"/>
+      <c r="D21" s="74"/>
+      <c r="E21" s="74"/>
+      <c r="F21" s="74"/>
+      <c r="G21" s="74"/>
+      <c r="H21" s="74"/>
+      <c r="I21" s="74"/>
+      <c r="J21" s="74"/>
+      <c r="K21" s="74"/>
+      <c r="L21" s="74"/>
+      <c r="M21" s="74"/>
+      <c r="N21" s="74"/>
+      <c r="O21" s="74"/>
       <c r="P21" s="61"/>
-      <c r="Q21" s="69"/>
-      <c r="R21" s="68"/>
-      <c r="S21" s="68"/>
-      <c r="T21" s="68"/>
-      <c r="U21" s="68"/>
-      <c r="V21" s="68"/>
+      <c r="Q21" s="70"/>
+      <c r="R21" s="74"/>
+      <c r="S21" s="74"/>
+      <c r="T21" s="74"/>
+      <c r="U21" s="74"/>
+      <c r="V21" s="74"/>
       <c r="W21" s="61"/>
-      <c r="X21" s="69" t="s">
+      <c r="X21" s="70" t="s">
         <v>82</v>
       </c>
-      <c r="Y21" s="68"/>
-      <c r="Z21" s="68"/>
-      <c r="AA21" s="68"/>
-      <c r="AB21" s="68"/>
-      <c r="AC21" s="68"/>
+      <c r="Y21" s="74"/>
+      <c r="Z21" s="74"/>
+      <c r="AA21" s="74"/>
+      <c r="AB21" s="74"/>
+      <c r="AC21" s="74"/>
       <c r="AD21" s="61"/>
-      <c r="AE21" s="70">
+      <c r="AE21" s="66">
         <v>1</v>
       </c>
-      <c r="AF21" s="68"/>
+      <c r="AF21" s="74"/>
       <c r="AG21" s="61"/>
-      <c r="AH21" s="69"/>
-      <c r="AI21" s="68"/>
+      <c r="AH21" s="70"/>
+      <c r="AI21" s="74"/>
       <c r="AJ21" s="61"/>
-      <c r="AK21" s="74" t="s">
+      <c r="AK21" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="AL21" s="68"/>
-      <c r="AM21" s="68"/>
-      <c r="AN21" s="68"/>
-      <c r="AO21" s="68"/>
-      <c r="AP21" s="68"/>
-      <c r="AQ21" s="68"/>
-      <c r="AR21" s="68"/>
-      <c r="AS21" s="68"/>
-      <c r="AT21" s="68"/>
-      <c r="AU21" s="68"/>
-      <c r="AV21" s="68"/>
-      <c r="AW21" s="68"/>
-      <c r="AX21" s="68"/>
-      <c r="AY21" s="68"/>
-      <c r="AZ21" s="68"/>
-      <c r="BA21" s="68"/>
-      <c r="BB21" s="68"/>
-      <c r="BC21" s="68"/>
-      <c r="BD21" s="68"/>
-      <c r="BE21" s="68"/>
-      <c r="BF21" s="68"/>
-      <c r="BG21" s="68"/>
-      <c r="BH21" s="68"/>
-      <c r="BI21" s="68"/>
-      <c r="BJ21" s="68"/>
-      <c r="BK21" s="68"/>
-      <c r="BL21" s="68"/>
-      <c r="BM21" s="68"/>
-      <c r="BN21" s="68"/>
+      <c r="AL21" s="74"/>
+      <c r="AM21" s="74"/>
+      <c r="AN21" s="74"/>
+      <c r="AO21" s="74"/>
+      <c r="AP21" s="74"/>
+      <c r="AQ21" s="74"/>
+      <c r="AR21" s="74"/>
+      <c r="AS21" s="74"/>
+      <c r="AT21" s="74"/>
+      <c r="AU21" s="74"/>
+      <c r="AV21" s="74"/>
+      <c r="AW21" s="74"/>
+      <c r="AX21" s="74"/>
+      <c r="AY21" s="74"/>
+      <c r="AZ21" s="74"/>
+      <c r="BA21" s="74"/>
+      <c r="BB21" s="74"/>
+      <c r="BC21" s="74"/>
+      <c r="BD21" s="74"/>
+      <c r="BE21" s="74"/>
+      <c r="BF21" s="74"/>
+      <c r="BG21" s="74"/>
+      <c r="BH21" s="74"/>
+      <c r="BI21" s="74"/>
+      <c r="BJ21" s="74"/>
+      <c r="BK21" s="74"/>
+      <c r="BL21" s="74"/>
+      <c r="BM21" s="74"/>
+      <c r="BN21" s="74"/>
       <c r="BO21" s="61"/>
       <c r="BP21" s="18"/>
     </row>
@@ -13771,60 +13771,60 @@
       <c r="N22" s="53"/>
       <c r="O22" s="53"/>
       <c r="P22" s="33"/>
-      <c r="Q22" s="67"/>
-      <c r="R22" s="68"/>
-      <c r="S22" s="68"/>
-      <c r="T22" s="68"/>
-      <c r="U22" s="68"/>
-      <c r="V22" s="68"/>
+      <c r="Q22" s="95"/>
+      <c r="R22" s="74"/>
+      <c r="S22" s="74"/>
+      <c r="T22" s="74"/>
+      <c r="U22" s="74"/>
+      <c r="V22" s="74"/>
       <c r="W22" s="61"/>
-      <c r="X22" s="69" t="s">
+      <c r="X22" s="70" t="s">
         <v>46</v>
       </c>
-      <c r="Y22" s="68"/>
-      <c r="Z22" s="68"/>
-      <c r="AA22" s="68"/>
-      <c r="AB22" s="68"/>
-      <c r="AC22" s="68"/>
+      <c r="Y22" s="74"/>
+      <c r="Z22" s="74"/>
+      <c r="AA22" s="74"/>
+      <c r="AB22" s="74"/>
+      <c r="AC22" s="74"/>
       <c r="AD22" s="61"/>
-      <c r="AE22" s="70"/>
-      <c r="AF22" s="68"/>
+      <c r="AE22" s="66"/>
+      <c r="AF22" s="74"/>
       <c r="AG22" s="61"/>
-      <c r="AH22" s="69"/>
-      <c r="AI22" s="68"/>
+      <c r="AH22" s="70"/>
+      <c r="AI22" s="74"/>
       <c r="AJ22" s="61"/>
-      <c r="AK22" s="69" t="s">
+      <c r="AK22" s="70" t="s">
         <v>85</v>
       </c>
-      <c r="AL22" s="68"/>
-      <c r="AM22" s="68"/>
-      <c r="AN22" s="68"/>
-      <c r="AO22" s="68"/>
-      <c r="AP22" s="68"/>
-      <c r="AQ22" s="68"/>
-      <c r="AR22" s="68"/>
-      <c r="AS22" s="68"/>
-      <c r="AT22" s="68"/>
-      <c r="AU22" s="68"/>
-      <c r="AV22" s="68"/>
-      <c r="AW22" s="68"/>
-      <c r="AX22" s="68"/>
-      <c r="AY22" s="68"/>
-      <c r="AZ22" s="68"/>
-      <c r="BA22" s="68"/>
-      <c r="BB22" s="68"/>
-      <c r="BC22" s="68"/>
-      <c r="BD22" s="68"/>
-      <c r="BE22" s="68"/>
-      <c r="BF22" s="68"/>
-      <c r="BG22" s="68"/>
-      <c r="BH22" s="68"/>
-      <c r="BI22" s="68"/>
-      <c r="BJ22" s="68"/>
-      <c r="BK22" s="68"/>
-      <c r="BL22" s="68"/>
-      <c r="BM22" s="68"/>
-      <c r="BN22" s="68"/>
+      <c r="AL22" s="74"/>
+      <c r="AM22" s="74"/>
+      <c r="AN22" s="74"/>
+      <c r="AO22" s="74"/>
+      <c r="AP22" s="74"/>
+      <c r="AQ22" s="74"/>
+      <c r="AR22" s="74"/>
+      <c r="AS22" s="74"/>
+      <c r="AT22" s="74"/>
+      <c r="AU22" s="74"/>
+      <c r="AV22" s="74"/>
+      <c r="AW22" s="74"/>
+      <c r="AX22" s="74"/>
+      <c r="AY22" s="74"/>
+      <c r="AZ22" s="74"/>
+      <c r="BA22" s="74"/>
+      <c r="BB22" s="74"/>
+      <c r="BC22" s="74"/>
+      <c r="BD22" s="74"/>
+      <c r="BE22" s="74"/>
+      <c r="BF22" s="74"/>
+      <c r="BG22" s="74"/>
+      <c r="BH22" s="74"/>
+      <c r="BI22" s="74"/>
+      <c r="BJ22" s="74"/>
+      <c r="BK22" s="74"/>
+      <c r="BL22" s="74"/>
+      <c r="BM22" s="74"/>
+      <c r="BN22" s="74"/>
       <c r="BO22" s="61"/>
       <c r="BP22" s="18"/>
     </row>
@@ -13832,71 +13832,71 @@
       <c r="A23" s="18"/>
       <c r="B23" s="54"/>
       <c r="C23" s="55"/>
-      <c r="D23" s="70" t="s">
+      <c r="D23" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="65"/>
-      <c r="H23" s="65"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="65"/>
-      <c r="N23" s="65"/>
-      <c r="O23" s="65"/>
-      <c r="P23" s="66"/>
-      <c r="Q23" s="67"/>
-      <c r="R23" s="68"/>
-      <c r="S23" s="68"/>
-      <c r="T23" s="68"/>
-      <c r="U23" s="68"/>
-      <c r="V23" s="68"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="67"/>
+      <c r="I23" s="67"/>
+      <c r="J23" s="67"/>
+      <c r="K23" s="67"/>
+      <c r="L23" s="67"/>
+      <c r="M23" s="67"/>
+      <c r="N23" s="67"/>
+      <c r="O23" s="67"/>
+      <c r="P23" s="68"/>
+      <c r="Q23" s="95"/>
+      <c r="R23" s="74"/>
+      <c r="S23" s="74"/>
+      <c r="T23" s="74"/>
+      <c r="U23" s="74"/>
+      <c r="V23" s="74"/>
       <c r="W23" s="61"/>
-      <c r="X23" s="69"/>
-      <c r="Y23" s="68"/>
-      <c r="Z23" s="68"/>
-      <c r="AA23" s="68"/>
-      <c r="AB23" s="68"/>
-      <c r="AC23" s="68"/>
+      <c r="X23" s="70"/>
+      <c r="Y23" s="74"/>
+      <c r="Z23" s="74"/>
+      <c r="AA23" s="74"/>
+      <c r="AB23" s="74"/>
+      <c r="AC23" s="74"/>
       <c r="AD23" s="61"/>
-      <c r="AE23" s="70"/>
-      <c r="AF23" s="68"/>
+      <c r="AE23" s="66"/>
+      <c r="AF23" s="74"/>
       <c r="AG23" s="61"/>
-      <c r="AH23" s="69"/>
-      <c r="AI23" s="68"/>
+      <c r="AH23" s="70"/>
+      <c r="AI23" s="74"/>
       <c r="AJ23" s="61"/>
-      <c r="AK23" s="69"/>
-      <c r="AL23" s="68"/>
-      <c r="AM23" s="68"/>
-      <c r="AN23" s="68"/>
-      <c r="AO23" s="68"/>
-      <c r="AP23" s="68"/>
-      <c r="AQ23" s="68"/>
-      <c r="AR23" s="68"/>
-      <c r="AS23" s="68"/>
-      <c r="AT23" s="68"/>
-      <c r="AU23" s="68"/>
-      <c r="AV23" s="68"/>
-      <c r="AW23" s="68"/>
-      <c r="AX23" s="68"/>
-      <c r="AY23" s="68"/>
-      <c r="AZ23" s="68"/>
-      <c r="BA23" s="68"/>
-      <c r="BB23" s="68"/>
-      <c r="BC23" s="68"/>
-      <c r="BD23" s="68"/>
-      <c r="BE23" s="68"/>
-      <c r="BF23" s="68"/>
-      <c r="BG23" s="68"/>
-      <c r="BH23" s="68"/>
-      <c r="BI23" s="68"/>
-      <c r="BJ23" s="68"/>
-      <c r="BK23" s="68"/>
-      <c r="BL23" s="68"/>
-      <c r="BM23" s="68"/>
-      <c r="BN23" s="68"/>
+      <c r="AK23" s="70"/>
+      <c r="AL23" s="74"/>
+      <c r="AM23" s="74"/>
+      <c r="AN23" s="74"/>
+      <c r="AO23" s="74"/>
+      <c r="AP23" s="74"/>
+      <c r="AQ23" s="74"/>
+      <c r="AR23" s="74"/>
+      <c r="AS23" s="74"/>
+      <c r="AT23" s="74"/>
+      <c r="AU23" s="74"/>
+      <c r="AV23" s="74"/>
+      <c r="AW23" s="74"/>
+      <c r="AX23" s="74"/>
+      <c r="AY23" s="74"/>
+      <c r="AZ23" s="74"/>
+      <c r="BA23" s="74"/>
+      <c r="BB23" s="74"/>
+      <c r="BC23" s="74"/>
+      <c r="BD23" s="74"/>
+      <c r="BE23" s="74"/>
+      <c r="BF23" s="74"/>
+      <c r="BG23" s="74"/>
+      <c r="BH23" s="74"/>
+      <c r="BI23" s="74"/>
+      <c r="BJ23" s="74"/>
+      <c r="BK23" s="74"/>
+      <c r="BL23" s="74"/>
+      <c r="BM23" s="74"/>
+      <c r="BN23" s="74"/>
       <c r="BO23" s="61"/>
       <c r="BP23" s="18"/>
     </row>
@@ -14115,51 +14115,51 @@
     </row>
     <row r="27" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A27" s="7"/>
-      <c r="B27" s="78" t="s">
+      <c r="B27" s="91" t="s">
         <v>5</v>
       </c>
       <c r="C27" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="D27" s="81"/>
-      <c r="E27" s="81"/>
-      <c r="F27" s="81"/>
-      <c r="G27" s="81"/>
-      <c r="H27" s="81"/>
-      <c r="I27" s="81"/>
-      <c r="J27" s="81"/>
-      <c r="K27" s="82"/>
+      <c r="D27" s="77"/>
+      <c r="E27" s="77"/>
+      <c r="F27" s="77"/>
+      <c r="G27" s="77"/>
+      <c r="H27" s="77"/>
+      <c r="I27" s="77"/>
+      <c r="J27" s="77"/>
+      <c r="K27" s="81"/>
       <c r="L27" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="M27" s="81"/>
-      <c r="N27" s="81"/>
-      <c r="O27" s="81"/>
-      <c r="P27" s="81"/>
-      <c r="Q27" s="81"/>
-      <c r="R27" s="81"/>
-      <c r="S27" s="81"/>
-      <c r="T27" s="81"/>
-      <c r="U27" s="81"/>
-      <c r="V27" s="81"/>
-      <c r="W27" s="81"/>
-      <c r="X27" s="81"/>
-      <c r="Y27" s="81"/>
-      <c r="Z27" s="81"/>
-      <c r="AA27" s="81"/>
-      <c r="AB27" s="82"/>
+      <c r="M27" s="77"/>
+      <c r="N27" s="77"/>
+      <c r="O27" s="77"/>
+      <c r="P27" s="77"/>
+      <c r="Q27" s="77"/>
+      <c r="R27" s="77"/>
+      <c r="S27" s="77"/>
+      <c r="T27" s="77"/>
+      <c r="U27" s="77"/>
+      <c r="V27" s="77"/>
+      <c r="W27" s="77"/>
+      <c r="X27" s="77"/>
+      <c r="Y27" s="77"/>
+      <c r="Z27" s="77"/>
+      <c r="AA27" s="77"/>
+      <c r="AB27" s="81"/>
       <c r="AC27" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="AD27" s="81"/>
-      <c r="AE27" s="81"/>
-      <c r="AF27" s="81"/>
-      <c r="AG27" s="81"/>
-      <c r="AH27" s="81"/>
-      <c r="AI27" s="81"/>
-      <c r="AJ27" s="81"/>
-      <c r="AK27" s="82"/>
-      <c r="AL27" s="94" t="s">
+      <c r="AD27" s="77"/>
+      <c r="AE27" s="77"/>
+      <c r="AF27" s="77"/>
+      <c r="AG27" s="77"/>
+      <c r="AH27" s="77"/>
+      <c r="AI27" s="77"/>
+      <c r="AJ27" s="77"/>
+      <c r="AK27" s="81"/>
+      <c r="AL27" s="78" t="s">
         <v>12</v>
       </c>
       <c r="AM27" s="60"/>
@@ -14195,43 +14195,43 @@
     </row>
     <row r="28" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A28" s="7"/>
-      <c r="B28" s="79"/>
-      <c r="C28" s="83"/>
-      <c r="D28" s="84"/>
-      <c r="E28" s="84"/>
-      <c r="F28" s="84"/>
-      <c r="G28" s="84"/>
-      <c r="H28" s="84"/>
-      <c r="I28" s="84"/>
-      <c r="J28" s="84"/>
-      <c r="K28" s="79"/>
-      <c r="L28" s="83"/>
-      <c r="M28" s="84"/>
-      <c r="N28" s="84"/>
-      <c r="O28" s="84"/>
-      <c r="P28" s="84"/>
-      <c r="Q28" s="84"/>
-      <c r="R28" s="84"/>
-      <c r="S28" s="84"/>
-      <c r="T28" s="84"/>
-      <c r="U28" s="84"/>
-      <c r="V28" s="84"/>
-      <c r="W28" s="84"/>
-      <c r="X28" s="84"/>
-      <c r="Y28" s="84"/>
-      <c r="Z28" s="84"/>
-      <c r="AA28" s="84"/>
-      <c r="AB28" s="79"/>
-      <c r="AC28" s="83"/>
-      <c r="AD28" s="84"/>
-      <c r="AE28" s="84"/>
-      <c r="AF28" s="84"/>
-      <c r="AG28" s="84"/>
-      <c r="AH28" s="84"/>
-      <c r="AI28" s="84"/>
-      <c r="AJ28" s="84"/>
-      <c r="AK28" s="79"/>
-      <c r="AL28" s="92" t="s">
+      <c r="B28" s="84"/>
+      <c r="C28" s="82"/>
+      <c r="D28" s="83"/>
+      <c r="E28" s="83"/>
+      <c r="F28" s="83"/>
+      <c r="G28" s="83"/>
+      <c r="H28" s="83"/>
+      <c r="I28" s="83"/>
+      <c r="J28" s="83"/>
+      <c r="K28" s="84"/>
+      <c r="L28" s="82"/>
+      <c r="M28" s="83"/>
+      <c r="N28" s="83"/>
+      <c r="O28" s="83"/>
+      <c r="P28" s="83"/>
+      <c r="Q28" s="83"/>
+      <c r="R28" s="83"/>
+      <c r="S28" s="83"/>
+      <c r="T28" s="83"/>
+      <c r="U28" s="83"/>
+      <c r="V28" s="83"/>
+      <c r="W28" s="83"/>
+      <c r="X28" s="83"/>
+      <c r="Y28" s="83"/>
+      <c r="Z28" s="83"/>
+      <c r="AA28" s="83"/>
+      <c r="AB28" s="84"/>
+      <c r="AC28" s="82"/>
+      <c r="AD28" s="83"/>
+      <c r="AE28" s="83"/>
+      <c r="AF28" s="83"/>
+      <c r="AG28" s="83"/>
+      <c r="AH28" s="83"/>
+      <c r="AI28" s="83"/>
+      <c r="AJ28" s="83"/>
+      <c r="AK28" s="84"/>
+      <c r="AL28" s="79" t="s">
         <v>13</v>
       </c>
       <c r="AM28" s="60"/>
@@ -14242,14 +14242,14 @@
       <c r="AR28" s="60"/>
       <c r="AS28" s="60"/>
       <c r="AT28" s="61"/>
-      <c r="AU28" s="92" t="s">
+      <c r="AU28" s="79" t="s">
         <v>14</v>
       </c>
       <c r="AV28" s="60"/>
       <c r="AW28" s="60"/>
       <c r="AX28" s="60"/>
       <c r="AY28" s="61"/>
-      <c r="AZ28" s="92" t="s">
+      <c r="AZ28" s="79" t="s">
         <v>15</v>
       </c>
       <c r="BA28" s="60"/>
@@ -14275,7 +14275,7 @@
         <f ca="1">MAX(B$27:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>1</v>
       </c>
-      <c r="C29" s="70" t="s">
+      <c r="C29" s="66" t="s">
         <v>140</v>
       </c>
       <c r="D29" s="60"/>
@@ -14286,24 +14286,24 @@
       <c r="I29" s="60"/>
       <c r="J29" s="60"/>
       <c r="K29" s="61"/>
-      <c r="L29" s="85"/>
-      <c r="M29" s="84"/>
-      <c r="N29" s="84"/>
-      <c r="O29" s="84"/>
-      <c r="P29" s="84"/>
-      <c r="Q29" s="84"/>
-      <c r="R29" s="84"/>
-      <c r="S29" s="84"/>
-      <c r="T29" s="84"/>
-      <c r="U29" s="84"/>
-      <c r="V29" s="84"/>
-      <c r="W29" s="84"/>
-      <c r="X29" s="84"/>
-      <c r="Y29" s="84"/>
-      <c r="Z29" s="84"/>
-      <c r="AA29" s="84"/>
-      <c r="AB29" s="84"/>
-      <c r="AC29" s="70" t="s">
+      <c r="L29" s="92"/>
+      <c r="M29" s="83"/>
+      <c r="N29" s="83"/>
+      <c r="O29" s="83"/>
+      <c r="P29" s="83"/>
+      <c r="Q29" s="83"/>
+      <c r="R29" s="83"/>
+      <c r="S29" s="83"/>
+      <c r="T29" s="83"/>
+      <c r="U29" s="83"/>
+      <c r="V29" s="83"/>
+      <c r="W29" s="83"/>
+      <c r="X29" s="83"/>
+      <c r="Y29" s="83"/>
+      <c r="Z29" s="83"/>
+      <c r="AA29" s="83"/>
+      <c r="AB29" s="83"/>
+      <c r="AC29" s="66" t="s">
         <v>142</v>
       </c>
       <c r="AD29" s="60"/>
@@ -14314,40 +14314,40 @@
       <c r="AI29" s="60"/>
       <c r="AJ29" s="60"/>
       <c r="AK29" s="61"/>
-      <c r="AL29" s="96" t="s">
+      <c r="AL29" s="109" t="s">
         <v>141</v>
       </c>
-      <c r="AM29" s="97"/>
-      <c r="AN29" s="97"/>
-      <c r="AO29" s="97"/>
-      <c r="AP29" s="97"/>
-      <c r="AQ29" s="97"/>
-      <c r="AR29" s="97"/>
-      <c r="AS29" s="97"/>
-      <c r="AT29" s="98"/>
-      <c r="AU29" s="76"/>
+      <c r="AM29" s="110"/>
+      <c r="AN29" s="110"/>
+      <c r="AO29" s="110"/>
+      <c r="AP29" s="110"/>
+      <c r="AQ29" s="110"/>
+      <c r="AR29" s="110"/>
+      <c r="AS29" s="110"/>
+      <c r="AT29" s="111"/>
+      <c r="AU29" s="85"/>
       <c r="AV29" s="60"/>
       <c r="AW29" s="60"/>
       <c r="AX29" s="60"/>
       <c r="AY29" s="61"/>
-      <c r="AZ29" s="99" t="s">
+      <c r="AZ29" s="112" t="s">
         <v>143</v>
       </c>
-      <c r="BA29" s="100"/>
-      <c r="BB29" s="100"/>
-      <c r="BC29" s="100"/>
-      <c r="BD29" s="100"/>
-      <c r="BE29" s="100"/>
-      <c r="BF29" s="100"/>
-      <c r="BG29" s="100"/>
-      <c r="BH29" s="100"/>
-      <c r="BI29" s="100"/>
-      <c r="BJ29" s="100"/>
-      <c r="BK29" s="100"/>
-      <c r="BL29" s="100"/>
-      <c r="BM29" s="100"/>
-      <c r="BN29" s="100"/>
-      <c r="BO29" s="101"/>
+      <c r="BA29" s="113"/>
+      <c r="BB29" s="113"/>
+      <c r="BC29" s="113"/>
+      <c r="BD29" s="113"/>
+      <c r="BE29" s="113"/>
+      <c r="BF29" s="113"/>
+      <c r="BG29" s="113"/>
+      <c r="BH29" s="113"/>
+      <c r="BI29" s="113"/>
+      <c r="BJ29" s="113"/>
+      <c r="BK29" s="113"/>
+      <c r="BL29" s="113"/>
+      <c r="BM29" s="113"/>
+      <c r="BN29" s="113"/>
+      <c r="BO29" s="114"/>
       <c r="BP29" s="18"/>
     </row>
     <row r="30" spans="1:68" ht="16.5" outlineLevel="1">
@@ -14356,7 +14356,7 @@
         <f ca="1">MAX(B$27:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>2</v>
       </c>
-      <c r="C30" s="70" t="s">
+      <c r="C30" s="66" t="s">
         <v>152</v>
       </c>
       <c r="D30" s="60"/>
@@ -14367,26 +14367,26 @@
       <c r="I30" s="60"/>
       <c r="J30" s="60"/>
       <c r="K30" s="61"/>
-      <c r="L30" s="85" t="s">
+      <c r="L30" s="92" t="s">
         <v>154</v>
       </c>
-      <c r="M30" s="84"/>
-      <c r="N30" s="84"/>
-      <c r="O30" s="84"/>
-      <c r="P30" s="84"/>
-      <c r="Q30" s="84"/>
-      <c r="R30" s="84"/>
-      <c r="S30" s="84"/>
-      <c r="T30" s="84"/>
-      <c r="U30" s="84"/>
-      <c r="V30" s="84"/>
-      <c r="W30" s="84"/>
-      <c r="X30" s="84"/>
-      <c r="Y30" s="84"/>
-      <c r="Z30" s="84"/>
-      <c r="AA30" s="84"/>
-      <c r="AB30" s="84"/>
-      <c r="AC30" s="70"/>
+      <c r="M30" s="83"/>
+      <c r="N30" s="83"/>
+      <c r="O30" s="83"/>
+      <c r="P30" s="83"/>
+      <c r="Q30" s="83"/>
+      <c r="R30" s="83"/>
+      <c r="S30" s="83"/>
+      <c r="T30" s="83"/>
+      <c r="U30" s="83"/>
+      <c r="V30" s="83"/>
+      <c r="W30" s="83"/>
+      <c r="X30" s="83"/>
+      <c r="Y30" s="83"/>
+      <c r="Z30" s="83"/>
+      <c r="AA30" s="83"/>
+      <c r="AB30" s="83"/>
+      <c r="AC30" s="66"/>
       <c r="AD30" s="60"/>
       <c r="AE30" s="60"/>
       <c r="AF30" s="60"/>
@@ -14395,7 +14395,7 @@
       <c r="AI30" s="60"/>
       <c r="AJ30" s="60"/>
       <c r="AK30" s="61"/>
-      <c r="AL30" s="76"/>
+      <c r="AL30" s="85"/>
       <c r="AM30" s="60"/>
       <c r="AN30" s="60"/>
       <c r="AO30" s="60"/>
@@ -14404,12 +14404,12 @@
       <c r="AR30" s="60"/>
       <c r="AS30" s="60"/>
       <c r="AT30" s="61"/>
-      <c r="AU30" s="76"/>
+      <c r="AU30" s="85"/>
       <c r="AV30" s="60"/>
       <c r="AW30" s="60"/>
       <c r="AX30" s="60"/>
       <c r="AY30" s="61"/>
-      <c r="AZ30" s="77"/>
+      <c r="AZ30" s="86"/>
       <c r="BA30" s="60"/>
       <c r="BB30" s="60"/>
       <c r="BC30" s="60"/>
@@ -14433,37 +14433,37 @@
         <f ca="1">MAX(B$27:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>3</v>
       </c>
-      <c r="C31" s="75" t="s">
+      <c r="C31" s="94" t="s">
         <v>134</v>
       </c>
-      <c r="D31" s="65"/>
-      <c r="E31" s="65"/>
-      <c r="F31" s="65"/>
-      <c r="G31" s="65"/>
-      <c r="H31" s="65"/>
-      <c r="I31" s="65"/>
-      <c r="J31" s="65"/>
-      <c r="K31" s="66"/>
-      <c r="L31" s="70" t="s">
+      <c r="D31" s="67"/>
+      <c r="E31" s="67"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="67"/>
+      <c r="H31" s="67"/>
+      <c r="I31" s="67"/>
+      <c r="J31" s="67"/>
+      <c r="K31" s="68"/>
+      <c r="L31" s="66" t="s">
         <v>135</v>
       </c>
-      <c r="M31" s="65"/>
-      <c r="N31" s="65"/>
-      <c r="O31" s="65"/>
-      <c r="P31" s="65"/>
-      <c r="Q31" s="65"/>
-      <c r="R31" s="65"/>
-      <c r="S31" s="65"/>
-      <c r="T31" s="65"/>
-      <c r="U31" s="65"/>
-      <c r="V31" s="65"/>
-      <c r="W31" s="65"/>
-      <c r="X31" s="65"/>
-      <c r="Y31" s="65"/>
-      <c r="Z31" s="65"/>
-      <c r="AA31" s="65"/>
-      <c r="AB31" s="66"/>
-      <c r="AC31" s="70"/>
+      <c r="M31" s="67"/>
+      <c r="N31" s="67"/>
+      <c r="O31" s="67"/>
+      <c r="P31" s="67"/>
+      <c r="Q31" s="67"/>
+      <c r="R31" s="67"/>
+      <c r="S31" s="67"/>
+      <c r="T31" s="67"/>
+      <c r="U31" s="67"/>
+      <c r="V31" s="67"/>
+      <c r="W31" s="67"/>
+      <c r="X31" s="67"/>
+      <c r="Y31" s="67"/>
+      <c r="Z31" s="67"/>
+      <c r="AA31" s="67"/>
+      <c r="AB31" s="68"/>
+      <c r="AC31" s="66"/>
       <c r="AD31" s="60"/>
       <c r="AE31" s="60"/>
       <c r="AF31" s="60"/>
@@ -14472,7 +14472,7 @@
       <c r="AI31" s="60"/>
       <c r="AJ31" s="60"/>
       <c r="AK31" s="61"/>
-      <c r="AL31" s="76"/>
+      <c r="AL31" s="85"/>
       <c r="AM31" s="60"/>
       <c r="AN31" s="60"/>
       <c r="AO31" s="60"/>
@@ -14481,12 +14481,12 @@
       <c r="AR31" s="60"/>
       <c r="AS31" s="60"/>
       <c r="AT31" s="61"/>
-      <c r="AU31" s="76"/>
+      <c r="AU31" s="85"/>
       <c r="AV31" s="60"/>
       <c r="AW31" s="60"/>
       <c r="AX31" s="60"/>
       <c r="AY31" s="61"/>
-      <c r="AZ31" s="77"/>
+      <c r="AZ31" s="86"/>
       <c r="BA31" s="60"/>
       <c r="BB31" s="60"/>
       <c r="BC31" s="60"/>
@@ -14792,7 +14792,7 @@
     <row r="36" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A36" s="18"/>
       <c r="B36" s="18"/>
-      <c r="C36" s="87" t="s">
+      <c r="C36" s="88" t="s">
         <v>16</v>
       </c>
       <c r="D36" s="60"/>
@@ -14804,7 +14804,7 @@
       <c r="J36" s="60"/>
       <c r="K36" s="60"/>
       <c r="L36" s="61"/>
-      <c r="M36" s="87" t="s">
+      <c r="M36" s="88" t="s">
         <v>6</v>
       </c>
       <c r="N36" s="60"/>
@@ -14816,7 +14816,7 @@
       <c r="T36" s="60"/>
       <c r="U36" s="60"/>
       <c r="V36" s="61"/>
-      <c r="W36" s="87" t="s">
+      <c r="W36" s="88" t="s">
         <v>17</v>
       </c>
       <c r="X36" s="60"/>
@@ -14837,21 +14837,21 @@
       <c r="AM36" s="60"/>
       <c r="AN36" s="60"/>
       <c r="AO36" s="61"/>
-      <c r="AP36" s="102" t="s">
+      <c r="AP36" s="104" t="s">
         <v>18</v>
       </c>
-      <c r="AQ36" s="103"/>
-      <c r="AR36" s="103"/>
-      <c r="AS36" s="103"/>
-      <c r="AT36" s="103"/>
-      <c r="AU36" s="103"/>
-      <c r="AV36" s="103"/>
-      <c r="AW36" s="103"/>
-      <c r="AX36" s="103"/>
-      <c r="AY36" s="103"/>
-      <c r="AZ36" s="103"/>
-      <c r="BA36" s="82"/>
-      <c r="BB36" s="87" t="s">
+      <c r="AQ36" s="105"/>
+      <c r="AR36" s="105"/>
+      <c r="AS36" s="105"/>
+      <c r="AT36" s="105"/>
+      <c r="AU36" s="105"/>
+      <c r="AV36" s="105"/>
+      <c r="AW36" s="105"/>
+      <c r="AX36" s="105"/>
+      <c r="AY36" s="105"/>
+      <c r="AZ36" s="105"/>
+      <c r="BA36" s="81"/>
+      <c r="BB36" s="88" t="s">
         <v>6</v>
       </c>
       <c r="BC36" s="60"/>
@@ -14872,7 +14872,7 @@
     <row r="37" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A37" s="18"/>
       <c r="B37" s="18"/>
-      <c r="C37" s="70" t="s">
+      <c r="C37" s="66" t="s">
         <v>146</v>
       </c>
       <c r="D37" s="60"/>
@@ -14884,7 +14884,7 @@
       <c r="J37" s="60"/>
       <c r="K37" s="60"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="70"/>
+      <c r="M37" s="66"/>
       <c r="N37" s="60"/>
       <c r="O37" s="60"/>
       <c r="P37" s="60"/>
@@ -14894,40 +14894,40 @@
       <c r="T37" s="60"/>
       <c r="U37" s="60"/>
       <c r="V37" s="61"/>
-      <c r="W37" s="85"/>
-      <c r="X37" s="84"/>
-      <c r="Y37" s="84"/>
-      <c r="Z37" s="84"/>
-      <c r="AA37" s="84"/>
-      <c r="AB37" s="84"/>
-      <c r="AC37" s="84"/>
-      <c r="AD37" s="84"/>
-      <c r="AE37" s="84"/>
-      <c r="AF37" s="84"/>
-      <c r="AG37" s="84"/>
-      <c r="AH37" s="84"/>
-      <c r="AI37" s="84"/>
-      <c r="AJ37" s="84"/>
-      <c r="AK37" s="84"/>
-      <c r="AL37" s="84"/>
-      <c r="AM37" s="84"/>
-      <c r="AN37" s="84"/>
-      <c r="AO37" s="104"/>
-      <c r="AP37" s="105" t="s">
+      <c r="W37" s="92"/>
+      <c r="X37" s="83"/>
+      <c r="Y37" s="83"/>
+      <c r="Z37" s="83"/>
+      <c r="AA37" s="83"/>
+      <c r="AB37" s="83"/>
+      <c r="AC37" s="83"/>
+      <c r="AD37" s="83"/>
+      <c r="AE37" s="83"/>
+      <c r="AF37" s="83"/>
+      <c r="AG37" s="83"/>
+      <c r="AH37" s="83"/>
+      <c r="AI37" s="83"/>
+      <c r="AJ37" s="83"/>
+      <c r="AK37" s="83"/>
+      <c r="AL37" s="83"/>
+      <c r="AM37" s="83"/>
+      <c r="AN37" s="83"/>
+      <c r="AO37" s="96"/>
+      <c r="AP37" s="106" t="s">
         <v>144</v>
       </c>
-      <c r="AQ37" s="106"/>
-      <c r="AR37" s="106"/>
-      <c r="AS37" s="106"/>
-      <c r="AT37" s="106"/>
-      <c r="AU37" s="106"/>
-      <c r="AV37" s="106"/>
-      <c r="AW37" s="106"/>
-      <c r="AX37" s="106"/>
-      <c r="AY37" s="106"/>
-      <c r="AZ37" s="106"/>
-      <c r="BA37" s="107"/>
-      <c r="BB37" s="108" t="s">
+      <c r="AQ37" s="107"/>
+      <c r="AR37" s="107"/>
+      <c r="AS37" s="107"/>
+      <c r="AT37" s="107"/>
+      <c r="AU37" s="107"/>
+      <c r="AV37" s="107"/>
+      <c r="AW37" s="107"/>
+      <c r="AX37" s="107"/>
+      <c r="AY37" s="107"/>
+      <c r="AZ37" s="107"/>
+      <c r="BA37" s="108"/>
+      <c r="BB37" s="100" t="s">
         <v>145</v>
       </c>
       <c r="BC37" s="60"/>
@@ -14948,7 +14948,7 @@
     <row r="38" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A38" s="18"/>
       <c r="B38" s="18"/>
-      <c r="C38" s="70"/>
+      <c r="C38" s="66"/>
       <c r="D38" s="60"/>
       <c r="E38" s="60"/>
       <c r="F38" s="60"/>
@@ -14958,7 +14958,7 @@
       <c r="J38" s="60"/>
       <c r="K38" s="60"/>
       <c r="L38" s="61"/>
-      <c r="M38" s="70"/>
+      <c r="M38" s="66"/>
       <c r="N38" s="60"/>
       <c r="O38" s="60"/>
       <c r="P38" s="60"/>
@@ -14968,40 +14968,40 @@
       <c r="T38" s="60"/>
       <c r="U38" s="60"/>
       <c r="V38" s="61"/>
-      <c r="W38" s="85" t="s">
+      <c r="W38" s="92" t="s">
         <v>151</v>
       </c>
-      <c r="X38" s="84"/>
-      <c r="Y38" s="84"/>
-      <c r="Z38" s="84"/>
-      <c r="AA38" s="84"/>
-      <c r="AB38" s="84"/>
-      <c r="AC38" s="84"/>
-      <c r="AD38" s="84"/>
-      <c r="AE38" s="84"/>
-      <c r="AF38" s="84"/>
-      <c r="AG38" s="84"/>
-      <c r="AH38" s="84"/>
-      <c r="AI38" s="84"/>
-      <c r="AJ38" s="84"/>
-      <c r="AK38" s="84"/>
-      <c r="AL38" s="84"/>
-      <c r="AM38" s="84"/>
-      <c r="AN38" s="84"/>
-      <c r="AO38" s="104"/>
-      <c r="AP38" s="112"/>
-      <c r="AQ38" s="113"/>
-      <c r="AR38" s="113"/>
-      <c r="AS38" s="113"/>
-      <c r="AT38" s="113"/>
-      <c r="AU38" s="113"/>
-      <c r="AV38" s="113"/>
-      <c r="AW38" s="113"/>
-      <c r="AX38" s="113"/>
-      <c r="AY38" s="113"/>
-      <c r="AZ38" s="113"/>
-      <c r="BA38" s="114"/>
-      <c r="BB38" s="108" t="s">
+      <c r="X38" s="83"/>
+      <c r="Y38" s="83"/>
+      <c r="Z38" s="83"/>
+      <c r="AA38" s="83"/>
+      <c r="AB38" s="83"/>
+      <c r="AC38" s="83"/>
+      <c r="AD38" s="83"/>
+      <c r="AE38" s="83"/>
+      <c r="AF38" s="83"/>
+      <c r="AG38" s="83"/>
+      <c r="AH38" s="83"/>
+      <c r="AI38" s="83"/>
+      <c r="AJ38" s="83"/>
+      <c r="AK38" s="83"/>
+      <c r="AL38" s="83"/>
+      <c r="AM38" s="83"/>
+      <c r="AN38" s="83"/>
+      <c r="AO38" s="96"/>
+      <c r="AP38" s="101"/>
+      <c r="AQ38" s="102"/>
+      <c r="AR38" s="102"/>
+      <c r="AS38" s="102"/>
+      <c r="AT38" s="102"/>
+      <c r="AU38" s="102"/>
+      <c r="AV38" s="102"/>
+      <c r="AW38" s="102"/>
+      <c r="AX38" s="102"/>
+      <c r="AY38" s="102"/>
+      <c r="AZ38" s="102"/>
+      <c r="BA38" s="103"/>
+      <c r="BB38" s="100" t="s">
         <v>149</v>
       </c>
       <c r="BC38" s="60"/>
@@ -15022,7 +15022,7 @@
     <row r="39" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A39" s="18"/>
       <c r="B39" s="18"/>
-      <c r="C39" s="70"/>
+      <c r="C39" s="66"/>
       <c r="D39" s="60"/>
       <c r="E39" s="60"/>
       <c r="F39" s="60"/>
@@ -15032,7 +15032,7 @@
       <c r="J39" s="60"/>
       <c r="K39" s="60"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="70"/>
+      <c r="M39" s="66"/>
       <c r="N39" s="60"/>
       <c r="O39" s="60"/>
       <c r="P39" s="60"/>
@@ -15042,38 +15042,38 @@
       <c r="T39" s="60"/>
       <c r="U39" s="60"/>
       <c r="V39" s="61"/>
-      <c r="W39" s="85"/>
-      <c r="X39" s="84"/>
-      <c r="Y39" s="84"/>
-      <c r="Z39" s="84"/>
-      <c r="AA39" s="84"/>
-      <c r="AB39" s="84"/>
-      <c r="AC39" s="84"/>
-      <c r="AD39" s="84"/>
-      <c r="AE39" s="84"/>
-      <c r="AF39" s="84"/>
-      <c r="AG39" s="84"/>
-      <c r="AH39" s="84"/>
-      <c r="AI39" s="84"/>
-      <c r="AJ39" s="84"/>
-      <c r="AK39" s="84"/>
-      <c r="AL39" s="84"/>
-      <c r="AM39" s="84"/>
-      <c r="AN39" s="84"/>
-      <c r="AO39" s="104"/>
-      <c r="AP39" s="112"/>
-      <c r="AQ39" s="113"/>
-      <c r="AR39" s="113"/>
-      <c r="AS39" s="113"/>
-      <c r="AT39" s="113"/>
-      <c r="AU39" s="113"/>
-      <c r="AV39" s="113"/>
-      <c r="AW39" s="113"/>
-      <c r="AX39" s="113"/>
-      <c r="AY39" s="113"/>
-      <c r="AZ39" s="113"/>
-      <c r="BA39" s="114"/>
-      <c r="BB39" s="108" t="s">
+      <c r="W39" s="92"/>
+      <c r="X39" s="83"/>
+      <c r="Y39" s="83"/>
+      <c r="Z39" s="83"/>
+      <c r="AA39" s="83"/>
+      <c r="AB39" s="83"/>
+      <c r="AC39" s="83"/>
+      <c r="AD39" s="83"/>
+      <c r="AE39" s="83"/>
+      <c r="AF39" s="83"/>
+      <c r="AG39" s="83"/>
+      <c r="AH39" s="83"/>
+      <c r="AI39" s="83"/>
+      <c r="AJ39" s="83"/>
+      <c r="AK39" s="83"/>
+      <c r="AL39" s="83"/>
+      <c r="AM39" s="83"/>
+      <c r="AN39" s="83"/>
+      <c r="AO39" s="96"/>
+      <c r="AP39" s="101"/>
+      <c r="AQ39" s="102"/>
+      <c r="AR39" s="102"/>
+      <c r="AS39" s="102"/>
+      <c r="AT39" s="102"/>
+      <c r="AU39" s="102"/>
+      <c r="AV39" s="102"/>
+      <c r="AW39" s="102"/>
+      <c r="AX39" s="102"/>
+      <c r="AY39" s="102"/>
+      <c r="AZ39" s="102"/>
+      <c r="BA39" s="103"/>
+      <c r="BB39" s="100" t="s">
         <v>150</v>
       </c>
       <c r="BC39" s="60"/>
@@ -15094,7 +15094,7 @@
     <row r="40" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A40" s="18"/>
       <c r="B40" s="18"/>
-      <c r="C40" s="70"/>
+      <c r="C40" s="66"/>
       <c r="D40" s="60"/>
       <c r="E40" s="60"/>
       <c r="F40" s="60"/>
@@ -15104,7 +15104,7 @@
       <c r="J40" s="60"/>
       <c r="K40" s="60"/>
       <c r="L40" s="61"/>
-      <c r="M40" s="70"/>
+      <c r="M40" s="66"/>
       <c r="N40" s="60"/>
       <c r="O40" s="60"/>
       <c r="P40" s="60"/>
@@ -15114,40 +15114,40 @@
       <c r="T40" s="60"/>
       <c r="U40" s="60"/>
       <c r="V40" s="61"/>
-      <c r="W40" s="85" t="s">
+      <c r="W40" s="92" t="s">
         <v>148</v>
       </c>
-      <c r="X40" s="84"/>
-      <c r="Y40" s="84"/>
-      <c r="Z40" s="84"/>
-      <c r="AA40" s="84"/>
-      <c r="AB40" s="84"/>
-      <c r="AC40" s="84"/>
-      <c r="AD40" s="84"/>
-      <c r="AE40" s="84"/>
-      <c r="AF40" s="84"/>
-      <c r="AG40" s="84"/>
-      <c r="AH40" s="84"/>
-      <c r="AI40" s="84"/>
-      <c r="AJ40" s="84"/>
-      <c r="AK40" s="84"/>
-      <c r="AL40" s="84"/>
-      <c r="AM40" s="84"/>
-      <c r="AN40" s="84"/>
-      <c r="AO40" s="104"/>
-      <c r="AP40" s="109"/>
-      <c r="AQ40" s="110"/>
-      <c r="AR40" s="110"/>
-      <c r="AS40" s="110"/>
-      <c r="AT40" s="110"/>
-      <c r="AU40" s="110"/>
-      <c r="AV40" s="110"/>
-      <c r="AW40" s="110"/>
-      <c r="AX40" s="110"/>
-      <c r="AY40" s="110"/>
-      <c r="AZ40" s="110"/>
-      <c r="BA40" s="111"/>
-      <c r="BB40" s="108" t="s">
+      <c r="X40" s="83"/>
+      <c r="Y40" s="83"/>
+      <c r="Z40" s="83"/>
+      <c r="AA40" s="83"/>
+      <c r="AB40" s="83"/>
+      <c r="AC40" s="83"/>
+      <c r="AD40" s="83"/>
+      <c r="AE40" s="83"/>
+      <c r="AF40" s="83"/>
+      <c r="AG40" s="83"/>
+      <c r="AH40" s="83"/>
+      <c r="AI40" s="83"/>
+      <c r="AJ40" s="83"/>
+      <c r="AK40" s="83"/>
+      <c r="AL40" s="83"/>
+      <c r="AM40" s="83"/>
+      <c r="AN40" s="83"/>
+      <c r="AO40" s="96"/>
+      <c r="AP40" s="97"/>
+      <c r="AQ40" s="98"/>
+      <c r="AR40" s="98"/>
+      <c r="AS40" s="98"/>
+      <c r="AT40" s="98"/>
+      <c r="AU40" s="98"/>
+      <c r="AV40" s="98"/>
+      <c r="AW40" s="98"/>
+      <c r="AX40" s="98"/>
+      <c r="AY40" s="98"/>
+      <c r="AZ40" s="98"/>
+      <c r="BA40" s="99"/>
+      <c r="BB40" s="100" t="s">
         <v>147</v>
       </c>
       <c r="BC40" s="60"/>
@@ -16010,84 +16010,10 @@
     </row>
   </sheetData>
   <mergeCells count="106">
-    <mergeCell ref="AK23:BO23"/>
-    <mergeCell ref="Q22:W22"/>
-    <mergeCell ref="X22:AD22"/>
-    <mergeCell ref="AE22:AG22"/>
-    <mergeCell ref="AH22:AJ22"/>
-    <mergeCell ref="AK22:BO22"/>
-    <mergeCell ref="C21:P21"/>
-    <mergeCell ref="Q21:W21"/>
-    <mergeCell ref="X21:AD21"/>
-    <mergeCell ref="AE21:AG21"/>
-    <mergeCell ref="AH21:AJ21"/>
-    <mergeCell ref="D23:P23"/>
-    <mergeCell ref="C18:P18"/>
-    <mergeCell ref="Q18:W18"/>
-    <mergeCell ref="X18:AD18"/>
-    <mergeCell ref="AE18:AG18"/>
-    <mergeCell ref="AH18:AJ18"/>
-    <mergeCell ref="Q23:W23"/>
-    <mergeCell ref="X23:AD23"/>
-    <mergeCell ref="AE23:AG23"/>
-    <mergeCell ref="AH23:AJ23"/>
-    <mergeCell ref="C40:L40"/>
-    <mergeCell ref="M40:V40"/>
-    <mergeCell ref="W40:AO40"/>
-    <mergeCell ref="AP40:BA40"/>
-    <mergeCell ref="BB40:BO40"/>
-    <mergeCell ref="C38:L38"/>
-    <mergeCell ref="M38:V38"/>
-    <mergeCell ref="W38:AO38"/>
-    <mergeCell ref="AP38:BA38"/>
-    <mergeCell ref="BB38:BO38"/>
-    <mergeCell ref="C39:L39"/>
-    <mergeCell ref="M39:V39"/>
-    <mergeCell ref="W39:AO39"/>
-    <mergeCell ref="AP39:BA39"/>
-    <mergeCell ref="BB39:BO39"/>
-    <mergeCell ref="C36:L36"/>
-    <mergeCell ref="M36:V36"/>
-    <mergeCell ref="W36:AO36"/>
-    <mergeCell ref="AP36:BA36"/>
-    <mergeCell ref="BB36:BO36"/>
-    <mergeCell ref="C37:L37"/>
-    <mergeCell ref="M37:V37"/>
-    <mergeCell ref="W37:AO37"/>
-    <mergeCell ref="AP37:BA37"/>
-    <mergeCell ref="BB37:BO37"/>
-    <mergeCell ref="C31:K31"/>
-    <mergeCell ref="L31:AB31"/>
-    <mergeCell ref="AC31:AK31"/>
-    <mergeCell ref="AL31:AT31"/>
-    <mergeCell ref="AU31:AY31"/>
-    <mergeCell ref="AZ31:BO31"/>
-    <mergeCell ref="C30:K30"/>
-    <mergeCell ref="L30:AB30"/>
-    <mergeCell ref="AC30:AK30"/>
-    <mergeCell ref="AL30:AT30"/>
-    <mergeCell ref="AU30:AY30"/>
-    <mergeCell ref="AZ30:BO30"/>
-    <mergeCell ref="C29:K29"/>
-    <mergeCell ref="L29:AB29"/>
-    <mergeCell ref="AC29:AK29"/>
-    <mergeCell ref="AL29:AT29"/>
-    <mergeCell ref="AU29:AY29"/>
-    <mergeCell ref="AZ29:BO29"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:K28"/>
-    <mergeCell ref="L27:AB28"/>
-    <mergeCell ref="AC27:AK28"/>
-    <mergeCell ref="AL27:BO27"/>
-    <mergeCell ref="AL28:AT28"/>
-    <mergeCell ref="AU28:AY28"/>
-    <mergeCell ref="AZ28:BO28"/>
-    <mergeCell ref="AK21:BO21"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="C20:P20"/>
-    <mergeCell ref="Q20:W20"/>
-    <mergeCell ref="X20:AD20"/>
-    <mergeCell ref="AE20:AG20"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="I14:BO14"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="I10:BO10"/>
     <mergeCell ref="AK20:BO20"/>
     <mergeCell ref="C17:P17"/>
     <mergeCell ref="Q17:W17"/>
@@ -16112,10 +16038,84 @@
     <mergeCell ref="I12:BO12"/>
     <mergeCell ref="D13:H13"/>
     <mergeCell ref="I13:BO13"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="I14:BO14"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="I10:BO10"/>
+    <mergeCell ref="C29:K29"/>
+    <mergeCell ref="L29:AB29"/>
+    <mergeCell ref="AC29:AK29"/>
+    <mergeCell ref="AL29:AT29"/>
+    <mergeCell ref="AU29:AY29"/>
+    <mergeCell ref="AZ29:BO29"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:K28"/>
+    <mergeCell ref="L27:AB28"/>
+    <mergeCell ref="AC27:AK28"/>
+    <mergeCell ref="AL27:BO27"/>
+    <mergeCell ref="AL28:AT28"/>
+    <mergeCell ref="AU28:AY28"/>
+    <mergeCell ref="AZ28:BO28"/>
+    <mergeCell ref="C31:K31"/>
+    <mergeCell ref="L31:AB31"/>
+    <mergeCell ref="AC31:AK31"/>
+    <mergeCell ref="AL31:AT31"/>
+    <mergeCell ref="AU31:AY31"/>
+    <mergeCell ref="AZ31:BO31"/>
+    <mergeCell ref="C30:K30"/>
+    <mergeCell ref="L30:AB30"/>
+    <mergeCell ref="AC30:AK30"/>
+    <mergeCell ref="AL30:AT30"/>
+    <mergeCell ref="AU30:AY30"/>
+    <mergeCell ref="AZ30:BO30"/>
+    <mergeCell ref="C36:L36"/>
+    <mergeCell ref="M36:V36"/>
+    <mergeCell ref="W36:AO36"/>
+    <mergeCell ref="AP36:BA36"/>
+    <mergeCell ref="BB36:BO36"/>
+    <mergeCell ref="C37:L37"/>
+    <mergeCell ref="M37:V37"/>
+    <mergeCell ref="W37:AO37"/>
+    <mergeCell ref="AP37:BA37"/>
+    <mergeCell ref="BB37:BO37"/>
+    <mergeCell ref="C40:L40"/>
+    <mergeCell ref="M40:V40"/>
+    <mergeCell ref="W40:AO40"/>
+    <mergeCell ref="AP40:BA40"/>
+    <mergeCell ref="BB40:BO40"/>
+    <mergeCell ref="C38:L38"/>
+    <mergeCell ref="M38:V38"/>
+    <mergeCell ref="W38:AO38"/>
+    <mergeCell ref="AP38:BA38"/>
+    <mergeCell ref="BB38:BO38"/>
+    <mergeCell ref="C39:L39"/>
+    <mergeCell ref="M39:V39"/>
+    <mergeCell ref="W39:AO39"/>
+    <mergeCell ref="AP39:BA39"/>
+    <mergeCell ref="BB39:BO39"/>
+    <mergeCell ref="C18:P18"/>
+    <mergeCell ref="Q18:W18"/>
+    <mergeCell ref="X18:AD18"/>
+    <mergeCell ref="AE18:AG18"/>
+    <mergeCell ref="AH18:AJ18"/>
+    <mergeCell ref="Q23:W23"/>
+    <mergeCell ref="X23:AD23"/>
+    <mergeCell ref="AE23:AG23"/>
+    <mergeCell ref="AH23:AJ23"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="C20:P20"/>
+    <mergeCell ref="Q20:W20"/>
+    <mergeCell ref="X20:AD20"/>
+    <mergeCell ref="AE20:AG20"/>
+    <mergeCell ref="AK23:BO23"/>
+    <mergeCell ref="Q22:W22"/>
+    <mergeCell ref="X22:AD22"/>
+    <mergeCell ref="AE22:AG22"/>
+    <mergeCell ref="AH22:AJ22"/>
+    <mergeCell ref="AK22:BO22"/>
+    <mergeCell ref="C21:P21"/>
+    <mergeCell ref="Q21:W21"/>
+    <mergeCell ref="X21:AD21"/>
+    <mergeCell ref="AE21:AG21"/>
+    <mergeCell ref="AH21:AJ21"/>
+    <mergeCell ref="D23:P23"/>
+    <mergeCell ref="AK21:BO21"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <dataValidations count="1">

--- a/ha-asset/01_design/05_rootapi/設計書_5.3.アカウント情報API.xlsx
+++ b/ha-asset/01_design/05_rootapi/設計書_5.3.アカウント情報API.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-asset\01_design\05_rootapi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D71E7FE-969B-4D82-A669-04D2B76F8B5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8CA190D-234C-4496-95CF-D93DA85FC1C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45" yWindow="180" windowWidth="19620" windowHeight="15150" tabRatio="812" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="812" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0.更新履歴" sheetId="1" r:id="rId1"/>
@@ -250,10 +250,6 @@
   </si>
   <si>
     <t>URL形式</t>
-  </si>
-  <si>
-    <t>エンドポイントURL</t>
-    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>/api/root/account/{seq_user_id}</t>
@@ -903,6 +899,10 @@
     </rPh>
     <phoneticPr fontId="8"/>
   </si>
+  <si>
+    <t>エンドポイント</t>
+    <phoneticPr fontId="8"/>
+  </si>
 </sst>
 </file>
 
@@ -1545,100 +1545,95 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1649,18 +1644,23 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1883,7 +1883,7 @@
   </sheetPr>
   <dimension ref="A1:AA27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -2040,7 +2040,7 @@
       <c r="H5" s="45"/>
       <c r="I5" s="46"/>
       <c r="J5" s="44" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K5" s="45"/>
       <c r="L5" s="45"/>
@@ -2076,7 +2076,7 @@
       <c r="H6" s="45"/>
       <c r="I6" s="46"/>
       <c r="J6" s="44" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K6" s="45"/>
       <c r="L6" s="45"/>
@@ -2764,6 +2764,66 @@
     </row>
   </sheetData>
   <mergeCells count="69">
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:Z24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:Z25"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="J11:Z11"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:Z9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="J10:Z10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="J8:Z8"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:Z6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="J7:Z7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="J5:Z5"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:Z3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J4:Z4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:Z23"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:Z21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J22:Z22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:Z20"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="J18:Z18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:Z19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="J17:Z17"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="J15:Z15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="J16:Z16"/>
+    <mergeCell ref="B17:E17"/>
     <mergeCell ref="F14:I14"/>
     <mergeCell ref="J14:Z14"/>
     <mergeCell ref="B12:E12"/>
@@ -2773,66 +2833,6 @@
     <mergeCell ref="F13:I13"/>
     <mergeCell ref="J13:Z13"/>
     <mergeCell ref="B14:E14"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="J17:Z17"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="J15:Z15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="J16:Z16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:Z20"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="J18:Z18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="J19:Z19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:Z23"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:Z21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="J22:Z22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="J5:Z5"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="J3:Z3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J4:Z4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="J8:Z8"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="J6:Z6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="J7:Z7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="J11:Z11"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:Z9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="J10:Z10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:Z24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:Z25"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2963,7 +2963,7 @@
     <row r="3" spans="1:49" ht="15.75" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="43" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -3017,7 +3017,7 @@
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -3120,7 +3120,7 @@
     <row r="6" spans="1:49" ht="15.75" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" s="43" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -3174,7 +3174,7 @@
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -4618,7 +4618,9 @@
   </sheetPr>
   <dimension ref="A1:BP99"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1"/>
   <cols>
@@ -5056,7 +5058,7 @@
     <row r="7" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A7" s="2"/>
       <c r="B7" s="13"/>
-      <c r="C7" s="72" t="s">
+      <c r="C7" s="74" t="s">
         <v>24</v>
       </c>
       <c r="D7" s="45"/>
@@ -5064,8 +5066,8 @@
       <c r="F7" s="45"/>
       <c r="G7" s="45"/>
       <c r="H7" s="46"/>
-      <c r="I7" s="55" t="s">
-        <v>76</v>
+      <c r="I7" s="52" t="s">
+        <v>75</v>
       </c>
       <c r="J7" s="45"/>
       <c r="K7" s="45"/>
@@ -5130,7 +5132,7 @@
     <row r="8" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A8" s="2"/>
       <c r="B8" s="13"/>
-      <c r="C8" s="72" t="s">
+      <c r="C8" s="74" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="45"/>
@@ -5138,7 +5140,7 @@
       <c r="F8" s="45"/>
       <c r="G8" s="45"/>
       <c r="H8" s="46"/>
-      <c r="I8" s="55" t="s">
+      <c r="I8" s="52" t="s">
         <v>26</v>
       </c>
       <c r="J8" s="45"/>
@@ -5204,7 +5206,7 @@
     <row r="9" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A9" s="2"/>
       <c r="B9" s="13"/>
-      <c r="C9" s="72" t="s">
+      <c r="C9" s="74" t="s">
         <v>27</v>
       </c>
       <c r="D9" s="45"/>
@@ -5212,7 +5214,7 @@
       <c r="F9" s="45"/>
       <c r="G9" s="45"/>
       <c r="H9" s="46"/>
-      <c r="I9" s="55" t="s">
+      <c r="I9" s="52" t="s">
         <v>28</v>
       </c>
       <c r="J9" s="45"/>
@@ -5278,8 +5280,8 @@
     <row r="10" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A10" s="2"/>
       <c r="B10" s="13"/>
-      <c r="C10" s="72" t="s">
-        <v>73</v>
+      <c r="C10" s="74" t="s">
+        <v>181</v>
       </c>
       <c r="D10" s="75"/>
       <c r="E10" s="75"/>
@@ -5287,7 +5289,7 @@
       <c r="G10" s="75"/>
       <c r="H10" s="75"/>
       <c r="I10" s="76" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J10" s="76"/>
       <c r="K10" s="76"/>
@@ -5425,15 +5427,15 @@
       <c r="A12" s="2"/>
       <c r="B12" s="13"/>
       <c r="C12" s="17"/>
-      <c r="D12" s="55" t="s">
-        <v>78</v>
+      <c r="D12" s="52" t="s">
+        <v>77</v>
       </c>
       <c r="E12" s="45"/>
       <c r="F12" s="45"/>
       <c r="G12" s="45"/>
       <c r="H12" s="46"/>
       <c r="I12" s="73" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J12" s="45"/>
       <c r="K12" s="45"/>
@@ -5497,11 +5499,11 @@
     </row>
     <row r="13" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A13" s="2"/>
-      <c r="B13" s="74" t="s">
+      <c r="B13" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="66"/>
-      <c r="D13" s="66"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
@@ -5604,7 +5606,7 @@
       <c r="AB14" s="45"/>
       <c r="AC14" s="45"/>
       <c r="AD14" s="46"/>
-      <c r="AE14" s="72" t="s">
+      <c r="AE14" s="74" t="s">
         <v>22</v>
       </c>
       <c r="AF14" s="45"/>
@@ -5652,8 +5654,8 @@
     <row r="15" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A15" s="2"/>
       <c r="B15" s="13"/>
-      <c r="C15" s="55" t="s">
-        <v>80</v>
+      <c r="C15" s="52" t="s">
+        <v>79</v>
       </c>
       <c r="D15" s="45"/>
       <c r="E15" s="45"/>
@@ -5668,7 +5670,7 @@
       <c r="N15" s="45"/>
       <c r="O15" s="45"/>
       <c r="P15" s="46"/>
-      <c r="Q15" s="54" t="s">
+      <c r="Q15" s="56" t="s">
         <v>38</v>
       </c>
       <c r="R15" s="45"/>
@@ -5677,7 +5679,7 @@
       <c r="U15" s="45"/>
       <c r="V15" s="45"/>
       <c r="W15" s="46"/>
-      <c r="X15" s="54" t="s">
+      <c r="X15" s="56" t="s">
         <v>43</v>
       </c>
       <c r="Y15" s="45"/>
@@ -5686,13 +5688,13 @@
       <c r="AB15" s="45"/>
       <c r="AC15" s="45"/>
       <c r="AD15" s="46"/>
-      <c r="AE15" s="55"/>
+      <c r="AE15" s="52"/>
       <c r="AF15" s="45"/>
       <c r="AG15" s="46"/>
-      <c r="AH15" s="54"/>
+      <c r="AH15" s="56"/>
       <c r="AI15" s="45"/>
       <c r="AJ15" s="46"/>
-      <c r="AK15" s="54"/>
+      <c r="AK15" s="56"/>
       <c r="AL15" s="45"/>
       <c r="AM15" s="45"/>
       <c r="AN15" s="45"/>
@@ -5727,11 +5729,11 @@
     </row>
     <row r="16" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A16" s="2"/>
-      <c r="B16" s="74" t="s">
+      <c r="B16" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="66"/>
-      <c r="D16" s="66"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
@@ -5834,7 +5836,7 @@
       <c r="AB17" s="45"/>
       <c r="AC17" s="45"/>
       <c r="AD17" s="46"/>
-      <c r="AE17" s="72" t="s">
+      <c r="AE17" s="74" t="s">
         <v>22</v>
       </c>
       <c r="AF17" s="45"/>
@@ -5882,32 +5884,32 @@
     <row r="18" spans="1:68" ht="33" customHeight="1" outlineLevel="1">
       <c r="A18" s="2"/>
       <c r="B18" s="13"/>
-      <c r="C18" s="55" t="s">
-        <v>81</v>
+      <c r="C18" s="52" t="s">
+        <v>80</v>
       </c>
-      <c r="D18" s="53"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="53"/>
-      <c r="H18" s="53"/>
-      <c r="I18" s="53"/>
-      <c r="J18" s="53"/>
-      <c r="K18" s="53"/>
-      <c r="L18" s="53"/>
-      <c r="M18" s="53"/>
-      <c r="N18" s="53"/>
-      <c r="O18" s="53"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="60"/>
+      <c r="N18" s="60"/>
+      <c r="O18" s="60"/>
       <c r="P18" s="46"/>
-      <c r="Q18" s="54" t="s">
+      <c r="Q18" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="R18" s="53"/>
-      <c r="S18" s="53"/>
-      <c r="T18" s="53"/>
-      <c r="U18" s="53"/>
-      <c r="V18" s="53"/>
+      <c r="R18" s="60"/>
+      <c r="S18" s="60"/>
+      <c r="T18" s="60"/>
+      <c r="U18" s="60"/>
+      <c r="V18" s="60"/>
       <c r="W18" s="46"/>
-      <c r="X18" s="54" t="s">
+      <c r="X18" s="56" t="s">
         <v>39</v>
       </c>
       <c r="Y18" s="45"/>
@@ -5916,46 +5918,46 @@
       <c r="AB18" s="45"/>
       <c r="AC18" s="45"/>
       <c r="AD18" s="46"/>
-      <c r="AE18" s="55">
+      <c r="AE18" s="52">
         <v>1</v>
       </c>
-      <c r="AF18" s="53"/>
+      <c r="AF18" s="60"/>
       <c r="AG18" s="46"/>
-      <c r="AH18" s="56"/>
-      <c r="AI18" s="57"/>
-      <c r="AJ18" s="58"/>
-      <c r="AK18" s="59" t="s">
-        <v>83</v>
+      <c r="AH18" s="57"/>
+      <c r="AI18" s="61"/>
+      <c r="AJ18" s="59"/>
+      <c r="AK18" s="51" t="s">
+        <v>82</v>
       </c>
-      <c r="AL18" s="53"/>
-      <c r="AM18" s="53"/>
-      <c r="AN18" s="53"/>
-      <c r="AO18" s="53"/>
-      <c r="AP18" s="53"/>
-      <c r="AQ18" s="53"/>
-      <c r="AR18" s="53"/>
-      <c r="AS18" s="53"/>
-      <c r="AT18" s="53"/>
-      <c r="AU18" s="53"/>
-      <c r="AV18" s="53"/>
-      <c r="AW18" s="53"/>
-      <c r="AX18" s="53"/>
-      <c r="AY18" s="53"/>
-      <c r="AZ18" s="53"/>
-      <c r="BA18" s="53"/>
-      <c r="BB18" s="53"/>
-      <c r="BC18" s="53"/>
-      <c r="BD18" s="53"/>
-      <c r="BE18" s="53"/>
-      <c r="BF18" s="53"/>
-      <c r="BG18" s="53"/>
-      <c r="BH18" s="53"/>
-      <c r="BI18" s="53"/>
-      <c r="BJ18" s="53"/>
-      <c r="BK18" s="53"/>
-      <c r="BL18" s="53"/>
-      <c r="BM18" s="53"/>
-      <c r="BN18" s="53"/>
+      <c r="AL18" s="60"/>
+      <c r="AM18" s="60"/>
+      <c r="AN18" s="60"/>
+      <c r="AO18" s="60"/>
+      <c r="AP18" s="60"/>
+      <c r="AQ18" s="60"/>
+      <c r="AR18" s="60"/>
+      <c r="AS18" s="60"/>
+      <c r="AT18" s="60"/>
+      <c r="AU18" s="60"/>
+      <c r="AV18" s="60"/>
+      <c r="AW18" s="60"/>
+      <c r="AX18" s="60"/>
+      <c r="AY18" s="60"/>
+      <c r="AZ18" s="60"/>
+      <c r="BA18" s="60"/>
+      <c r="BB18" s="60"/>
+      <c r="BC18" s="60"/>
+      <c r="BD18" s="60"/>
+      <c r="BE18" s="60"/>
+      <c r="BF18" s="60"/>
+      <c r="BG18" s="60"/>
+      <c r="BH18" s="60"/>
+      <c r="BI18" s="60"/>
+      <c r="BJ18" s="60"/>
+      <c r="BK18" s="60"/>
+      <c r="BL18" s="60"/>
+      <c r="BM18" s="60"/>
+      <c r="BN18" s="60"/>
       <c r="BO18" s="46"/>
       <c r="BP18" s="2"/>
     </row>
@@ -5963,7 +5965,7 @@
       <c r="A19" s="2"/>
       <c r="B19" s="13"/>
       <c r="C19" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D19" s="35"/>
       <c r="E19" s="35"/>
@@ -5978,14 +5980,14 @@
       <c r="N19" s="36"/>
       <c r="O19" s="36"/>
       <c r="P19" s="23"/>
-      <c r="Q19" s="54"/>
-      <c r="R19" s="53"/>
-      <c r="S19" s="53"/>
-      <c r="T19" s="53"/>
-      <c r="U19" s="53"/>
-      <c r="V19" s="53"/>
+      <c r="Q19" s="56"/>
+      <c r="R19" s="60"/>
+      <c r="S19" s="60"/>
+      <c r="T19" s="60"/>
+      <c r="U19" s="60"/>
+      <c r="V19" s="60"/>
       <c r="W19" s="46"/>
-      <c r="X19" s="54" t="s">
+      <c r="X19" s="56" t="s">
         <v>46</v>
       </c>
       <c r="Y19" s="45"/>
@@ -5994,44 +5996,44 @@
       <c r="AB19" s="45"/>
       <c r="AC19" s="45"/>
       <c r="AD19" s="46"/>
-      <c r="AE19" s="55"/>
-      <c r="AF19" s="53"/>
+      <c r="AE19" s="52"/>
+      <c r="AF19" s="60"/>
       <c r="AG19" s="46"/>
-      <c r="AH19" s="56"/>
-      <c r="AI19" s="57"/>
-      <c r="AJ19" s="58"/>
-      <c r="AK19" s="54" t="s">
-        <v>85</v>
+      <c r="AH19" s="57"/>
+      <c r="AI19" s="61"/>
+      <c r="AJ19" s="59"/>
+      <c r="AK19" s="56" t="s">
+        <v>84</v>
       </c>
-      <c r="AL19" s="53"/>
-      <c r="AM19" s="53"/>
-      <c r="AN19" s="53"/>
-      <c r="AO19" s="53"/>
-      <c r="AP19" s="53"/>
-      <c r="AQ19" s="53"/>
-      <c r="AR19" s="53"/>
-      <c r="AS19" s="53"/>
-      <c r="AT19" s="53"/>
-      <c r="AU19" s="53"/>
-      <c r="AV19" s="53"/>
-      <c r="AW19" s="53"/>
-      <c r="AX19" s="53"/>
-      <c r="AY19" s="53"/>
-      <c r="AZ19" s="53"/>
-      <c r="BA19" s="53"/>
-      <c r="BB19" s="53"/>
-      <c r="BC19" s="53"/>
-      <c r="BD19" s="53"/>
-      <c r="BE19" s="53"/>
-      <c r="BF19" s="53"/>
-      <c r="BG19" s="53"/>
-      <c r="BH19" s="53"/>
-      <c r="BI19" s="53"/>
-      <c r="BJ19" s="53"/>
-      <c r="BK19" s="53"/>
-      <c r="BL19" s="53"/>
-      <c r="BM19" s="53"/>
-      <c r="BN19" s="53"/>
+      <c r="AL19" s="60"/>
+      <c r="AM19" s="60"/>
+      <c r="AN19" s="60"/>
+      <c r="AO19" s="60"/>
+      <c r="AP19" s="60"/>
+      <c r="AQ19" s="60"/>
+      <c r="AR19" s="60"/>
+      <c r="AS19" s="60"/>
+      <c r="AT19" s="60"/>
+      <c r="AU19" s="60"/>
+      <c r="AV19" s="60"/>
+      <c r="AW19" s="60"/>
+      <c r="AX19" s="60"/>
+      <c r="AY19" s="60"/>
+      <c r="AZ19" s="60"/>
+      <c r="BA19" s="60"/>
+      <c r="BB19" s="60"/>
+      <c r="BC19" s="60"/>
+      <c r="BD19" s="60"/>
+      <c r="BE19" s="60"/>
+      <c r="BF19" s="60"/>
+      <c r="BG19" s="60"/>
+      <c r="BH19" s="60"/>
+      <c r="BI19" s="60"/>
+      <c r="BJ19" s="60"/>
+      <c r="BK19" s="60"/>
+      <c r="BL19" s="60"/>
+      <c r="BM19" s="60"/>
+      <c r="BN19" s="60"/>
       <c r="BO19" s="46"/>
       <c r="BP19" s="2"/>
     </row>
@@ -6039,73 +6041,73 @@
       <c r="A20" s="2"/>
       <c r="B20" s="13"/>
       <c r="C20" s="38"/>
-      <c r="D20" s="55" t="s">
-        <v>86</v>
+      <c r="D20" s="52" t="s">
+        <v>85</v>
       </c>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="51"/>
-      <c r="K20" s="51"/>
-      <c r="L20" s="51"/>
-      <c r="M20" s="51"/>
-      <c r="N20" s="51"/>
-      <c r="O20" s="51"/>
-      <c r="P20" s="52"/>
-      <c r="Q20" s="54" t="s">
-        <v>179</v>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="53"/>
+      <c r="M20" s="53"/>
+      <c r="N20" s="53"/>
+      <c r="O20" s="53"/>
+      <c r="P20" s="54"/>
+      <c r="Q20" s="56" t="s">
+        <v>178</v>
       </c>
-      <c r="R20" s="53"/>
-      <c r="S20" s="53"/>
-      <c r="T20" s="53"/>
-      <c r="U20" s="53"/>
-      <c r="V20" s="53"/>
+      <c r="R20" s="60"/>
+      <c r="S20" s="60"/>
+      <c r="T20" s="60"/>
+      <c r="U20" s="60"/>
+      <c r="V20" s="60"/>
       <c r="W20" s="46"/>
-      <c r="X20" s="54"/>
+      <c r="X20" s="56"/>
       <c r="Y20" s="45"/>
       <c r="Z20" s="45"/>
       <c r="AA20" s="45"/>
       <c r="AB20" s="45"/>
       <c r="AC20" s="45"/>
       <c r="AD20" s="46"/>
-      <c r="AE20" s="55"/>
-      <c r="AF20" s="53"/>
+      <c r="AE20" s="52"/>
+      <c r="AF20" s="60"/>
       <c r="AG20" s="46"/>
-      <c r="AH20" s="56"/>
-      <c r="AI20" s="57"/>
-      <c r="AJ20" s="58"/>
-      <c r="AK20" s="54"/>
-      <c r="AL20" s="53"/>
-      <c r="AM20" s="53"/>
-      <c r="AN20" s="53"/>
-      <c r="AO20" s="53"/>
-      <c r="AP20" s="53"/>
-      <c r="AQ20" s="53"/>
-      <c r="AR20" s="53"/>
-      <c r="AS20" s="53"/>
-      <c r="AT20" s="53"/>
-      <c r="AU20" s="53"/>
-      <c r="AV20" s="53"/>
-      <c r="AW20" s="53"/>
-      <c r="AX20" s="53"/>
-      <c r="AY20" s="53"/>
-      <c r="AZ20" s="53"/>
-      <c r="BA20" s="53"/>
-      <c r="BB20" s="53"/>
-      <c r="BC20" s="53"/>
-      <c r="BD20" s="53"/>
-      <c r="BE20" s="53"/>
-      <c r="BF20" s="53"/>
-      <c r="BG20" s="53"/>
-      <c r="BH20" s="53"/>
-      <c r="BI20" s="53"/>
-      <c r="BJ20" s="53"/>
-      <c r="BK20" s="53"/>
-      <c r="BL20" s="53"/>
-      <c r="BM20" s="53"/>
-      <c r="BN20" s="53"/>
+      <c r="AH20" s="57"/>
+      <c r="AI20" s="61"/>
+      <c r="AJ20" s="59"/>
+      <c r="AK20" s="56"/>
+      <c r="AL20" s="60"/>
+      <c r="AM20" s="60"/>
+      <c r="AN20" s="60"/>
+      <c r="AO20" s="60"/>
+      <c r="AP20" s="60"/>
+      <c r="AQ20" s="60"/>
+      <c r="AR20" s="60"/>
+      <c r="AS20" s="60"/>
+      <c r="AT20" s="60"/>
+      <c r="AU20" s="60"/>
+      <c r="AV20" s="60"/>
+      <c r="AW20" s="60"/>
+      <c r="AX20" s="60"/>
+      <c r="AY20" s="60"/>
+      <c r="AZ20" s="60"/>
+      <c r="BA20" s="60"/>
+      <c r="BB20" s="60"/>
+      <c r="BC20" s="60"/>
+      <c r="BD20" s="60"/>
+      <c r="BE20" s="60"/>
+      <c r="BF20" s="60"/>
+      <c r="BG20" s="60"/>
+      <c r="BH20" s="60"/>
+      <c r="BI20" s="60"/>
+      <c r="BJ20" s="60"/>
+      <c r="BK20" s="60"/>
+      <c r="BL20" s="60"/>
+      <c r="BM20" s="60"/>
+      <c r="BN20" s="60"/>
       <c r="BO20" s="46"/>
       <c r="BP20" s="2"/>
     </row>
@@ -6113,7 +6115,7 @@
       <c r="A21" s="2"/>
       <c r="B21" s="13"/>
       <c r="C21" s="20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D21" s="21"/>
       <c r="E21" s="21"/>
@@ -6128,29 +6130,29 @@
       <c r="N21" s="22"/>
       <c r="O21" s="22"/>
       <c r="P21" s="23"/>
-      <c r="Q21" s="80"/>
+      <c r="Q21" s="55"/>
       <c r="R21" s="45"/>
       <c r="S21" s="45"/>
       <c r="T21" s="45"/>
       <c r="U21" s="45"/>
       <c r="V21" s="45"/>
       <c r="W21" s="46"/>
-      <c r="X21" s="54"/>
+      <c r="X21" s="56"/>
       <c r="Y21" s="45"/>
       <c r="Z21" s="45"/>
       <c r="AA21" s="45"/>
       <c r="AB21" s="45"/>
       <c r="AC21" s="45"/>
       <c r="AD21" s="46"/>
-      <c r="AE21" s="55"/>
+      <c r="AE21" s="52"/>
       <c r="AF21" s="45"/>
       <c r="AG21" s="46"/>
-      <c r="AH21" s="56" t="s">
-        <v>89</v>
+      <c r="AH21" s="57" t="s">
+        <v>88</v>
       </c>
-      <c r="AI21" s="78"/>
-      <c r="AJ21" s="58"/>
-      <c r="AK21" s="54"/>
+      <c r="AI21" s="58"/>
+      <c r="AJ21" s="59"/>
+      <c r="AK21" s="56"/>
       <c r="AL21" s="45"/>
       <c r="AM21" s="45"/>
       <c r="AN21" s="45"/>
@@ -6187,22 +6189,22 @@
       <c r="A22" s="2"/>
       <c r="B22" s="13"/>
       <c r="C22" s="24"/>
-      <c r="D22" s="55" t="s">
-        <v>87</v>
+      <c r="D22" s="52" t="s">
+        <v>86</v>
       </c>
-      <c r="E22" s="51"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="51"/>
-      <c r="J22" s="51"/>
-      <c r="K22" s="51"/>
-      <c r="L22" s="51"/>
-      <c r="M22" s="51"/>
-      <c r="N22" s="51"/>
-      <c r="O22" s="51"/>
-      <c r="P22" s="52"/>
-      <c r="Q22" s="80" t="s">
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="53"/>
+      <c r="M22" s="53"/>
+      <c r="N22" s="53"/>
+      <c r="O22" s="53"/>
+      <c r="P22" s="54"/>
+      <c r="Q22" s="55" t="s">
         <v>38</v>
       </c>
       <c r="R22" s="45"/>
@@ -6211,20 +6213,20 @@
       <c r="U22" s="45"/>
       <c r="V22" s="45"/>
       <c r="W22" s="46"/>
-      <c r="X22" s="54"/>
+      <c r="X22" s="56"/>
       <c r="Y22" s="45"/>
       <c r="Z22" s="45"/>
       <c r="AA22" s="45"/>
       <c r="AB22" s="45"/>
       <c r="AC22" s="45"/>
       <c r="AD22" s="46"/>
-      <c r="AE22" s="55"/>
+      <c r="AE22" s="52"/>
       <c r="AF22" s="45"/>
       <c r="AG22" s="46"/>
-      <c r="AH22" s="56"/>
-      <c r="AI22" s="78"/>
-      <c r="AJ22" s="58"/>
-      <c r="AK22" s="54"/>
+      <c r="AH22" s="57"/>
+      <c r="AI22" s="58"/>
+      <c r="AJ22" s="59"/>
+      <c r="AK22" s="56"/>
       <c r="AL22" s="45"/>
       <c r="AM22" s="45"/>
       <c r="AN22" s="45"/>
@@ -6261,22 +6263,22 @@
       <c r="A23" s="2"/>
       <c r="B23" s="13"/>
       <c r="C23" s="24"/>
-      <c r="D23" s="55" t="s">
-        <v>90</v>
+      <c r="D23" s="52" t="s">
+        <v>89</v>
       </c>
-      <c r="E23" s="51"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="51"/>
-      <c r="J23" s="51"/>
-      <c r="K23" s="51"/>
-      <c r="L23" s="51"/>
-      <c r="M23" s="51"/>
-      <c r="N23" s="51"/>
-      <c r="O23" s="51"/>
-      <c r="P23" s="52"/>
-      <c r="Q23" s="54" t="s">
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="53"/>
+      <c r="K23" s="53"/>
+      <c r="L23" s="53"/>
+      <c r="M23" s="53"/>
+      <c r="N23" s="53"/>
+      <c r="O23" s="53"/>
+      <c r="P23" s="54"/>
+      <c r="Q23" s="56" t="s">
         <v>71</v>
       </c>
       <c r="R23" s="45"/>
@@ -6285,20 +6287,20 @@
       <c r="U23" s="45"/>
       <c r="V23" s="45"/>
       <c r="W23" s="46"/>
-      <c r="X23" s="54"/>
+      <c r="X23" s="56"/>
       <c r="Y23" s="45"/>
       <c r="Z23" s="45"/>
       <c r="AA23" s="45"/>
       <c r="AB23" s="45"/>
       <c r="AC23" s="45"/>
       <c r="AD23" s="46"/>
-      <c r="AE23" s="55"/>
+      <c r="AE23" s="52"/>
       <c r="AF23" s="45"/>
       <c r="AG23" s="46"/>
-      <c r="AH23" s="56"/>
-      <c r="AI23" s="78"/>
-      <c r="AJ23" s="58"/>
-      <c r="AK23" s="54"/>
+      <c r="AH23" s="57"/>
+      <c r="AI23" s="58"/>
+      <c r="AJ23" s="59"/>
+      <c r="AK23" s="56"/>
       <c r="AL23" s="45"/>
       <c r="AM23" s="45"/>
       <c r="AN23" s="45"/>
@@ -6335,22 +6337,22 @@
       <c r="A24" s="2"/>
       <c r="B24" s="13"/>
       <c r="C24" s="24"/>
-      <c r="D24" s="55" t="s">
-        <v>91</v>
+      <c r="D24" s="52" t="s">
+        <v>90</v>
       </c>
-      <c r="E24" s="51"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="51"/>
-      <c r="K24" s="51"/>
-      <c r="L24" s="51"/>
-      <c r="M24" s="51"/>
-      <c r="N24" s="51"/>
-      <c r="O24" s="51"/>
-      <c r="P24" s="52"/>
-      <c r="Q24" s="80" t="s">
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="53"/>
+      <c r="K24" s="53"/>
+      <c r="L24" s="53"/>
+      <c r="M24" s="53"/>
+      <c r="N24" s="53"/>
+      <c r="O24" s="53"/>
+      <c r="P24" s="54"/>
+      <c r="Q24" s="55" t="s">
         <v>38</v>
       </c>
       <c r="R24" s="45"/>
@@ -6359,21 +6361,21 @@
       <c r="U24" s="45"/>
       <c r="V24" s="45"/>
       <c r="W24" s="46"/>
-      <c r="X24" s="54"/>
+      <c r="X24" s="56"/>
       <c r="Y24" s="45"/>
       <c r="Z24" s="45"/>
       <c r="AA24" s="45"/>
       <c r="AB24" s="45"/>
       <c r="AC24" s="45"/>
       <c r="AD24" s="46"/>
-      <c r="AE24" s="55"/>
+      <c r="AE24" s="52"/>
       <c r="AF24" s="45"/>
       <c r="AG24" s="46"/>
-      <c r="AH24" s="56"/>
-      <c r="AI24" s="78"/>
-      <c r="AJ24" s="58"/>
-      <c r="AK24" s="59" t="s">
-        <v>105</v>
+      <c r="AH24" s="57"/>
+      <c r="AI24" s="58"/>
+      <c r="AJ24" s="59"/>
+      <c r="AK24" s="51" t="s">
+        <v>104</v>
       </c>
       <c r="AL24" s="45"/>
       <c r="AM24" s="45"/>
@@ -6411,22 +6413,22 @@
       <c r="A25" s="2"/>
       <c r="B25" s="13"/>
       <c r="C25" s="24"/>
-      <c r="D25" s="55" t="s">
-        <v>92</v>
+      <c r="D25" s="52" t="s">
+        <v>91</v>
       </c>
-      <c r="E25" s="51"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="51"/>
-      <c r="I25" s="51"/>
-      <c r="J25" s="51"/>
-      <c r="K25" s="51"/>
-      <c r="L25" s="51"/>
-      <c r="M25" s="51"/>
-      <c r="N25" s="51"/>
-      <c r="O25" s="51"/>
-      <c r="P25" s="52"/>
-      <c r="Q25" s="80" t="s">
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="53"/>
+      <c r="I25" s="53"/>
+      <c r="J25" s="53"/>
+      <c r="K25" s="53"/>
+      <c r="L25" s="53"/>
+      <c r="M25" s="53"/>
+      <c r="N25" s="53"/>
+      <c r="O25" s="53"/>
+      <c r="P25" s="54"/>
+      <c r="Q25" s="55" t="s">
         <v>67</v>
       </c>
       <c r="R25" s="45"/>
@@ -6435,22 +6437,22 @@
       <c r="U25" s="45"/>
       <c r="V25" s="45"/>
       <c r="W25" s="46"/>
-      <c r="X25" s="54"/>
+      <c r="X25" s="56"/>
       <c r="Y25" s="45"/>
       <c r="Z25" s="45"/>
       <c r="AA25" s="45"/>
       <c r="AB25" s="45"/>
       <c r="AC25" s="45"/>
       <c r="AD25" s="46"/>
-      <c r="AE25" s="55">
+      <c r="AE25" s="52">
         <v>10</v>
       </c>
       <c r="AF25" s="45"/>
       <c r="AG25" s="46"/>
-      <c r="AH25" s="56"/>
-      <c r="AI25" s="78"/>
-      <c r="AJ25" s="58"/>
-      <c r="AK25" s="54"/>
+      <c r="AH25" s="57"/>
+      <c r="AI25" s="58"/>
+      <c r="AJ25" s="59"/>
+      <c r="AK25" s="56"/>
       <c r="AL25" s="45"/>
       <c r="AM25" s="45"/>
       <c r="AN25" s="45"/>
@@ -6487,44 +6489,44 @@
       <c r="A26" s="2"/>
       <c r="B26" s="13"/>
       <c r="C26" s="24"/>
-      <c r="D26" s="55" t="s">
-        <v>93</v>
+      <c r="D26" s="52" t="s">
+        <v>92</v>
       </c>
-      <c r="E26" s="51"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="51"/>
-      <c r="J26" s="51"/>
-      <c r="K26" s="51"/>
-      <c r="L26" s="51"/>
-      <c r="M26" s="51"/>
-      <c r="N26" s="51"/>
-      <c r="O26" s="51"/>
-      <c r="P26" s="52"/>
-      <c r="Q26" s="54" t="s">
-        <v>179</v>
+      <c r="E26" s="53"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="53"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="53"/>
+      <c r="M26" s="53"/>
+      <c r="N26" s="53"/>
+      <c r="O26" s="53"/>
+      <c r="P26" s="54"/>
+      <c r="Q26" s="56" t="s">
+        <v>178</v>
       </c>
-      <c r="R26" s="53"/>
-      <c r="S26" s="53"/>
-      <c r="T26" s="53"/>
-      <c r="U26" s="53"/>
-      <c r="V26" s="53"/>
+      <c r="R26" s="60"/>
+      <c r="S26" s="60"/>
+      <c r="T26" s="60"/>
+      <c r="U26" s="60"/>
+      <c r="V26" s="60"/>
       <c r="W26" s="46"/>
-      <c r="X26" s="54"/>
+      <c r="X26" s="56"/>
       <c r="Y26" s="45"/>
       <c r="Z26" s="45"/>
       <c r="AA26" s="45"/>
       <c r="AB26" s="45"/>
       <c r="AC26" s="45"/>
       <c r="AD26" s="46"/>
-      <c r="AE26" s="55"/>
+      <c r="AE26" s="52"/>
       <c r="AF26" s="45"/>
       <c r="AG26" s="46"/>
-      <c r="AH26" s="56"/>
-      <c r="AI26" s="78"/>
-      <c r="AJ26" s="58"/>
-      <c r="AK26" s="54"/>
+      <c r="AH26" s="57"/>
+      <c r="AI26" s="58"/>
+      <c r="AJ26" s="59"/>
+      <c r="AK26" s="56"/>
       <c r="AL26" s="45"/>
       <c r="AM26" s="45"/>
       <c r="AN26" s="45"/>
@@ -6561,22 +6563,22 @@
       <c r="A27" s="2"/>
       <c r="B27" s="13"/>
       <c r="C27" s="24"/>
-      <c r="D27" s="55" t="s">
-        <v>94</v>
+      <c r="D27" s="52" t="s">
+        <v>93</v>
       </c>
-      <c r="E27" s="51"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="51"/>
-      <c r="J27" s="51"/>
-      <c r="K27" s="51"/>
-      <c r="L27" s="51"/>
-      <c r="M27" s="51"/>
-      <c r="N27" s="51"/>
-      <c r="O27" s="51"/>
-      <c r="P27" s="52"/>
-      <c r="Q27" s="80" t="s">
+      <c r="E27" s="53"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="53"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="53"/>
+      <c r="J27" s="53"/>
+      <c r="K27" s="53"/>
+      <c r="L27" s="53"/>
+      <c r="M27" s="53"/>
+      <c r="N27" s="53"/>
+      <c r="O27" s="53"/>
+      <c r="P27" s="54"/>
+      <c r="Q27" s="55" t="s">
         <v>38</v>
       </c>
       <c r="R27" s="45"/>
@@ -6585,20 +6587,20 @@
       <c r="U27" s="45"/>
       <c r="V27" s="45"/>
       <c r="W27" s="46"/>
-      <c r="X27" s="54"/>
+      <c r="X27" s="56"/>
       <c r="Y27" s="45"/>
       <c r="Z27" s="45"/>
       <c r="AA27" s="45"/>
       <c r="AB27" s="45"/>
       <c r="AC27" s="45"/>
       <c r="AD27" s="46"/>
-      <c r="AE27" s="55"/>
+      <c r="AE27" s="52"/>
       <c r="AF27" s="45"/>
       <c r="AG27" s="46"/>
-      <c r="AH27" s="56"/>
-      <c r="AI27" s="78"/>
-      <c r="AJ27" s="58"/>
-      <c r="AK27" s="54"/>
+      <c r="AH27" s="57"/>
+      <c r="AI27" s="58"/>
+      <c r="AJ27" s="59"/>
+      <c r="AK27" s="56"/>
       <c r="AL27" s="45"/>
       <c r="AM27" s="45"/>
       <c r="AN27" s="45"/>
@@ -6635,23 +6637,23 @@
       <c r="A28" s="2"/>
       <c r="B28" s="13"/>
       <c r="C28" s="24"/>
-      <c r="D28" s="55" t="s">
-        <v>95</v>
+      <c r="D28" s="52" t="s">
+        <v>94</v>
       </c>
-      <c r="E28" s="51"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="51"/>
-      <c r="H28" s="51"/>
-      <c r="I28" s="51"/>
-      <c r="J28" s="51"/>
-      <c r="K28" s="51"/>
-      <c r="L28" s="51"/>
-      <c r="M28" s="51"/>
-      <c r="N28" s="51"/>
-      <c r="O28" s="51"/>
-      <c r="P28" s="52"/>
-      <c r="Q28" s="80" t="s">
-        <v>139</v>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="53"/>
+      <c r="J28" s="53"/>
+      <c r="K28" s="53"/>
+      <c r="L28" s="53"/>
+      <c r="M28" s="53"/>
+      <c r="N28" s="53"/>
+      <c r="O28" s="53"/>
+      <c r="P28" s="54"/>
+      <c r="Q28" s="55" t="s">
+        <v>138</v>
       </c>
       <c r="R28" s="45"/>
       <c r="S28" s="45"/>
@@ -6659,22 +6661,22 @@
       <c r="U28" s="45"/>
       <c r="V28" s="45"/>
       <c r="W28" s="46"/>
-      <c r="X28" s="54"/>
+      <c r="X28" s="56"/>
       <c r="Y28" s="45"/>
       <c r="Z28" s="45"/>
       <c r="AA28" s="45"/>
       <c r="AB28" s="45"/>
       <c r="AC28" s="45"/>
       <c r="AD28" s="46"/>
-      <c r="AE28" s="55">
+      <c r="AE28" s="52">
         <v>19</v>
       </c>
       <c r="AF28" s="45"/>
       <c r="AG28" s="46"/>
-      <c r="AH28" s="56"/>
-      <c r="AI28" s="78"/>
-      <c r="AJ28" s="58"/>
-      <c r="AK28" s="54"/>
+      <c r="AH28" s="57"/>
+      <c r="AI28" s="58"/>
+      <c r="AJ28" s="59"/>
+      <c r="AK28" s="56"/>
       <c r="AL28" s="45"/>
       <c r="AM28" s="45"/>
       <c r="AN28" s="45"/>
@@ -6711,22 +6713,22 @@
       <c r="A29" s="2"/>
       <c r="B29" s="13"/>
       <c r="C29" s="24"/>
-      <c r="D29" s="55" t="s">
-        <v>96</v>
+      <c r="D29" s="52" t="s">
+        <v>95</v>
       </c>
-      <c r="E29" s="51"/>
-      <c r="F29" s="51"/>
-      <c r="G29" s="51"/>
-      <c r="H29" s="51"/>
-      <c r="I29" s="51"/>
-      <c r="J29" s="51"/>
-      <c r="K29" s="51"/>
-      <c r="L29" s="51"/>
-      <c r="M29" s="51"/>
-      <c r="N29" s="51"/>
-      <c r="O29" s="51"/>
-      <c r="P29" s="52"/>
-      <c r="Q29" s="80" t="s">
+      <c r="E29" s="53"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="53"/>
+      <c r="H29" s="53"/>
+      <c r="I29" s="53"/>
+      <c r="J29" s="53"/>
+      <c r="K29" s="53"/>
+      <c r="L29" s="53"/>
+      <c r="M29" s="53"/>
+      <c r="N29" s="53"/>
+      <c r="O29" s="53"/>
+      <c r="P29" s="54"/>
+      <c r="Q29" s="55" t="s">
         <v>70</v>
       </c>
       <c r="R29" s="45"/>
@@ -6735,22 +6737,22 @@
       <c r="U29" s="45"/>
       <c r="V29" s="45"/>
       <c r="W29" s="46"/>
-      <c r="X29" s="54"/>
+      <c r="X29" s="56"/>
       <c r="Y29" s="45"/>
       <c r="Z29" s="45"/>
       <c r="AA29" s="45"/>
       <c r="AB29" s="45"/>
       <c r="AC29" s="45"/>
       <c r="AD29" s="46"/>
-      <c r="AE29" s="55">
+      <c r="AE29" s="52">
         <v>19</v>
       </c>
       <c r="AF29" s="45"/>
       <c r="AG29" s="46"/>
-      <c r="AH29" s="56"/>
-      <c r="AI29" s="78"/>
-      <c r="AJ29" s="58"/>
-      <c r="AK29" s="54"/>
+      <c r="AH29" s="57"/>
+      <c r="AI29" s="58"/>
+      <c r="AJ29" s="59"/>
+      <c r="AK29" s="56"/>
       <c r="AL29" s="45"/>
       <c r="AM29" s="45"/>
       <c r="AN29" s="45"/>
@@ -6787,22 +6789,22 @@
       <c r="A30" s="2"/>
       <c r="B30" s="13"/>
       <c r="C30" s="24"/>
-      <c r="D30" s="55" t="s">
-        <v>97</v>
+      <c r="D30" s="52" t="s">
+        <v>96</v>
       </c>
-      <c r="E30" s="51"/>
-      <c r="F30" s="51"/>
-      <c r="G30" s="51"/>
-      <c r="H30" s="51"/>
-      <c r="I30" s="51"/>
-      <c r="J30" s="51"/>
-      <c r="K30" s="51"/>
-      <c r="L30" s="51"/>
-      <c r="M30" s="51"/>
-      <c r="N30" s="51"/>
-      <c r="O30" s="51"/>
-      <c r="P30" s="52"/>
-      <c r="Q30" s="80" t="s">
+      <c r="E30" s="53"/>
+      <c r="F30" s="53"/>
+      <c r="G30" s="53"/>
+      <c r="H30" s="53"/>
+      <c r="I30" s="53"/>
+      <c r="J30" s="53"/>
+      <c r="K30" s="53"/>
+      <c r="L30" s="53"/>
+      <c r="M30" s="53"/>
+      <c r="N30" s="53"/>
+      <c r="O30" s="53"/>
+      <c r="P30" s="54"/>
+      <c r="Q30" s="55" t="s">
         <v>38</v>
       </c>
       <c r="R30" s="45"/>
@@ -6811,21 +6813,21 @@
       <c r="U30" s="45"/>
       <c r="V30" s="45"/>
       <c r="W30" s="46"/>
-      <c r="X30" s="54"/>
+      <c r="X30" s="56"/>
       <c r="Y30" s="45"/>
       <c r="Z30" s="45"/>
       <c r="AA30" s="45"/>
       <c r="AB30" s="45"/>
       <c r="AC30" s="45"/>
       <c r="AD30" s="46"/>
-      <c r="AE30" s="55"/>
+      <c r="AE30" s="52"/>
       <c r="AF30" s="45"/>
       <c r="AG30" s="46"/>
-      <c r="AH30" s="56"/>
-      <c r="AI30" s="78"/>
-      <c r="AJ30" s="58"/>
-      <c r="AK30" s="59" t="s">
-        <v>102</v>
+      <c r="AH30" s="57"/>
+      <c r="AI30" s="58"/>
+      <c r="AJ30" s="59"/>
+      <c r="AK30" s="51" t="s">
+        <v>101</v>
       </c>
       <c r="AL30" s="45"/>
       <c r="AM30" s="45"/>
@@ -6863,22 +6865,22 @@
       <c r="A31" s="2"/>
       <c r="B31" s="13"/>
       <c r="C31" s="24"/>
-      <c r="D31" s="55" t="s">
-        <v>98</v>
+      <c r="D31" s="52" t="s">
+        <v>97</v>
       </c>
-      <c r="E31" s="51"/>
-      <c r="F31" s="51"/>
-      <c r="G31" s="51"/>
-      <c r="H31" s="51"/>
-      <c r="I31" s="51"/>
-      <c r="J31" s="51"/>
-      <c r="K31" s="51"/>
-      <c r="L31" s="51"/>
-      <c r="M31" s="51"/>
-      <c r="N31" s="51"/>
-      <c r="O31" s="51"/>
-      <c r="P31" s="52"/>
-      <c r="Q31" s="80" t="s">
+      <c r="E31" s="53"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="53"/>
+      <c r="H31" s="53"/>
+      <c r="I31" s="53"/>
+      <c r="J31" s="53"/>
+      <c r="K31" s="53"/>
+      <c r="L31" s="53"/>
+      <c r="M31" s="53"/>
+      <c r="N31" s="53"/>
+      <c r="O31" s="53"/>
+      <c r="P31" s="54"/>
+      <c r="Q31" s="55" t="s">
         <v>38</v>
       </c>
       <c r="R31" s="45"/>
@@ -6887,21 +6889,21 @@
       <c r="U31" s="45"/>
       <c r="V31" s="45"/>
       <c r="W31" s="46"/>
-      <c r="X31" s="54"/>
+      <c r="X31" s="56"/>
       <c r="Y31" s="45"/>
       <c r="Z31" s="45"/>
       <c r="AA31" s="45"/>
       <c r="AB31" s="45"/>
       <c r="AC31" s="45"/>
       <c r="AD31" s="46"/>
-      <c r="AE31" s="55"/>
+      <c r="AE31" s="52"/>
       <c r="AF31" s="45"/>
       <c r="AG31" s="46"/>
-      <c r="AH31" s="56"/>
-      <c r="AI31" s="78"/>
-      <c r="AJ31" s="58"/>
-      <c r="AK31" s="59" t="s">
-        <v>104</v>
+      <c r="AH31" s="57"/>
+      <c r="AI31" s="58"/>
+      <c r="AJ31" s="59"/>
+      <c r="AK31" s="51" t="s">
+        <v>103</v>
       </c>
       <c r="AL31" s="45"/>
       <c r="AM31" s="45"/>
@@ -6939,22 +6941,22 @@
       <c r="A32" s="2"/>
       <c r="B32" s="13"/>
       <c r="C32" s="24"/>
-      <c r="D32" s="55" t="s">
-        <v>99</v>
+      <c r="D32" s="52" t="s">
+        <v>98</v>
       </c>
-      <c r="E32" s="51"/>
-      <c r="F32" s="51"/>
-      <c r="G32" s="51"/>
-      <c r="H32" s="51"/>
-      <c r="I32" s="51"/>
-      <c r="J32" s="51"/>
-      <c r="K32" s="51"/>
-      <c r="L32" s="51"/>
-      <c r="M32" s="51"/>
-      <c r="N32" s="51"/>
-      <c r="O32" s="51"/>
-      <c r="P32" s="52"/>
-      <c r="Q32" s="80" t="s">
+      <c r="E32" s="53"/>
+      <c r="F32" s="53"/>
+      <c r="G32" s="53"/>
+      <c r="H32" s="53"/>
+      <c r="I32" s="53"/>
+      <c r="J32" s="53"/>
+      <c r="K32" s="53"/>
+      <c r="L32" s="53"/>
+      <c r="M32" s="53"/>
+      <c r="N32" s="53"/>
+      <c r="O32" s="53"/>
+      <c r="P32" s="54"/>
+      <c r="Q32" s="55" t="s">
         <v>38</v>
       </c>
       <c r="R32" s="45"/>
@@ -6963,21 +6965,21 @@
       <c r="U32" s="45"/>
       <c r="V32" s="45"/>
       <c r="W32" s="46"/>
-      <c r="X32" s="54"/>
+      <c r="X32" s="56"/>
       <c r="Y32" s="45"/>
       <c r="Z32" s="45"/>
       <c r="AA32" s="45"/>
       <c r="AB32" s="45"/>
       <c r="AC32" s="45"/>
       <c r="AD32" s="46"/>
-      <c r="AE32" s="55"/>
+      <c r="AE32" s="52"/>
       <c r="AF32" s="45"/>
       <c r="AG32" s="46"/>
-      <c r="AH32" s="56"/>
-      <c r="AI32" s="78"/>
-      <c r="AJ32" s="58"/>
-      <c r="AK32" s="59" t="s">
-        <v>103</v>
+      <c r="AH32" s="57"/>
+      <c r="AI32" s="58"/>
+      <c r="AJ32" s="59"/>
+      <c r="AK32" s="51" t="s">
+        <v>102</v>
       </c>
       <c r="AL32" s="45"/>
       <c r="AM32" s="45"/>
@@ -7015,22 +7017,22 @@
       <c r="A33" s="2"/>
       <c r="B33" s="13"/>
       <c r="C33" s="25"/>
-      <c r="D33" s="55" t="s">
-        <v>100</v>
+      <c r="D33" s="52" t="s">
+        <v>99</v>
       </c>
-      <c r="E33" s="51"/>
-      <c r="F33" s="51"/>
-      <c r="G33" s="51"/>
-      <c r="H33" s="51"/>
-      <c r="I33" s="51"/>
-      <c r="J33" s="51"/>
-      <c r="K33" s="51"/>
-      <c r="L33" s="51"/>
-      <c r="M33" s="51"/>
-      <c r="N33" s="51"/>
-      <c r="O33" s="51"/>
-      <c r="P33" s="52"/>
-      <c r="Q33" s="80" t="s">
+      <c r="E33" s="53"/>
+      <c r="F33" s="53"/>
+      <c r="G33" s="53"/>
+      <c r="H33" s="53"/>
+      <c r="I33" s="53"/>
+      <c r="J33" s="53"/>
+      <c r="K33" s="53"/>
+      <c r="L33" s="53"/>
+      <c r="M33" s="53"/>
+      <c r="N33" s="53"/>
+      <c r="O33" s="53"/>
+      <c r="P33" s="54"/>
+      <c r="Q33" s="55" t="s">
         <v>38</v>
       </c>
       <c r="R33" s="45"/>
@@ -7039,21 +7041,21 @@
       <c r="U33" s="45"/>
       <c r="V33" s="45"/>
       <c r="W33" s="46"/>
-      <c r="X33" s="54"/>
+      <c r="X33" s="56"/>
       <c r="Y33" s="45"/>
       <c r="Z33" s="45"/>
       <c r="AA33" s="45"/>
       <c r="AB33" s="45"/>
       <c r="AC33" s="45"/>
       <c r="AD33" s="46"/>
-      <c r="AE33" s="55"/>
+      <c r="AE33" s="52"/>
       <c r="AF33" s="45"/>
       <c r="AG33" s="46"/>
-      <c r="AH33" s="56"/>
-      <c r="AI33" s="78"/>
-      <c r="AJ33" s="58"/>
-      <c r="AK33" s="59" t="s">
-        <v>101</v>
+      <c r="AH33" s="57"/>
+      <c r="AI33" s="58"/>
+      <c r="AJ33" s="59"/>
+      <c r="AK33" s="51" t="s">
+        <v>100</v>
       </c>
       <c r="AL33" s="45"/>
       <c r="AM33" s="45"/>
@@ -7091,7 +7093,7 @@
       <c r="A34" s="2"/>
       <c r="B34" s="13"/>
       <c r="C34" s="20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D34" s="35"/>
       <c r="E34" s="35"/>
@@ -7106,14 +7108,14 @@
       <c r="N34" s="36"/>
       <c r="O34" s="36"/>
       <c r="P34" s="23"/>
-      <c r="Q34" s="80"/>
+      <c r="Q34" s="55"/>
       <c r="R34" s="45"/>
       <c r="S34" s="45"/>
       <c r="T34" s="45"/>
       <c r="U34" s="45"/>
       <c r="V34" s="45"/>
       <c r="W34" s="46"/>
-      <c r="X34" s="54" t="s">
+      <c r="X34" s="56" t="s">
         <v>39</v>
       </c>
       <c r="Y34" s="45"/>
@@ -7122,42 +7124,42 @@
       <c r="AB34" s="45"/>
       <c r="AC34" s="45"/>
       <c r="AD34" s="46"/>
-      <c r="AE34" s="55"/>
-      <c r="AF34" s="53"/>
+      <c r="AE34" s="52"/>
+      <c r="AF34" s="60"/>
       <c r="AG34" s="46"/>
-      <c r="AH34" s="56"/>
-      <c r="AI34" s="57"/>
-      <c r="AJ34" s="58"/>
-      <c r="AK34" s="54"/>
-      <c r="AL34" s="53"/>
-      <c r="AM34" s="53"/>
-      <c r="AN34" s="53"/>
-      <c r="AO34" s="53"/>
-      <c r="AP34" s="53"/>
-      <c r="AQ34" s="53"/>
-      <c r="AR34" s="53"/>
-      <c r="AS34" s="53"/>
-      <c r="AT34" s="53"/>
-      <c r="AU34" s="53"/>
-      <c r="AV34" s="53"/>
-      <c r="AW34" s="53"/>
-      <c r="AX34" s="53"/>
-      <c r="AY34" s="53"/>
-      <c r="AZ34" s="53"/>
-      <c r="BA34" s="53"/>
-      <c r="BB34" s="53"/>
-      <c r="BC34" s="53"/>
-      <c r="BD34" s="53"/>
-      <c r="BE34" s="53"/>
-      <c r="BF34" s="53"/>
-      <c r="BG34" s="53"/>
-      <c r="BH34" s="53"/>
-      <c r="BI34" s="53"/>
-      <c r="BJ34" s="53"/>
-      <c r="BK34" s="53"/>
-      <c r="BL34" s="53"/>
-      <c r="BM34" s="53"/>
-      <c r="BN34" s="53"/>
+      <c r="AH34" s="57"/>
+      <c r="AI34" s="61"/>
+      <c r="AJ34" s="59"/>
+      <c r="AK34" s="56"/>
+      <c r="AL34" s="60"/>
+      <c r="AM34" s="60"/>
+      <c r="AN34" s="60"/>
+      <c r="AO34" s="60"/>
+      <c r="AP34" s="60"/>
+      <c r="AQ34" s="60"/>
+      <c r="AR34" s="60"/>
+      <c r="AS34" s="60"/>
+      <c r="AT34" s="60"/>
+      <c r="AU34" s="60"/>
+      <c r="AV34" s="60"/>
+      <c r="AW34" s="60"/>
+      <c r="AX34" s="60"/>
+      <c r="AY34" s="60"/>
+      <c r="AZ34" s="60"/>
+      <c r="BA34" s="60"/>
+      <c r="BB34" s="60"/>
+      <c r="BC34" s="60"/>
+      <c r="BD34" s="60"/>
+      <c r="BE34" s="60"/>
+      <c r="BF34" s="60"/>
+      <c r="BG34" s="60"/>
+      <c r="BH34" s="60"/>
+      <c r="BI34" s="60"/>
+      <c r="BJ34" s="60"/>
+      <c r="BK34" s="60"/>
+      <c r="BL34" s="60"/>
+      <c r="BM34" s="60"/>
+      <c r="BN34" s="60"/>
       <c r="BO34" s="46"/>
       <c r="BP34" s="2"/>
     </row>
@@ -7165,22 +7167,22 @@
       <c r="A35" s="2"/>
       <c r="B35" s="13"/>
       <c r="C35" s="39"/>
-      <c r="D35" s="51" t="s">
-        <v>159</v>
+      <c r="D35" s="53" t="s">
+        <v>158</v>
       </c>
-      <c r="E35" s="51"/>
-      <c r="F35" s="51"/>
-      <c r="G35" s="51"/>
-      <c r="H35" s="51"/>
-      <c r="I35" s="51"/>
-      <c r="J35" s="51"/>
-      <c r="K35" s="51"/>
-      <c r="L35" s="51"/>
-      <c r="M35" s="51"/>
-      <c r="N35" s="51"/>
-      <c r="O35" s="51"/>
-      <c r="P35" s="52"/>
-      <c r="Q35" s="80" t="s">
+      <c r="E35" s="53"/>
+      <c r="F35" s="53"/>
+      <c r="G35" s="53"/>
+      <c r="H35" s="53"/>
+      <c r="I35" s="53"/>
+      <c r="J35" s="53"/>
+      <c r="K35" s="53"/>
+      <c r="L35" s="53"/>
+      <c r="M35" s="53"/>
+      <c r="N35" s="53"/>
+      <c r="O35" s="53"/>
+      <c r="P35" s="54"/>
+      <c r="Q35" s="55" t="s">
         <v>38</v>
       </c>
       <c r="R35" s="45"/>
@@ -7189,7 +7191,7 @@
       <c r="U35" s="45"/>
       <c r="V35" s="45"/>
       <c r="W35" s="46"/>
-      <c r="X35" s="54" t="s">
+      <c r="X35" s="56" t="s">
         <v>39</v>
       </c>
       <c r="Y35" s="45"/>
@@ -7198,42 +7200,42 @@
       <c r="AB35" s="45"/>
       <c r="AC35" s="45"/>
       <c r="AD35" s="46"/>
-      <c r="AE35" s="55"/>
-      <c r="AF35" s="53"/>
+      <c r="AE35" s="52"/>
+      <c r="AF35" s="60"/>
       <c r="AG35" s="46"/>
-      <c r="AH35" s="56"/>
-      <c r="AI35" s="57"/>
-      <c r="AJ35" s="58"/>
-      <c r="AK35" s="54"/>
-      <c r="AL35" s="53"/>
-      <c r="AM35" s="53"/>
-      <c r="AN35" s="53"/>
-      <c r="AO35" s="53"/>
-      <c r="AP35" s="53"/>
-      <c r="AQ35" s="53"/>
-      <c r="AR35" s="53"/>
-      <c r="AS35" s="53"/>
-      <c r="AT35" s="53"/>
-      <c r="AU35" s="53"/>
-      <c r="AV35" s="53"/>
-      <c r="AW35" s="53"/>
-      <c r="AX35" s="53"/>
-      <c r="AY35" s="53"/>
-      <c r="AZ35" s="53"/>
-      <c r="BA35" s="53"/>
-      <c r="BB35" s="53"/>
-      <c r="BC35" s="53"/>
-      <c r="BD35" s="53"/>
-      <c r="BE35" s="53"/>
-      <c r="BF35" s="53"/>
-      <c r="BG35" s="53"/>
-      <c r="BH35" s="53"/>
-      <c r="BI35" s="53"/>
-      <c r="BJ35" s="53"/>
-      <c r="BK35" s="53"/>
-      <c r="BL35" s="53"/>
-      <c r="BM35" s="53"/>
-      <c r="BN35" s="53"/>
+      <c r="AH35" s="57"/>
+      <c r="AI35" s="61"/>
+      <c r="AJ35" s="59"/>
+      <c r="AK35" s="56"/>
+      <c r="AL35" s="60"/>
+      <c r="AM35" s="60"/>
+      <c r="AN35" s="60"/>
+      <c r="AO35" s="60"/>
+      <c r="AP35" s="60"/>
+      <c r="AQ35" s="60"/>
+      <c r="AR35" s="60"/>
+      <c r="AS35" s="60"/>
+      <c r="AT35" s="60"/>
+      <c r="AU35" s="60"/>
+      <c r="AV35" s="60"/>
+      <c r="AW35" s="60"/>
+      <c r="AX35" s="60"/>
+      <c r="AY35" s="60"/>
+      <c r="AZ35" s="60"/>
+      <c r="BA35" s="60"/>
+      <c r="BB35" s="60"/>
+      <c r="BC35" s="60"/>
+      <c r="BD35" s="60"/>
+      <c r="BE35" s="60"/>
+      <c r="BF35" s="60"/>
+      <c r="BG35" s="60"/>
+      <c r="BH35" s="60"/>
+      <c r="BI35" s="60"/>
+      <c r="BJ35" s="60"/>
+      <c r="BK35" s="60"/>
+      <c r="BL35" s="60"/>
+      <c r="BM35" s="60"/>
+      <c r="BN35" s="60"/>
       <c r="BO35" s="46"/>
       <c r="BP35" s="2"/>
     </row>
@@ -7241,22 +7243,22 @@
       <c r="A36" s="2"/>
       <c r="B36" s="13"/>
       <c r="C36" s="39"/>
-      <c r="D36" s="51" t="s">
-        <v>160</v>
+      <c r="D36" s="53" t="s">
+        <v>159</v>
       </c>
-      <c r="E36" s="51"/>
-      <c r="F36" s="51"/>
-      <c r="G36" s="51"/>
-      <c r="H36" s="51"/>
-      <c r="I36" s="51"/>
-      <c r="J36" s="51"/>
-      <c r="K36" s="51"/>
-      <c r="L36" s="51"/>
-      <c r="M36" s="51"/>
-      <c r="N36" s="51"/>
-      <c r="O36" s="51"/>
-      <c r="P36" s="52"/>
-      <c r="Q36" s="80" t="s">
+      <c r="E36" s="53"/>
+      <c r="F36" s="53"/>
+      <c r="G36" s="53"/>
+      <c r="H36" s="53"/>
+      <c r="I36" s="53"/>
+      <c r="J36" s="53"/>
+      <c r="K36" s="53"/>
+      <c r="L36" s="53"/>
+      <c r="M36" s="53"/>
+      <c r="N36" s="53"/>
+      <c r="O36" s="53"/>
+      <c r="P36" s="54"/>
+      <c r="Q36" s="55" t="s">
         <v>38</v>
       </c>
       <c r="R36" s="45"/>
@@ -7265,7 +7267,7 @@
       <c r="U36" s="45"/>
       <c r="V36" s="45"/>
       <c r="W36" s="46"/>
-      <c r="X36" s="54" t="s">
+      <c r="X36" s="56" t="s">
         <v>39</v>
       </c>
       <c r="Y36" s="45"/>
@@ -7274,42 +7276,42 @@
       <c r="AB36" s="45"/>
       <c r="AC36" s="45"/>
       <c r="AD36" s="46"/>
-      <c r="AE36" s="55"/>
-      <c r="AF36" s="53"/>
+      <c r="AE36" s="52"/>
+      <c r="AF36" s="60"/>
       <c r="AG36" s="46"/>
-      <c r="AH36" s="56"/>
-      <c r="AI36" s="57"/>
-      <c r="AJ36" s="58"/>
-      <c r="AK36" s="54"/>
-      <c r="AL36" s="53"/>
-      <c r="AM36" s="53"/>
-      <c r="AN36" s="53"/>
-      <c r="AO36" s="53"/>
-      <c r="AP36" s="53"/>
-      <c r="AQ36" s="53"/>
-      <c r="AR36" s="53"/>
-      <c r="AS36" s="53"/>
-      <c r="AT36" s="53"/>
-      <c r="AU36" s="53"/>
-      <c r="AV36" s="53"/>
-      <c r="AW36" s="53"/>
-      <c r="AX36" s="53"/>
-      <c r="AY36" s="53"/>
-      <c r="AZ36" s="53"/>
-      <c r="BA36" s="53"/>
-      <c r="BB36" s="53"/>
-      <c r="BC36" s="53"/>
-      <c r="BD36" s="53"/>
-      <c r="BE36" s="53"/>
-      <c r="BF36" s="53"/>
-      <c r="BG36" s="53"/>
-      <c r="BH36" s="53"/>
-      <c r="BI36" s="53"/>
-      <c r="BJ36" s="53"/>
-      <c r="BK36" s="53"/>
-      <c r="BL36" s="53"/>
-      <c r="BM36" s="53"/>
-      <c r="BN36" s="53"/>
+      <c r="AH36" s="57"/>
+      <c r="AI36" s="61"/>
+      <c r="AJ36" s="59"/>
+      <c r="AK36" s="56"/>
+      <c r="AL36" s="60"/>
+      <c r="AM36" s="60"/>
+      <c r="AN36" s="60"/>
+      <c r="AO36" s="60"/>
+      <c r="AP36" s="60"/>
+      <c r="AQ36" s="60"/>
+      <c r="AR36" s="60"/>
+      <c r="AS36" s="60"/>
+      <c r="AT36" s="60"/>
+      <c r="AU36" s="60"/>
+      <c r="AV36" s="60"/>
+      <c r="AW36" s="60"/>
+      <c r="AX36" s="60"/>
+      <c r="AY36" s="60"/>
+      <c r="AZ36" s="60"/>
+      <c r="BA36" s="60"/>
+      <c r="BB36" s="60"/>
+      <c r="BC36" s="60"/>
+      <c r="BD36" s="60"/>
+      <c r="BE36" s="60"/>
+      <c r="BF36" s="60"/>
+      <c r="BG36" s="60"/>
+      <c r="BH36" s="60"/>
+      <c r="BI36" s="60"/>
+      <c r="BJ36" s="60"/>
+      <c r="BK36" s="60"/>
+      <c r="BL36" s="60"/>
+      <c r="BM36" s="60"/>
+      <c r="BN36" s="60"/>
       <c r="BO36" s="46"/>
       <c r="BP36" s="2"/>
     </row>
@@ -7317,22 +7319,22 @@
       <c r="A37" s="2"/>
       <c r="B37" s="13"/>
       <c r="C37" s="39"/>
-      <c r="D37" s="51" t="s">
-        <v>161</v>
+      <c r="D37" s="53" t="s">
+        <v>160</v>
       </c>
-      <c r="E37" s="51"/>
-      <c r="F37" s="51"/>
-      <c r="G37" s="51"/>
-      <c r="H37" s="51"/>
-      <c r="I37" s="51"/>
-      <c r="J37" s="51"/>
-      <c r="K37" s="51"/>
-      <c r="L37" s="51"/>
-      <c r="M37" s="51"/>
-      <c r="N37" s="51"/>
-      <c r="O37" s="51"/>
-      <c r="P37" s="52"/>
-      <c r="Q37" s="80" t="s">
+      <c r="E37" s="53"/>
+      <c r="F37" s="53"/>
+      <c r="G37" s="53"/>
+      <c r="H37" s="53"/>
+      <c r="I37" s="53"/>
+      <c r="J37" s="53"/>
+      <c r="K37" s="53"/>
+      <c r="L37" s="53"/>
+      <c r="M37" s="53"/>
+      <c r="N37" s="53"/>
+      <c r="O37" s="53"/>
+      <c r="P37" s="54"/>
+      <c r="Q37" s="55" t="s">
         <v>38</v>
       </c>
       <c r="R37" s="45"/>
@@ -7341,7 +7343,7 @@
       <c r="U37" s="45"/>
       <c r="V37" s="45"/>
       <c r="W37" s="46"/>
-      <c r="X37" s="54" t="s">
+      <c r="X37" s="56" t="s">
         <v>39</v>
       </c>
       <c r="Y37" s="45"/>
@@ -7350,42 +7352,42 @@
       <c r="AB37" s="45"/>
       <c r="AC37" s="45"/>
       <c r="AD37" s="46"/>
-      <c r="AE37" s="55"/>
-      <c r="AF37" s="53"/>
+      <c r="AE37" s="52"/>
+      <c r="AF37" s="60"/>
       <c r="AG37" s="46"/>
-      <c r="AH37" s="56"/>
-      <c r="AI37" s="57"/>
-      <c r="AJ37" s="58"/>
-      <c r="AK37" s="54"/>
-      <c r="AL37" s="53"/>
-      <c r="AM37" s="53"/>
-      <c r="AN37" s="53"/>
-      <c r="AO37" s="53"/>
-      <c r="AP37" s="53"/>
-      <c r="AQ37" s="53"/>
-      <c r="AR37" s="53"/>
-      <c r="AS37" s="53"/>
-      <c r="AT37" s="53"/>
-      <c r="AU37" s="53"/>
-      <c r="AV37" s="53"/>
-      <c r="AW37" s="53"/>
-      <c r="AX37" s="53"/>
-      <c r="AY37" s="53"/>
-      <c r="AZ37" s="53"/>
-      <c r="BA37" s="53"/>
-      <c r="BB37" s="53"/>
-      <c r="BC37" s="53"/>
-      <c r="BD37" s="53"/>
-      <c r="BE37" s="53"/>
-      <c r="BF37" s="53"/>
-      <c r="BG37" s="53"/>
-      <c r="BH37" s="53"/>
-      <c r="BI37" s="53"/>
-      <c r="BJ37" s="53"/>
-      <c r="BK37" s="53"/>
-      <c r="BL37" s="53"/>
-      <c r="BM37" s="53"/>
-      <c r="BN37" s="53"/>
+      <c r="AH37" s="57"/>
+      <c r="AI37" s="61"/>
+      <c r="AJ37" s="59"/>
+      <c r="AK37" s="56"/>
+      <c r="AL37" s="60"/>
+      <c r="AM37" s="60"/>
+      <c r="AN37" s="60"/>
+      <c r="AO37" s="60"/>
+      <c r="AP37" s="60"/>
+      <c r="AQ37" s="60"/>
+      <c r="AR37" s="60"/>
+      <c r="AS37" s="60"/>
+      <c r="AT37" s="60"/>
+      <c r="AU37" s="60"/>
+      <c r="AV37" s="60"/>
+      <c r="AW37" s="60"/>
+      <c r="AX37" s="60"/>
+      <c r="AY37" s="60"/>
+      <c r="AZ37" s="60"/>
+      <c r="BA37" s="60"/>
+      <c r="BB37" s="60"/>
+      <c r="BC37" s="60"/>
+      <c r="BD37" s="60"/>
+      <c r="BE37" s="60"/>
+      <c r="BF37" s="60"/>
+      <c r="BG37" s="60"/>
+      <c r="BH37" s="60"/>
+      <c r="BI37" s="60"/>
+      <c r="BJ37" s="60"/>
+      <c r="BK37" s="60"/>
+      <c r="BL37" s="60"/>
+      <c r="BM37" s="60"/>
+      <c r="BN37" s="60"/>
       <c r="BO37" s="46"/>
       <c r="BP37" s="2"/>
     </row>
@@ -7393,22 +7395,22 @@
       <c r="A38" s="2"/>
       <c r="B38" s="13"/>
       <c r="C38" s="39"/>
-      <c r="D38" s="51" t="s">
-        <v>162</v>
+      <c r="D38" s="53" t="s">
+        <v>161</v>
       </c>
-      <c r="E38" s="51"/>
-      <c r="F38" s="51"/>
-      <c r="G38" s="51"/>
-      <c r="H38" s="51"/>
-      <c r="I38" s="51"/>
-      <c r="J38" s="51"/>
-      <c r="K38" s="51"/>
-      <c r="L38" s="51"/>
-      <c r="M38" s="51"/>
-      <c r="N38" s="51"/>
-      <c r="O38" s="51"/>
-      <c r="P38" s="52"/>
-      <c r="Q38" s="80" t="s">
+      <c r="E38" s="53"/>
+      <c r="F38" s="53"/>
+      <c r="G38" s="53"/>
+      <c r="H38" s="53"/>
+      <c r="I38" s="53"/>
+      <c r="J38" s="53"/>
+      <c r="K38" s="53"/>
+      <c r="L38" s="53"/>
+      <c r="M38" s="53"/>
+      <c r="N38" s="53"/>
+      <c r="O38" s="53"/>
+      <c r="P38" s="54"/>
+      <c r="Q38" s="55" t="s">
         <v>38</v>
       </c>
       <c r="R38" s="45"/>
@@ -7417,7 +7419,7 @@
       <c r="U38" s="45"/>
       <c r="V38" s="45"/>
       <c r="W38" s="46"/>
-      <c r="X38" s="54" t="s">
+      <c r="X38" s="56" t="s">
         <v>39</v>
       </c>
       <c r="Y38" s="45"/>
@@ -7426,42 +7428,42 @@
       <c r="AB38" s="45"/>
       <c r="AC38" s="45"/>
       <c r="AD38" s="46"/>
-      <c r="AE38" s="55"/>
-      <c r="AF38" s="53"/>
+      <c r="AE38" s="52"/>
+      <c r="AF38" s="60"/>
       <c r="AG38" s="46"/>
-      <c r="AH38" s="56"/>
-      <c r="AI38" s="57"/>
-      <c r="AJ38" s="58"/>
-      <c r="AK38" s="54"/>
-      <c r="AL38" s="53"/>
-      <c r="AM38" s="53"/>
-      <c r="AN38" s="53"/>
-      <c r="AO38" s="53"/>
-      <c r="AP38" s="53"/>
-      <c r="AQ38" s="53"/>
-      <c r="AR38" s="53"/>
-      <c r="AS38" s="53"/>
-      <c r="AT38" s="53"/>
-      <c r="AU38" s="53"/>
-      <c r="AV38" s="53"/>
-      <c r="AW38" s="53"/>
-      <c r="AX38" s="53"/>
-      <c r="AY38" s="53"/>
-      <c r="AZ38" s="53"/>
-      <c r="BA38" s="53"/>
-      <c r="BB38" s="53"/>
-      <c r="BC38" s="53"/>
-      <c r="BD38" s="53"/>
-      <c r="BE38" s="53"/>
-      <c r="BF38" s="53"/>
-      <c r="BG38" s="53"/>
-      <c r="BH38" s="53"/>
-      <c r="BI38" s="53"/>
-      <c r="BJ38" s="53"/>
-      <c r="BK38" s="53"/>
-      <c r="BL38" s="53"/>
-      <c r="BM38" s="53"/>
-      <c r="BN38" s="53"/>
+      <c r="AH38" s="57"/>
+      <c r="AI38" s="61"/>
+      <c r="AJ38" s="59"/>
+      <c r="AK38" s="56"/>
+      <c r="AL38" s="60"/>
+      <c r="AM38" s="60"/>
+      <c r="AN38" s="60"/>
+      <c r="AO38" s="60"/>
+      <c r="AP38" s="60"/>
+      <c r="AQ38" s="60"/>
+      <c r="AR38" s="60"/>
+      <c r="AS38" s="60"/>
+      <c r="AT38" s="60"/>
+      <c r="AU38" s="60"/>
+      <c r="AV38" s="60"/>
+      <c r="AW38" s="60"/>
+      <c r="AX38" s="60"/>
+      <c r="AY38" s="60"/>
+      <c r="AZ38" s="60"/>
+      <c r="BA38" s="60"/>
+      <c r="BB38" s="60"/>
+      <c r="BC38" s="60"/>
+      <c r="BD38" s="60"/>
+      <c r="BE38" s="60"/>
+      <c r="BF38" s="60"/>
+      <c r="BG38" s="60"/>
+      <c r="BH38" s="60"/>
+      <c r="BI38" s="60"/>
+      <c r="BJ38" s="60"/>
+      <c r="BK38" s="60"/>
+      <c r="BL38" s="60"/>
+      <c r="BM38" s="60"/>
+      <c r="BN38" s="60"/>
       <c r="BO38" s="46"/>
       <c r="BP38" s="2"/>
     </row>
@@ -7469,22 +7471,22 @@
       <c r="A39" s="2"/>
       <c r="B39" s="13"/>
       <c r="C39" s="39"/>
-      <c r="D39" s="51" t="s">
-        <v>163</v>
+      <c r="D39" s="53" t="s">
+        <v>162</v>
       </c>
-      <c r="E39" s="51"/>
-      <c r="F39" s="51"/>
-      <c r="G39" s="51"/>
-      <c r="H39" s="51"/>
-      <c r="I39" s="51"/>
-      <c r="J39" s="51"/>
-      <c r="K39" s="51"/>
-      <c r="L39" s="51"/>
-      <c r="M39" s="51"/>
-      <c r="N39" s="51"/>
-      <c r="O39" s="51"/>
-      <c r="P39" s="52"/>
-      <c r="Q39" s="80" t="s">
+      <c r="E39" s="53"/>
+      <c r="F39" s="53"/>
+      <c r="G39" s="53"/>
+      <c r="H39" s="53"/>
+      <c r="I39" s="53"/>
+      <c r="J39" s="53"/>
+      <c r="K39" s="53"/>
+      <c r="L39" s="53"/>
+      <c r="M39" s="53"/>
+      <c r="N39" s="53"/>
+      <c r="O39" s="53"/>
+      <c r="P39" s="54"/>
+      <c r="Q39" s="55" t="s">
         <v>38</v>
       </c>
       <c r="R39" s="45"/>
@@ -7493,7 +7495,7 @@
       <c r="U39" s="45"/>
       <c r="V39" s="45"/>
       <c r="W39" s="46"/>
-      <c r="X39" s="54" t="s">
+      <c r="X39" s="56" t="s">
         <v>39</v>
       </c>
       <c r="Y39" s="45"/>
@@ -7502,42 +7504,42 @@
       <c r="AB39" s="45"/>
       <c r="AC39" s="45"/>
       <c r="AD39" s="46"/>
-      <c r="AE39" s="55"/>
-      <c r="AF39" s="53"/>
+      <c r="AE39" s="52"/>
+      <c r="AF39" s="60"/>
       <c r="AG39" s="46"/>
-      <c r="AH39" s="56"/>
-      <c r="AI39" s="57"/>
-      <c r="AJ39" s="58"/>
-      <c r="AK39" s="54"/>
-      <c r="AL39" s="53"/>
-      <c r="AM39" s="53"/>
-      <c r="AN39" s="53"/>
-      <c r="AO39" s="53"/>
-      <c r="AP39" s="53"/>
-      <c r="AQ39" s="53"/>
-      <c r="AR39" s="53"/>
-      <c r="AS39" s="53"/>
-      <c r="AT39" s="53"/>
-      <c r="AU39" s="53"/>
-      <c r="AV39" s="53"/>
-      <c r="AW39" s="53"/>
-      <c r="AX39" s="53"/>
-      <c r="AY39" s="53"/>
-      <c r="AZ39" s="53"/>
-      <c r="BA39" s="53"/>
-      <c r="BB39" s="53"/>
-      <c r="BC39" s="53"/>
-      <c r="BD39" s="53"/>
-      <c r="BE39" s="53"/>
-      <c r="BF39" s="53"/>
-      <c r="BG39" s="53"/>
-      <c r="BH39" s="53"/>
-      <c r="BI39" s="53"/>
-      <c r="BJ39" s="53"/>
-      <c r="BK39" s="53"/>
-      <c r="BL39" s="53"/>
-      <c r="BM39" s="53"/>
-      <c r="BN39" s="53"/>
+      <c r="AH39" s="57"/>
+      <c r="AI39" s="61"/>
+      <c r="AJ39" s="59"/>
+      <c r="AK39" s="56"/>
+      <c r="AL39" s="60"/>
+      <c r="AM39" s="60"/>
+      <c r="AN39" s="60"/>
+      <c r="AO39" s="60"/>
+      <c r="AP39" s="60"/>
+      <c r="AQ39" s="60"/>
+      <c r="AR39" s="60"/>
+      <c r="AS39" s="60"/>
+      <c r="AT39" s="60"/>
+      <c r="AU39" s="60"/>
+      <c r="AV39" s="60"/>
+      <c r="AW39" s="60"/>
+      <c r="AX39" s="60"/>
+      <c r="AY39" s="60"/>
+      <c r="AZ39" s="60"/>
+      <c r="BA39" s="60"/>
+      <c r="BB39" s="60"/>
+      <c r="BC39" s="60"/>
+      <c r="BD39" s="60"/>
+      <c r="BE39" s="60"/>
+      <c r="BF39" s="60"/>
+      <c r="BG39" s="60"/>
+      <c r="BH39" s="60"/>
+      <c r="BI39" s="60"/>
+      <c r="BJ39" s="60"/>
+      <c r="BK39" s="60"/>
+      <c r="BL39" s="60"/>
+      <c r="BM39" s="60"/>
+      <c r="BN39" s="60"/>
       <c r="BO39" s="46"/>
       <c r="BP39" s="2"/>
     </row>
@@ -7545,22 +7547,22 @@
       <c r="A40" s="2"/>
       <c r="B40" s="13"/>
       <c r="C40" s="39"/>
-      <c r="D40" s="51" t="s">
-        <v>164</v>
+      <c r="D40" s="53" t="s">
+        <v>163</v>
       </c>
-      <c r="E40" s="51"/>
-      <c r="F40" s="51"/>
-      <c r="G40" s="51"/>
-      <c r="H40" s="51"/>
-      <c r="I40" s="51"/>
-      <c r="J40" s="51"/>
-      <c r="K40" s="51"/>
-      <c r="L40" s="51"/>
-      <c r="M40" s="51"/>
-      <c r="N40" s="51"/>
-      <c r="O40" s="51"/>
-      <c r="P40" s="52"/>
-      <c r="Q40" s="80" t="s">
+      <c r="E40" s="53"/>
+      <c r="F40" s="53"/>
+      <c r="G40" s="53"/>
+      <c r="H40" s="53"/>
+      <c r="I40" s="53"/>
+      <c r="J40" s="53"/>
+      <c r="K40" s="53"/>
+      <c r="L40" s="53"/>
+      <c r="M40" s="53"/>
+      <c r="N40" s="53"/>
+      <c r="O40" s="53"/>
+      <c r="P40" s="54"/>
+      <c r="Q40" s="55" t="s">
         <v>38</v>
       </c>
       <c r="R40" s="45"/>
@@ -7569,7 +7571,7 @@
       <c r="U40" s="45"/>
       <c r="V40" s="45"/>
       <c r="W40" s="46"/>
-      <c r="X40" s="54" t="s">
+      <c r="X40" s="56" t="s">
         <v>39</v>
       </c>
       <c r="Y40" s="45"/>
@@ -7578,42 +7580,42 @@
       <c r="AB40" s="45"/>
       <c r="AC40" s="45"/>
       <c r="AD40" s="46"/>
-      <c r="AE40" s="55"/>
-      <c r="AF40" s="53"/>
+      <c r="AE40" s="52"/>
+      <c r="AF40" s="60"/>
       <c r="AG40" s="46"/>
-      <c r="AH40" s="56"/>
-      <c r="AI40" s="57"/>
-      <c r="AJ40" s="58"/>
-      <c r="AK40" s="54"/>
-      <c r="AL40" s="53"/>
-      <c r="AM40" s="53"/>
-      <c r="AN40" s="53"/>
-      <c r="AO40" s="53"/>
-      <c r="AP40" s="53"/>
-      <c r="AQ40" s="53"/>
-      <c r="AR40" s="53"/>
-      <c r="AS40" s="53"/>
-      <c r="AT40" s="53"/>
-      <c r="AU40" s="53"/>
-      <c r="AV40" s="53"/>
-      <c r="AW40" s="53"/>
-      <c r="AX40" s="53"/>
-      <c r="AY40" s="53"/>
-      <c r="AZ40" s="53"/>
-      <c r="BA40" s="53"/>
-      <c r="BB40" s="53"/>
-      <c r="BC40" s="53"/>
-      <c r="BD40" s="53"/>
-      <c r="BE40" s="53"/>
-      <c r="BF40" s="53"/>
-      <c r="BG40" s="53"/>
-      <c r="BH40" s="53"/>
-      <c r="BI40" s="53"/>
-      <c r="BJ40" s="53"/>
-      <c r="BK40" s="53"/>
-      <c r="BL40" s="53"/>
-      <c r="BM40" s="53"/>
-      <c r="BN40" s="53"/>
+      <c r="AH40" s="57"/>
+      <c r="AI40" s="61"/>
+      <c r="AJ40" s="59"/>
+      <c r="AK40" s="56"/>
+      <c r="AL40" s="60"/>
+      <c r="AM40" s="60"/>
+      <c r="AN40" s="60"/>
+      <c r="AO40" s="60"/>
+      <c r="AP40" s="60"/>
+      <c r="AQ40" s="60"/>
+      <c r="AR40" s="60"/>
+      <c r="AS40" s="60"/>
+      <c r="AT40" s="60"/>
+      <c r="AU40" s="60"/>
+      <c r="AV40" s="60"/>
+      <c r="AW40" s="60"/>
+      <c r="AX40" s="60"/>
+      <c r="AY40" s="60"/>
+      <c r="AZ40" s="60"/>
+      <c r="BA40" s="60"/>
+      <c r="BB40" s="60"/>
+      <c r="BC40" s="60"/>
+      <c r="BD40" s="60"/>
+      <c r="BE40" s="60"/>
+      <c r="BF40" s="60"/>
+      <c r="BG40" s="60"/>
+      <c r="BH40" s="60"/>
+      <c r="BI40" s="60"/>
+      <c r="BJ40" s="60"/>
+      <c r="BK40" s="60"/>
+      <c r="BL40" s="60"/>
+      <c r="BM40" s="60"/>
+      <c r="BN40" s="60"/>
       <c r="BO40" s="46"/>
       <c r="BP40" s="2"/>
     </row>
@@ -7621,23 +7623,23 @@
       <c r="A41" s="2"/>
       <c r="B41" s="13"/>
       <c r="C41" s="39"/>
-      <c r="D41" s="51" t="s">
-        <v>165</v>
+      <c r="D41" s="53" t="s">
+        <v>164</v>
       </c>
-      <c r="E41" s="51"/>
-      <c r="F41" s="51"/>
-      <c r="G41" s="51"/>
-      <c r="H41" s="51"/>
-      <c r="I41" s="51"/>
-      <c r="J41" s="51"/>
-      <c r="K41" s="51"/>
-      <c r="L41" s="51"/>
-      <c r="M41" s="51"/>
-      <c r="N41" s="51"/>
-      <c r="O41" s="51"/>
-      <c r="P41" s="52"/>
-      <c r="Q41" s="80" t="s">
-        <v>180</v>
+      <c r="E41" s="53"/>
+      <c r="F41" s="53"/>
+      <c r="G41" s="53"/>
+      <c r="H41" s="53"/>
+      <c r="I41" s="53"/>
+      <c r="J41" s="53"/>
+      <c r="K41" s="53"/>
+      <c r="L41" s="53"/>
+      <c r="M41" s="53"/>
+      <c r="N41" s="53"/>
+      <c r="O41" s="53"/>
+      <c r="P41" s="54"/>
+      <c r="Q41" s="55" t="s">
+        <v>179</v>
       </c>
       <c r="R41" s="45"/>
       <c r="S41" s="45"/>
@@ -7645,7 +7647,7 @@
       <c r="U41" s="45"/>
       <c r="V41" s="45"/>
       <c r="W41" s="46"/>
-      <c r="X41" s="54" t="s">
+      <c r="X41" s="56" t="s">
         <v>39</v>
       </c>
       <c r="Y41" s="45"/>
@@ -7654,44 +7656,44 @@
       <c r="AB41" s="45"/>
       <c r="AC41" s="45"/>
       <c r="AD41" s="46"/>
-      <c r="AE41" s="55"/>
-      <c r="AF41" s="53"/>
+      <c r="AE41" s="52"/>
+      <c r="AF41" s="60"/>
       <c r="AG41" s="46"/>
-      <c r="AH41" s="56"/>
-      <c r="AI41" s="57"/>
-      <c r="AJ41" s="58"/>
-      <c r="AK41" s="59" t="s">
-        <v>166</v>
+      <c r="AH41" s="57"/>
+      <c r="AI41" s="61"/>
+      <c r="AJ41" s="59"/>
+      <c r="AK41" s="51" t="s">
+        <v>165</v>
       </c>
-      <c r="AL41" s="53"/>
-      <c r="AM41" s="53"/>
-      <c r="AN41" s="53"/>
-      <c r="AO41" s="53"/>
-      <c r="AP41" s="53"/>
-      <c r="AQ41" s="53"/>
-      <c r="AR41" s="53"/>
-      <c r="AS41" s="53"/>
-      <c r="AT41" s="53"/>
-      <c r="AU41" s="53"/>
-      <c r="AV41" s="53"/>
-      <c r="AW41" s="53"/>
-      <c r="AX41" s="53"/>
-      <c r="AY41" s="53"/>
-      <c r="AZ41" s="53"/>
-      <c r="BA41" s="53"/>
-      <c r="BB41" s="53"/>
-      <c r="BC41" s="53"/>
-      <c r="BD41" s="53"/>
-      <c r="BE41" s="53"/>
-      <c r="BF41" s="53"/>
-      <c r="BG41" s="53"/>
-      <c r="BH41" s="53"/>
-      <c r="BI41" s="53"/>
-      <c r="BJ41" s="53"/>
-      <c r="BK41" s="53"/>
-      <c r="BL41" s="53"/>
-      <c r="BM41" s="53"/>
-      <c r="BN41" s="53"/>
+      <c r="AL41" s="60"/>
+      <c r="AM41" s="60"/>
+      <c r="AN41" s="60"/>
+      <c r="AO41" s="60"/>
+      <c r="AP41" s="60"/>
+      <c r="AQ41" s="60"/>
+      <c r="AR41" s="60"/>
+      <c r="AS41" s="60"/>
+      <c r="AT41" s="60"/>
+      <c r="AU41" s="60"/>
+      <c r="AV41" s="60"/>
+      <c r="AW41" s="60"/>
+      <c r="AX41" s="60"/>
+      <c r="AY41" s="60"/>
+      <c r="AZ41" s="60"/>
+      <c r="BA41" s="60"/>
+      <c r="BB41" s="60"/>
+      <c r="BC41" s="60"/>
+      <c r="BD41" s="60"/>
+      <c r="BE41" s="60"/>
+      <c r="BF41" s="60"/>
+      <c r="BG41" s="60"/>
+      <c r="BH41" s="60"/>
+      <c r="BI41" s="60"/>
+      <c r="BJ41" s="60"/>
+      <c r="BK41" s="60"/>
+      <c r="BL41" s="60"/>
+      <c r="BM41" s="60"/>
+      <c r="BN41" s="60"/>
       <c r="BO41" s="46"/>
       <c r="BP41" s="2"/>
     </row>
@@ -7699,22 +7701,22 @@
       <c r="A42" s="2"/>
       <c r="B42" s="13"/>
       <c r="C42" s="39"/>
-      <c r="D42" s="51" t="s">
-        <v>167</v>
+      <c r="D42" s="53" t="s">
+        <v>166</v>
       </c>
-      <c r="E42" s="51"/>
-      <c r="F42" s="51"/>
-      <c r="G42" s="51"/>
-      <c r="H42" s="51"/>
-      <c r="I42" s="51"/>
-      <c r="J42" s="51"/>
-      <c r="K42" s="51"/>
-      <c r="L42" s="51"/>
-      <c r="M42" s="51"/>
-      <c r="N42" s="51"/>
-      <c r="O42" s="51"/>
-      <c r="P42" s="52"/>
-      <c r="Q42" s="80" t="s">
+      <c r="E42" s="53"/>
+      <c r="F42" s="53"/>
+      <c r="G42" s="53"/>
+      <c r="H42" s="53"/>
+      <c r="I42" s="53"/>
+      <c r="J42" s="53"/>
+      <c r="K42" s="53"/>
+      <c r="L42" s="53"/>
+      <c r="M42" s="53"/>
+      <c r="N42" s="53"/>
+      <c r="O42" s="53"/>
+      <c r="P42" s="54"/>
+      <c r="Q42" s="55" t="s">
         <v>55</v>
       </c>
       <c r="R42" s="45"/>
@@ -7723,7 +7725,7 @@
       <c r="U42" s="45"/>
       <c r="V42" s="45"/>
       <c r="W42" s="46"/>
-      <c r="X42" s="54" t="s">
+      <c r="X42" s="56" t="s">
         <v>39</v>
       </c>
       <c r="Y42" s="45"/>
@@ -7732,42 +7734,42 @@
       <c r="AB42" s="45"/>
       <c r="AC42" s="45"/>
       <c r="AD42" s="46"/>
-      <c r="AE42" s="55"/>
-      <c r="AF42" s="53"/>
+      <c r="AE42" s="52"/>
+      <c r="AF42" s="60"/>
       <c r="AG42" s="46"/>
-      <c r="AH42" s="56"/>
-      <c r="AI42" s="57"/>
-      <c r="AJ42" s="58"/>
-      <c r="AK42" s="54"/>
-      <c r="AL42" s="53"/>
-      <c r="AM42" s="53"/>
-      <c r="AN42" s="53"/>
-      <c r="AO42" s="53"/>
-      <c r="AP42" s="53"/>
-      <c r="AQ42" s="53"/>
-      <c r="AR42" s="53"/>
-      <c r="AS42" s="53"/>
-      <c r="AT42" s="53"/>
-      <c r="AU42" s="53"/>
-      <c r="AV42" s="53"/>
-      <c r="AW42" s="53"/>
-      <c r="AX42" s="53"/>
-      <c r="AY42" s="53"/>
-      <c r="AZ42" s="53"/>
-      <c r="BA42" s="53"/>
-      <c r="BB42" s="53"/>
-      <c r="BC42" s="53"/>
-      <c r="BD42" s="53"/>
-      <c r="BE42" s="53"/>
-      <c r="BF42" s="53"/>
-      <c r="BG42" s="53"/>
-      <c r="BH42" s="53"/>
-      <c r="BI42" s="53"/>
-      <c r="BJ42" s="53"/>
-      <c r="BK42" s="53"/>
-      <c r="BL42" s="53"/>
-      <c r="BM42" s="53"/>
-      <c r="BN42" s="53"/>
+      <c r="AH42" s="57"/>
+      <c r="AI42" s="61"/>
+      <c r="AJ42" s="59"/>
+      <c r="AK42" s="56"/>
+      <c r="AL42" s="60"/>
+      <c r="AM42" s="60"/>
+      <c r="AN42" s="60"/>
+      <c r="AO42" s="60"/>
+      <c r="AP42" s="60"/>
+      <c r="AQ42" s="60"/>
+      <c r="AR42" s="60"/>
+      <c r="AS42" s="60"/>
+      <c r="AT42" s="60"/>
+      <c r="AU42" s="60"/>
+      <c r="AV42" s="60"/>
+      <c r="AW42" s="60"/>
+      <c r="AX42" s="60"/>
+      <c r="AY42" s="60"/>
+      <c r="AZ42" s="60"/>
+      <c r="BA42" s="60"/>
+      <c r="BB42" s="60"/>
+      <c r="BC42" s="60"/>
+      <c r="BD42" s="60"/>
+      <c r="BE42" s="60"/>
+      <c r="BF42" s="60"/>
+      <c r="BG42" s="60"/>
+      <c r="BH42" s="60"/>
+      <c r="BI42" s="60"/>
+      <c r="BJ42" s="60"/>
+      <c r="BK42" s="60"/>
+      <c r="BL42" s="60"/>
+      <c r="BM42" s="60"/>
+      <c r="BN42" s="60"/>
       <c r="BO42" s="46"/>
       <c r="BP42" s="2"/>
     </row>
@@ -7775,23 +7777,23 @@
       <c r="A43" s="2"/>
       <c r="B43" s="13"/>
       <c r="C43" s="39"/>
-      <c r="D43" s="51" t="s">
-        <v>168</v>
+      <c r="D43" s="53" t="s">
+        <v>167</v>
       </c>
-      <c r="E43" s="51"/>
-      <c r="F43" s="51"/>
-      <c r="G43" s="51"/>
-      <c r="H43" s="51"/>
-      <c r="I43" s="51"/>
-      <c r="J43" s="51"/>
-      <c r="K43" s="51"/>
-      <c r="L43" s="51"/>
-      <c r="M43" s="51"/>
-      <c r="N43" s="51"/>
-      <c r="O43" s="51"/>
-      <c r="P43" s="52"/>
-      <c r="Q43" s="80" t="s">
-        <v>180</v>
+      <c r="E43" s="53"/>
+      <c r="F43" s="53"/>
+      <c r="G43" s="53"/>
+      <c r="H43" s="53"/>
+      <c r="I43" s="53"/>
+      <c r="J43" s="53"/>
+      <c r="K43" s="53"/>
+      <c r="L43" s="53"/>
+      <c r="M43" s="53"/>
+      <c r="N43" s="53"/>
+      <c r="O43" s="53"/>
+      <c r="P43" s="54"/>
+      <c r="Q43" s="55" t="s">
+        <v>179</v>
       </c>
       <c r="R43" s="45"/>
       <c r="S43" s="45"/>
@@ -7799,7 +7801,7 @@
       <c r="U43" s="45"/>
       <c r="V43" s="45"/>
       <c r="W43" s="46"/>
-      <c r="X43" s="54" t="s">
+      <c r="X43" s="56" t="s">
         <v>39</v>
       </c>
       <c r="Y43" s="45"/>
@@ -7808,44 +7810,44 @@
       <c r="AB43" s="45"/>
       <c r="AC43" s="45"/>
       <c r="AD43" s="46"/>
-      <c r="AE43" s="55"/>
-      <c r="AF43" s="53"/>
+      <c r="AE43" s="52"/>
+      <c r="AF43" s="60"/>
       <c r="AG43" s="46"/>
-      <c r="AH43" s="56"/>
-      <c r="AI43" s="57"/>
-      <c r="AJ43" s="58"/>
-      <c r="AK43" s="59" t="s">
-        <v>169</v>
+      <c r="AH43" s="57"/>
+      <c r="AI43" s="61"/>
+      <c r="AJ43" s="59"/>
+      <c r="AK43" s="51" t="s">
+        <v>168</v>
       </c>
-      <c r="AL43" s="53"/>
-      <c r="AM43" s="53"/>
-      <c r="AN43" s="53"/>
-      <c r="AO43" s="53"/>
-      <c r="AP43" s="53"/>
-      <c r="AQ43" s="53"/>
-      <c r="AR43" s="53"/>
-      <c r="AS43" s="53"/>
-      <c r="AT43" s="53"/>
-      <c r="AU43" s="53"/>
-      <c r="AV43" s="53"/>
-      <c r="AW43" s="53"/>
-      <c r="AX43" s="53"/>
-      <c r="AY43" s="53"/>
-      <c r="AZ43" s="53"/>
-      <c r="BA43" s="53"/>
-      <c r="BB43" s="53"/>
-      <c r="BC43" s="53"/>
-      <c r="BD43" s="53"/>
-      <c r="BE43" s="53"/>
-      <c r="BF43" s="53"/>
-      <c r="BG43" s="53"/>
-      <c r="BH43" s="53"/>
-      <c r="BI43" s="53"/>
-      <c r="BJ43" s="53"/>
-      <c r="BK43" s="53"/>
-      <c r="BL43" s="53"/>
-      <c r="BM43" s="53"/>
-      <c r="BN43" s="53"/>
+      <c r="AL43" s="60"/>
+      <c r="AM43" s="60"/>
+      <c r="AN43" s="60"/>
+      <c r="AO43" s="60"/>
+      <c r="AP43" s="60"/>
+      <c r="AQ43" s="60"/>
+      <c r="AR43" s="60"/>
+      <c r="AS43" s="60"/>
+      <c r="AT43" s="60"/>
+      <c r="AU43" s="60"/>
+      <c r="AV43" s="60"/>
+      <c r="AW43" s="60"/>
+      <c r="AX43" s="60"/>
+      <c r="AY43" s="60"/>
+      <c r="AZ43" s="60"/>
+      <c r="BA43" s="60"/>
+      <c r="BB43" s="60"/>
+      <c r="BC43" s="60"/>
+      <c r="BD43" s="60"/>
+      <c r="BE43" s="60"/>
+      <c r="BF43" s="60"/>
+      <c r="BG43" s="60"/>
+      <c r="BH43" s="60"/>
+      <c r="BI43" s="60"/>
+      <c r="BJ43" s="60"/>
+      <c r="BK43" s="60"/>
+      <c r="BL43" s="60"/>
+      <c r="BM43" s="60"/>
+      <c r="BN43" s="60"/>
       <c r="BO43" s="46"/>
       <c r="BP43" s="2"/>
     </row>
@@ -7853,22 +7855,22 @@
       <c r="A44" s="2"/>
       <c r="B44" s="13"/>
       <c r="C44" s="39"/>
-      <c r="D44" s="51" t="s">
-        <v>170</v>
+      <c r="D44" s="53" t="s">
+        <v>169</v>
       </c>
-      <c r="E44" s="51"/>
-      <c r="F44" s="51"/>
-      <c r="G44" s="51"/>
-      <c r="H44" s="51"/>
-      <c r="I44" s="51"/>
-      <c r="J44" s="51"/>
-      <c r="K44" s="51"/>
-      <c r="L44" s="51"/>
-      <c r="M44" s="51"/>
-      <c r="N44" s="51"/>
-      <c r="O44" s="51"/>
-      <c r="P44" s="52"/>
-      <c r="Q44" s="80" t="s">
+      <c r="E44" s="53"/>
+      <c r="F44" s="53"/>
+      <c r="G44" s="53"/>
+      <c r="H44" s="53"/>
+      <c r="I44" s="53"/>
+      <c r="J44" s="53"/>
+      <c r="K44" s="53"/>
+      <c r="L44" s="53"/>
+      <c r="M44" s="53"/>
+      <c r="N44" s="53"/>
+      <c r="O44" s="53"/>
+      <c r="P44" s="54"/>
+      <c r="Q44" s="55" t="s">
         <v>55</v>
       </c>
       <c r="R44" s="45"/>
@@ -7877,7 +7879,7 @@
       <c r="U44" s="45"/>
       <c r="V44" s="45"/>
       <c r="W44" s="46"/>
-      <c r="X44" s="54" t="s">
+      <c r="X44" s="56" t="s">
         <v>39</v>
       </c>
       <c r="Y44" s="45"/>
@@ -7886,42 +7888,42 @@
       <c r="AB44" s="45"/>
       <c r="AC44" s="45"/>
       <c r="AD44" s="46"/>
-      <c r="AE44" s="55"/>
-      <c r="AF44" s="53"/>
+      <c r="AE44" s="52"/>
+      <c r="AF44" s="60"/>
       <c r="AG44" s="46"/>
-      <c r="AH44" s="56"/>
-      <c r="AI44" s="57"/>
-      <c r="AJ44" s="58"/>
-      <c r="AK44" s="54"/>
-      <c r="AL44" s="53"/>
-      <c r="AM44" s="53"/>
-      <c r="AN44" s="53"/>
-      <c r="AO44" s="53"/>
-      <c r="AP44" s="53"/>
-      <c r="AQ44" s="53"/>
-      <c r="AR44" s="53"/>
-      <c r="AS44" s="53"/>
-      <c r="AT44" s="53"/>
-      <c r="AU44" s="53"/>
-      <c r="AV44" s="53"/>
-      <c r="AW44" s="53"/>
-      <c r="AX44" s="53"/>
-      <c r="AY44" s="53"/>
-      <c r="AZ44" s="53"/>
-      <c r="BA44" s="53"/>
-      <c r="BB44" s="53"/>
-      <c r="BC44" s="53"/>
-      <c r="BD44" s="53"/>
-      <c r="BE44" s="53"/>
-      <c r="BF44" s="53"/>
-      <c r="BG44" s="53"/>
-      <c r="BH44" s="53"/>
-      <c r="BI44" s="53"/>
-      <c r="BJ44" s="53"/>
-      <c r="BK44" s="53"/>
-      <c r="BL44" s="53"/>
-      <c r="BM44" s="53"/>
-      <c r="BN44" s="53"/>
+      <c r="AH44" s="57"/>
+      <c r="AI44" s="61"/>
+      <c r="AJ44" s="59"/>
+      <c r="AK44" s="56"/>
+      <c r="AL44" s="60"/>
+      <c r="AM44" s="60"/>
+      <c r="AN44" s="60"/>
+      <c r="AO44" s="60"/>
+      <c r="AP44" s="60"/>
+      <c r="AQ44" s="60"/>
+      <c r="AR44" s="60"/>
+      <c r="AS44" s="60"/>
+      <c r="AT44" s="60"/>
+      <c r="AU44" s="60"/>
+      <c r="AV44" s="60"/>
+      <c r="AW44" s="60"/>
+      <c r="AX44" s="60"/>
+      <c r="AY44" s="60"/>
+      <c r="AZ44" s="60"/>
+      <c r="BA44" s="60"/>
+      <c r="BB44" s="60"/>
+      <c r="BC44" s="60"/>
+      <c r="BD44" s="60"/>
+      <c r="BE44" s="60"/>
+      <c r="BF44" s="60"/>
+      <c r="BG44" s="60"/>
+      <c r="BH44" s="60"/>
+      <c r="BI44" s="60"/>
+      <c r="BJ44" s="60"/>
+      <c r="BK44" s="60"/>
+      <c r="BL44" s="60"/>
+      <c r="BM44" s="60"/>
+      <c r="BN44" s="60"/>
       <c r="BO44" s="46"/>
       <c r="BP44" s="2"/>
     </row>
@@ -7929,23 +7931,23 @@
       <c r="A45" s="2"/>
       <c r="B45" s="13"/>
       <c r="C45" s="39"/>
-      <c r="D45" s="51" t="s">
-        <v>171</v>
+      <c r="D45" s="53" t="s">
+        <v>170</v>
       </c>
-      <c r="E45" s="51"/>
-      <c r="F45" s="51"/>
-      <c r="G45" s="51"/>
-      <c r="H45" s="51"/>
-      <c r="I45" s="51"/>
-      <c r="J45" s="51"/>
-      <c r="K45" s="51"/>
-      <c r="L45" s="51"/>
-      <c r="M45" s="51"/>
-      <c r="N45" s="51"/>
-      <c r="O45" s="51"/>
-      <c r="P45" s="52"/>
-      <c r="Q45" s="80" t="s">
-        <v>180</v>
+      <c r="E45" s="53"/>
+      <c r="F45" s="53"/>
+      <c r="G45" s="53"/>
+      <c r="H45" s="53"/>
+      <c r="I45" s="53"/>
+      <c r="J45" s="53"/>
+      <c r="K45" s="53"/>
+      <c r="L45" s="53"/>
+      <c r="M45" s="53"/>
+      <c r="N45" s="53"/>
+      <c r="O45" s="53"/>
+      <c r="P45" s="54"/>
+      <c r="Q45" s="55" t="s">
+        <v>179</v>
       </c>
       <c r="R45" s="45"/>
       <c r="S45" s="45"/>
@@ -7953,7 +7955,7 @@
       <c r="U45" s="45"/>
       <c r="V45" s="45"/>
       <c r="W45" s="46"/>
-      <c r="X45" s="54" t="s">
+      <c r="X45" s="56" t="s">
         <v>39</v>
       </c>
       <c r="Y45" s="45"/>
@@ -7962,44 +7964,44 @@
       <c r="AB45" s="45"/>
       <c r="AC45" s="45"/>
       <c r="AD45" s="46"/>
-      <c r="AE45" s="55"/>
-      <c r="AF45" s="53"/>
+      <c r="AE45" s="52"/>
+      <c r="AF45" s="60"/>
       <c r="AG45" s="46"/>
-      <c r="AH45" s="56"/>
-      <c r="AI45" s="57"/>
-      <c r="AJ45" s="58"/>
-      <c r="AK45" s="59" t="s">
-        <v>172</v>
+      <c r="AH45" s="57"/>
+      <c r="AI45" s="61"/>
+      <c r="AJ45" s="59"/>
+      <c r="AK45" s="51" t="s">
+        <v>171</v>
       </c>
-      <c r="AL45" s="53"/>
-      <c r="AM45" s="53"/>
-      <c r="AN45" s="53"/>
-      <c r="AO45" s="53"/>
-      <c r="AP45" s="53"/>
-      <c r="AQ45" s="53"/>
-      <c r="AR45" s="53"/>
-      <c r="AS45" s="53"/>
-      <c r="AT45" s="53"/>
-      <c r="AU45" s="53"/>
-      <c r="AV45" s="53"/>
-      <c r="AW45" s="53"/>
-      <c r="AX45" s="53"/>
-      <c r="AY45" s="53"/>
-      <c r="AZ45" s="53"/>
-      <c r="BA45" s="53"/>
-      <c r="BB45" s="53"/>
-      <c r="BC45" s="53"/>
-      <c r="BD45" s="53"/>
-      <c r="BE45" s="53"/>
-      <c r="BF45" s="53"/>
-      <c r="BG45" s="53"/>
-      <c r="BH45" s="53"/>
-      <c r="BI45" s="53"/>
-      <c r="BJ45" s="53"/>
-      <c r="BK45" s="53"/>
-      <c r="BL45" s="53"/>
-      <c r="BM45" s="53"/>
-      <c r="BN45" s="53"/>
+      <c r="AL45" s="60"/>
+      <c r="AM45" s="60"/>
+      <c r="AN45" s="60"/>
+      <c r="AO45" s="60"/>
+      <c r="AP45" s="60"/>
+      <c r="AQ45" s="60"/>
+      <c r="AR45" s="60"/>
+      <c r="AS45" s="60"/>
+      <c r="AT45" s="60"/>
+      <c r="AU45" s="60"/>
+      <c r="AV45" s="60"/>
+      <c r="AW45" s="60"/>
+      <c r="AX45" s="60"/>
+      <c r="AY45" s="60"/>
+      <c r="AZ45" s="60"/>
+      <c r="BA45" s="60"/>
+      <c r="BB45" s="60"/>
+      <c r="BC45" s="60"/>
+      <c r="BD45" s="60"/>
+      <c r="BE45" s="60"/>
+      <c r="BF45" s="60"/>
+      <c r="BG45" s="60"/>
+      <c r="BH45" s="60"/>
+      <c r="BI45" s="60"/>
+      <c r="BJ45" s="60"/>
+      <c r="BK45" s="60"/>
+      <c r="BL45" s="60"/>
+      <c r="BM45" s="60"/>
+      <c r="BN45" s="60"/>
       <c r="BO45" s="46"/>
       <c r="BP45" s="2"/>
     </row>
@@ -8007,22 +8009,22 @@
       <c r="A46" s="2"/>
       <c r="B46" s="13"/>
       <c r="C46" s="39"/>
-      <c r="D46" s="51" t="s">
-        <v>173</v>
+      <c r="D46" s="53" t="s">
+        <v>172</v>
       </c>
-      <c r="E46" s="51"/>
-      <c r="F46" s="51"/>
-      <c r="G46" s="51"/>
-      <c r="H46" s="51"/>
-      <c r="I46" s="51"/>
-      <c r="J46" s="51"/>
-      <c r="K46" s="51"/>
-      <c r="L46" s="51"/>
-      <c r="M46" s="51"/>
-      <c r="N46" s="51"/>
-      <c r="O46" s="51"/>
-      <c r="P46" s="52"/>
-      <c r="Q46" s="80" t="s">
+      <c r="E46" s="53"/>
+      <c r="F46" s="53"/>
+      <c r="G46" s="53"/>
+      <c r="H46" s="53"/>
+      <c r="I46" s="53"/>
+      <c r="J46" s="53"/>
+      <c r="K46" s="53"/>
+      <c r="L46" s="53"/>
+      <c r="M46" s="53"/>
+      <c r="N46" s="53"/>
+      <c r="O46" s="53"/>
+      <c r="P46" s="54"/>
+      <c r="Q46" s="55" t="s">
         <v>55</v>
       </c>
       <c r="R46" s="45"/>
@@ -8031,7 +8033,7 @@
       <c r="U46" s="45"/>
       <c r="V46" s="45"/>
       <c r="W46" s="46"/>
-      <c r="X46" s="54" t="s">
+      <c r="X46" s="56" t="s">
         <v>39</v>
       </c>
       <c r="Y46" s="45"/>
@@ -8040,42 +8042,42 @@
       <c r="AB46" s="45"/>
       <c r="AC46" s="45"/>
       <c r="AD46" s="46"/>
-      <c r="AE46" s="55"/>
-      <c r="AF46" s="53"/>
+      <c r="AE46" s="52"/>
+      <c r="AF46" s="60"/>
       <c r="AG46" s="46"/>
-      <c r="AH46" s="56"/>
-      <c r="AI46" s="57"/>
-      <c r="AJ46" s="58"/>
-      <c r="AK46" s="54"/>
-      <c r="AL46" s="53"/>
-      <c r="AM46" s="53"/>
-      <c r="AN46" s="53"/>
-      <c r="AO46" s="53"/>
-      <c r="AP46" s="53"/>
-      <c r="AQ46" s="53"/>
-      <c r="AR46" s="53"/>
-      <c r="AS46" s="53"/>
-      <c r="AT46" s="53"/>
-      <c r="AU46" s="53"/>
-      <c r="AV46" s="53"/>
-      <c r="AW46" s="53"/>
-      <c r="AX46" s="53"/>
-      <c r="AY46" s="53"/>
-      <c r="AZ46" s="53"/>
-      <c r="BA46" s="53"/>
-      <c r="BB46" s="53"/>
-      <c r="BC46" s="53"/>
-      <c r="BD46" s="53"/>
-      <c r="BE46" s="53"/>
-      <c r="BF46" s="53"/>
-      <c r="BG46" s="53"/>
-      <c r="BH46" s="53"/>
-      <c r="BI46" s="53"/>
-      <c r="BJ46" s="53"/>
-      <c r="BK46" s="53"/>
-      <c r="BL46" s="53"/>
-      <c r="BM46" s="53"/>
-      <c r="BN46" s="53"/>
+      <c r="AH46" s="57"/>
+      <c r="AI46" s="61"/>
+      <c r="AJ46" s="59"/>
+      <c r="AK46" s="56"/>
+      <c r="AL46" s="60"/>
+      <c r="AM46" s="60"/>
+      <c r="AN46" s="60"/>
+      <c r="AO46" s="60"/>
+      <c r="AP46" s="60"/>
+      <c r="AQ46" s="60"/>
+      <c r="AR46" s="60"/>
+      <c r="AS46" s="60"/>
+      <c r="AT46" s="60"/>
+      <c r="AU46" s="60"/>
+      <c r="AV46" s="60"/>
+      <c r="AW46" s="60"/>
+      <c r="AX46" s="60"/>
+      <c r="AY46" s="60"/>
+      <c r="AZ46" s="60"/>
+      <c r="BA46" s="60"/>
+      <c r="BB46" s="60"/>
+      <c r="BC46" s="60"/>
+      <c r="BD46" s="60"/>
+      <c r="BE46" s="60"/>
+      <c r="BF46" s="60"/>
+      <c r="BG46" s="60"/>
+      <c r="BH46" s="60"/>
+      <c r="BI46" s="60"/>
+      <c r="BJ46" s="60"/>
+      <c r="BK46" s="60"/>
+      <c r="BL46" s="60"/>
+      <c r="BM46" s="60"/>
+      <c r="BN46" s="60"/>
       <c r="BO46" s="46"/>
       <c r="BP46" s="2"/>
     </row>
@@ -8083,23 +8085,23 @@
       <c r="A47" s="2"/>
       <c r="B47" s="13"/>
       <c r="C47" s="39"/>
-      <c r="D47" s="51" t="s">
-        <v>174</v>
+      <c r="D47" s="53" t="s">
+        <v>173</v>
       </c>
-      <c r="E47" s="51"/>
-      <c r="F47" s="51"/>
-      <c r="G47" s="51"/>
-      <c r="H47" s="51"/>
-      <c r="I47" s="51"/>
-      <c r="J47" s="51"/>
-      <c r="K47" s="51"/>
-      <c r="L47" s="51"/>
-      <c r="M47" s="51"/>
-      <c r="N47" s="51"/>
-      <c r="O47" s="51"/>
-      <c r="P47" s="52"/>
-      <c r="Q47" s="80" t="s">
-        <v>180</v>
+      <c r="E47" s="53"/>
+      <c r="F47" s="53"/>
+      <c r="G47" s="53"/>
+      <c r="H47" s="53"/>
+      <c r="I47" s="53"/>
+      <c r="J47" s="53"/>
+      <c r="K47" s="53"/>
+      <c r="L47" s="53"/>
+      <c r="M47" s="53"/>
+      <c r="N47" s="53"/>
+      <c r="O47" s="53"/>
+      <c r="P47" s="54"/>
+      <c r="Q47" s="55" t="s">
+        <v>179</v>
       </c>
       <c r="R47" s="45"/>
       <c r="S47" s="45"/>
@@ -8107,7 +8109,7 @@
       <c r="U47" s="45"/>
       <c r="V47" s="45"/>
       <c r="W47" s="46"/>
-      <c r="X47" s="54" t="s">
+      <c r="X47" s="56" t="s">
         <v>39</v>
       </c>
       <c r="Y47" s="45"/>
@@ -8116,44 +8118,44 @@
       <c r="AB47" s="45"/>
       <c r="AC47" s="45"/>
       <c r="AD47" s="46"/>
-      <c r="AE47" s="55"/>
-      <c r="AF47" s="53"/>
+      <c r="AE47" s="52"/>
+      <c r="AF47" s="60"/>
       <c r="AG47" s="46"/>
-      <c r="AH47" s="56"/>
-      <c r="AI47" s="57"/>
-      <c r="AJ47" s="58"/>
-      <c r="AK47" s="59" t="s">
-        <v>175</v>
+      <c r="AH47" s="57"/>
+      <c r="AI47" s="61"/>
+      <c r="AJ47" s="59"/>
+      <c r="AK47" s="51" t="s">
+        <v>174</v>
       </c>
-      <c r="AL47" s="53"/>
-      <c r="AM47" s="53"/>
-      <c r="AN47" s="53"/>
-      <c r="AO47" s="53"/>
-      <c r="AP47" s="53"/>
-      <c r="AQ47" s="53"/>
-      <c r="AR47" s="53"/>
-      <c r="AS47" s="53"/>
-      <c r="AT47" s="53"/>
-      <c r="AU47" s="53"/>
-      <c r="AV47" s="53"/>
-      <c r="AW47" s="53"/>
-      <c r="AX47" s="53"/>
-      <c r="AY47" s="53"/>
-      <c r="AZ47" s="53"/>
-      <c r="BA47" s="53"/>
-      <c r="BB47" s="53"/>
-      <c r="BC47" s="53"/>
-      <c r="BD47" s="53"/>
-      <c r="BE47" s="53"/>
-      <c r="BF47" s="53"/>
-      <c r="BG47" s="53"/>
-      <c r="BH47" s="53"/>
-      <c r="BI47" s="53"/>
-      <c r="BJ47" s="53"/>
-      <c r="BK47" s="53"/>
-      <c r="BL47" s="53"/>
-      <c r="BM47" s="53"/>
-      <c r="BN47" s="53"/>
+      <c r="AL47" s="60"/>
+      <c r="AM47" s="60"/>
+      <c r="AN47" s="60"/>
+      <c r="AO47" s="60"/>
+      <c r="AP47" s="60"/>
+      <c r="AQ47" s="60"/>
+      <c r="AR47" s="60"/>
+      <c r="AS47" s="60"/>
+      <c r="AT47" s="60"/>
+      <c r="AU47" s="60"/>
+      <c r="AV47" s="60"/>
+      <c r="AW47" s="60"/>
+      <c r="AX47" s="60"/>
+      <c r="AY47" s="60"/>
+      <c r="AZ47" s="60"/>
+      <c r="BA47" s="60"/>
+      <c r="BB47" s="60"/>
+      <c r="BC47" s="60"/>
+      <c r="BD47" s="60"/>
+      <c r="BE47" s="60"/>
+      <c r="BF47" s="60"/>
+      <c r="BG47" s="60"/>
+      <c r="BH47" s="60"/>
+      <c r="BI47" s="60"/>
+      <c r="BJ47" s="60"/>
+      <c r="BK47" s="60"/>
+      <c r="BL47" s="60"/>
+      <c r="BM47" s="60"/>
+      <c r="BN47" s="60"/>
       <c r="BO47" s="46"/>
       <c r="BP47" s="2"/>
     </row>
@@ -8161,22 +8163,22 @@
       <c r="A48" s="2"/>
       <c r="B48" s="40"/>
       <c r="C48" s="41"/>
-      <c r="D48" s="51" t="s">
-        <v>176</v>
+      <c r="D48" s="53" t="s">
+        <v>175</v>
       </c>
-      <c r="E48" s="51"/>
-      <c r="F48" s="51"/>
-      <c r="G48" s="51"/>
-      <c r="H48" s="51"/>
-      <c r="I48" s="51"/>
-      <c r="J48" s="51"/>
-      <c r="K48" s="51"/>
-      <c r="L48" s="51"/>
-      <c r="M48" s="51"/>
-      <c r="N48" s="51"/>
-      <c r="O48" s="51"/>
-      <c r="P48" s="52"/>
-      <c r="Q48" s="80" t="s">
+      <c r="E48" s="53"/>
+      <c r="F48" s="53"/>
+      <c r="G48" s="53"/>
+      <c r="H48" s="53"/>
+      <c r="I48" s="53"/>
+      <c r="J48" s="53"/>
+      <c r="K48" s="53"/>
+      <c r="L48" s="53"/>
+      <c r="M48" s="53"/>
+      <c r="N48" s="53"/>
+      <c r="O48" s="53"/>
+      <c r="P48" s="54"/>
+      <c r="Q48" s="55" t="s">
         <v>55</v>
       </c>
       <c r="R48" s="45"/>
@@ -8185,7 +8187,7 @@
       <c r="U48" s="45"/>
       <c r="V48" s="45"/>
       <c r="W48" s="46"/>
-      <c r="X48" s="54" t="s">
+      <c r="X48" s="56" t="s">
         <v>39</v>
       </c>
       <c r="Y48" s="45"/>
@@ -8194,42 +8196,42 @@
       <c r="AB48" s="45"/>
       <c r="AC48" s="45"/>
       <c r="AD48" s="46"/>
-      <c r="AE48" s="55"/>
-      <c r="AF48" s="53"/>
+      <c r="AE48" s="52"/>
+      <c r="AF48" s="60"/>
       <c r="AG48" s="46"/>
-      <c r="AH48" s="56"/>
-      <c r="AI48" s="57"/>
-      <c r="AJ48" s="58"/>
-      <c r="AK48" s="54"/>
-      <c r="AL48" s="53"/>
-      <c r="AM48" s="53"/>
-      <c r="AN48" s="53"/>
-      <c r="AO48" s="53"/>
-      <c r="AP48" s="53"/>
-      <c r="AQ48" s="53"/>
-      <c r="AR48" s="53"/>
-      <c r="AS48" s="53"/>
-      <c r="AT48" s="53"/>
-      <c r="AU48" s="53"/>
-      <c r="AV48" s="53"/>
-      <c r="AW48" s="53"/>
-      <c r="AX48" s="53"/>
-      <c r="AY48" s="53"/>
-      <c r="AZ48" s="53"/>
-      <c r="BA48" s="53"/>
-      <c r="BB48" s="53"/>
-      <c r="BC48" s="53"/>
-      <c r="BD48" s="53"/>
-      <c r="BE48" s="53"/>
-      <c r="BF48" s="53"/>
-      <c r="BG48" s="53"/>
-      <c r="BH48" s="53"/>
-      <c r="BI48" s="53"/>
-      <c r="BJ48" s="53"/>
-      <c r="BK48" s="53"/>
-      <c r="BL48" s="53"/>
-      <c r="BM48" s="53"/>
-      <c r="BN48" s="53"/>
+      <c r="AH48" s="57"/>
+      <c r="AI48" s="61"/>
+      <c r="AJ48" s="59"/>
+      <c r="AK48" s="56"/>
+      <c r="AL48" s="60"/>
+      <c r="AM48" s="60"/>
+      <c r="AN48" s="60"/>
+      <c r="AO48" s="60"/>
+      <c r="AP48" s="60"/>
+      <c r="AQ48" s="60"/>
+      <c r="AR48" s="60"/>
+      <c r="AS48" s="60"/>
+      <c r="AT48" s="60"/>
+      <c r="AU48" s="60"/>
+      <c r="AV48" s="60"/>
+      <c r="AW48" s="60"/>
+      <c r="AX48" s="60"/>
+      <c r="AY48" s="60"/>
+      <c r="AZ48" s="60"/>
+      <c r="BA48" s="60"/>
+      <c r="BB48" s="60"/>
+      <c r="BC48" s="60"/>
+      <c r="BD48" s="60"/>
+      <c r="BE48" s="60"/>
+      <c r="BF48" s="60"/>
+      <c r="BG48" s="60"/>
+      <c r="BH48" s="60"/>
+      <c r="BI48" s="60"/>
+      <c r="BJ48" s="60"/>
+      <c r="BK48" s="60"/>
+      <c r="BL48" s="60"/>
+      <c r="BM48" s="60"/>
+      <c r="BN48" s="60"/>
       <c r="BO48" s="46"/>
       <c r="BP48" s="2"/>
     </row>
@@ -8448,51 +8450,51 @@
     </row>
     <row r="52" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A52" s="5"/>
-      <c r="B52" s="63" t="s">
+      <c r="B52" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="C52" s="65" t="s">
+      <c r="C52" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="D52" s="66"/>
-      <c r="E52" s="66"/>
-      <c r="F52" s="66"/>
-      <c r="G52" s="66"/>
-      <c r="H52" s="66"/>
-      <c r="I52" s="66"/>
-      <c r="J52" s="66"/>
+      <c r="D52" s="63"/>
+      <c r="E52" s="63"/>
+      <c r="F52" s="63"/>
+      <c r="G52" s="63"/>
+      <c r="H52" s="63"/>
+      <c r="I52" s="63"/>
+      <c r="J52" s="63"/>
       <c r="K52" s="67"/>
-      <c r="L52" s="65" t="s">
+      <c r="L52" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="M52" s="66"/>
-      <c r="N52" s="66"/>
-      <c r="O52" s="66"/>
-      <c r="P52" s="66"/>
-      <c r="Q52" s="66"/>
-      <c r="R52" s="66"/>
-      <c r="S52" s="66"/>
-      <c r="T52" s="66"/>
-      <c r="U52" s="66"/>
-      <c r="V52" s="66"/>
-      <c r="W52" s="66"/>
-      <c r="X52" s="66"/>
-      <c r="Y52" s="66"/>
-      <c r="Z52" s="66"/>
-      <c r="AA52" s="66"/>
+      <c r="M52" s="63"/>
+      <c r="N52" s="63"/>
+      <c r="O52" s="63"/>
+      <c r="P52" s="63"/>
+      <c r="Q52" s="63"/>
+      <c r="R52" s="63"/>
+      <c r="S52" s="63"/>
+      <c r="T52" s="63"/>
+      <c r="U52" s="63"/>
+      <c r="V52" s="63"/>
+      <c r="W52" s="63"/>
+      <c r="X52" s="63"/>
+      <c r="Y52" s="63"/>
+      <c r="Z52" s="63"/>
+      <c r="AA52" s="63"/>
       <c r="AB52" s="67"/>
-      <c r="AC52" s="65" t="s">
+      <c r="AC52" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="AD52" s="66"/>
-      <c r="AE52" s="66"/>
-      <c r="AF52" s="66"/>
-      <c r="AG52" s="66"/>
-      <c r="AH52" s="66"/>
-      <c r="AI52" s="66"/>
-      <c r="AJ52" s="66"/>
+      <c r="AD52" s="63"/>
+      <c r="AE52" s="63"/>
+      <c r="AF52" s="63"/>
+      <c r="AG52" s="63"/>
+      <c r="AH52" s="63"/>
+      <c r="AI52" s="63"/>
+      <c r="AJ52" s="63"/>
       <c r="AK52" s="67"/>
-      <c r="AL52" s="79" t="s">
+      <c r="AL52" s="64" t="s">
         <v>12</v>
       </c>
       <c r="AM52" s="45"/>
@@ -8528,7 +8530,7 @@
     </row>
     <row r="53" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A53" s="5"/>
-      <c r="B53" s="64"/>
+      <c r="B53" s="70"/>
       <c r="C53" s="68"/>
       <c r="D53" s="69"/>
       <c r="E53" s="69"/>
@@ -8537,7 +8539,7 @@
       <c r="H53" s="69"/>
       <c r="I53" s="69"/>
       <c r="J53" s="69"/>
-      <c r="K53" s="64"/>
+      <c r="K53" s="70"/>
       <c r="L53" s="68"/>
       <c r="M53" s="69"/>
       <c r="N53" s="69"/>
@@ -8554,7 +8556,7 @@
       <c r="Y53" s="69"/>
       <c r="Z53" s="69"/>
       <c r="AA53" s="69"/>
-      <c r="AB53" s="64"/>
+      <c r="AB53" s="70"/>
       <c r="AC53" s="68"/>
       <c r="AD53" s="69"/>
       <c r="AE53" s="69"/>
@@ -8563,8 +8565,8 @@
       <c r="AH53" s="69"/>
       <c r="AI53" s="69"/>
       <c r="AJ53" s="69"/>
-      <c r="AK53" s="64"/>
-      <c r="AL53" s="77" t="s">
+      <c r="AK53" s="70"/>
+      <c r="AL53" s="65" t="s">
         <v>13</v>
       </c>
       <c r="AM53" s="45"/>
@@ -8575,14 +8577,14 @@
       <c r="AR53" s="45"/>
       <c r="AS53" s="45"/>
       <c r="AT53" s="46"/>
-      <c r="AU53" s="77" t="s">
+      <c r="AU53" s="65" t="s">
         <v>14</v>
       </c>
       <c r="AV53" s="45"/>
       <c r="AW53" s="45"/>
       <c r="AX53" s="45"/>
       <c r="AY53" s="46"/>
-      <c r="AZ53" s="77" t="s">
+      <c r="AZ53" s="65" t="s">
         <v>15</v>
       </c>
       <c r="BA53" s="45"/>
@@ -8608,8 +8610,8 @@
         <f ca="1">MAX(B$52:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>1</v>
       </c>
-      <c r="C54" s="55" t="s">
-        <v>106</v>
+      <c r="C54" s="52" t="s">
+        <v>105</v>
       </c>
       <c r="D54" s="45"/>
       <c r="E54" s="45"/>
@@ -8619,8 +8621,8 @@
       <c r="I54" s="45"/>
       <c r="J54" s="45"/>
       <c r="K54" s="46"/>
-      <c r="L54" s="71" t="s">
-        <v>107</v>
+      <c r="L54" s="79" t="s">
+        <v>106</v>
       </c>
       <c r="M54" s="69"/>
       <c r="N54" s="69"/>
@@ -8638,7 +8640,7 @@
       <c r="Z54" s="69"/>
       <c r="AA54" s="69"/>
       <c r="AB54" s="69"/>
-      <c r="AC54" s="55"/>
+      <c r="AC54" s="52"/>
       <c r="AD54" s="45"/>
       <c r="AE54" s="45"/>
       <c r="AF54" s="45"/>
@@ -8647,7 +8649,7 @@
       <c r="AI54" s="45"/>
       <c r="AJ54" s="45"/>
       <c r="AK54" s="46"/>
-      <c r="AL54" s="61"/>
+      <c r="AL54" s="71"/>
       <c r="AM54" s="45"/>
       <c r="AN54" s="45"/>
       <c r="AO54" s="45"/>
@@ -8656,12 +8658,12 @@
       <c r="AR54" s="45"/>
       <c r="AS54" s="45"/>
       <c r="AT54" s="46"/>
-      <c r="AU54" s="61"/>
+      <c r="AU54" s="71"/>
       <c r="AV54" s="45"/>
       <c r="AW54" s="45"/>
       <c r="AX54" s="45"/>
       <c r="AY54" s="46"/>
-      <c r="AZ54" s="62"/>
+      <c r="AZ54" s="72"/>
       <c r="BA54" s="45"/>
       <c r="BB54" s="45"/>
       <c r="BC54" s="45"/>
@@ -8685,8 +8687,8 @@
         <f ca="1">MAX(B$52:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>2</v>
       </c>
-      <c r="C55" s="55" t="s">
-        <v>126</v>
+      <c r="C55" s="52" t="s">
+        <v>125</v>
       </c>
       <c r="D55" s="45"/>
       <c r="E55" s="45"/>
@@ -8696,8 +8698,8 @@
       <c r="I55" s="45"/>
       <c r="J55" s="45"/>
       <c r="K55" s="46"/>
-      <c r="L55" s="70" t="s">
-        <v>128</v>
+      <c r="L55" s="78" t="s">
+        <v>127</v>
       </c>
       <c r="M55" s="69"/>
       <c r="N55" s="69"/>
@@ -8715,7 +8717,7 @@
       <c r="Z55" s="69"/>
       <c r="AA55" s="69"/>
       <c r="AB55" s="69"/>
-      <c r="AC55" s="55"/>
+      <c r="AC55" s="52"/>
       <c r="AD55" s="45"/>
       <c r="AE55" s="45"/>
       <c r="AF55" s="45"/>
@@ -8724,7 +8726,7 @@
       <c r="AI55" s="45"/>
       <c r="AJ55" s="45"/>
       <c r="AK55" s="46"/>
-      <c r="AL55" s="61"/>
+      <c r="AL55" s="71"/>
       <c r="AM55" s="45"/>
       <c r="AN55" s="45"/>
       <c r="AO55" s="45"/>
@@ -8733,12 +8735,12 @@
       <c r="AR55" s="45"/>
       <c r="AS55" s="45"/>
       <c r="AT55" s="46"/>
-      <c r="AU55" s="61"/>
+      <c r="AU55" s="71"/>
       <c r="AV55" s="45"/>
       <c r="AW55" s="45"/>
       <c r="AX55" s="45"/>
       <c r="AY55" s="46"/>
-      <c r="AZ55" s="62"/>
+      <c r="AZ55" s="72"/>
       <c r="BA55" s="45"/>
       <c r="BB55" s="45"/>
       <c r="BC55" s="45"/>
@@ -8762,8 +8764,8 @@
         <f ca="1">MAX(B$52:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>3</v>
       </c>
-      <c r="C56" s="55" t="s">
-        <v>129</v>
+      <c r="C56" s="52" t="s">
+        <v>128</v>
       </c>
       <c r="D56" s="45"/>
       <c r="E56" s="45"/>
@@ -8773,8 +8775,8 @@
       <c r="I56" s="45"/>
       <c r="J56" s="45"/>
       <c r="K56" s="46"/>
-      <c r="L56" s="70" t="s">
-        <v>130</v>
+      <c r="L56" s="78" t="s">
+        <v>129</v>
       </c>
       <c r="M56" s="69"/>
       <c r="N56" s="69"/>
@@ -8792,7 +8794,7 @@
       <c r="Z56" s="69"/>
       <c r="AA56" s="69"/>
       <c r="AB56" s="69"/>
-      <c r="AC56" s="55"/>
+      <c r="AC56" s="52"/>
       <c r="AD56" s="45"/>
       <c r="AE56" s="45"/>
       <c r="AF56" s="45"/>
@@ -8801,7 +8803,7 @@
       <c r="AI56" s="45"/>
       <c r="AJ56" s="45"/>
       <c r="AK56" s="46"/>
-      <c r="AL56" s="61"/>
+      <c r="AL56" s="71"/>
       <c r="AM56" s="45"/>
       <c r="AN56" s="45"/>
       <c r="AO56" s="45"/>
@@ -8810,12 +8812,12 @@
       <c r="AR56" s="45"/>
       <c r="AS56" s="45"/>
       <c r="AT56" s="46"/>
-      <c r="AU56" s="61"/>
+      <c r="AU56" s="71"/>
       <c r="AV56" s="45"/>
       <c r="AW56" s="45"/>
       <c r="AX56" s="45"/>
       <c r="AY56" s="46"/>
-      <c r="AZ56" s="62"/>
+      <c r="AZ56" s="72"/>
       <c r="BA56" s="45"/>
       <c r="BB56" s="45"/>
       <c r="BC56" s="45"/>
@@ -8839,37 +8841,37 @@
         <f ca="1">MAX(B$52:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>4</v>
       </c>
-      <c r="C57" s="60" t="s">
-        <v>134</v>
+      <c r="C57" s="80" t="s">
+        <v>133</v>
       </c>
-      <c r="D57" s="51"/>
-      <c r="E57" s="51"/>
-      <c r="F57" s="51"/>
-      <c r="G57" s="51"/>
-      <c r="H57" s="51"/>
-      <c r="I57" s="51"/>
-      <c r="J57" s="51"/>
-      <c r="K57" s="52"/>
-      <c r="L57" s="55" t="s">
-        <v>136</v>
+      <c r="D57" s="53"/>
+      <c r="E57" s="53"/>
+      <c r="F57" s="53"/>
+      <c r="G57" s="53"/>
+      <c r="H57" s="53"/>
+      <c r="I57" s="53"/>
+      <c r="J57" s="53"/>
+      <c r="K57" s="54"/>
+      <c r="L57" s="52" t="s">
+        <v>135</v>
       </c>
-      <c r="M57" s="51"/>
-      <c r="N57" s="51"/>
-      <c r="O57" s="51"/>
-      <c r="P57" s="51"/>
-      <c r="Q57" s="51"/>
-      <c r="R57" s="51"/>
-      <c r="S57" s="51"/>
-      <c r="T57" s="51"/>
-      <c r="U57" s="51"/>
-      <c r="V57" s="51"/>
-      <c r="W57" s="51"/>
-      <c r="X57" s="51"/>
-      <c r="Y57" s="51"/>
-      <c r="Z57" s="51"/>
-      <c r="AA57" s="51"/>
-      <c r="AB57" s="52"/>
-      <c r="AC57" s="55"/>
+      <c r="M57" s="53"/>
+      <c r="N57" s="53"/>
+      <c r="O57" s="53"/>
+      <c r="P57" s="53"/>
+      <c r="Q57" s="53"/>
+      <c r="R57" s="53"/>
+      <c r="S57" s="53"/>
+      <c r="T57" s="53"/>
+      <c r="U57" s="53"/>
+      <c r="V57" s="53"/>
+      <c r="W57" s="53"/>
+      <c r="X57" s="53"/>
+      <c r="Y57" s="53"/>
+      <c r="Z57" s="53"/>
+      <c r="AA57" s="53"/>
+      <c r="AB57" s="54"/>
+      <c r="AC57" s="52"/>
       <c r="AD57" s="45"/>
       <c r="AE57" s="45"/>
       <c r="AF57" s="45"/>
@@ -8878,7 +8880,7 @@
       <c r="AI57" s="45"/>
       <c r="AJ57" s="45"/>
       <c r="AK57" s="46"/>
-      <c r="AL57" s="61"/>
+      <c r="AL57" s="71"/>
       <c r="AM57" s="45"/>
       <c r="AN57" s="45"/>
       <c r="AO57" s="45"/>
@@ -8887,12 +8889,12 @@
       <c r="AR57" s="45"/>
       <c r="AS57" s="45"/>
       <c r="AT57" s="46"/>
-      <c r="AU57" s="61"/>
+      <c r="AU57" s="71"/>
       <c r="AV57" s="45"/>
       <c r="AW57" s="45"/>
       <c r="AX57" s="45"/>
       <c r="AY57" s="46"/>
-      <c r="AZ57" s="62"/>
+      <c r="AZ57" s="72"/>
       <c r="BA57" s="45"/>
       <c r="BB57" s="45"/>
       <c r="BC57" s="45"/>
@@ -9126,7 +9128,7 @@
     <row r="61" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A61" s="2"/>
       <c r="B61" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
@@ -9271,7 +9273,7 @@
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D63" s="7"/>
       <c r="E63" s="7"/>
@@ -9343,7 +9345,7 @@
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D64" s="7"/>
       <c r="E64" s="7"/>
@@ -9415,7 +9417,7 @@
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D65" s="7"/>
       <c r="E65" s="7"/>
@@ -9487,7 +9489,7 @@
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D66" s="7"/>
       <c r="E66" s="7"/>
@@ -9559,7 +9561,7 @@
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D67" s="7"/>
       <c r="E67" s="7"/>
@@ -9631,7 +9633,7 @@
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D68" s="7"/>
       <c r="E68" s="7"/>
@@ -9703,7 +9705,7 @@
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D69" s="7"/>
       <c r="E69" s="7"/>
@@ -9775,7 +9777,7 @@
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D70" s="7"/>
       <c r="E70" s="7"/>
@@ -9847,7 +9849,7 @@
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D71" s="7"/>
       <c r="E71" s="7"/>
@@ -9919,7 +9921,7 @@
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D72" s="7"/>
       <c r="E72" s="7"/>
@@ -9991,7 +9993,7 @@
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D73" s="7"/>
       <c r="E73" s="7"/>
@@ -10063,7 +10065,7 @@
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D74" s="7"/>
       <c r="E74" s="7"/>
@@ -10135,7 +10137,7 @@
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D75" s="7"/>
       <c r="E75" s="7"/>
@@ -10279,7 +10281,7 @@
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D77" s="7"/>
       <c r="E77" s="7"/>
@@ -10351,7 +10353,7 @@
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D78" s="7"/>
       <c r="E78" s="7"/>
@@ -10423,7 +10425,7 @@
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D79" s="7"/>
       <c r="E79" s="7"/>
@@ -10495,7 +10497,7 @@
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D80" s="7"/>
       <c r="E80" s="7"/>
@@ -10568,7 +10570,7 @@
       <c r="B81" s="2"/>
       <c r="C81" s="7"/>
       <c r="D81" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E81" s="7"/>
       <c r="F81" s="7"/>
@@ -10708,7 +10710,7 @@
     <row r="83" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A83" s="2"/>
       <c r="B83" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
@@ -10853,7 +10855,7 @@
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D85" s="7"/>
       <c r="E85" s="7"/>
@@ -10997,7 +10999,7 @@
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D87" s="7"/>
       <c r="E87" s="7"/>
@@ -11910,54 +11912,177 @@
     </row>
   </sheetData>
   <mergeCells count="243">
-    <mergeCell ref="AK31:BO31"/>
-    <mergeCell ref="D32:P32"/>
-    <mergeCell ref="Q32:W32"/>
-    <mergeCell ref="X32:AD32"/>
-    <mergeCell ref="AE32:AG32"/>
-    <mergeCell ref="AH32:AJ32"/>
-    <mergeCell ref="AK32:BO32"/>
-    <mergeCell ref="D25:P25"/>
-    <mergeCell ref="D26:P26"/>
-    <mergeCell ref="D27:P27"/>
-    <mergeCell ref="D28:P28"/>
-    <mergeCell ref="D29:P29"/>
-    <mergeCell ref="AH31:AJ31"/>
-    <mergeCell ref="D33:P33"/>
-    <mergeCell ref="D30:P30"/>
-    <mergeCell ref="Q30:W30"/>
-    <mergeCell ref="X30:AD30"/>
-    <mergeCell ref="D31:P31"/>
-    <mergeCell ref="Q31:W31"/>
-    <mergeCell ref="X31:AD31"/>
-    <mergeCell ref="D20:P20"/>
-    <mergeCell ref="Q20:W20"/>
-    <mergeCell ref="X20:AD20"/>
-    <mergeCell ref="Q23:W23"/>
-    <mergeCell ref="X23:AD23"/>
-    <mergeCell ref="Q33:W33"/>
-    <mergeCell ref="Q25:W25"/>
-    <mergeCell ref="Q26:W26"/>
-    <mergeCell ref="AE23:AG23"/>
-    <mergeCell ref="AH23:AJ23"/>
-    <mergeCell ref="AK23:BO23"/>
-    <mergeCell ref="Q24:W24"/>
-    <mergeCell ref="X24:AD24"/>
-    <mergeCell ref="AE24:AG24"/>
-    <mergeCell ref="AH24:AJ24"/>
-    <mergeCell ref="AK24:BO24"/>
-    <mergeCell ref="D22:P22"/>
-    <mergeCell ref="D23:P23"/>
-    <mergeCell ref="D24:P24"/>
-    <mergeCell ref="C18:P18"/>
-    <mergeCell ref="Q18:W18"/>
-    <mergeCell ref="X18:AD18"/>
-    <mergeCell ref="AE18:AG18"/>
-    <mergeCell ref="AH18:AJ18"/>
-    <mergeCell ref="Q19:W19"/>
-    <mergeCell ref="X19:AD19"/>
-    <mergeCell ref="AE19:AG19"/>
-    <mergeCell ref="AH19:AJ19"/>
+    <mergeCell ref="D47:P47"/>
+    <mergeCell ref="Q47:W47"/>
+    <mergeCell ref="X47:AD47"/>
+    <mergeCell ref="AE47:AG47"/>
+    <mergeCell ref="AH47:AJ47"/>
+    <mergeCell ref="AK47:BO47"/>
+    <mergeCell ref="D48:P48"/>
+    <mergeCell ref="Q48:W48"/>
+    <mergeCell ref="X48:AD48"/>
+    <mergeCell ref="AE48:AG48"/>
+    <mergeCell ref="AH48:AJ48"/>
+    <mergeCell ref="AK48:BO48"/>
+    <mergeCell ref="D45:P45"/>
+    <mergeCell ref="Q45:W45"/>
+    <mergeCell ref="X45:AD45"/>
+    <mergeCell ref="AE45:AG45"/>
+    <mergeCell ref="AH45:AJ45"/>
+    <mergeCell ref="AK45:BO45"/>
+    <mergeCell ref="D46:P46"/>
+    <mergeCell ref="Q46:W46"/>
+    <mergeCell ref="X46:AD46"/>
+    <mergeCell ref="AE46:AG46"/>
+    <mergeCell ref="AH46:AJ46"/>
+    <mergeCell ref="AK46:BO46"/>
+    <mergeCell ref="D43:P43"/>
+    <mergeCell ref="Q43:W43"/>
+    <mergeCell ref="X43:AD43"/>
+    <mergeCell ref="AE43:AG43"/>
+    <mergeCell ref="AH43:AJ43"/>
+    <mergeCell ref="AK43:BO43"/>
+    <mergeCell ref="D44:P44"/>
+    <mergeCell ref="Q44:W44"/>
+    <mergeCell ref="X44:AD44"/>
+    <mergeCell ref="AE44:AG44"/>
+    <mergeCell ref="AH44:AJ44"/>
+    <mergeCell ref="AK44:BO44"/>
+    <mergeCell ref="D41:P41"/>
+    <mergeCell ref="Q41:W41"/>
+    <mergeCell ref="X41:AD41"/>
+    <mergeCell ref="AE41:AG41"/>
+    <mergeCell ref="AH41:AJ41"/>
+    <mergeCell ref="AK41:BO41"/>
+    <mergeCell ref="D42:P42"/>
+    <mergeCell ref="Q42:W42"/>
+    <mergeCell ref="X42:AD42"/>
+    <mergeCell ref="AE42:AG42"/>
+    <mergeCell ref="AH42:AJ42"/>
+    <mergeCell ref="AK42:BO42"/>
+    <mergeCell ref="D39:P39"/>
+    <mergeCell ref="Q39:W39"/>
+    <mergeCell ref="X39:AD39"/>
+    <mergeCell ref="AE39:AG39"/>
+    <mergeCell ref="AH39:AJ39"/>
+    <mergeCell ref="AK39:BO39"/>
+    <mergeCell ref="D40:P40"/>
+    <mergeCell ref="Q40:W40"/>
+    <mergeCell ref="X40:AD40"/>
+    <mergeCell ref="AE40:AG40"/>
+    <mergeCell ref="AH40:AJ40"/>
+    <mergeCell ref="AK40:BO40"/>
+    <mergeCell ref="Q37:W37"/>
+    <mergeCell ref="X37:AD37"/>
+    <mergeCell ref="AE37:AG37"/>
+    <mergeCell ref="AH37:AJ37"/>
+    <mergeCell ref="AK37:BO37"/>
+    <mergeCell ref="D38:P38"/>
+    <mergeCell ref="Q38:W38"/>
+    <mergeCell ref="X38:AD38"/>
+    <mergeCell ref="AE38:AG38"/>
+    <mergeCell ref="AH38:AJ38"/>
+    <mergeCell ref="AK38:BO38"/>
+    <mergeCell ref="C57:K57"/>
+    <mergeCell ref="L57:AB57"/>
+    <mergeCell ref="AC57:AK57"/>
+    <mergeCell ref="AL57:AT57"/>
+    <mergeCell ref="AZ57:BO57"/>
+    <mergeCell ref="AU57:AY57"/>
+    <mergeCell ref="Q34:W34"/>
+    <mergeCell ref="X34:AD34"/>
+    <mergeCell ref="AE34:AG34"/>
+    <mergeCell ref="AH34:AJ34"/>
+    <mergeCell ref="AK34:BO34"/>
+    <mergeCell ref="D35:P35"/>
+    <mergeCell ref="Q35:W35"/>
+    <mergeCell ref="X35:AD35"/>
+    <mergeCell ref="AE35:AG35"/>
+    <mergeCell ref="AH35:AJ35"/>
+    <mergeCell ref="AK35:BO35"/>
+    <mergeCell ref="D36:P36"/>
+    <mergeCell ref="Q36:W36"/>
+    <mergeCell ref="X36:AD36"/>
+    <mergeCell ref="AE36:AG36"/>
+    <mergeCell ref="AH36:AJ36"/>
+    <mergeCell ref="AK36:BO36"/>
+    <mergeCell ref="D37:P37"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:K53"/>
+    <mergeCell ref="L52:AB53"/>
+    <mergeCell ref="L56:AB56"/>
+    <mergeCell ref="AC56:AK56"/>
+    <mergeCell ref="C54:K54"/>
+    <mergeCell ref="L54:AB54"/>
+    <mergeCell ref="AC54:AK54"/>
+    <mergeCell ref="C55:K55"/>
+    <mergeCell ref="L55:AB55"/>
+    <mergeCell ref="AC55:AK55"/>
+    <mergeCell ref="C56:K56"/>
+    <mergeCell ref="AK18:BO18"/>
+    <mergeCell ref="AK19:BO19"/>
+    <mergeCell ref="Q17:W17"/>
+    <mergeCell ref="X17:AD17"/>
+    <mergeCell ref="AE17:AG17"/>
+    <mergeCell ref="AK17:BO17"/>
+    <mergeCell ref="AE20:AG20"/>
+    <mergeCell ref="AH20:AJ20"/>
+    <mergeCell ref="AK20:BO20"/>
+    <mergeCell ref="I12:BO12"/>
+    <mergeCell ref="AK14:BO14"/>
+    <mergeCell ref="AK15:BO15"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="I7:BO7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="I8:BO8"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="I9:BO9"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="Q14:W14"/>
+    <mergeCell ref="X14:AD14"/>
+    <mergeCell ref="AE14:AG14"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="I10:BO10"/>
+    <mergeCell ref="C14:P14"/>
+    <mergeCell ref="C15:P15"/>
+    <mergeCell ref="Q15:W15"/>
+    <mergeCell ref="X15:AD15"/>
+    <mergeCell ref="AE15:AG15"/>
+    <mergeCell ref="AH15:AJ15"/>
+    <mergeCell ref="AL54:AT54"/>
+    <mergeCell ref="AU54:AY54"/>
+    <mergeCell ref="AZ54:BO54"/>
+    <mergeCell ref="AL55:AT55"/>
+    <mergeCell ref="AU55:AY55"/>
+    <mergeCell ref="AZ55:BO55"/>
+    <mergeCell ref="AL56:AT56"/>
+    <mergeCell ref="AU56:AY56"/>
+    <mergeCell ref="AZ56:BO56"/>
+    <mergeCell ref="AL53:AT53"/>
+    <mergeCell ref="AU53:AY53"/>
+    <mergeCell ref="AZ53:BO53"/>
+    <mergeCell ref="AC52:AK53"/>
+    <mergeCell ref="X25:AD25"/>
+    <mergeCell ref="AE25:AG25"/>
+    <mergeCell ref="AH25:AJ25"/>
+    <mergeCell ref="AK25:BO25"/>
+    <mergeCell ref="X26:AD26"/>
+    <mergeCell ref="AE26:AG26"/>
+    <mergeCell ref="AH26:AJ26"/>
+    <mergeCell ref="AK26:BO26"/>
+    <mergeCell ref="AE30:AG30"/>
+    <mergeCell ref="AH30:AJ30"/>
+    <mergeCell ref="AK30:BO30"/>
+    <mergeCell ref="AE31:AG31"/>
+    <mergeCell ref="AH27:AJ27"/>
+    <mergeCell ref="X29:AD29"/>
+    <mergeCell ref="X33:AD33"/>
+    <mergeCell ref="AE33:AG33"/>
+    <mergeCell ref="AH33:AJ33"/>
+    <mergeCell ref="X27:AD27"/>
+    <mergeCell ref="AE27:AG27"/>
+    <mergeCell ref="X28:AD28"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="C17:P17"/>
     <mergeCell ref="AK21:BO21"/>
@@ -11982,177 +12107,54 @@
     <mergeCell ref="Q27:W27"/>
     <mergeCell ref="Q28:W28"/>
     <mergeCell ref="Q29:W29"/>
-    <mergeCell ref="AL53:AT53"/>
-    <mergeCell ref="AU53:AY53"/>
-    <mergeCell ref="AZ53:BO53"/>
-    <mergeCell ref="AC52:AK53"/>
-    <mergeCell ref="X25:AD25"/>
-    <mergeCell ref="AE25:AG25"/>
-    <mergeCell ref="AH25:AJ25"/>
-    <mergeCell ref="AK25:BO25"/>
-    <mergeCell ref="X26:AD26"/>
-    <mergeCell ref="AE26:AG26"/>
-    <mergeCell ref="AH26:AJ26"/>
-    <mergeCell ref="AK26:BO26"/>
-    <mergeCell ref="AE30:AG30"/>
-    <mergeCell ref="AH30:AJ30"/>
-    <mergeCell ref="AK30:BO30"/>
-    <mergeCell ref="AE31:AG31"/>
-    <mergeCell ref="AH27:AJ27"/>
-    <mergeCell ref="X29:AD29"/>
-    <mergeCell ref="X33:AD33"/>
-    <mergeCell ref="AE33:AG33"/>
-    <mergeCell ref="AH33:AJ33"/>
-    <mergeCell ref="X27:AD27"/>
-    <mergeCell ref="AE27:AG27"/>
-    <mergeCell ref="X28:AD28"/>
-    <mergeCell ref="AL54:AT54"/>
-    <mergeCell ref="AU54:AY54"/>
-    <mergeCell ref="AZ54:BO54"/>
-    <mergeCell ref="AL55:AT55"/>
-    <mergeCell ref="AU55:AY55"/>
-    <mergeCell ref="AZ55:BO55"/>
-    <mergeCell ref="AL56:AT56"/>
-    <mergeCell ref="AU56:AY56"/>
-    <mergeCell ref="AZ56:BO56"/>
-    <mergeCell ref="I12:BO12"/>
-    <mergeCell ref="AK14:BO14"/>
-    <mergeCell ref="AK15:BO15"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="I7:BO7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="I8:BO8"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="I9:BO9"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="Q14:W14"/>
-    <mergeCell ref="X14:AD14"/>
-    <mergeCell ref="AE14:AG14"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="I10:BO10"/>
-    <mergeCell ref="C14:P14"/>
-    <mergeCell ref="C15:P15"/>
-    <mergeCell ref="Q15:W15"/>
-    <mergeCell ref="X15:AD15"/>
-    <mergeCell ref="AE15:AG15"/>
-    <mergeCell ref="AH15:AJ15"/>
-    <mergeCell ref="AK18:BO18"/>
-    <mergeCell ref="AK19:BO19"/>
-    <mergeCell ref="Q17:W17"/>
-    <mergeCell ref="X17:AD17"/>
-    <mergeCell ref="AE17:AG17"/>
-    <mergeCell ref="AK17:BO17"/>
-    <mergeCell ref="AE20:AG20"/>
-    <mergeCell ref="AH20:AJ20"/>
-    <mergeCell ref="AK20:BO20"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C52:K53"/>
-    <mergeCell ref="L52:AB53"/>
-    <mergeCell ref="L56:AB56"/>
-    <mergeCell ref="AC56:AK56"/>
-    <mergeCell ref="C54:K54"/>
-    <mergeCell ref="L54:AB54"/>
-    <mergeCell ref="AC54:AK54"/>
-    <mergeCell ref="C55:K55"/>
-    <mergeCell ref="L55:AB55"/>
-    <mergeCell ref="AC55:AK55"/>
-    <mergeCell ref="C56:K56"/>
-    <mergeCell ref="C57:K57"/>
-    <mergeCell ref="L57:AB57"/>
-    <mergeCell ref="AC57:AK57"/>
-    <mergeCell ref="AL57:AT57"/>
-    <mergeCell ref="AZ57:BO57"/>
-    <mergeCell ref="AU57:AY57"/>
-    <mergeCell ref="Q34:W34"/>
-    <mergeCell ref="X34:AD34"/>
-    <mergeCell ref="AE34:AG34"/>
-    <mergeCell ref="AH34:AJ34"/>
-    <mergeCell ref="AK34:BO34"/>
-    <mergeCell ref="D35:P35"/>
-    <mergeCell ref="Q35:W35"/>
-    <mergeCell ref="X35:AD35"/>
-    <mergeCell ref="AE35:AG35"/>
-    <mergeCell ref="AH35:AJ35"/>
-    <mergeCell ref="AK35:BO35"/>
-    <mergeCell ref="D36:P36"/>
-    <mergeCell ref="Q36:W36"/>
-    <mergeCell ref="X36:AD36"/>
-    <mergeCell ref="AE36:AG36"/>
-    <mergeCell ref="AH36:AJ36"/>
-    <mergeCell ref="AK36:BO36"/>
-    <mergeCell ref="D37:P37"/>
-    <mergeCell ref="Q37:W37"/>
-    <mergeCell ref="X37:AD37"/>
-    <mergeCell ref="AE37:AG37"/>
-    <mergeCell ref="AH37:AJ37"/>
-    <mergeCell ref="AK37:BO37"/>
-    <mergeCell ref="D38:P38"/>
-    <mergeCell ref="Q38:W38"/>
-    <mergeCell ref="X38:AD38"/>
-    <mergeCell ref="AE38:AG38"/>
-    <mergeCell ref="AH38:AJ38"/>
-    <mergeCell ref="AK38:BO38"/>
-    <mergeCell ref="D39:P39"/>
-    <mergeCell ref="Q39:W39"/>
-    <mergeCell ref="X39:AD39"/>
-    <mergeCell ref="AE39:AG39"/>
-    <mergeCell ref="AH39:AJ39"/>
-    <mergeCell ref="AK39:BO39"/>
-    <mergeCell ref="D40:P40"/>
-    <mergeCell ref="Q40:W40"/>
-    <mergeCell ref="X40:AD40"/>
-    <mergeCell ref="AE40:AG40"/>
-    <mergeCell ref="AH40:AJ40"/>
-    <mergeCell ref="AK40:BO40"/>
-    <mergeCell ref="D41:P41"/>
-    <mergeCell ref="Q41:W41"/>
-    <mergeCell ref="X41:AD41"/>
-    <mergeCell ref="AE41:AG41"/>
-    <mergeCell ref="AH41:AJ41"/>
-    <mergeCell ref="AK41:BO41"/>
-    <mergeCell ref="D42:P42"/>
-    <mergeCell ref="Q42:W42"/>
-    <mergeCell ref="X42:AD42"/>
-    <mergeCell ref="AE42:AG42"/>
-    <mergeCell ref="AH42:AJ42"/>
-    <mergeCell ref="AK42:BO42"/>
-    <mergeCell ref="D43:P43"/>
-    <mergeCell ref="Q43:W43"/>
-    <mergeCell ref="X43:AD43"/>
-    <mergeCell ref="AE43:AG43"/>
-    <mergeCell ref="AH43:AJ43"/>
-    <mergeCell ref="AK43:BO43"/>
-    <mergeCell ref="D44:P44"/>
-    <mergeCell ref="Q44:W44"/>
-    <mergeCell ref="X44:AD44"/>
-    <mergeCell ref="AE44:AG44"/>
-    <mergeCell ref="AH44:AJ44"/>
-    <mergeCell ref="AK44:BO44"/>
-    <mergeCell ref="D45:P45"/>
-    <mergeCell ref="Q45:W45"/>
-    <mergeCell ref="X45:AD45"/>
-    <mergeCell ref="AE45:AG45"/>
-    <mergeCell ref="AH45:AJ45"/>
-    <mergeCell ref="AK45:BO45"/>
-    <mergeCell ref="D46:P46"/>
-    <mergeCell ref="Q46:W46"/>
-    <mergeCell ref="X46:AD46"/>
-    <mergeCell ref="AE46:AG46"/>
-    <mergeCell ref="AH46:AJ46"/>
-    <mergeCell ref="AK46:BO46"/>
-    <mergeCell ref="D47:P47"/>
-    <mergeCell ref="Q47:W47"/>
-    <mergeCell ref="X47:AD47"/>
-    <mergeCell ref="AE47:AG47"/>
-    <mergeCell ref="AH47:AJ47"/>
-    <mergeCell ref="AK47:BO47"/>
-    <mergeCell ref="D48:P48"/>
-    <mergeCell ref="Q48:W48"/>
-    <mergeCell ref="X48:AD48"/>
-    <mergeCell ref="AE48:AG48"/>
-    <mergeCell ref="AH48:AJ48"/>
-    <mergeCell ref="AK48:BO48"/>
+    <mergeCell ref="C18:P18"/>
+    <mergeCell ref="Q18:W18"/>
+    <mergeCell ref="X18:AD18"/>
+    <mergeCell ref="AE18:AG18"/>
+    <mergeCell ref="AH18:AJ18"/>
+    <mergeCell ref="Q19:W19"/>
+    <mergeCell ref="X19:AD19"/>
+    <mergeCell ref="AE19:AG19"/>
+    <mergeCell ref="AH19:AJ19"/>
+    <mergeCell ref="AE23:AG23"/>
+    <mergeCell ref="AH23:AJ23"/>
+    <mergeCell ref="AK23:BO23"/>
+    <mergeCell ref="Q24:W24"/>
+    <mergeCell ref="X24:AD24"/>
+    <mergeCell ref="AE24:AG24"/>
+    <mergeCell ref="AH24:AJ24"/>
+    <mergeCell ref="AK24:BO24"/>
+    <mergeCell ref="D22:P22"/>
+    <mergeCell ref="D23:P23"/>
+    <mergeCell ref="D24:P24"/>
+    <mergeCell ref="D33:P33"/>
+    <mergeCell ref="D30:P30"/>
+    <mergeCell ref="Q30:W30"/>
+    <mergeCell ref="X30:AD30"/>
+    <mergeCell ref="D31:P31"/>
+    <mergeCell ref="Q31:W31"/>
+    <mergeCell ref="X31:AD31"/>
+    <mergeCell ref="D20:P20"/>
+    <mergeCell ref="Q20:W20"/>
+    <mergeCell ref="X20:AD20"/>
+    <mergeCell ref="Q23:W23"/>
+    <mergeCell ref="X23:AD23"/>
+    <mergeCell ref="Q33:W33"/>
+    <mergeCell ref="Q25:W25"/>
+    <mergeCell ref="Q26:W26"/>
+    <mergeCell ref="AK31:BO31"/>
+    <mergeCell ref="D32:P32"/>
+    <mergeCell ref="Q32:W32"/>
+    <mergeCell ref="X32:AD32"/>
+    <mergeCell ref="AE32:AG32"/>
+    <mergeCell ref="AH32:AJ32"/>
+    <mergeCell ref="AK32:BO32"/>
+    <mergeCell ref="D25:P25"/>
+    <mergeCell ref="D26:P26"/>
+    <mergeCell ref="D27:P27"/>
+    <mergeCell ref="D28:P28"/>
+    <mergeCell ref="D29:P29"/>
+    <mergeCell ref="AH31:AJ31"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <dataValidations count="1">
@@ -12202,7 +12204,9 @@
   </sheetPr>
   <dimension ref="A1:BP52"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1"/>
   <cols>
@@ -12640,7 +12644,7 @@
     <row r="7" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A7" s="2"/>
       <c r="B7" s="13"/>
-      <c r="C7" s="72" t="s">
+      <c r="C7" s="74" t="s">
         <v>24</v>
       </c>
       <c r="D7" s="45"/>
@@ -12648,8 +12652,8 @@
       <c r="F7" s="45"/>
       <c r="G7" s="45"/>
       <c r="H7" s="46"/>
-      <c r="I7" s="55" t="s">
-        <v>75</v>
+      <c r="I7" s="52" t="s">
+        <v>74</v>
       </c>
       <c r="J7" s="45"/>
       <c r="K7" s="45"/>
@@ -12714,7 +12718,7 @@
     <row r="8" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A8" s="2"/>
       <c r="B8" s="13"/>
-      <c r="C8" s="72" t="s">
+      <c r="C8" s="74" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="45"/>
@@ -12722,7 +12726,7 @@
       <c r="F8" s="45"/>
       <c r="G8" s="45"/>
       <c r="H8" s="46"/>
-      <c r="I8" s="55" t="s">
+      <c r="I8" s="52" t="s">
         <v>26</v>
       </c>
       <c r="J8" s="45"/>
@@ -12788,7 +12792,7 @@
     <row r="9" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A9" s="2"/>
       <c r="B9" s="13"/>
-      <c r="C9" s="72" t="s">
+      <c r="C9" s="74" t="s">
         <v>27</v>
       </c>
       <c r="D9" s="45"/>
@@ -12796,7 +12800,7 @@
       <c r="F9" s="45"/>
       <c r="G9" s="45"/>
       <c r="H9" s="46"/>
-      <c r="I9" s="55" t="s">
+      <c r="I9" s="52" t="s">
         <v>28</v>
       </c>
       <c r="J9" s="45"/>
@@ -12862,8 +12866,8 @@
     <row r="10" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A10" s="2"/>
       <c r="B10" s="13"/>
-      <c r="C10" s="72" t="s">
-        <v>73</v>
+      <c r="C10" s="74" t="s">
+        <v>181</v>
       </c>
       <c r="D10" s="75"/>
       <c r="E10" s="75"/>
@@ -12871,7 +12875,7 @@
       <c r="G10" s="75"/>
       <c r="H10" s="75"/>
       <c r="I10" s="76" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J10" s="76"/>
       <c r="K10" s="76"/>
@@ -13009,7 +13013,7 @@
       <c r="A12" s="2"/>
       <c r="B12" s="13"/>
       <c r="C12" s="17"/>
-      <c r="D12" s="55" t="s">
+      <c r="D12" s="52" t="s">
         <v>30</v>
       </c>
       <c r="E12" s="45"/>
@@ -13083,7 +13087,7 @@
       <c r="A13" s="2"/>
       <c r="B13" s="13"/>
       <c r="C13" s="17"/>
-      <c r="D13" s="55" t="s">
+      <c r="D13" s="52" t="s">
         <v>32</v>
       </c>
       <c r="E13" s="45"/>
@@ -13157,15 +13161,15 @@
       <c r="A14" s="2"/>
       <c r="B14" s="13"/>
       <c r="C14" s="17"/>
-      <c r="D14" s="55" t="s">
-        <v>78</v>
+      <c r="D14" s="52" t="s">
+        <v>77</v>
       </c>
       <c r="E14" s="45"/>
       <c r="F14" s="45"/>
       <c r="G14" s="45"/>
       <c r="H14" s="46"/>
       <c r="I14" s="73" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J14" s="45"/>
       <c r="K14" s="45"/>
@@ -13229,11 +13233,11 @@
     </row>
     <row r="15" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A15" s="2"/>
-      <c r="B15" s="74" t="s">
+      <c r="B15" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="66"/>
-      <c r="D15" s="66"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
@@ -13336,7 +13340,7 @@
       <c r="AB16" s="45"/>
       <c r="AC16" s="45"/>
       <c r="AD16" s="46"/>
-      <c r="AE16" s="72" t="s">
+      <c r="AE16" s="74" t="s">
         <v>22</v>
       </c>
       <c r="AF16" s="45"/>
@@ -13384,8 +13388,8 @@
     <row r="17" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A17" s="2"/>
       <c r="B17" s="13"/>
-      <c r="C17" s="55" t="s">
-        <v>137</v>
+      <c r="C17" s="52" t="s">
+        <v>136</v>
       </c>
       <c r="D17" s="45"/>
       <c r="E17" s="45"/>
@@ -13400,7 +13404,7 @@
       <c r="N17" s="45"/>
       <c r="O17" s="45"/>
       <c r="P17" s="46"/>
-      <c r="Q17" s="54" t="s">
+      <c r="Q17" s="56" t="s">
         <v>71</v>
       </c>
       <c r="R17" s="45"/>
@@ -13409,20 +13413,20 @@
       <c r="U17" s="45"/>
       <c r="V17" s="45"/>
       <c r="W17" s="46"/>
-      <c r="X17" s="54"/>
+      <c r="X17" s="56"/>
       <c r="Y17" s="45"/>
       <c r="Z17" s="45"/>
       <c r="AA17" s="45"/>
       <c r="AB17" s="45"/>
       <c r="AC17" s="45"/>
       <c r="AD17" s="46"/>
-      <c r="AE17" s="55"/>
+      <c r="AE17" s="52"/>
       <c r="AF17" s="45"/>
       <c r="AG17" s="46"/>
-      <c r="AH17" s="54"/>
+      <c r="AH17" s="56"/>
       <c r="AI17" s="45"/>
       <c r="AJ17" s="46"/>
-      <c r="AK17" s="54"/>
+      <c r="AK17" s="56"/>
       <c r="AL17" s="45"/>
       <c r="AM17" s="45"/>
       <c r="AN17" s="45"/>
@@ -13458,8 +13462,8 @@
     <row r="18" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A18" s="2"/>
       <c r="B18" s="13"/>
-      <c r="C18" s="55" t="s">
-        <v>138</v>
+      <c r="C18" s="52" t="s">
+        <v>137</v>
       </c>
       <c r="D18" s="45"/>
       <c r="E18" s="45"/>
@@ -13474,7 +13478,7 @@
       <c r="N18" s="45"/>
       <c r="O18" s="45"/>
       <c r="P18" s="46"/>
-      <c r="Q18" s="54" t="s">
+      <c r="Q18" s="56" t="s">
         <v>67</v>
       </c>
       <c r="R18" s="45"/>
@@ -13483,20 +13487,20 @@
       <c r="U18" s="45"/>
       <c r="V18" s="45"/>
       <c r="W18" s="46"/>
-      <c r="X18" s="54"/>
+      <c r="X18" s="56"/>
       <c r="Y18" s="45"/>
       <c r="Z18" s="45"/>
       <c r="AA18" s="45"/>
       <c r="AB18" s="45"/>
       <c r="AC18" s="45"/>
       <c r="AD18" s="46"/>
-      <c r="AE18" s="55"/>
+      <c r="AE18" s="52"/>
       <c r="AF18" s="45"/>
       <c r="AG18" s="46"/>
-      <c r="AH18" s="54"/>
+      <c r="AH18" s="56"/>
       <c r="AI18" s="45"/>
       <c r="AJ18" s="46"/>
-      <c r="AK18" s="54"/>
+      <c r="AK18" s="56"/>
       <c r="AL18" s="45"/>
       <c r="AM18" s="45"/>
       <c r="AN18" s="45"/>
@@ -13531,11 +13535,11 @@
     </row>
     <row r="19" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A19" s="2"/>
-      <c r="B19" s="74" t="s">
+      <c r="B19" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="66"/>
-      <c r="D19" s="66"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
@@ -13638,7 +13642,7 @@
       <c r="AB20" s="45"/>
       <c r="AC20" s="45"/>
       <c r="AD20" s="46"/>
-      <c r="AE20" s="72" t="s">
+      <c r="AE20" s="74" t="s">
         <v>22</v>
       </c>
       <c r="AF20" s="45"/>
@@ -13686,80 +13690,80 @@
     <row r="21" spans="1:68" ht="33" customHeight="1" outlineLevel="1">
       <c r="A21" s="2"/>
       <c r="B21" s="13"/>
-      <c r="C21" s="55" t="s">
+      <c r="C21" s="52" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" s="60"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="60"/>
+      <c r="G21" s="60"/>
+      <c r="H21" s="60"/>
+      <c r="I21" s="60"/>
+      <c r="J21" s="60"/>
+      <c r="K21" s="60"/>
+      <c r="L21" s="60"/>
+      <c r="M21" s="60"/>
+      <c r="N21" s="60"/>
+      <c r="O21" s="60"/>
+      <c r="P21" s="46"/>
+      <c r="Q21" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="R21" s="60"/>
+      <c r="S21" s="60"/>
+      <c r="T21" s="60"/>
+      <c r="U21" s="60"/>
+      <c r="V21" s="60"/>
+      <c r="W21" s="46"/>
+      <c r="X21" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="D21" s="53"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="53"/>
-      <c r="J21" s="53"/>
-      <c r="K21" s="53"/>
-      <c r="L21" s="53"/>
-      <c r="M21" s="53"/>
-      <c r="N21" s="53"/>
-      <c r="O21" s="53"/>
-      <c r="P21" s="46"/>
-      <c r="Q21" s="54" t="s">
-        <v>38</v>
+      <c r="Y21" s="60"/>
+      <c r="Z21" s="60"/>
+      <c r="AA21" s="60"/>
+      <c r="AB21" s="60"/>
+      <c r="AC21" s="60"/>
+      <c r="AD21" s="46"/>
+      <c r="AE21" s="52">
+        <v>1</v>
       </c>
-      <c r="R21" s="53"/>
-      <c r="S21" s="53"/>
-      <c r="T21" s="53"/>
-      <c r="U21" s="53"/>
-      <c r="V21" s="53"/>
-      <c r="W21" s="46"/>
-      <c r="X21" s="54" t="s">
+      <c r="AF21" s="60"/>
+      <c r="AG21" s="46"/>
+      <c r="AH21" s="56"/>
+      <c r="AI21" s="60"/>
+      <c r="AJ21" s="46"/>
+      <c r="AK21" s="51" t="s">
         <v>82</v>
       </c>
-      <c r="Y21" s="53"/>
-      <c r="Z21" s="53"/>
-      <c r="AA21" s="53"/>
-      <c r="AB21" s="53"/>
-      <c r="AC21" s="53"/>
-      <c r="AD21" s="46"/>
-      <c r="AE21" s="55">
-        <v>1</v>
-      </c>
-      <c r="AF21" s="53"/>
-      <c r="AG21" s="46"/>
-      <c r="AH21" s="54"/>
-      <c r="AI21" s="53"/>
-      <c r="AJ21" s="46"/>
-      <c r="AK21" s="59" t="s">
-        <v>83</v>
-      </c>
-      <c r="AL21" s="53"/>
-      <c r="AM21" s="53"/>
-      <c r="AN21" s="53"/>
-      <c r="AO21" s="53"/>
-      <c r="AP21" s="53"/>
-      <c r="AQ21" s="53"/>
-      <c r="AR21" s="53"/>
-      <c r="AS21" s="53"/>
-      <c r="AT21" s="53"/>
-      <c r="AU21" s="53"/>
-      <c r="AV21" s="53"/>
-      <c r="AW21" s="53"/>
-      <c r="AX21" s="53"/>
-      <c r="AY21" s="53"/>
-      <c r="AZ21" s="53"/>
-      <c r="BA21" s="53"/>
-      <c r="BB21" s="53"/>
-      <c r="BC21" s="53"/>
-      <c r="BD21" s="53"/>
-      <c r="BE21" s="53"/>
-      <c r="BF21" s="53"/>
-      <c r="BG21" s="53"/>
-      <c r="BH21" s="53"/>
-      <c r="BI21" s="53"/>
-      <c r="BJ21" s="53"/>
-      <c r="BK21" s="53"/>
-      <c r="BL21" s="53"/>
-      <c r="BM21" s="53"/>
-      <c r="BN21" s="53"/>
+      <c r="AL21" s="60"/>
+      <c r="AM21" s="60"/>
+      <c r="AN21" s="60"/>
+      <c r="AO21" s="60"/>
+      <c r="AP21" s="60"/>
+      <c r="AQ21" s="60"/>
+      <c r="AR21" s="60"/>
+      <c r="AS21" s="60"/>
+      <c r="AT21" s="60"/>
+      <c r="AU21" s="60"/>
+      <c r="AV21" s="60"/>
+      <c r="AW21" s="60"/>
+      <c r="AX21" s="60"/>
+      <c r="AY21" s="60"/>
+      <c r="AZ21" s="60"/>
+      <c r="BA21" s="60"/>
+      <c r="BB21" s="60"/>
+      <c r="BC21" s="60"/>
+      <c r="BD21" s="60"/>
+      <c r="BE21" s="60"/>
+      <c r="BF21" s="60"/>
+      <c r="BG21" s="60"/>
+      <c r="BH21" s="60"/>
+      <c r="BI21" s="60"/>
+      <c r="BJ21" s="60"/>
+      <c r="BK21" s="60"/>
+      <c r="BL21" s="60"/>
+      <c r="BM21" s="60"/>
+      <c r="BN21" s="60"/>
       <c r="BO21" s="46"/>
       <c r="BP21" s="2"/>
     </row>
@@ -13767,7 +13771,7 @@
       <c r="A22" s="2"/>
       <c r="B22" s="13"/>
       <c r="C22" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D22" s="35"/>
       <c r="E22" s="35"/>
@@ -13782,60 +13786,60 @@
       <c r="N22" s="36"/>
       <c r="O22" s="36"/>
       <c r="P22" s="23"/>
-      <c r="Q22" s="54"/>
-      <c r="R22" s="53"/>
-      <c r="S22" s="53"/>
-      <c r="T22" s="53"/>
-      <c r="U22" s="53"/>
-      <c r="V22" s="53"/>
+      <c r="Q22" s="56"/>
+      <c r="R22" s="60"/>
+      <c r="S22" s="60"/>
+      <c r="T22" s="60"/>
+      <c r="U22" s="60"/>
+      <c r="V22" s="60"/>
       <c r="W22" s="46"/>
-      <c r="X22" s="54" t="s">
+      <c r="X22" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="Y22" s="53"/>
-      <c r="Z22" s="53"/>
-      <c r="AA22" s="53"/>
-      <c r="AB22" s="53"/>
-      <c r="AC22" s="53"/>
+      <c r="Y22" s="60"/>
+      <c r="Z22" s="60"/>
+      <c r="AA22" s="60"/>
+      <c r="AB22" s="60"/>
+      <c r="AC22" s="60"/>
       <c r="AD22" s="46"/>
-      <c r="AE22" s="55"/>
-      <c r="AF22" s="53"/>
+      <c r="AE22" s="52"/>
+      <c r="AF22" s="60"/>
       <c r="AG22" s="46"/>
-      <c r="AH22" s="54"/>
-      <c r="AI22" s="53"/>
+      <c r="AH22" s="56"/>
+      <c r="AI22" s="60"/>
       <c r="AJ22" s="46"/>
-      <c r="AK22" s="54" t="s">
-        <v>85</v>
+      <c r="AK22" s="56" t="s">
+        <v>84</v>
       </c>
-      <c r="AL22" s="53"/>
-      <c r="AM22" s="53"/>
-      <c r="AN22" s="53"/>
-      <c r="AO22" s="53"/>
-      <c r="AP22" s="53"/>
-      <c r="AQ22" s="53"/>
-      <c r="AR22" s="53"/>
-      <c r="AS22" s="53"/>
-      <c r="AT22" s="53"/>
-      <c r="AU22" s="53"/>
-      <c r="AV22" s="53"/>
-      <c r="AW22" s="53"/>
-      <c r="AX22" s="53"/>
-      <c r="AY22" s="53"/>
-      <c r="AZ22" s="53"/>
-      <c r="BA22" s="53"/>
-      <c r="BB22" s="53"/>
-      <c r="BC22" s="53"/>
-      <c r="BD22" s="53"/>
-      <c r="BE22" s="53"/>
-      <c r="BF22" s="53"/>
-      <c r="BG22" s="53"/>
-      <c r="BH22" s="53"/>
-      <c r="BI22" s="53"/>
-      <c r="BJ22" s="53"/>
-      <c r="BK22" s="53"/>
-      <c r="BL22" s="53"/>
-      <c r="BM22" s="53"/>
-      <c r="BN22" s="53"/>
+      <c r="AL22" s="60"/>
+      <c r="AM22" s="60"/>
+      <c r="AN22" s="60"/>
+      <c r="AO22" s="60"/>
+      <c r="AP22" s="60"/>
+      <c r="AQ22" s="60"/>
+      <c r="AR22" s="60"/>
+      <c r="AS22" s="60"/>
+      <c r="AT22" s="60"/>
+      <c r="AU22" s="60"/>
+      <c r="AV22" s="60"/>
+      <c r="AW22" s="60"/>
+      <c r="AX22" s="60"/>
+      <c r="AY22" s="60"/>
+      <c r="AZ22" s="60"/>
+      <c r="BA22" s="60"/>
+      <c r="BB22" s="60"/>
+      <c r="BC22" s="60"/>
+      <c r="BD22" s="60"/>
+      <c r="BE22" s="60"/>
+      <c r="BF22" s="60"/>
+      <c r="BG22" s="60"/>
+      <c r="BH22" s="60"/>
+      <c r="BI22" s="60"/>
+      <c r="BJ22" s="60"/>
+      <c r="BK22" s="60"/>
+      <c r="BL22" s="60"/>
+      <c r="BM22" s="60"/>
+      <c r="BN22" s="60"/>
       <c r="BO22" s="46"/>
       <c r="BP22" s="2"/>
     </row>
@@ -13843,73 +13847,73 @@
       <c r="A23" s="2"/>
       <c r="B23" s="37"/>
       <c r="C23" s="38"/>
-      <c r="D23" s="55" t="s">
-        <v>86</v>
+      <c r="D23" s="52" t="s">
+        <v>85</v>
       </c>
-      <c r="E23" s="51"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="51"/>
-      <c r="J23" s="51"/>
-      <c r="K23" s="51"/>
-      <c r="L23" s="51"/>
-      <c r="M23" s="51"/>
-      <c r="N23" s="51"/>
-      <c r="O23" s="51"/>
-      <c r="P23" s="52"/>
-      <c r="Q23" s="54" t="s">
-        <v>179</v>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="53"/>
+      <c r="K23" s="53"/>
+      <c r="L23" s="53"/>
+      <c r="M23" s="53"/>
+      <c r="N23" s="53"/>
+      <c r="O23" s="53"/>
+      <c r="P23" s="54"/>
+      <c r="Q23" s="56" t="s">
+        <v>178</v>
       </c>
-      <c r="R23" s="53"/>
-      <c r="S23" s="53"/>
-      <c r="T23" s="53"/>
-      <c r="U23" s="53"/>
-      <c r="V23" s="53"/>
+      <c r="R23" s="60"/>
+      <c r="S23" s="60"/>
+      <c r="T23" s="60"/>
+      <c r="U23" s="60"/>
+      <c r="V23" s="60"/>
       <c r="W23" s="46"/>
-      <c r="X23" s="54"/>
-      <c r="Y23" s="53"/>
-      <c r="Z23" s="53"/>
-      <c r="AA23" s="53"/>
-      <c r="AB23" s="53"/>
-      <c r="AC23" s="53"/>
+      <c r="X23" s="56"/>
+      <c r="Y23" s="60"/>
+      <c r="Z23" s="60"/>
+      <c r="AA23" s="60"/>
+      <c r="AB23" s="60"/>
+      <c r="AC23" s="60"/>
       <c r="AD23" s="46"/>
-      <c r="AE23" s="55"/>
-      <c r="AF23" s="53"/>
+      <c r="AE23" s="52"/>
+      <c r="AF23" s="60"/>
       <c r="AG23" s="46"/>
-      <c r="AH23" s="54"/>
-      <c r="AI23" s="53"/>
+      <c r="AH23" s="56"/>
+      <c r="AI23" s="60"/>
       <c r="AJ23" s="46"/>
-      <c r="AK23" s="54"/>
-      <c r="AL23" s="53"/>
-      <c r="AM23" s="53"/>
-      <c r="AN23" s="53"/>
-      <c r="AO23" s="53"/>
-      <c r="AP23" s="53"/>
-      <c r="AQ23" s="53"/>
-      <c r="AR23" s="53"/>
-      <c r="AS23" s="53"/>
-      <c r="AT23" s="53"/>
-      <c r="AU23" s="53"/>
-      <c r="AV23" s="53"/>
-      <c r="AW23" s="53"/>
-      <c r="AX23" s="53"/>
-      <c r="AY23" s="53"/>
-      <c r="AZ23" s="53"/>
-      <c r="BA23" s="53"/>
-      <c r="BB23" s="53"/>
-      <c r="BC23" s="53"/>
-      <c r="BD23" s="53"/>
-      <c r="BE23" s="53"/>
-      <c r="BF23" s="53"/>
-      <c r="BG23" s="53"/>
-      <c r="BH23" s="53"/>
-      <c r="BI23" s="53"/>
-      <c r="BJ23" s="53"/>
-      <c r="BK23" s="53"/>
-      <c r="BL23" s="53"/>
-      <c r="BM23" s="53"/>
-      <c r="BN23" s="53"/>
+      <c r="AK23" s="56"/>
+      <c r="AL23" s="60"/>
+      <c r="AM23" s="60"/>
+      <c r="AN23" s="60"/>
+      <c r="AO23" s="60"/>
+      <c r="AP23" s="60"/>
+      <c r="AQ23" s="60"/>
+      <c r="AR23" s="60"/>
+      <c r="AS23" s="60"/>
+      <c r="AT23" s="60"/>
+      <c r="AU23" s="60"/>
+      <c r="AV23" s="60"/>
+      <c r="AW23" s="60"/>
+      <c r="AX23" s="60"/>
+      <c r="AY23" s="60"/>
+      <c r="AZ23" s="60"/>
+      <c r="BA23" s="60"/>
+      <c r="BB23" s="60"/>
+      <c r="BC23" s="60"/>
+      <c r="BD23" s="60"/>
+      <c r="BE23" s="60"/>
+      <c r="BF23" s="60"/>
+      <c r="BG23" s="60"/>
+      <c r="BH23" s="60"/>
+      <c r="BI23" s="60"/>
+      <c r="BJ23" s="60"/>
+      <c r="BK23" s="60"/>
+      <c r="BL23" s="60"/>
+      <c r="BM23" s="60"/>
+      <c r="BN23" s="60"/>
       <c r="BO23" s="46"/>
       <c r="BP23" s="2"/>
     </row>
@@ -14128,51 +14132,51 @@
     </row>
     <row r="27" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A27" s="5"/>
-      <c r="B27" s="63" t="s">
+      <c r="B27" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="65" t="s">
+      <c r="C27" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="D27" s="66"/>
-      <c r="E27" s="66"/>
-      <c r="F27" s="66"/>
-      <c r="G27" s="66"/>
-      <c r="H27" s="66"/>
-      <c r="I27" s="66"/>
-      <c r="J27" s="66"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="63"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="63"/>
+      <c r="J27" s="63"/>
       <c r="K27" s="67"/>
-      <c r="L27" s="65" t="s">
+      <c r="L27" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="M27" s="66"/>
-      <c r="N27" s="66"/>
-      <c r="O27" s="66"/>
-      <c r="P27" s="66"/>
-      <c r="Q27" s="66"/>
-      <c r="R27" s="66"/>
-      <c r="S27" s="66"/>
-      <c r="T27" s="66"/>
-      <c r="U27" s="66"/>
-      <c r="V27" s="66"/>
-      <c r="W27" s="66"/>
-      <c r="X27" s="66"/>
-      <c r="Y27" s="66"/>
-      <c r="Z27" s="66"/>
-      <c r="AA27" s="66"/>
+      <c r="M27" s="63"/>
+      <c r="N27" s="63"/>
+      <c r="O27" s="63"/>
+      <c r="P27" s="63"/>
+      <c r="Q27" s="63"/>
+      <c r="R27" s="63"/>
+      <c r="S27" s="63"/>
+      <c r="T27" s="63"/>
+      <c r="U27" s="63"/>
+      <c r="V27" s="63"/>
+      <c r="W27" s="63"/>
+      <c r="X27" s="63"/>
+      <c r="Y27" s="63"/>
+      <c r="Z27" s="63"/>
+      <c r="AA27" s="63"/>
       <c r="AB27" s="67"/>
-      <c r="AC27" s="65" t="s">
+      <c r="AC27" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="AD27" s="66"/>
-      <c r="AE27" s="66"/>
-      <c r="AF27" s="66"/>
-      <c r="AG27" s="66"/>
-      <c r="AH27" s="66"/>
-      <c r="AI27" s="66"/>
-      <c r="AJ27" s="66"/>
+      <c r="AD27" s="63"/>
+      <c r="AE27" s="63"/>
+      <c r="AF27" s="63"/>
+      <c r="AG27" s="63"/>
+      <c r="AH27" s="63"/>
+      <c r="AI27" s="63"/>
+      <c r="AJ27" s="63"/>
       <c r="AK27" s="67"/>
-      <c r="AL27" s="79" t="s">
+      <c r="AL27" s="64" t="s">
         <v>12</v>
       </c>
       <c r="AM27" s="45"/>
@@ -14208,7 +14212,7 @@
     </row>
     <row r="28" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A28" s="5"/>
-      <c r="B28" s="64"/>
+      <c r="B28" s="70"/>
       <c r="C28" s="68"/>
       <c r="D28" s="69"/>
       <c r="E28" s="69"/>
@@ -14217,7 +14221,7 @@
       <c r="H28" s="69"/>
       <c r="I28" s="69"/>
       <c r="J28" s="69"/>
-      <c r="K28" s="64"/>
+      <c r="K28" s="70"/>
       <c r="L28" s="68"/>
       <c r="M28" s="69"/>
       <c r="N28" s="69"/>
@@ -14234,7 +14238,7 @@
       <c r="Y28" s="69"/>
       <c r="Z28" s="69"/>
       <c r="AA28" s="69"/>
-      <c r="AB28" s="64"/>
+      <c r="AB28" s="70"/>
       <c r="AC28" s="68"/>
       <c r="AD28" s="69"/>
       <c r="AE28" s="69"/>
@@ -14243,8 +14247,8 @@
       <c r="AH28" s="69"/>
       <c r="AI28" s="69"/>
       <c r="AJ28" s="69"/>
-      <c r="AK28" s="64"/>
-      <c r="AL28" s="77" t="s">
+      <c r="AK28" s="70"/>
+      <c r="AL28" s="65" t="s">
         <v>13</v>
       </c>
       <c r="AM28" s="45"/>
@@ -14255,14 +14259,14 @@
       <c r="AR28" s="45"/>
       <c r="AS28" s="45"/>
       <c r="AT28" s="46"/>
-      <c r="AU28" s="77" t="s">
+      <c r="AU28" s="65" t="s">
         <v>14</v>
       </c>
       <c r="AV28" s="45"/>
       <c r="AW28" s="45"/>
       <c r="AX28" s="45"/>
       <c r="AY28" s="46"/>
-      <c r="AZ28" s="77" t="s">
+      <c r="AZ28" s="65" t="s">
         <v>15</v>
       </c>
       <c r="BA28" s="45"/>
@@ -14288,8 +14292,8 @@
         <f ca="1">MAX(B$27:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>1</v>
       </c>
-      <c r="C29" s="55" t="s">
-        <v>140</v>
+      <c r="C29" s="52" t="s">
+        <v>139</v>
       </c>
       <c r="D29" s="45"/>
       <c r="E29" s="45"/>
@@ -14299,7 +14303,7 @@
       <c r="I29" s="45"/>
       <c r="J29" s="45"/>
       <c r="K29" s="46"/>
-      <c r="L29" s="70"/>
+      <c r="L29" s="78"/>
       <c r="M29" s="69"/>
       <c r="N29" s="69"/>
       <c r="O29" s="69"/>
@@ -14316,8 +14320,8 @@
       <c r="Z29" s="69"/>
       <c r="AA29" s="69"/>
       <c r="AB29" s="69"/>
-      <c r="AC29" s="55" t="s">
-        <v>142</v>
+      <c r="AC29" s="52" t="s">
+        <v>141</v>
       </c>
       <c r="AD29" s="45"/>
       <c r="AE29" s="45"/>
@@ -14327,40 +14331,40 @@
       <c r="AI29" s="45"/>
       <c r="AJ29" s="45"/>
       <c r="AK29" s="46"/>
-      <c r="AL29" s="97" t="s">
-        <v>141</v>
+      <c r="AL29" s="81" t="s">
+        <v>140</v>
       </c>
-      <c r="AM29" s="98"/>
-      <c r="AN29" s="98"/>
-      <c r="AO29" s="98"/>
-      <c r="AP29" s="98"/>
-      <c r="AQ29" s="98"/>
-      <c r="AR29" s="98"/>
-      <c r="AS29" s="98"/>
-      <c r="AT29" s="99"/>
-      <c r="AU29" s="61"/>
+      <c r="AM29" s="82"/>
+      <c r="AN29" s="82"/>
+      <c r="AO29" s="82"/>
+      <c r="AP29" s="82"/>
+      <c r="AQ29" s="82"/>
+      <c r="AR29" s="82"/>
+      <c r="AS29" s="82"/>
+      <c r="AT29" s="83"/>
+      <c r="AU29" s="71"/>
       <c r="AV29" s="45"/>
       <c r="AW29" s="45"/>
       <c r="AX29" s="45"/>
       <c r="AY29" s="46"/>
-      <c r="AZ29" s="81" t="s">
-        <v>143</v>
+      <c r="AZ29" s="97" t="s">
+        <v>142</v>
       </c>
-      <c r="BA29" s="82"/>
-      <c r="BB29" s="82"/>
-      <c r="BC29" s="82"/>
-      <c r="BD29" s="82"/>
-      <c r="BE29" s="82"/>
-      <c r="BF29" s="82"/>
-      <c r="BG29" s="82"/>
-      <c r="BH29" s="82"/>
-      <c r="BI29" s="82"/>
-      <c r="BJ29" s="82"/>
-      <c r="BK29" s="82"/>
-      <c r="BL29" s="82"/>
-      <c r="BM29" s="82"/>
-      <c r="BN29" s="82"/>
-      <c r="BO29" s="83"/>
+      <c r="BA29" s="98"/>
+      <c r="BB29" s="98"/>
+      <c r="BC29" s="98"/>
+      <c r="BD29" s="98"/>
+      <c r="BE29" s="98"/>
+      <c r="BF29" s="98"/>
+      <c r="BG29" s="98"/>
+      <c r="BH29" s="98"/>
+      <c r="BI29" s="98"/>
+      <c r="BJ29" s="98"/>
+      <c r="BK29" s="98"/>
+      <c r="BL29" s="98"/>
+      <c r="BM29" s="98"/>
+      <c r="BN29" s="98"/>
+      <c r="BO29" s="99"/>
       <c r="BP29" s="2"/>
     </row>
     <row r="30" spans="1:68" ht="16.5" outlineLevel="1">
@@ -14369,8 +14373,8 @@
         <f ca="1">MAX(B$27:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>2</v>
       </c>
-      <c r="C30" s="55" t="s">
-        <v>152</v>
+      <c r="C30" s="52" t="s">
+        <v>151</v>
       </c>
       <c r="D30" s="45"/>
       <c r="E30" s="45"/>
@@ -14380,8 +14384,8 @@
       <c r="I30" s="45"/>
       <c r="J30" s="45"/>
       <c r="K30" s="46"/>
-      <c r="L30" s="70" t="s">
-        <v>154</v>
+      <c r="L30" s="78" t="s">
+        <v>153</v>
       </c>
       <c r="M30" s="69"/>
       <c r="N30" s="69"/>
@@ -14399,7 +14403,7 @@
       <c r="Z30" s="69"/>
       <c r="AA30" s="69"/>
       <c r="AB30" s="69"/>
-      <c r="AC30" s="55"/>
+      <c r="AC30" s="52"/>
       <c r="AD30" s="45"/>
       <c r="AE30" s="45"/>
       <c r="AF30" s="45"/>
@@ -14408,7 +14412,7 @@
       <c r="AI30" s="45"/>
       <c r="AJ30" s="45"/>
       <c r="AK30" s="46"/>
-      <c r="AL30" s="61"/>
+      <c r="AL30" s="71"/>
       <c r="AM30" s="45"/>
       <c r="AN30" s="45"/>
       <c r="AO30" s="45"/>
@@ -14417,12 +14421,12 @@
       <c r="AR30" s="45"/>
       <c r="AS30" s="45"/>
       <c r="AT30" s="46"/>
-      <c r="AU30" s="61"/>
+      <c r="AU30" s="71"/>
       <c r="AV30" s="45"/>
       <c r="AW30" s="45"/>
       <c r="AX30" s="45"/>
       <c r="AY30" s="46"/>
-      <c r="AZ30" s="62"/>
+      <c r="AZ30" s="72"/>
       <c r="BA30" s="45"/>
       <c r="BB30" s="45"/>
       <c r="BC30" s="45"/>
@@ -14446,37 +14450,37 @@
         <f ca="1">MAX(B$27:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>3</v>
       </c>
-      <c r="C31" s="60" t="s">
+      <c r="C31" s="80" t="s">
+        <v>133</v>
+      </c>
+      <c r="D31" s="53"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="53"/>
+      <c r="H31" s="53"/>
+      <c r="I31" s="53"/>
+      <c r="J31" s="53"/>
+      <c r="K31" s="54"/>
+      <c r="L31" s="52" t="s">
         <v>134</v>
       </c>
-      <c r="D31" s="51"/>
-      <c r="E31" s="51"/>
-      <c r="F31" s="51"/>
-      <c r="G31" s="51"/>
-      <c r="H31" s="51"/>
-      <c r="I31" s="51"/>
-      <c r="J31" s="51"/>
-      <c r="K31" s="52"/>
-      <c r="L31" s="55" t="s">
-        <v>135</v>
-      </c>
-      <c r="M31" s="51"/>
-      <c r="N31" s="51"/>
-      <c r="O31" s="51"/>
-      <c r="P31" s="51"/>
-      <c r="Q31" s="51"/>
-      <c r="R31" s="51"/>
-      <c r="S31" s="51"/>
-      <c r="T31" s="51"/>
-      <c r="U31" s="51"/>
-      <c r="V31" s="51"/>
-      <c r="W31" s="51"/>
-      <c r="X31" s="51"/>
-      <c r="Y31" s="51"/>
-      <c r="Z31" s="51"/>
-      <c r="AA31" s="51"/>
-      <c r="AB31" s="52"/>
-      <c r="AC31" s="55"/>
+      <c r="M31" s="53"/>
+      <c r="N31" s="53"/>
+      <c r="O31" s="53"/>
+      <c r="P31" s="53"/>
+      <c r="Q31" s="53"/>
+      <c r="R31" s="53"/>
+      <c r="S31" s="53"/>
+      <c r="T31" s="53"/>
+      <c r="U31" s="53"/>
+      <c r="V31" s="53"/>
+      <c r="W31" s="53"/>
+      <c r="X31" s="53"/>
+      <c r="Y31" s="53"/>
+      <c r="Z31" s="53"/>
+      <c r="AA31" s="53"/>
+      <c r="AB31" s="54"/>
+      <c r="AC31" s="52"/>
       <c r="AD31" s="45"/>
       <c r="AE31" s="45"/>
       <c r="AF31" s="45"/>
@@ -14485,7 +14489,7 @@
       <c r="AI31" s="45"/>
       <c r="AJ31" s="45"/>
       <c r="AK31" s="46"/>
-      <c r="AL31" s="61"/>
+      <c r="AL31" s="71"/>
       <c r="AM31" s="45"/>
       <c r="AN31" s="45"/>
       <c r="AO31" s="45"/>
@@ -14494,12 +14498,12 @@
       <c r="AR31" s="45"/>
       <c r="AS31" s="45"/>
       <c r="AT31" s="46"/>
-      <c r="AU31" s="61"/>
+      <c r="AU31" s="71"/>
       <c r="AV31" s="45"/>
       <c r="AW31" s="45"/>
       <c r="AX31" s="45"/>
       <c r="AY31" s="46"/>
-      <c r="AZ31" s="62"/>
+      <c r="AZ31" s="72"/>
       <c r="BA31" s="45"/>
       <c r="BB31" s="45"/>
       <c r="BC31" s="45"/>
@@ -14733,7 +14737,7 @@
     <row r="35" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A35" s="2"/>
       <c r="B35" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C35" s="34"/>
       <c r="D35" s="34"/>
@@ -14805,7 +14809,7 @@
     <row r="36" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
-      <c r="C36" s="72" t="s">
+      <c r="C36" s="74" t="s">
         <v>16</v>
       </c>
       <c r="D36" s="45"/>
@@ -14817,7 +14821,7 @@
       <c r="J36" s="45"/>
       <c r="K36" s="45"/>
       <c r="L36" s="46"/>
-      <c r="M36" s="72" t="s">
+      <c r="M36" s="74" t="s">
         <v>6</v>
       </c>
       <c r="N36" s="45"/>
@@ -14829,7 +14833,7 @@
       <c r="T36" s="45"/>
       <c r="U36" s="45"/>
       <c r="V36" s="46"/>
-      <c r="W36" s="72" t="s">
+      <c r="W36" s="74" t="s">
         <v>17</v>
       </c>
       <c r="X36" s="45"/>
@@ -14864,7 +14868,7 @@
       <c r="AY36" s="96"/>
       <c r="AZ36" s="96"/>
       <c r="BA36" s="67"/>
-      <c r="BB36" s="72" t="s">
+      <c r="BB36" s="74" t="s">
         <v>6</v>
       </c>
       <c r="BC36" s="45"/>
@@ -14885,8 +14889,8 @@
     <row r="37" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
-      <c r="C37" s="55" t="s">
-        <v>146</v>
+      <c r="C37" s="52" t="s">
+        <v>145</v>
       </c>
       <c r="D37" s="45"/>
       <c r="E37" s="45"/>
@@ -14897,7 +14901,7 @@
       <c r="J37" s="45"/>
       <c r="K37" s="45"/>
       <c r="L37" s="46"/>
-      <c r="M37" s="55"/>
+      <c r="M37" s="52"/>
       <c r="N37" s="45"/>
       <c r="O37" s="45"/>
       <c r="P37" s="45"/>
@@ -14907,7 +14911,7 @@
       <c r="T37" s="45"/>
       <c r="U37" s="45"/>
       <c r="V37" s="46"/>
-      <c r="W37" s="70"/>
+      <c r="W37" s="78"/>
       <c r="X37" s="69"/>
       <c r="Y37" s="69"/>
       <c r="Z37" s="69"/>
@@ -14925,23 +14929,23 @@
       <c r="AL37" s="69"/>
       <c r="AM37" s="69"/>
       <c r="AN37" s="69"/>
-      <c r="AO37" s="84"/>
-      <c r="AP37" s="85" t="s">
+      <c r="AO37" s="85"/>
+      <c r="AP37" s="92" t="s">
+        <v>143</v>
+      </c>
+      <c r="AQ37" s="93"/>
+      <c r="AR37" s="93"/>
+      <c r="AS37" s="93"/>
+      <c r="AT37" s="93"/>
+      <c r="AU37" s="93"/>
+      <c r="AV37" s="93"/>
+      <c r="AW37" s="93"/>
+      <c r="AX37" s="93"/>
+      <c r="AY37" s="93"/>
+      <c r="AZ37" s="93"/>
+      <c r="BA37" s="94"/>
+      <c r="BB37" s="84" t="s">
         <v>144</v>
-      </c>
-      <c r="AQ37" s="86"/>
-      <c r="AR37" s="86"/>
-      <c r="AS37" s="86"/>
-      <c r="AT37" s="86"/>
-      <c r="AU37" s="86"/>
-      <c r="AV37" s="86"/>
-      <c r="AW37" s="86"/>
-      <c r="AX37" s="86"/>
-      <c r="AY37" s="86"/>
-      <c r="AZ37" s="86"/>
-      <c r="BA37" s="87"/>
-      <c r="BB37" s="88" t="s">
-        <v>145</v>
       </c>
       <c r="BC37" s="45"/>
       <c r="BD37" s="45"/>
@@ -14961,7 +14965,7 @@
     <row r="38" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
-      <c r="C38" s="55"/>
+      <c r="C38" s="52"/>
       <c r="D38" s="45"/>
       <c r="E38" s="45"/>
       <c r="F38" s="45"/>
@@ -14971,7 +14975,7 @@
       <c r="J38" s="45"/>
       <c r="K38" s="45"/>
       <c r="L38" s="46"/>
-      <c r="M38" s="55"/>
+      <c r="M38" s="52"/>
       <c r="N38" s="45"/>
       <c r="O38" s="45"/>
       <c r="P38" s="45"/>
@@ -14981,8 +14985,8 @@
       <c r="T38" s="45"/>
       <c r="U38" s="45"/>
       <c r="V38" s="46"/>
-      <c r="W38" s="70" t="s">
-        <v>151</v>
+      <c r="W38" s="78" t="s">
+        <v>150</v>
       </c>
       <c r="X38" s="69"/>
       <c r="Y38" s="69"/>
@@ -15001,21 +15005,21 @@
       <c r="AL38" s="69"/>
       <c r="AM38" s="69"/>
       <c r="AN38" s="69"/>
-      <c r="AO38" s="84"/>
-      <c r="AP38" s="89"/>
-      <c r="AQ38" s="90"/>
-      <c r="AR38" s="90"/>
-      <c r="AS38" s="90"/>
-      <c r="AT38" s="90"/>
-      <c r="AU38" s="90"/>
-      <c r="AV38" s="90"/>
-      <c r="AW38" s="90"/>
-      <c r="AX38" s="90"/>
-      <c r="AY38" s="90"/>
-      <c r="AZ38" s="90"/>
-      <c r="BA38" s="91"/>
-      <c r="BB38" s="88" t="s">
-        <v>149</v>
+      <c r="AO38" s="85"/>
+      <c r="AP38" s="86"/>
+      <c r="AQ38" s="87"/>
+      <c r="AR38" s="87"/>
+      <c r="AS38" s="87"/>
+      <c r="AT38" s="87"/>
+      <c r="AU38" s="87"/>
+      <c r="AV38" s="87"/>
+      <c r="AW38" s="87"/>
+      <c r="AX38" s="87"/>
+      <c r="AY38" s="87"/>
+      <c r="AZ38" s="87"/>
+      <c r="BA38" s="88"/>
+      <c r="BB38" s="84" t="s">
+        <v>148</v>
       </c>
       <c r="BC38" s="45"/>
       <c r="BD38" s="45"/>
@@ -15035,7 +15039,7 @@
     <row r="39" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
-      <c r="C39" s="55"/>
+      <c r="C39" s="52"/>
       <c r="D39" s="45"/>
       <c r="E39" s="45"/>
       <c r="F39" s="45"/>
@@ -15045,7 +15049,7 @@
       <c r="J39" s="45"/>
       <c r="K39" s="45"/>
       <c r="L39" s="46"/>
-      <c r="M39" s="55"/>
+      <c r="M39" s="52"/>
       <c r="N39" s="45"/>
       <c r="O39" s="45"/>
       <c r="P39" s="45"/>
@@ -15055,7 +15059,7 @@
       <c r="T39" s="45"/>
       <c r="U39" s="45"/>
       <c r="V39" s="46"/>
-      <c r="W39" s="70"/>
+      <c r="W39" s="78"/>
       <c r="X39" s="69"/>
       <c r="Y39" s="69"/>
       <c r="Z39" s="69"/>
@@ -15073,21 +15077,21 @@
       <c r="AL39" s="69"/>
       <c r="AM39" s="69"/>
       <c r="AN39" s="69"/>
-      <c r="AO39" s="84"/>
-      <c r="AP39" s="89"/>
-      <c r="AQ39" s="90"/>
-      <c r="AR39" s="90"/>
-      <c r="AS39" s="90"/>
-      <c r="AT39" s="90"/>
-      <c r="AU39" s="90"/>
-      <c r="AV39" s="90"/>
-      <c r="AW39" s="90"/>
-      <c r="AX39" s="90"/>
-      <c r="AY39" s="90"/>
-      <c r="AZ39" s="90"/>
-      <c r="BA39" s="91"/>
-      <c r="BB39" s="88" t="s">
-        <v>150</v>
+      <c r="AO39" s="85"/>
+      <c r="AP39" s="86"/>
+      <c r="AQ39" s="87"/>
+      <c r="AR39" s="87"/>
+      <c r="AS39" s="87"/>
+      <c r="AT39" s="87"/>
+      <c r="AU39" s="87"/>
+      <c r="AV39" s="87"/>
+      <c r="AW39" s="87"/>
+      <c r="AX39" s="87"/>
+      <c r="AY39" s="87"/>
+      <c r="AZ39" s="87"/>
+      <c r="BA39" s="88"/>
+      <c r="BB39" s="84" t="s">
+        <v>149</v>
       </c>
       <c r="BC39" s="45"/>
       <c r="BD39" s="45"/>
@@ -15107,7 +15111,7 @@
     <row r="40" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
-      <c r="C40" s="55"/>
+      <c r="C40" s="52"/>
       <c r="D40" s="45"/>
       <c r="E40" s="45"/>
       <c r="F40" s="45"/>
@@ -15117,7 +15121,7 @@
       <c r="J40" s="45"/>
       <c r="K40" s="45"/>
       <c r="L40" s="46"/>
-      <c r="M40" s="55"/>
+      <c r="M40" s="52"/>
       <c r="N40" s="45"/>
       <c r="O40" s="45"/>
       <c r="P40" s="45"/>
@@ -15127,8 +15131,8 @@
       <c r="T40" s="45"/>
       <c r="U40" s="45"/>
       <c r="V40" s="46"/>
-      <c r="W40" s="70" t="s">
-        <v>148</v>
+      <c r="W40" s="78" t="s">
+        <v>147</v>
       </c>
       <c r="X40" s="69"/>
       <c r="Y40" s="69"/>
@@ -15147,21 +15151,21 @@
       <c r="AL40" s="69"/>
       <c r="AM40" s="69"/>
       <c r="AN40" s="69"/>
-      <c r="AO40" s="84"/>
-      <c r="AP40" s="92"/>
-      <c r="AQ40" s="93"/>
-      <c r="AR40" s="93"/>
-      <c r="AS40" s="93"/>
-      <c r="AT40" s="93"/>
-      <c r="AU40" s="93"/>
-      <c r="AV40" s="93"/>
-      <c r="AW40" s="93"/>
-      <c r="AX40" s="93"/>
-      <c r="AY40" s="93"/>
-      <c r="AZ40" s="93"/>
-      <c r="BA40" s="94"/>
-      <c r="BB40" s="88" t="s">
-        <v>147</v>
+      <c r="AO40" s="85"/>
+      <c r="AP40" s="89"/>
+      <c r="AQ40" s="90"/>
+      <c r="AR40" s="90"/>
+      <c r="AS40" s="90"/>
+      <c r="AT40" s="90"/>
+      <c r="AU40" s="90"/>
+      <c r="AV40" s="90"/>
+      <c r="AW40" s="90"/>
+      <c r="AX40" s="90"/>
+      <c r="AY40" s="90"/>
+      <c r="AZ40" s="90"/>
+      <c r="BA40" s="91"/>
+      <c r="BB40" s="84" t="s">
+        <v>146</v>
       </c>
       <c r="BC40" s="45"/>
       <c r="BD40" s="45"/>
@@ -16023,66 +16027,28 @@
     </row>
   </sheetData>
   <mergeCells count="106">
-    <mergeCell ref="AK23:BO23"/>
-    <mergeCell ref="Q22:W22"/>
-    <mergeCell ref="X22:AD22"/>
-    <mergeCell ref="AE22:AG22"/>
-    <mergeCell ref="AH22:AJ22"/>
-    <mergeCell ref="AK22:BO22"/>
-    <mergeCell ref="C21:P21"/>
-    <mergeCell ref="Q21:W21"/>
-    <mergeCell ref="X21:AD21"/>
-    <mergeCell ref="AE21:AG21"/>
-    <mergeCell ref="AH21:AJ21"/>
-    <mergeCell ref="D23:P23"/>
-    <mergeCell ref="AK21:BO21"/>
-    <mergeCell ref="Q23:W23"/>
-    <mergeCell ref="X23:AD23"/>
-    <mergeCell ref="AE23:AG23"/>
-    <mergeCell ref="AH23:AJ23"/>
-    <mergeCell ref="C30:K30"/>
-    <mergeCell ref="L30:AB30"/>
-    <mergeCell ref="AC30:AK30"/>
-    <mergeCell ref="AL30:AT30"/>
-    <mergeCell ref="AU30:AY30"/>
-    <mergeCell ref="AZ30:BO30"/>
-    <mergeCell ref="C29:K29"/>
-    <mergeCell ref="L29:AB29"/>
-    <mergeCell ref="AC29:AK29"/>
-    <mergeCell ref="AL29:AT29"/>
-    <mergeCell ref="AU29:AY29"/>
-    <mergeCell ref="BB40:BO40"/>
-    <mergeCell ref="C38:L38"/>
-    <mergeCell ref="M38:V38"/>
-    <mergeCell ref="W38:AO38"/>
-    <mergeCell ref="AP38:BA38"/>
-    <mergeCell ref="BB38:BO38"/>
-    <mergeCell ref="C39:L39"/>
-    <mergeCell ref="M39:V39"/>
-    <mergeCell ref="W39:AO39"/>
-    <mergeCell ref="AP39:BA39"/>
-    <mergeCell ref="BB39:BO39"/>
-    <mergeCell ref="C40:L40"/>
-    <mergeCell ref="M40:V40"/>
-    <mergeCell ref="W40:AO40"/>
-    <mergeCell ref="AP40:BA40"/>
-    <mergeCell ref="BB36:BO36"/>
-    <mergeCell ref="C37:L37"/>
-    <mergeCell ref="M37:V37"/>
-    <mergeCell ref="W37:AO37"/>
-    <mergeCell ref="AP37:BA37"/>
-    <mergeCell ref="BB37:BO37"/>
-    <mergeCell ref="C31:K31"/>
-    <mergeCell ref="L31:AB31"/>
-    <mergeCell ref="AC31:AK31"/>
-    <mergeCell ref="AL31:AT31"/>
-    <mergeCell ref="AU31:AY31"/>
-    <mergeCell ref="AZ31:BO31"/>
-    <mergeCell ref="C36:L36"/>
-    <mergeCell ref="M36:V36"/>
-    <mergeCell ref="W36:AO36"/>
-    <mergeCell ref="AP36:BA36"/>
-    <mergeCell ref="AZ29:BO29"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="I14:BO14"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="I10:BO10"/>
+    <mergeCell ref="AK20:BO20"/>
+    <mergeCell ref="C17:P17"/>
+    <mergeCell ref="Q17:W17"/>
+    <mergeCell ref="X17:AD17"/>
+    <mergeCell ref="AE17:AG17"/>
+    <mergeCell ref="AH17:AJ17"/>
+    <mergeCell ref="AK17:BO17"/>
+    <mergeCell ref="AK18:BO18"/>
+    <mergeCell ref="C18:P18"/>
+    <mergeCell ref="Q18:W18"/>
+    <mergeCell ref="X18:AD18"/>
+    <mergeCell ref="AE18:AG18"/>
+    <mergeCell ref="AH18:AJ18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="C20:P20"/>
+    <mergeCell ref="Q20:W20"/>
+    <mergeCell ref="X20:AD20"/>
+    <mergeCell ref="AE20:AG20"/>
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="C27:K28"/>
     <mergeCell ref="L27:AB28"/>
@@ -16107,28 +16073,66 @@
     <mergeCell ref="I12:BO12"/>
     <mergeCell ref="D13:H13"/>
     <mergeCell ref="I13:BO13"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="I14:BO14"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="I10:BO10"/>
-    <mergeCell ref="AK20:BO20"/>
-    <mergeCell ref="C17:P17"/>
-    <mergeCell ref="Q17:W17"/>
-    <mergeCell ref="X17:AD17"/>
-    <mergeCell ref="AE17:AG17"/>
-    <mergeCell ref="AH17:AJ17"/>
-    <mergeCell ref="AK17:BO17"/>
-    <mergeCell ref="AK18:BO18"/>
-    <mergeCell ref="C18:P18"/>
-    <mergeCell ref="Q18:W18"/>
-    <mergeCell ref="X18:AD18"/>
-    <mergeCell ref="AE18:AG18"/>
-    <mergeCell ref="AH18:AJ18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="C20:P20"/>
-    <mergeCell ref="Q20:W20"/>
-    <mergeCell ref="X20:AD20"/>
-    <mergeCell ref="AE20:AG20"/>
+    <mergeCell ref="BB36:BO36"/>
+    <mergeCell ref="C37:L37"/>
+    <mergeCell ref="M37:V37"/>
+    <mergeCell ref="W37:AO37"/>
+    <mergeCell ref="AP37:BA37"/>
+    <mergeCell ref="BB37:BO37"/>
+    <mergeCell ref="C31:K31"/>
+    <mergeCell ref="L31:AB31"/>
+    <mergeCell ref="AC31:AK31"/>
+    <mergeCell ref="AL31:AT31"/>
+    <mergeCell ref="AU31:AY31"/>
+    <mergeCell ref="AZ31:BO31"/>
+    <mergeCell ref="C36:L36"/>
+    <mergeCell ref="M36:V36"/>
+    <mergeCell ref="W36:AO36"/>
+    <mergeCell ref="AP36:BA36"/>
+    <mergeCell ref="BB40:BO40"/>
+    <mergeCell ref="C38:L38"/>
+    <mergeCell ref="M38:V38"/>
+    <mergeCell ref="W38:AO38"/>
+    <mergeCell ref="AP38:BA38"/>
+    <mergeCell ref="BB38:BO38"/>
+    <mergeCell ref="C39:L39"/>
+    <mergeCell ref="M39:V39"/>
+    <mergeCell ref="W39:AO39"/>
+    <mergeCell ref="AP39:BA39"/>
+    <mergeCell ref="BB39:BO39"/>
+    <mergeCell ref="C40:L40"/>
+    <mergeCell ref="M40:V40"/>
+    <mergeCell ref="W40:AO40"/>
+    <mergeCell ref="AP40:BA40"/>
+    <mergeCell ref="C30:K30"/>
+    <mergeCell ref="L30:AB30"/>
+    <mergeCell ref="AC30:AK30"/>
+    <mergeCell ref="AL30:AT30"/>
+    <mergeCell ref="AU30:AY30"/>
+    <mergeCell ref="AZ30:BO30"/>
+    <mergeCell ref="C29:K29"/>
+    <mergeCell ref="L29:AB29"/>
+    <mergeCell ref="AC29:AK29"/>
+    <mergeCell ref="AL29:AT29"/>
+    <mergeCell ref="AU29:AY29"/>
+    <mergeCell ref="AZ29:BO29"/>
+    <mergeCell ref="AK23:BO23"/>
+    <mergeCell ref="Q22:W22"/>
+    <mergeCell ref="X22:AD22"/>
+    <mergeCell ref="AE22:AG22"/>
+    <mergeCell ref="AH22:AJ22"/>
+    <mergeCell ref="AK22:BO22"/>
+    <mergeCell ref="C21:P21"/>
+    <mergeCell ref="Q21:W21"/>
+    <mergeCell ref="X21:AD21"/>
+    <mergeCell ref="AE21:AG21"/>
+    <mergeCell ref="AH21:AJ21"/>
+    <mergeCell ref="D23:P23"/>
+    <mergeCell ref="AK21:BO21"/>
+    <mergeCell ref="Q23:W23"/>
+    <mergeCell ref="X23:AD23"/>
+    <mergeCell ref="AE23:AG23"/>
+    <mergeCell ref="AH23:AJ23"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <dataValidations count="1">
@@ -16301,7 +16305,7 @@
     <row r="7" spans="1:9" ht="16.5">
       <c r="A7" s="27"/>
       <c r="B7" s="27" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
@@ -16535,7 +16539,7 @@
     <row r="25" spans="1:9" ht="16.5">
       <c r="A25" s="27"/>
       <c r="B25" s="27" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C25" s="27"/>
       <c r="D25" s="27"/>
